--- a/src/test/resources/initialData.xlsx
+++ b/src/test/resources/initialData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scep\Documents\NetBeansProjects\eUmzug_Kanton_Bern_2018\Gebaeude_und_Wohnungsregister_2018\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC33136-75B9-4599-BC64-253EE2330F89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328C6C0F-C4C0-4910-88D0-E637D0EF050F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="GWR_SQL" sheetId="4" r:id="rId2"/>
     <sheet name="PLZ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3573,7 +3574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:E468" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -15003,8 +15004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G929" sqref="G2:G929"/>
+    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
+      <selection activeCell="G929" sqref="G929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15057,8 +15058,8 @@
         <v>2</v>
       </c>
       <c r="G2" s="15" t="str">
-        <f ca="1">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B2,",'",E2,"',",C2,",'",D2,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A2,B2,"123456789',4,'Süd',2,3100,",B2,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A2,B2,"123456780',6,'Mitte',1,3103,",B2,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(1,'1',1595,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB1123456789',4,'Süd',2,3100,1);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB1123456780',6,'Mitte',1,3103,1);</v>
+        <f ca="1">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B2,",'",E2,"',",C2,",'",D2,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A2,B2,"123456789',4,'Süd',2,3100,",B2,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A2,B2,"123456780',6,'Mitte',1,3103,",B2,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(1,'1',1595,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'AB1123456789',4,'Süd',2,3100,1);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'AB1123456780',6,'Mitte',1,3103,1);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15104,8 +15105,8 @@
         <v>3</v>
       </c>
       <c r="G4" s="15" t="str">
-        <f t="shared" ref="G4:G67" ca="1" si="0">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B4,",'",E4,"',",C4,",'",D4,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A4,B4,"123456789',4,'Süd',2,3100,",B4,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A4,B4,"123456780',6,'Mitte',1,3103,",B4,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(3,'1',1657,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB3123456789',4,'Süd',2,3100,3);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB3123456780',6,'Mitte',1,3103,3);</v>
+        <f t="shared" ref="G4:G67" ca="1" si="0">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B4,",'",E4,"',",C4,",'",D4,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A4,B4,"123456789',4,'Süd',2,3100,",B4,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A4,B4,"123456780',6,'Mitte',1,3103,",B4,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(3,'1',1657,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'AB3123456789',4,'Süd',2,3100,3);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'AB3123456780',6,'Mitte',1,3103,3);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15151,8 +15152,8 @@
         <v>4</v>
       </c>
       <c r="G6" s="15" t="str">
-        <f t="shared" ref="G6:G69" ca="1" si="3">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B6,",'",E6,"',",C6,",'",D6,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A6,B6,"123456789',4,'Süd',2,3100,",B6,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A6,B6,"123456780',6,'Mitte',1,3103,",B6,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(5,'1',1738,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB5123456789',4,'Süd',2,3100,5);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB5123456780',6,'Mitte',1,3103,5);</v>
+        <f t="shared" ref="G6:G69" ca="1" si="3">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B6,",'",E6,"',",C6,",'",D6,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A6,B6,"123456789',4,'Süd',2,3100,",B6,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A6,B6,"123456780',6,'Mitte',1,3103,",B6,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(5,'1',1738,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'AB5123456789',4,'Süd',2,3100,5);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'AB5123456780',6,'Mitte',1,3103,5);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15198,8 +15199,8 @@
         <v>5</v>
       </c>
       <c r="G8" s="15" t="str">
-        <f t="shared" ref="G8:G71" ca="1" si="7">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B8,",'",E8,"',",C8,",'",D8,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A8,B8,"123456789',4,'Süd',2,3100,",B8,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A8,B8,"123456780',6,'Mitte',1,3103,",B8,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(7,'1',1797,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB7123456789',4,'Süd',2,3100,7);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB7123456780',6,'Mitte',1,3103,7);</v>
+        <f t="shared" ref="G8:G71" ca="1" si="7">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B8,",'",E8,"',",C8,",'",D8,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A8,B8,"123456789',4,'Süd',2,3100,",B8,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A8,B8,"123456780',6,'Mitte',1,3103,",B8,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(7,'1',1797,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'AB7123456789',4,'Süd',2,3100,7);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'AB7123456780',6,'Mitte',1,3103,7);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15245,8 +15246,8 @@
         <v>6</v>
       </c>
       <c r="G10" s="15" t="str">
-        <f t="shared" ref="G10:G73" ca="1" si="11">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B10,",'",E10,"',",C10,",'",D10,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A10,B10,"123456789',4,'Süd',2,3100,",B10,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A10,B10,"123456780',6,'Mitte',1,3103,",B10,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(9,'1',2333,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB9123456789',4,'Süd',2,3100,9);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('AB9123456780',6,'Mitte',1,3103,9);</v>
+        <f t="shared" ref="G10:G73" ca="1" si="11">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B10,",'",E10,"',",C10,",'",D10,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A10,B10,"123456789',4,'Süd',2,3100,",B10,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A10,B10,"123456780',6,'Mitte',1,3103,",B10,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(9,'1',2333,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'AB9123456789',4,'Süd',2,3100,9);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'AB9123456780',6,'Mitte',1,3103,9);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15292,8 +15293,8 @@
         <v>7</v>
       </c>
       <c r="G12" s="15" t="str">
-        <f t="shared" ref="G12:G75" ca="1" si="15">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B12,",'",E12,"',",C12,",'",D12,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A12,B12,"123456789',4,'Süd',2,3100,",B12,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A12,B12,"123456780',6,'Mitte',1,3103,",B12,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(11,'1',2500,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A11123456789',4,'Süd',2,3100,11);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A11123456780',6,'Mitte',1,3103,11);</v>
+        <f t="shared" ref="G12:G75" ca="1" si="15">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B12,",'",E12,"',",C12,",'",D12,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A12,B12,"123456789',4,'Süd',2,3100,",B12,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A12,B12,"123456780',6,'Mitte',1,3103,",B12,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(11,'1',2500,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A11123456789',4,'Süd',2,3100,11);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A11123456780',6,'Mitte',1,3103,11);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15339,8 +15340,8 @@
         <v>8</v>
       </c>
       <c r="G14" s="15" t="str">
-        <f t="shared" ref="G14:G77" ca="1" si="19">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B14,",'",E14,"',",C14,",'",D14,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A14,B14,"123456789',4,'Süd',2,3100,",B14,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A14,B14,"123456780',6,'Mitte',1,3103,",B14,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(13,'1',2502,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A13123456789',4,'Süd',2,3100,13);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A13123456780',6,'Mitte',1,3103,13);</v>
+        <f t="shared" ref="G14:G77" ca="1" si="19">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B14,",'",E14,"',",C14,",'",D14,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A14,B14,"123456789',4,'Süd',2,3100,",B14,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A14,B14,"123456780',6,'Mitte',1,3103,",B14,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(13,'1',2502,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A13123456789',4,'Süd',2,3100,13);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A13123456780',6,'Mitte',1,3103,13);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15386,8 +15387,8 @@
         <v>9</v>
       </c>
       <c r="G16" s="15" t="str">
-        <f t="shared" ref="G16:G79" ca="1" si="23">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B16,",'",E16,"',",C16,",'",D16,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A16,B16,"123456789',4,'Süd',2,3100,",B16,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A16,B16,"123456780',6,'Mitte',1,3103,",B16,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(15,'1',2503,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A15123456789',4,'Süd',2,3100,15);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A15123456780',6,'Mitte',1,3103,15);</v>
+        <f t="shared" ref="G16:G79" ca="1" si="23">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B16,",'",E16,"',",C16,",'",D16,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A16,B16,"123456789',4,'Süd',2,3100,",B16,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A16,B16,"123456780',6,'Mitte',1,3103,",B16,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(15,'1',2503,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A15123456789',4,'Süd',2,3100,15);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A15123456780',6,'Mitte',1,3103,15);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -15433,8 +15434,8 @@
         <v>10</v>
       </c>
       <c r="G18" s="15" t="str">
-        <f t="shared" ref="G18:G81" ca="1" si="27">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B18,",'",E18,"',",C18,",'",D18,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A18,B18,"123456789',4,'Süd',2,3100,",B18,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A18,B18,"123456780',6,'Mitte',1,3103,",B18,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(17,'1',2504,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A17123456789',4,'Süd',2,3100,17);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A17123456780',6,'Mitte',1,3103,17);</v>
+        <f t="shared" ref="G18:G81" ca="1" si="27">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B18,",'",E18,"',",C18,",'",D18,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A18,B18,"123456789',4,'Süd',2,3100,",B18,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A18,B18,"123456780',6,'Mitte',1,3103,",B18,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(17,'1',2504,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A17123456789',4,'Süd',2,3100,17);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A17123456780',6,'Mitte',1,3103,17);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -15480,8 +15481,8 @@
         <v>11</v>
       </c>
       <c r="G20" s="15" t="str">
-        <f t="shared" ref="G20:G83" ca="1" si="31">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B20,",'",E20,"',",C20,",'",D20,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A20,B20,"123456789',4,'Süd',2,3100,",B20,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A20,B20,"123456780',6,'Mitte',1,3103,",B20,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(19,'1',2505,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A19123456789',4,'Süd',2,3100,19);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A19123456780',6,'Mitte',1,3103,19);</v>
+        <f t="shared" ref="G20:G83" ca="1" si="31">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B20,",'",E20,"',",C20,",'",D20,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A20,B20,"123456789',4,'Süd',2,3100,",B20,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A20,B20,"123456780',6,'Mitte',1,3103,",B20,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(19,'1',2505,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A19123456789',4,'Süd',2,3100,19);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A19123456780',6,'Mitte',1,3103,19);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -15527,8 +15528,8 @@
         <v>12</v>
       </c>
       <c r="G22" s="15" t="str">
-        <f t="shared" ref="G22:G85" ca="1" si="35">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B22,",'",E22,"',",C22,",'",D22,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A22,B22,"123456789',4,'Süd',2,3100,",B22,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A22,B22,"123456780',6,'Mitte',1,3103,",B22,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(21,'1',2512,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A21123456789',4,'Süd',2,3100,21);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A21123456780',6,'Mitte',1,3103,21);</v>
+        <f t="shared" ref="G22:G85" ca="1" si="35">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B22,",'",E22,"',",C22,",'",D22,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A22,B22,"123456789',4,'Süd',2,3100,",B22,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A22,B22,"123456780',6,'Mitte',1,3103,",B22,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(21,'1',2512,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A21123456789',4,'Süd',2,3100,21);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A21123456780',6,'Mitte',1,3103,21);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -15574,8 +15575,8 @@
         <v>13</v>
       </c>
       <c r="G24" s="15" t="str">
-        <f t="shared" ref="G24:G87" ca="1" si="39">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B24,",'",E24,"',",C24,",'",D24,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A24,B24,"123456789',4,'Süd',2,3100,",B24,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A24,B24,"123456780',6,'Mitte',1,3103,",B24,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(23,'1',2513,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A23123456789',4,'Süd',2,3100,23);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A23123456780',6,'Mitte',1,3103,23);</v>
+        <f t="shared" ref="G24:G87" ca="1" si="39">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B24,",'",E24,"',",C24,",'",D24,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A24,B24,"123456789',4,'Süd',2,3100,",B24,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A24,B24,"123456780',6,'Mitte',1,3103,",B24,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(23,'1',2513,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A23123456789',4,'Süd',2,3100,23);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A23123456780',6,'Mitte',1,3103,23);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -15621,8 +15622,8 @@
         <v>14</v>
       </c>
       <c r="G26" s="15" t="str">
-        <f t="shared" ref="G26:G89" ca="1" si="43">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B26,",'",E26,"',",C26,",'",D26,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A26,B26,"123456789',4,'Süd',2,3100,",B26,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A26,B26,"123456780',6,'Mitte',1,3103,",B26,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(25,'1',2514,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A25123456789',4,'Süd',2,3100,25);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A25123456780',6,'Mitte',1,3103,25);</v>
+        <f t="shared" ref="G26:G89" ca="1" si="43">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B26,",'",E26,"',",C26,",'",D26,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A26,B26,"123456789',4,'Süd',2,3100,",B26,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A26,B26,"123456780',6,'Mitte',1,3103,",B26,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(25,'1',2514,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A25123456789',4,'Süd',2,3100,25);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A25123456780',6,'Mitte',1,3103,25);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -15668,8 +15669,8 @@
         <v>15</v>
       </c>
       <c r="G28" s="15" t="str">
-        <f t="shared" ref="G28:G91" ca="1" si="47">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B28,",'",E28,"',",C28,",'",D28,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A28,B28,"123456789',4,'Süd',2,3100,",B28,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A28,B28,"123456780',6,'Mitte',1,3103,",B28,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(27,'1',2515,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A27123456789',4,'Süd',2,3100,27);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A27123456780',6,'Mitte',1,3103,27);</v>
+        <f t="shared" ref="G28:G91" ca="1" si="47">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B28,",'",E28,"',",C28,",'",D28,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A28,B28,"123456789',4,'Süd',2,3100,",B28,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A28,B28,"123456780',6,'Mitte',1,3103,",B28,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(27,'1',2515,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A27123456789',4,'Süd',2,3100,27);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A27123456780',6,'Mitte',1,3103,27);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -15715,8 +15716,8 @@
         <v>16</v>
       </c>
       <c r="G30" s="15" t="str">
-        <f t="shared" ref="G30:G93" ca="1" si="51">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B30,",'",E30,"',",C30,",'",D30,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A30,B30,"123456789',4,'Süd',2,3100,",B30,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A30,B30,"123456780',6,'Mitte',1,3103,",B30,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(29,'1',2516,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A29123456789',4,'Süd',2,3100,29);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A29123456780',6,'Mitte',1,3103,29);</v>
+        <f t="shared" ref="G30:G93" ca="1" si="51">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B30,",'",E30,"',",C30,",'",D30,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A30,B30,"123456789',4,'Süd',2,3100,",B30,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A30,B30,"123456780',6,'Mitte',1,3103,",B30,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(29,'1',2516,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A29123456789',4,'Süd',2,3100,29);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A29123456780',6,'Mitte',1,3103,29);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -15762,8 +15763,8 @@
         <v>17</v>
       </c>
       <c r="G32" s="15" t="str">
-        <f t="shared" ref="G32:G95" ca="1" si="55">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B32,",'",E32,"',",C32,",'",D32,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A32,B32,"123456789',4,'Süd',2,3100,",B32,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A32,B32,"123456780',6,'Mitte',1,3103,",B32,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(31,'1',2517,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A31123456789',4,'Süd',2,3100,31);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A31123456780',6,'Mitte',1,3103,31);</v>
+        <f t="shared" ref="G32:G95" ca="1" si="55">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B32,",'",E32,"',",C32,",'",D32,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A32,B32,"123456789',4,'Süd',2,3100,",B32,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A32,B32,"123456780',6,'Mitte',1,3103,",B32,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(31,'1',2517,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A31123456789',4,'Süd',2,3100,31);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A31123456780',6,'Mitte',1,3103,31);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -15809,8 +15810,8 @@
         <v>18</v>
       </c>
       <c r="G34" s="15" t="str">
-        <f t="shared" ref="G34:G97" ca="1" si="59">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B34,",'",E34,"',",C34,",'",D34,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A34,B34,"123456789',4,'Süd',2,3100,",B34,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A34,B34,"123456780',6,'Mitte',1,3103,",B34,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(33,'1',2518,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A33123456789',4,'Süd',2,3100,33);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A33123456780',6,'Mitte',1,3103,33);</v>
+        <f t="shared" ref="G34:G97" ca="1" si="59">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B34,",'",E34,"',",C34,",'",D34,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A34,B34,"123456789',4,'Süd',2,3100,",B34,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A34,B34,"123456780',6,'Mitte',1,3103,",B34,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(33,'1',2518,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A33123456789',4,'Süd',2,3100,33);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A33123456780',6,'Mitte',1,3103,33);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -15856,8 +15857,8 @@
         <v>19</v>
       </c>
       <c r="G36" s="15" t="str">
-        <f t="shared" ref="G36:G99" ca="1" si="63">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B36,",'",E36,"',",C36,",'",D36,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A36,B36,"123456789',4,'Süd',2,3100,",B36,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A36,B36,"123456780',6,'Mitte',1,3103,",B36,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(35,'1',2520,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A35123456789',4,'Süd',2,3100,35);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A35123456780',6,'Mitte',1,3103,35);</v>
+        <f t="shared" ref="G36:G99" ca="1" si="63">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B36,",'",E36,"',",C36,",'",D36,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A36,B36,"123456789',4,'Süd',2,3100,",B36,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A36,B36,"123456780',6,'Mitte',1,3103,",B36,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(35,'1',2520,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A35123456789',4,'Süd',2,3100,35);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A35123456780',6,'Mitte',1,3103,35);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -15903,8 +15904,8 @@
         <v>20</v>
       </c>
       <c r="G38" s="15" t="str">
-        <f t="shared" ref="G38:G101" ca="1" si="67">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B38,",'",E38,"',",C38,",'",D38,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A38,B38,"123456789',4,'Süd',2,3100,",B38,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A38,B38,"123456780',6,'Mitte',1,3103,",B38,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(37,'1',2532,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A37123456789',4,'Süd',2,3100,37);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A37123456780',6,'Mitte',1,3103,37);</v>
+        <f t="shared" ref="G38:G101" ca="1" si="67">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B38,",'",E38,"',",C38,",'",D38,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A38,B38,"123456789',4,'Süd',2,3100,",B38,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A38,B38,"123456780',6,'Mitte',1,3103,",B38,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(37,'1',2532,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A37123456789',4,'Süd',2,3100,37);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A37123456780',6,'Mitte',1,3103,37);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -15950,8 +15951,8 @@
         <v>21</v>
       </c>
       <c r="G40" s="15" t="str">
-        <f t="shared" ref="G40:G103" ca="1" si="71">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B40,",'",E40,"',",C40,",'",D40,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A40,B40,"123456789',4,'Süd',2,3100,",B40,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A40,B40,"123456780',6,'Mitte',1,3103,",B40,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(39,'1',2533,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A39123456789',4,'Süd',2,3100,39);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A39123456780',6,'Mitte',1,3103,39);</v>
+        <f t="shared" ref="G40:G103" ca="1" si="71">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B40,",'",E40,"',",C40,",'",D40,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A40,B40,"123456789',4,'Süd',2,3100,",B40,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A40,B40,"123456780',6,'Mitte',1,3103,",B40,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(39,'1',2533,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A39123456789',4,'Süd',2,3100,39);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A39123456780',6,'Mitte',1,3103,39);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -15997,8 +15998,8 @@
         <v>22</v>
       </c>
       <c r="G42" s="15" t="str">
-        <f t="shared" ref="G42:G105" ca="1" si="75">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B42,",'",E42,"',",C42,",'",D42,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A42,B42,"123456789',4,'Süd',2,3100,",B42,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A42,B42,"123456780',6,'Mitte',1,3103,",B42,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(41,'1',2534,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A41123456789',4,'Süd',2,3100,41);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A41123456780',6,'Mitte',1,3103,41);</v>
+        <f t="shared" ref="G42:G105" ca="1" si="75">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B42,",'",E42,"',",C42,",'",D42,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A42,B42,"123456789',4,'Süd',2,3100,",B42,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A42,B42,"123456780',6,'Mitte',1,3103,",B42,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(41,'1',2534,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A41123456789',4,'Süd',2,3100,41);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A41123456780',6,'Mitte',1,3103,41);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -16044,8 +16045,8 @@
         <v>23</v>
       </c>
       <c r="G44" s="15" t="str">
-        <f t="shared" ref="G44:G107" ca="1" si="79">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B44,",'",E44,"',",C44,",'",D44,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A44,B44,"123456789',4,'Süd',2,3100,",B44,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A44,B44,"123456780',6,'Mitte',1,3103,",B44,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(43,'1',2535,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A43123456789',4,'Süd',2,3100,43);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A43123456780',6,'Mitte',1,3103,43);</v>
+        <f t="shared" ref="G44:G107" ca="1" si="79">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B44,",'",E44,"',",C44,",'",D44,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A44,B44,"123456789',4,'Süd',2,3100,",B44,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A44,B44,"123456780',6,'Mitte',1,3103,",B44,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(43,'1',2535,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A43123456789',4,'Süd',2,3100,43);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A43123456780',6,'Mitte',1,3103,43);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -16091,8 +16092,8 @@
         <v>24</v>
       </c>
       <c r="G46" s="15" t="str">
-        <f t="shared" ref="G46:G109" ca="1" si="83">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B46,",'",E46,"',",C46,",'",D46,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A46,B46,"123456789',4,'Süd',2,3100,",B46,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A46,B46,"123456780',6,'Mitte',1,3103,",B46,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(45,'1',2536,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A45123456789',4,'Süd',2,3100,45);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A45123456780',6,'Mitte',1,3103,45);</v>
+        <f t="shared" ref="G46:G109" ca="1" si="83">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B46,",'",E46,"',",C46,",'",D46,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A46,B46,"123456789',4,'Süd',2,3100,",B46,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A46,B46,"123456780',6,'Mitte',1,3103,",B46,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(45,'1',2536,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A45123456789',4,'Süd',2,3100,45);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A45123456780',6,'Mitte',1,3103,45);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -16138,8 +16139,8 @@
         <v>25</v>
       </c>
       <c r="G48" s="15" t="str">
-        <f t="shared" ref="G48:G111" ca="1" si="87">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B48,",'",E48,"',",C48,",'",D48,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A48,B48,"123456789',4,'Süd',2,3100,",B48,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A48,B48,"123456780',6,'Mitte',1,3103,",B48,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(47,'1',2537,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A47123456789',4,'Süd',2,3100,47);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A47123456780',6,'Mitte',1,3103,47);</v>
+        <f t="shared" ref="G48:G111" ca="1" si="87">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B48,",'",E48,"',",C48,",'",D48,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A48,B48,"123456789',4,'Süd',2,3100,",B48,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A48,B48,"123456780',6,'Mitte',1,3103,",B48,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(47,'1',2537,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A47123456789',4,'Süd',2,3100,47);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A47123456780',6,'Mitte',1,3103,47);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -16185,8 +16186,8 @@
         <v>26</v>
       </c>
       <c r="G50" s="15" t="str">
-        <f t="shared" ref="G50:G113" ca="1" si="91">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B50,",'",E50,"',",C50,",'",D50,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A50,B50,"123456789',4,'Süd',2,3100,",B50,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A50,B50,"123456780',6,'Mitte',1,3103,",B50,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(49,'1',2538,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A49123456789',4,'Süd',2,3100,49);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A49123456780',6,'Mitte',1,3103,49);</v>
+        <f t="shared" ref="G50:G113" ca="1" si="91">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B50,",'",E50,"',",C50,",'",D50,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A50,B50,"123456789',4,'Süd',2,3100,",B50,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A50,B50,"123456780',6,'Mitte',1,3103,",B50,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(49,'1',2538,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A49123456789',4,'Süd',2,3100,49);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A49123456780',6,'Mitte',1,3103,49);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16232,8 +16233,8 @@
         <v>27</v>
       </c>
       <c r="G52" s="15" t="str">
-        <f t="shared" ref="G52:G115" ca="1" si="95">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B52,",'",E52,"',",C52,",'",D52,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A52,B52,"123456789',4,'Süd',2,3100,",B52,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A52,B52,"123456780',6,'Mitte',1,3103,",B52,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(51,'1',2542,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A51123456789',4,'Süd',2,3100,51);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A51123456780',6,'Mitte',1,3103,51);</v>
+        <f t="shared" ref="G52:G115" ca="1" si="95">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B52,",'",E52,"',",C52,",'",D52,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A52,B52,"123456789',4,'Süd',2,3100,",B52,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A52,B52,"123456780',6,'Mitte',1,3103,",B52,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(51,'1',2542,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A51123456789',4,'Süd',2,3100,51);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A51123456780',6,'Mitte',1,3103,51);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16279,8 +16280,8 @@
         <v>28</v>
       </c>
       <c r="G54" s="15" t="str">
-        <f t="shared" ref="G54:G117" ca="1" si="99">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B54,",'",E54,"',",C54,",'",D54,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A54,B54,"123456789',4,'Süd',2,3100,",B54,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A54,B54,"123456780',6,'Mitte',1,3103,",B54,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(53,'1',2543,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A53123456789',4,'Süd',2,3100,53);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A53123456780',6,'Mitte',1,3103,53);</v>
+        <f t="shared" ref="G54:G117" ca="1" si="99">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B54,",'",E54,"',",C54,",'",D54,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A54,B54,"123456789',4,'Süd',2,3100,",B54,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A54,B54,"123456780',6,'Mitte',1,3103,",B54,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(53,'1',2543,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A53123456789',4,'Süd',2,3100,53);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A53123456780',6,'Mitte',1,3103,53);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -16326,8 +16327,8 @@
         <v>29</v>
       </c>
       <c r="G56" s="15" t="str">
-        <f t="shared" ref="G56:G119" ca="1" si="103">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B56,",'",E56,"',",C56,",'",D56,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A56,B56,"123456789',4,'Süd',2,3100,",B56,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A56,B56,"123456780',6,'Mitte',1,3103,",B56,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(55,'1',2552,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A55123456789',4,'Süd',2,3100,55);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A55123456780',6,'Mitte',1,3103,55);</v>
+        <f t="shared" ref="G56:G119" ca="1" si="103">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B56,",'",E56,"',",C56,",'",D56,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A56,B56,"123456789',4,'Süd',2,3100,",B56,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A56,B56,"123456780',6,'Mitte',1,3103,",B56,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(55,'1',2552,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A55123456789',4,'Süd',2,3100,55);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A55123456780',6,'Mitte',1,3103,55);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -16373,8 +16374,8 @@
         <v>30</v>
       </c>
       <c r="G58" s="15" t="str">
-        <f t="shared" ref="G58:G121" ca="1" si="107">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B58,",'",E58,"',",C58,",'",D58,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A58,B58,"123456789',4,'Süd',2,3100,",B58,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A58,B58,"123456780',6,'Mitte',1,3103,",B58,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(57,'1',2553,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A57123456789',4,'Süd',2,3100,57);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A57123456780',6,'Mitte',1,3103,57);</v>
+        <f t="shared" ref="G58:G121" ca="1" si="107">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B58,",'",E58,"',",C58,",'",D58,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A58,B58,"123456789',4,'Süd',2,3100,",B58,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A58,B58,"123456780',6,'Mitte',1,3103,",B58,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(57,'1',2553,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A57123456789',4,'Süd',2,3100,57);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A57123456780',6,'Mitte',1,3103,57);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -16420,8 +16421,8 @@
         <v>31</v>
       </c>
       <c r="G60" s="15" t="str">
-        <f t="shared" ref="G60:G123" ca="1" si="111">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B60,",'",E60,"',",C60,",'",D60,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A60,B60,"123456789',4,'Süd',2,3100,",B60,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A60,B60,"123456780',6,'Mitte',1,3103,",B60,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(59,'1',2554,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A59123456789',4,'Süd',2,3100,59);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A59123456780',6,'Mitte',1,3103,59);</v>
+        <f t="shared" ref="G60:G123" ca="1" si="111">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B60,",'",E60,"',",C60,",'",D60,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A60,B60,"123456789',4,'Süd',2,3100,",B60,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A60,B60,"123456780',6,'Mitte',1,3103,",B60,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(59,'1',2554,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A59123456789',4,'Süd',2,3100,59);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A59123456780',6,'Mitte',1,3103,59);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -16467,8 +16468,8 @@
         <v>32</v>
       </c>
       <c r="G62" s="15" t="str">
-        <f t="shared" ref="G62:G125" ca="1" si="115">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B62,",'",E62,"',",C62,",'",D62,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A62,B62,"123456789',4,'Süd',2,3100,",B62,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A62,B62,"123456780',6,'Mitte',1,3103,",B62,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(61,'1',2555,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A61123456789',4,'Süd',2,3100,61);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A61123456780',6,'Mitte',1,3103,61);</v>
+        <f t="shared" ref="G62:G125" ca="1" si="115">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B62,",'",E62,"',",C62,",'",D62,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A62,B62,"123456789',4,'Süd',2,3100,",B62,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A62,B62,"123456780',6,'Mitte',1,3103,",B62,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(61,'1',2555,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A61123456789',4,'Süd',2,3100,61);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A61123456780',6,'Mitte',1,3103,61);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -16514,8 +16515,8 @@
         <v>33</v>
       </c>
       <c r="G64" s="15" t="str">
-        <f t="shared" ref="G64:G127" ca="1" si="119">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B64,",'",E64,"',",C64,",'",D64,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A64,B64,"123456789',4,'Süd',2,3100,",B64,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A64,B64,"123456780',6,'Mitte',1,3103,",B64,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(63,'1',2556,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A63123456789',4,'Süd',2,3100,63);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A63123456780',6,'Mitte',1,3103,63);</v>
+        <f t="shared" ref="G64:G127" ca="1" si="119">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B64,",'",E64,"',",C64,",'",D64,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A64,B64,"123456789',4,'Süd',2,3100,",B64,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A64,B64,"123456780',6,'Mitte',1,3103,",B64,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(63,'1',2556,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A63123456789',4,'Süd',2,3100,63);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A63123456780',6,'Mitte',1,3103,63);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -16561,8 +16562,8 @@
         <v>34</v>
       </c>
       <c r="G66" s="15" t="str">
-        <f t="shared" ref="G66:G129" ca="1" si="123">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B66,",'",E66,"',",C66,",'",D66,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A66,B66,"123456789',4,'Süd',2,3100,",B66,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A66,B66,"123456780',6,'Mitte',1,3103,",B66,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(65,'1',2557,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A65123456789',4,'Süd',2,3100,65);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A65123456780',6,'Mitte',1,3103,65);</v>
+        <f t="shared" ref="G66:G129" ca="1" si="123">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B66,",'",E66,"',",C66,",'",D66,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A66,B66,"123456789',4,'Süd',2,3100,",B66,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A66,B66,"123456780',6,'Mitte',1,3103,",B66,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(65,'1',2557,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A65123456789',4,'Süd',2,3100,65);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A65123456780',6,'Mitte',1,3103,65);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -16608,8 +16609,8 @@
         <v>35</v>
       </c>
       <c r="G68" s="15" t="str">
-        <f t="shared" ref="G68:G131" ca="1" si="127">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B68,",'",E68,"',",C68,",'",D68,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A68,B68,"123456789',4,'Süd',2,3100,",B68,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A68,B68,"123456780',6,'Mitte',1,3103,",B68,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(67,'1',2558,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A67123456789',4,'Süd',2,3100,67);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A67123456780',6,'Mitte',1,3103,67);</v>
+        <f t="shared" ref="G68:G131" ca="1" si="127">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B68,",'",E68,"',",C68,",'",D68,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A68,B68,"123456789',4,'Süd',2,3100,",B68,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A68,B68,"123456780',6,'Mitte',1,3103,",B68,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(67,'1',2558,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A67123456789',4,'Süd',2,3100,67);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A67123456780',6,'Mitte',1,3103,67);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -16655,8 +16656,8 @@
         <v>36</v>
       </c>
       <c r="G70" s="15" t="str">
-        <f t="shared" ref="G70:G133" ca="1" si="131">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B70,",'",E70,"',",C70,",'",D70,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A70,B70,"123456789',4,'Süd',2,3100,",B70,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A70,B70,"123456780',6,'Mitte',1,3103,",B70,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(69,'1',2560,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A69123456789',4,'Süd',2,3100,69);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A69123456780',6,'Mitte',1,3103,69);</v>
+        <f t="shared" ref="G70:G133" ca="1" si="131">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B70,",'",E70,"',",C70,",'",D70,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A70,B70,"123456789',4,'Süd',2,3100,",B70,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A70,B70,"123456780',6,'Mitte',1,3103,",B70,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(69,'1',2560,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A69123456789',4,'Süd',2,3100,69);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A69123456780',6,'Mitte',1,3103,69);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -16702,8 +16703,8 @@
         <v>37</v>
       </c>
       <c r="G72" s="15" t="str">
-        <f t="shared" ref="G72:G135" ca="1" si="135">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B72,",'",E72,"',",C72,",'",D72,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A72,B72,"123456789',4,'Süd',2,3100,",B72,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A72,B72,"123456780',6,'Mitte',1,3103,",B72,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(71,'1',2562,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A71123456789',4,'Süd',2,3100,71);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A71123456780',6,'Mitte',1,3103,71);</v>
+        <f t="shared" ref="G72:G135" ca="1" si="135">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B72,",'",E72,"',",C72,",'",D72,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A72,B72,"123456789',4,'Süd',2,3100,",B72,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A72,B72,"123456780',6,'Mitte',1,3103,",B72,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(71,'1',2562,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A71123456789',4,'Süd',2,3100,71);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A71123456780',6,'Mitte',1,3103,71);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -16749,8 +16750,8 @@
         <v>38</v>
       </c>
       <c r="G74" s="15" t="str">
-        <f t="shared" ref="G74:G137" ca="1" si="139">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B74,",'",E74,"',",C74,",'",D74,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A74,B74,"123456789',4,'Süd',2,3100,",B74,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A74,B74,"123456780',6,'Mitte',1,3103,",B74,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(73,'1',2563,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A73123456789',4,'Süd',2,3100,73);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A73123456780',6,'Mitte',1,3103,73);</v>
+        <f t="shared" ref="G74:G137" ca="1" si="139">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B74,",'",E74,"',",C74,",'",D74,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A74,B74,"123456789',4,'Süd',2,3100,",B74,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A74,B74,"123456780',6,'Mitte',1,3103,",B74,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(73,'1',2563,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A73123456789',4,'Süd',2,3100,73);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A73123456780',6,'Mitte',1,3103,73);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -16796,8 +16797,8 @@
         <v>39</v>
       </c>
       <c r="G76" s="15" t="str">
-        <f t="shared" ref="G76:G139" ca="1" si="143">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B76,",'",E76,"',",C76,",'",D76,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A76,B76,"123456789',4,'Süd',2,3100,",B76,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A76,B76,"123456780',6,'Mitte',1,3103,",B76,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(75,'1',2564,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A75123456789',4,'Süd',2,3100,75);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A75123456780',6,'Mitte',1,3103,75);</v>
+        <f t="shared" ref="G76:G139" ca="1" si="143">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B76,",'",E76,"',",C76,",'",D76,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A76,B76,"123456789',4,'Süd',2,3100,",B76,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A76,B76,"123456780',6,'Mitte',1,3103,",B76,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(75,'1',2564,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A75123456789',4,'Süd',2,3100,75);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A75123456780',6,'Mitte',1,3103,75);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -16843,8 +16844,8 @@
         <v>40</v>
       </c>
       <c r="G78" s="15" t="str">
-        <f t="shared" ref="G78:G141" ca="1" si="147">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B78,",'",E78,"',",C78,",'",D78,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A78,B78,"123456789',4,'Süd',2,3100,",B78,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A78,B78,"123456780',6,'Mitte',1,3103,",B78,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(77,'1',2565,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A77123456789',4,'Süd',2,3100,77);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A77123456780',6,'Mitte',1,3103,77);</v>
+        <f t="shared" ref="G78:G141" ca="1" si="147">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B78,",'",E78,"',",C78,",'",D78,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A78,B78,"123456789',4,'Süd',2,3100,",B78,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A78,B78,"123456780',6,'Mitte',1,3103,",B78,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(77,'1',2565,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A77123456789',4,'Süd',2,3100,77);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A77123456780',6,'Mitte',1,3103,77);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -16890,8 +16891,8 @@
         <v>41</v>
       </c>
       <c r="G80" s="15" t="str">
-        <f t="shared" ref="G80:G143" ca="1" si="151">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B80,",'",E80,"',",C80,",'",D80,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A80,B80,"123456789',4,'Süd',2,3100,",B80,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A80,B80,"123456780',6,'Mitte',1,3103,",B80,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(79,'1',2572,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A79123456789',4,'Süd',2,3100,79);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A79123456780',6,'Mitte',1,3103,79);</v>
+        <f t="shared" ref="G80:G143" ca="1" si="151">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B80,",'",E80,"',",C80,",'",D80,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A80,B80,"123456789',4,'Süd',2,3100,",B80,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A80,B80,"123456780',6,'Mitte',1,3103,",B80,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(79,'1',2572,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A79123456789',4,'Süd',2,3100,79);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A79123456780',6,'Mitte',1,3103,79);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -16937,8 +16938,8 @@
         <v>42</v>
       </c>
       <c r="G82" s="15" t="str">
-        <f t="shared" ref="G82:G145" ca="1" si="155">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B82,",'",E82,"',",C82,",'",D82,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A82,B82,"123456789',4,'Süd',2,3100,",B82,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A82,B82,"123456780',6,'Mitte',1,3103,",B82,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(81,'1',2575,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A81123456789',4,'Süd',2,3100,81);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A81123456780',6,'Mitte',1,3103,81);</v>
+        <f t="shared" ref="G82:G145" ca="1" si="155">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B82,",'",E82,"',",C82,",'",D82,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A82,B82,"123456789',4,'Süd',2,3100,",B82,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A82,B82,"123456780',6,'Mitte',1,3103,",B82,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(81,'1',2575,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A81123456789',4,'Süd',2,3100,81);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A81123456780',6,'Mitte',1,3103,81);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -16984,8 +16985,8 @@
         <v>43</v>
       </c>
       <c r="G84" s="15" t="str">
-        <f t="shared" ref="G84:G147" ca="1" si="159">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B84,",'",E84,"',",C84,",'",D84,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A84,B84,"123456789',4,'Süd',2,3100,",B84,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A84,B84,"123456780',6,'Mitte',1,3103,",B84,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(83,'1',2576,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A83123456789',4,'Süd',2,3100,83);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A83123456780',6,'Mitte',1,3103,83);</v>
+        <f t="shared" ref="G84:G147" ca="1" si="159">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B84,",'",E84,"',",C84,",'",D84,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A84,B84,"123456789',4,'Süd',2,3100,",B84,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A84,B84,"123456780',6,'Mitte',1,3103,",B84,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(83,'1',2576,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A83123456789',4,'Süd',2,3100,83);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A83123456780',6,'Mitte',1,3103,83);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -17031,8 +17032,8 @@
         <v>44</v>
       </c>
       <c r="G86" s="15" t="str">
-        <f t="shared" ref="G86:G149" ca="1" si="163">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B86,",'",E86,"',",C86,",'",D86,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A86,B86,"123456789',4,'Süd',2,3100,",B86,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A86,B86,"123456780',6,'Mitte',1,3103,",B86,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(85,'1',2577,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A85123456789',4,'Süd',2,3100,85);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A85123456780',6,'Mitte',1,3103,85);</v>
+        <f t="shared" ref="G86:G149" ca="1" si="163">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B86,",'",E86,"',",C86,",'",D86,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A86,B86,"123456789',4,'Süd',2,3100,",B86,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A86,B86,"123456780',6,'Mitte',1,3103,",B86,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(85,'1',2577,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A85123456789',4,'Süd',2,3100,85);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A85123456780',6,'Mitte',1,3103,85);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -17078,8 +17079,8 @@
         <v>45</v>
       </c>
       <c r="G88" s="15" t="str">
-        <f t="shared" ref="G88:G151" ca="1" si="167">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B88,",'",E88,"',",C88,",'",D88,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A88,B88,"123456789',4,'Süd',2,3100,",B88,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A88,B88,"123456780',6,'Mitte',1,3103,",B88,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(87,'1',2603,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A87123456789',4,'Süd',2,3100,87);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A87123456780',6,'Mitte',1,3103,87);</v>
+        <f t="shared" ref="G88:G151" ca="1" si="167">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B88,",'",E88,"',",C88,",'",D88,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A88,B88,"123456789',4,'Süd',2,3100,",B88,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A88,B88,"123456780',6,'Mitte',1,3103,",B88,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(87,'1',2603,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A87123456789',4,'Süd',2,3100,87);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A87123456780',6,'Mitte',1,3103,87);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -17125,8 +17126,8 @@
         <v>46</v>
       </c>
       <c r="G90" s="15" t="str">
-        <f t="shared" ref="G90:G153" ca="1" si="171">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B90,",'",E90,"',",C90,",'",D90,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A90,B90,"123456789',4,'Süd',2,3100,",B90,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A90,B90,"123456780',6,'Mitte',1,3103,",B90,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(89,'1',2604,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A89123456789',4,'Süd',2,3100,89);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A89123456780',6,'Mitte',1,3103,89);</v>
+        <f t="shared" ref="G90:G153" ca="1" si="171">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B90,",'",E90,"',",C90,",'",D90,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A90,B90,"123456789',4,'Süd',2,3100,",B90,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A90,B90,"123456780',6,'Mitte',1,3103,",B90,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(89,'1',2604,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A89123456789',4,'Süd',2,3100,89);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A89123456780',6,'Mitte',1,3103,89);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -17172,8 +17173,8 @@
         <v>47</v>
       </c>
       <c r="G92" s="15" t="str">
-        <f t="shared" ref="G92:G155" ca="1" si="175">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B92,",'",E92,"',",C92,",'",D92,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A92,B92,"123456789',4,'Süd',2,3100,",B92,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A92,B92,"123456780',6,'Mitte',1,3103,",B92,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(91,'1',2605,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A91123456789',4,'Süd',2,3100,91);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A91123456780',6,'Mitte',1,3103,91);</v>
+        <f t="shared" ref="G92:G155" ca="1" si="175">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B92,",'",E92,"',",C92,",'",D92,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A92,B92,"123456789',4,'Süd',2,3100,",B92,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A92,B92,"123456780',6,'Mitte',1,3103,",B92,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(91,'1',2605,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A91123456789',4,'Süd',2,3100,91);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A91123456780',6,'Mitte',1,3103,91);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -17219,8 +17220,8 @@
         <v>48</v>
       </c>
       <c r="G94" s="15" t="str">
-        <f t="shared" ref="G94:G157" ca="1" si="179">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B94,",'",E94,"',",C94,",'",D94,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A94,B94,"123456789',4,'Süd',2,3100,",B94,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A94,B94,"123456780',6,'Mitte',1,3103,",B94,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(93,'1',2606,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A93123456789',4,'Süd',2,3100,93);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A93123456780',6,'Mitte',1,3103,93);</v>
+        <f t="shared" ref="G94:G157" ca="1" si="179">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B94,",'",E94,"',",C94,",'",D94,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A94,B94,"123456789',4,'Süd',2,3100,",B94,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A94,B94,"123456780',6,'Mitte',1,3103,",B94,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(93,'1',2606,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A93123456789',4,'Süd',2,3100,93);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A93123456780',6,'Mitte',1,3103,93);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -17266,8 +17267,8 @@
         <v>49</v>
       </c>
       <c r="G96" s="15" t="str">
-        <f t="shared" ref="G96:G159" ca="1" si="183">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B96,",'",E96,"',",C96,",'",D96,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A96,B96,"123456789',4,'Süd',2,3100,",B96,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A96,B96,"123456780',6,'Mitte',1,3103,",B96,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(95,'1',2607,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A95123456789',4,'Süd',2,3100,95);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A95123456780',6,'Mitte',1,3103,95);</v>
+        <f t="shared" ref="G96:G159" ca="1" si="183">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B96,",'",E96,"',",C96,",'",D96,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A96,B96,"123456789',4,'Süd',2,3100,",B96,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A96,B96,"123456780',6,'Mitte',1,3103,",B96,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(95,'1',2607,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A95123456789',4,'Süd',2,3100,95);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A95123456780',6,'Mitte',1,3103,95);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -17313,8 +17314,8 @@
         <v>50</v>
       </c>
       <c r="G98" s="15" t="str">
-        <f t="shared" ref="G98:G161" ca="1" si="187">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B98,",'",E98,"',",C98,",'",D98,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A98,B98,"123456789',4,'Süd',2,3100,",B98,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A98,B98,"123456780',6,'Mitte',1,3103,",B98,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(97,'1',2608,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A97123456789',4,'Süd',2,3100,97);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A97123456780',6,'Mitte',1,3103,97);</v>
+        <f t="shared" ref="G98:G161" ca="1" si="187">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B98,",'",E98,"',",C98,",'",D98,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A98,B98,"123456789',4,'Süd',2,3100,",B98,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A98,B98,"123456780',6,'Mitte',1,3103,",B98,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(97,'1',2608,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A97123456789',4,'Süd',2,3100,97);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A97123456780',6,'Mitte',1,3103,97);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -17360,8 +17361,8 @@
         <v>51</v>
       </c>
       <c r="G100" s="15" t="str">
-        <f t="shared" ref="G100:G163" ca="1" si="191">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B100,",'",E100,"',",C100,",'",D100,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A100,B100,"123456789',4,'Süd',2,3100,",B100,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A100,B100,"123456780',6,'Mitte',1,3103,",B100,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(99,'1',2610,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A99123456789',4,'Süd',2,3100,99);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('A99123456780',6,'Mitte',1,3103,99);</v>
+        <f t="shared" ref="G100:G163" ca="1" si="191">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B100,",'",E100,"',",C100,",'",D100,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A100,B100,"123456789',4,'Süd',2,3100,",B100,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A100,B100,"123456780',6,'Mitte',1,3103,",B100,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(99,'1',2610,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'A99123456789',4,'Süd',2,3100,99);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'A99123456780',6,'Mitte',1,3103,99);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -17401,8 +17402,8 @@
         <v>52</v>
       </c>
       <c r="G102" s="15" t="str">
-        <f t="shared" ref="G102:G165" ca="1" si="195">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B102,",'",E102,"',",C102,",'",D102,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A102,B102,"123456789',4,'Süd',2,3100,",B102,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A102,B102,"123456780',6,'Mitte',1,3103,",B102,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(101,'1',2612,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('101123456789',4,'Süd',2,3100,101);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('101123456780',6,'Mitte',1,3103,101);</v>
+        <f t="shared" ref="G102:G165" ca="1" si="195">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B102,",'",E102,"',",C102,",'",D102,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A102,B102,"123456789',4,'Süd',2,3100,",B102,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A102,B102,"123456780',6,'Mitte',1,3103,",B102,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(101,'1',2612,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'101123456789',4,'Süd',2,3100,101);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'101123456780',6,'Mitte',1,3103,101);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -17442,8 +17443,8 @@
         <v>53</v>
       </c>
       <c r="G104" s="15" t="str">
-        <f t="shared" ref="G104:G167" ca="1" si="199">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B104,",'",E104,"',",C104,",'",D104,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A104,B104,"123456789',4,'Süd',2,3100,",B104,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A104,B104,"123456780',6,'Mitte',1,3103,",B104,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(103,'1',2613,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('103123456789',4,'Süd',2,3100,103);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('103123456780',6,'Mitte',1,3103,103);</v>
+        <f t="shared" ref="G104:G167" ca="1" si="199">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B104,",'",E104,"',",C104,",'",D104,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A104,B104,"123456789',4,'Süd',2,3100,",B104,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A104,B104,"123456780',6,'Mitte',1,3103,",B104,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(103,'1',2613,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'103123456789',4,'Süd',2,3100,103);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'103123456780',6,'Mitte',1,3103,103);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -17483,8 +17484,8 @@
         <v>54</v>
       </c>
       <c r="G106" s="15" t="str">
-        <f t="shared" ref="G106:G169" ca="1" si="203">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B106,",'",E106,"',",C106,",'",D106,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A106,B106,"123456789',4,'Süd',2,3100,",B106,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A106,B106,"123456780',6,'Mitte',1,3103,",B106,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(105,'1',2615,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('105123456789',4,'Süd',2,3100,105);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('105123456780',6,'Mitte',1,3103,105);</v>
+        <f t="shared" ref="G106:G169" ca="1" si="203">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B106,",'",E106,"',",C106,",'",D106,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A106,B106,"123456789',4,'Süd',2,3100,",B106,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A106,B106,"123456780',6,'Mitte',1,3103,",B106,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(105,'1',2615,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'105123456789',4,'Süd',2,3100,105);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'105123456780',6,'Mitte',1,3103,105);</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -17524,8 +17525,8 @@
         <v>55</v>
       </c>
       <c r="G108" s="15" t="str">
-        <f t="shared" ref="G108:G171" ca="1" si="207">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B108,",'",E108,"',",C108,",'",D108,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A108,B108,"123456789',4,'Süd',2,3100,",B108,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A108,B108,"123456780',6,'Mitte',1,3103,",B108,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(107,'1',2616,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('107123456789',4,'Süd',2,3100,107);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('107123456780',6,'Mitte',1,3103,107);</v>
+        <f t="shared" ref="G108:G171" ca="1" si="207">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B108,",'",E108,"',",C108,",'",D108,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A108,B108,"123456789',4,'Süd',2,3100,",B108,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A108,B108,"123456780',6,'Mitte',1,3103,",B108,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(107,'1',2616,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'107123456789',4,'Süd',2,3100,107);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'107123456780',6,'Mitte',1,3103,107);</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -17565,8 +17566,8 @@
         <v>56</v>
       </c>
       <c r="G110" s="15" t="str">
-        <f t="shared" ref="G110:G173" ca="1" si="211">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B110,",'",E110,"',",C110,",'",D110,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A110,B110,"123456789',4,'Süd',2,3100,",B110,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A110,B110,"123456780',6,'Mitte',1,3103,",B110,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(109,'1',2710,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('109123456789',4,'Süd',2,3100,109);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('109123456780',6,'Mitte',1,3103,109);</v>
+        <f t="shared" ref="G110:G173" ca="1" si="211">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B110,",'",E110,"',",C110,",'",D110,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A110,B110,"123456789',4,'Süd',2,3100,",B110,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A110,B110,"123456780',6,'Mitte',1,3103,",B110,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(109,'1',2710,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'109123456789',4,'Süd',2,3100,109);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'109123456780',6,'Mitte',1,3103,109);</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -17606,8 +17607,8 @@
         <v>57</v>
       </c>
       <c r="G112" s="15" t="str">
-        <f t="shared" ref="G112:G175" ca="1" si="215">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B112,",'",E112,"',",C112,",'",D112,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A112,B112,"123456789',4,'Süd',2,3100,",B112,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A112,B112,"123456780',6,'Mitte',1,3103,",B112,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(111,'1',2712,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('111123456789',4,'Süd',2,3100,111);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('111123456780',6,'Mitte',1,3103,111);</v>
+        <f t="shared" ref="G112:G175" ca="1" si="215">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B112,",'",E112,"',",C112,",'",D112,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A112,B112,"123456789',4,'Süd',2,3100,",B112,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A112,B112,"123456780',6,'Mitte',1,3103,",B112,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(111,'1',2712,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'111123456789',4,'Süd',2,3100,111);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'111123456780',6,'Mitte',1,3103,111);</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -17647,8 +17648,8 @@
         <v>58</v>
       </c>
       <c r="G114" s="15" t="str">
-        <f t="shared" ref="G114:G177" ca="1" si="219">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B114,",'",E114,"',",C114,",'",D114,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A114,B114,"123456789',4,'Süd',2,3100,",B114,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A114,B114,"123456780',6,'Mitte',1,3103,",B114,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(113,'1',2713,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('113123456789',4,'Süd',2,3100,113);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('113123456780',6,'Mitte',1,3103,113);</v>
+        <f t="shared" ref="G114:G177" ca="1" si="219">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B114,",'",E114,"',",C114,",'",D114,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A114,B114,"123456789',4,'Süd',2,3100,",B114,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A114,B114,"123456780',6,'Mitte',1,3103,",B114,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(113,'1',2713,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'113123456789',4,'Süd',2,3100,113);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'113123456780',6,'Mitte',1,3103,113);</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -17688,8 +17689,8 @@
         <v>59</v>
       </c>
       <c r="G116" s="15" t="str">
-        <f t="shared" ref="G116:G179" ca="1" si="223">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B116,",'",E116,"',",C116,",'",D116,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A116,B116,"123456789',4,'Süd',2,3100,",B116,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A116,B116,"123456780',6,'Mitte',1,3103,",B116,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(115,'1',2715,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('115123456789',4,'Süd',2,3100,115);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('115123456780',6,'Mitte',1,3103,115);</v>
+        <f t="shared" ref="G116:G179" ca="1" si="223">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B116,",'",E116,"',",C116,",'",D116,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A116,B116,"123456789',4,'Süd',2,3100,",B116,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A116,B116,"123456780',6,'Mitte',1,3103,",B116,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(115,'1',2715,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'115123456789',4,'Süd',2,3100,115);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'115123456780',6,'Mitte',1,3103,115);</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -17729,8 +17730,8 @@
         <v>60</v>
       </c>
       <c r="G118" s="15" t="str">
-        <f t="shared" ref="G118:G181" ca="1" si="227">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B118,",'",E118,"',",C118,",'",D118,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A118,B118,"123456789',4,'Süd',2,3100,",B118,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A118,B118,"123456780',6,'Mitte',1,3103,",B118,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(117,'1',2716,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('117123456789',4,'Süd',2,3100,117);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('117123456780',6,'Mitte',1,3103,117);</v>
+        <f t="shared" ref="G118:G181" ca="1" si="227">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B118,",'",E118,"',",C118,",'",D118,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A118,B118,"123456789',4,'Süd',2,3100,",B118,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A118,B118,"123456780',6,'Mitte',1,3103,",B118,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(117,'1',2716,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'117123456789',4,'Süd',2,3100,117);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'117123456780',6,'Mitte',1,3103,117);</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -17770,8 +17771,8 @@
         <v>61</v>
       </c>
       <c r="G120" s="15" t="str">
-        <f t="shared" ref="G120:G183" ca="1" si="231">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B120,",'",E120,"',",C120,",'",D120,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A120,B120,"123456789',4,'Süd',2,3100,",B120,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A120,B120,"123456780',6,'Mitte',1,3103,",B120,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(119,'1',2717,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('119123456789',4,'Süd',2,3100,119);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('119123456780',6,'Mitte',1,3103,119);</v>
+        <f t="shared" ref="G120:G183" ca="1" si="231">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B120,",'",E120,"',",C120,",'",D120,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A120,B120,"123456789',4,'Süd',2,3100,",B120,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A120,B120,"123456780',6,'Mitte',1,3103,",B120,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(119,'1',2717,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'119123456789',4,'Süd',2,3100,119);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'119123456780',6,'Mitte',1,3103,119);</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
@@ -17811,8 +17812,8 @@
         <v>62</v>
       </c>
       <c r="G122" s="15" t="str">
-        <f t="shared" ref="G122:G185" ca="1" si="235">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B122,",'",E122,"',",C122,",'",D122,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A122,B122,"123456789',4,'Süd',2,3100,",B122,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A122,B122,"123456780',6,'Mitte',1,3103,",B122,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(121,'1',2720,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('121123456789',4,'Süd',2,3100,121);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('121123456780',6,'Mitte',1,3103,121);</v>
+        <f t="shared" ref="G122:G185" ca="1" si="235">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B122,",'",E122,"',",C122,",'",D122,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A122,B122,"123456789',4,'Süd',2,3100,",B122,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A122,B122,"123456780',6,'Mitte',1,3103,",B122,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(121,'1',2720,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'121123456789',4,'Süd',2,3100,121);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'121123456780',6,'Mitte',1,3103,121);</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -17852,8 +17853,8 @@
         <v>63</v>
       </c>
       <c r="G124" s="15" t="str">
-        <f t="shared" ref="G124:G187" ca="1" si="239">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B124,",'",E124,"',",C124,",'",D124,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A124,B124,"123456789',4,'Süd',2,3100,",B124,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A124,B124,"123456780',6,'Mitte',1,3103,",B124,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(123,'1',2722,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('123123456789',4,'Süd',2,3100,123);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('123123456780',6,'Mitte',1,3103,123);</v>
+        <f t="shared" ref="G124:G187" ca="1" si="239">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B124,",'",E124,"',",C124,",'",D124,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A124,B124,"123456789',4,'Süd',2,3100,",B124,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A124,B124,"123456780',6,'Mitte',1,3103,",B124,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(123,'1',2722,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'123123456789',4,'Süd',2,3100,123);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'123123456780',6,'Mitte',1,3103,123);</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -17893,8 +17894,8 @@
         <v>64</v>
       </c>
       <c r="G126" s="15" t="str">
-        <f t="shared" ref="G126:G189" ca="1" si="243">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B126,",'",E126,"',",C126,",'",D126,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A126,B126,"123456789',4,'Süd',2,3100,",B126,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A126,B126,"123456780',6,'Mitte',1,3103,",B126,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(125,'1',2723,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('125123456789',4,'Süd',2,3100,125);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('125123456780',6,'Mitte',1,3103,125);</v>
+        <f t="shared" ref="G126:G189" ca="1" si="243">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B126,",'",E126,"',",C126,",'",D126,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A126,B126,"123456789',4,'Süd',2,3100,",B126,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A126,B126,"123456780',6,'Mitte',1,3103,",B126,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(125,'1',2723,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'125123456789',4,'Süd',2,3100,125);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'125123456780',6,'Mitte',1,3103,125);</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -17934,8 +17935,8 @@
         <v>65</v>
       </c>
       <c r="G128" s="15" t="str">
-        <f t="shared" ref="G128:G191" ca="1" si="247">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B128,",'",E128,"',",C128,",'",D128,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A128,B128,"123456789',4,'Süd',2,3100,",B128,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A128,B128,"123456780',6,'Mitte',1,3103,",B128,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(127,'1',2732,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('127123456789',4,'Süd',2,3100,127);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('127123456780',6,'Mitte',1,3103,127);</v>
+        <f t="shared" ref="G128:G191" ca="1" si="247">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B128,",'",E128,"',",C128,",'",D128,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A128,B128,"123456789',4,'Süd',2,3100,",B128,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A128,B128,"123456780',6,'Mitte',1,3103,",B128,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(127,'1',2732,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'127123456789',4,'Süd',2,3100,127);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'127123456780',6,'Mitte',1,3103,127);</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -17975,8 +17976,8 @@
         <v>66</v>
       </c>
       <c r="G130" s="15" t="str">
-        <f t="shared" ref="G130:G193" ca="1" si="251">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B130,",'",E130,"',",C130,",'",D130,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A130,B130,"123456789',4,'Süd',2,3100,",B130,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A130,B130,"123456780',6,'Mitte',1,3103,",B130,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(129,'1',2733,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('129123456789',4,'Süd',2,3100,129);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('129123456780',6,'Mitte',1,3103,129);</v>
+        <f t="shared" ref="G130:G193" ca="1" si="251">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B130,",'",E130,"',",C130,",'",D130,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A130,B130,"123456789',4,'Süd',2,3100,",B130,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A130,B130,"123456780',6,'Mitte',1,3103,",B130,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(129,'1',2733,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'129123456789',4,'Süd',2,3100,129);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'129123456780',6,'Mitte',1,3103,129);</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
@@ -18016,8 +18017,8 @@
         <v>67</v>
       </c>
       <c r="G132" s="15" t="str">
-        <f t="shared" ref="G132:G195" ca="1" si="255">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B132,",'",E132,"',",C132,",'",D132,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A132,B132,"123456789',4,'Süd',2,3100,",B132,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A132,B132,"123456780',6,'Mitte',1,3103,",B132,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(131,'1',2735,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('131123456789',4,'Süd',2,3100,131);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('131123456780',6,'Mitte',1,3103,131);</v>
+        <f t="shared" ref="G132:G195" ca="1" si="255">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B132,",'",E132,"',",C132,",'",D132,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A132,B132,"123456789',4,'Süd',2,3100,",B132,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A132,B132,"123456780',6,'Mitte',1,3103,",B132,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(131,'1',2735,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'131123456789',4,'Süd',2,3100,131);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'131123456780',6,'Mitte',1,3103,131);</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -18057,8 +18058,8 @@
         <v>68</v>
       </c>
       <c r="G134" s="15" t="str">
-        <f t="shared" ref="G134:G197" ca="1" si="259">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B134,",'",E134,"',",C134,",'",D134,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A134,B134,"123456789',4,'Süd',2,3100,",B134,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A134,B134,"123456780',6,'Mitte',1,3103,",B134,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(133,'1',2736,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('133123456789',4,'Süd',2,3100,133);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('133123456780',6,'Mitte',1,3103,133);</v>
+        <f t="shared" ref="G134:G197" ca="1" si="259">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B134,",'",E134,"',",C134,",'",D134,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A134,B134,"123456789',4,'Süd',2,3100,",B134,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A134,B134,"123456780',6,'Mitte',1,3103,",B134,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(133,'1',2736,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'133123456789',4,'Süd',2,3100,133);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'133123456780',6,'Mitte',1,3103,133);</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -18098,8 +18099,8 @@
         <v>69</v>
       </c>
       <c r="G136" s="15" t="str">
-        <f t="shared" ref="G136:G199" ca="1" si="263">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B136,",'",E136,"',",C136,",'",D136,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A136,B136,"123456789',4,'Süd',2,3100,",B136,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A136,B136,"123456780',6,'Mitte',1,3103,",B136,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(135,'1',2738,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('135123456789',4,'Süd',2,3100,135);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('135123456780',6,'Mitte',1,3103,135);</v>
+        <f t="shared" ref="G136:G199" ca="1" si="263">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B136,",'",E136,"',",C136,",'",D136,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A136,B136,"123456789',4,'Süd',2,3100,",B136,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A136,B136,"123456780',6,'Mitte',1,3103,",B136,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(135,'1',2738,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'135123456789',4,'Süd',2,3100,135);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'135123456780',6,'Mitte',1,3103,135);</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -18139,8 +18140,8 @@
         <v>70</v>
       </c>
       <c r="G138" s="15" t="str">
-        <f t="shared" ref="G138:G201" ca="1" si="267">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B138,",'",E138,"',",C138,",'",D138,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A138,B138,"123456789',4,'Süd',2,3100,",B138,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A138,B138,"123456780',6,'Mitte',1,3103,",B138,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(137,'1',2740,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('137123456789',4,'Süd',2,3100,137);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('137123456780',6,'Mitte',1,3103,137);</v>
+        <f t="shared" ref="G138:G201" ca="1" si="267">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B138,",'",E138,"',",C138,",'",D138,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A138,B138,"123456789',4,'Süd',2,3100,",B138,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A138,B138,"123456780',6,'Mitte',1,3103,",B138,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(137,'1',2740,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'137123456789',4,'Süd',2,3100,137);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'137123456780',6,'Mitte',1,3103,137);</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -18180,8 +18181,8 @@
         <v>71</v>
       </c>
       <c r="G140" s="15" t="str">
-        <f t="shared" ref="G140:G203" ca="1" si="271">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B140,",'",E140,"',",C140,",'",D140,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A140,B140,"123456789',4,'Süd',2,3100,",B140,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A140,B140,"123456780',6,'Mitte',1,3103,",B140,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(139,'1',2742,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('139123456789',4,'Süd',2,3100,139);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('139123456780',6,'Mitte',1,3103,139);</v>
+        <f t="shared" ref="G140:G203" ca="1" si="271">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B140,",'",E140,"',",C140,",'",D140,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A140,B140,"123456789',4,'Süd',2,3100,",B140,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A140,B140,"123456780',6,'Mitte',1,3103,",B140,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(139,'1',2742,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'139123456789',4,'Süd',2,3100,139);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'139123456780',6,'Mitte',1,3103,139);</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -18221,8 +18222,8 @@
         <v>72</v>
       </c>
       <c r="G142" s="15" t="str">
-        <f t="shared" ref="G142:G205" ca="1" si="275">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B142,",'",E142,"',",C142,",'",D142,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A142,B142,"123456789',4,'Süd',2,3100,",B142,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A142,B142,"123456780',6,'Mitte',1,3103,",B142,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(141,'1',2743,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('141123456789',4,'Süd',2,3100,141);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('141123456780',6,'Mitte',1,3103,141);</v>
+        <f t="shared" ref="G142:G205" ca="1" si="275">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B142,",'",E142,"',",C142,",'",D142,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A142,B142,"123456789',4,'Süd',2,3100,",B142,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A142,B142,"123456780',6,'Mitte',1,3103,",B142,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(141,'1',2743,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'141123456789',4,'Süd',2,3100,141);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'141123456780',6,'Mitte',1,3103,141);</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
@@ -18262,8 +18263,8 @@
         <v>73</v>
       </c>
       <c r="G144" s="15" t="str">
-        <f t="shared" ref="G144:G207" ca="1" si="279">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B144,",'",E144,"',",C144,",'",D144,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A144,B144,"123456789',4,'Süd',2,3100,",B144,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A144,B144,"123456780',6,'Mitte',1,3103,",B144,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(143,'1',2744,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('143123456789',4,'Süd',2,3100,143);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('143123456780',6,'Mitte',1,3103,143);</v>
+        <f t="shared" ref="G144:G207" ca="1" si="279">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B144,",'",E144,"',",C144,",'",D144,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A144,B144,"123456789',4,'Süd',2,3100,",B144,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A144,B144,"123456780',6,'Mitte',1,3103,",B144,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(143,'1',2744,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'143123456789',4,'Süd',2,3100,143);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'143123456780',6,'Mitte',1,3103,143);</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -18303,8 +18304,8 @@
         <v>74</v>
       </c>
       <c r="G146" s="15" t="str">
-        <f t="shared" ref="G146:G209" ca="1" si="283">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B146,",'",E146,"',",C146,",'",D146,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A146,B146,"123456789',4,'Süd',2,3100,",B146,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A146,B146,"123456780',6,'Mitte',1,3103,",B146,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(145,'1',2745,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('145123456789',4,'Süd',2,3100,145);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('145123456780',6,'Mitte',1,3103,145);</v>
+        <f t="shared" ref="G146:G209" ca="1" si="283">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B146,",'",E146,"',",C146,",'",D146,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A146,B146,"123456789',4,'Süd',2,3100,",B146,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A146,B146,"123456780',6,'Mitte',1,3103,",B146,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(145,'1',2745,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'145123456789',4,'Süd',2,3100,145);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'145123456780',6,'Mitte',1,3103,145);</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -18344,8 +18345,8 @@
         <v>75</v>
       </c>
       <c r="G148" s="15" t="str">
-        <f t="shared" ref="G148:G211" ca="1" si="287">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B148,",'",E148,"',",C148,",'",D148,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A148,B148,"123456789',4,'Süd',2,3100,",B148,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A148,B148,"123456780',6,'Mitte',1,3103,",B148,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(147,'1',2746,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('147123456789',4,'Süd',2,3100,147);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('147123456780',6,'Mitte',1,3103,147);</v>
+        <f t="shared" ref="G148:G211" ca="1" si="287">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B148,",'",E148,"',",C148,",'",D148,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A148,B148,"123456789',4,'Süd',2,3100,",B148,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A148,B148,"123456780',6,'Mitte',1,3103,",B148,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(147,'1',2746,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'147123456789',4,'Süd',2,3100,147);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'147123456780',6,'Mitte',1,3103,147);</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -18385,8 +18386,8 @@
         <v>76</v>
       </c>
       <c r="G150" s="15" t="str">
-        <f t="shared" ref="G150:G213" ca="1" si="291">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B150,",'",E150,"',",C150,",'",D150,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A150,B150,"123456789',4,'Süd',2,3100,",B150,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A150,B150,"123456780',6,'Mitte',1,3103,",B150,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(149,'1',2747,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('149123456789',4,'Süd',2,3100,149);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('149123456780',6,'Mitte',1,3103,149);</v>
+        <f t="shared" ref="G150:G213" ca="1" si="291">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B150,",'",E150,"',",C150,",'",D150,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A150,B150,"123456789',4,'Süd',2,3100,",B150,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A150,B150,"123456780',6,'Mitte',1,3103,",B150,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(149,'1',2747,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'149123456789',4,'Süd',2,3100,149);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'149123456780',6,'Mitte',1,3103,149);</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -18426,8 +18427,8 @@
         <v>77</v>
       </c>
       <c r="G152" s="15" t="str">
-        <f t="shared" ref="G152:G215" ca="1" si="295">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B152,",'",E152,"',",C152,",'",D152,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A152,B152,"123456789',4,'Süd',2,3100,",B152,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A152,B152,"123456780',6,'Mitte',1,3103,",B152,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(151,'1',2748,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('151123456789',4,'Süd',2,3100,151);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('151123456780',6,'Mitte',1,3103,151);</v>
+        <f t="shared" ref="G152:G215" ca="1" si="295">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B152,",'",E152,"',",C152,",'",D152,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A152,B152,"123456789',4,'Süd',2,3100,",B152,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A152,B152,"123456780',6,'Mitte',1,3103,",B152,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(151,'1',2748,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'151123456789',4,'Süd',2,3100,151);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'151123456780',6,'Mitte',1,3103,151);</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -18467,8 +18468,8 @@
         <v>78</v>
       </c>
       <c r="G154" s="15" t="str">
-        <f t="shared" ref="G154:G217" ca="1" si="299">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B154,",'",E154,"',",C154,",'",D154,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A154,B154,"123456789',4,'Süd',2,3100,",B154,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A154,B154,"123456780',6,'Mitte',1,3103,",B154,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(153,'1',2762,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('153123456789',4,'Süd',2,3100,153);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('153123456780',6,'Mitte',1,3103,153);</v>
+        <f t="shared" ref="G154:G217" ca="1" si="299">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B154,",'",E154,"',",C154,",'",D154,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A154,B154,"123456789',4,'Süd',2,3100,",B154,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A154,B154,"123456780',6,'Mitte',1,3103,",B154,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(153,'1',2762,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'153123456789',4,'Süd',2,3100,153);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'153123456780',6,'Mitte',1,3103,153);</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -18508,8 +18509,8 @@
         <v>79</v>
       </c>
       <c r="G156" s="15" t="str">
-        <f t="shared" ref="G156:G219" ca="1" si="303">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B156,",'",E156,"',",C156,",'",D156,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A156,B156,"123456789',4,'Süd',2,3100,",B156,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A156,B156,"123456780',6,'Mitte',1,3103,",B156,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(155,'1',2827,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('155123456789',4,'Süd',2,3100,155);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('155123456780',6,'Mitte',1,3103,155);</v>
+        <f t="shared" ref="G156:G219" ca="1" si="303">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B156,",'",E156,"',",C156,",'",D156,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A156,B156,"123456789',4,'Süd',2,3100,",B156,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A156,B156,"123456780',6,'Mitte',1,3103,",B156,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(155,'1',2827,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'155123456789',4,'Süd',2,3100,155);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'155123456780',6,'Mitte',1,3103,155);</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -18549,8 +18550,8 @@
         <v>80</v>
       </c>
       <c r="G158" s="15" t="str">
-        <f t="shared" ref="G158:G221" ca="1" si="307">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B158,",'",E158,"',",C158,",'",D158,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A158,B158,"123456789',4,'Süd',2,3100,",B158,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A158,B158,"123456780',6,'Mitte',1,3103,",B158,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(157,'1',3000,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('157123456789',4,'Süd',2,3100,157);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('157123456780',6,'Mitte',1,3103,157);</v>
+        <f t="shared" ref="G158:G221" ca="1" si="307">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B158,",'",E158,"',",C158,",'",D158,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A158,B158,"123456789',4,'Süd',2,3100,",B158,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A158,B158,"123456780',6,'Mitte',1,3103,",B158,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(157,'1',3000,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'157123456789',4,'Süd',2,3100,157);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'157123456780',6,'Mitte',1,3103,157);</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
@@ -18590,8 +18591,8 @@
         <v>81</v>
       </c>
       <c r="G160" s="15" t="str">
-        <f t="shared" ref="G160:G223" ca="1" si="311">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B160,",'",E160,"',",C160,",'",D160,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A160,B160,"123456789',4,'Süd',2,3100,",B160,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A160,B160,"123456780',6,'Mitte',1,3103,",B160,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(159,'1',3004,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('159123456789',4,'Süd',2,3100,159);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('159123456780',6,'Mitte',1,3103,159);</v>
+        <f t="shared" ref="G160:G223" ca="1" si="311">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B160,",'",E160,"',",C160,",'",D160,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A160,B160,"123456789',4,'Süd',2,3100,",B160,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A160,B160,"123456780',6,'Mitte',1,3103,",B160,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(159,'1',3004,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'159123456789',4,'Süd',2,3100,159);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'159123456780',6,'Mitte',1,3103,159);</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
@@ -18631,8 +18632,8 @@
         <v>82</v>
       </c>
       <c r="G162" s="15" t="str">
-        <f t="shared" ref="G162:G225" ca="1" si="315">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B162,",'",E162,"',",C162,",'",D162,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A162,B162,"123456789',4,'Süd',2,3100,",B162,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A162,B162,"123456780',6,'Mitte',1,3103,",B162,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(161,'1',3005,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('161123456789',4,'Süd',2,3100,161);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('161123456780',6,'Mitte',1,3103,161);</v>
+        <f t="shared" ref="G162:G225" ca="1" si="315">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B162,",'",E162,"',",C162,",'",D162,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A162,B162,"123456789',4,'Süd',2,3100,",B162,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A162,B162,"123456780',6,'Mitte',1,3103,",B162,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(161,'1',3005,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'161123456789',4,'Süd',2,3100,161);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'161123456780',6,'Mitte',1,3103,161);</v>
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
@@ -18672,8 +18673,8 @@
         <v>83</v>
       </c>
       <c r="G164" s="15" t="str">
-        <f t="shared" ref="G164:G227" ca="1" si="319">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B164,",'",E164,"',",C164,",'",D164,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A164,B164,"123456789',4,'Süd',2,3100,",B164,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A164,B164,"123456780',6,'Mitte',1,3103,",B164,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(163,'1',3006,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('163123456789',4,'Süd',2,3100,163);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('163123456780',6,'Mitte',1,3103,163);</v>
+        <f t="shared" ref="G164:G227" ca="1" si="319">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B164,",'",E164,"',",C164,",'",D164,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A164,B164,"123456789',4,'Süd',2,3100,",B164,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A164,B164,"123456780',6,'Mitte',1,3103,",B164,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(163,'1',3006,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'163123456789',4,'Süd',2,3100,163);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'163123456780',6,'Mitte',1,3103,163);</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
@@ -18713,8 +18714,8 @@
         <v>84</v>
       </c>
       <c r="G166" s="15" t="str">
-        <f t="shared" ref="G166:G229" ca="1" si="323">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B166,",'",E166,"',",C166,",'",D166,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A166,B166,"123456789',4,'Süd',2,3100,",B166,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A166,B166,"123456780',6,'Mitte',1,3103,",B166,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(165,'1',3007,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('165123456789',4,'Süd',2,3100,165);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('165123456780',6,'Mitte',1,3103,165);</v>
+        <f t="shared" ref="G166:G229" ca="1" si="323">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B166,",'",E166,"',",C166,",'",D166,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A166,B166,"123456789',4,'Süd',2,3100,",B166,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A166,B166,"123456780',6,'Mitte',1,3103,",B166,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(165,'1',3007,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'165123456789',4,'Süd',2,3100,165);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'165123456780',6,'Mitte',1,3103,165);</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
@@ -18754,8 +18755,8 @@
         <v>85</v>
       </c>
       <c r="G168" s="15" t="str">
-        <f t="shared" ref="G168:G231" ca="1" si="327">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B168,",'",E168,"',",C168,",'",D168,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A168,B168,"123456789',4,'Süd',2,3100,",B168,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A168,B168,"123456780',6,'Mitte',1,3103,",B168,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(167,'1',3008,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('167123456789',4,'Süd',2,3100,167);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('167123456780',6,'Mitte',1,3103,167);</v>
+        <f t="shared" ref="G168:G231" ca="1" si="327">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B168,",'",E168,"',",C168,",'",D168,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A168,B168,"123456789',4,'Süd',2,3100,",B168,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A168,B168,"123456780',6,'Mitte',1,3103,",B168,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(167,'1',3008,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'167123456789',4,'Süd',2,3100,167);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'167123456780',6,'Mitte',1,3103,167);</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
@@ -18795,8 +18796,8 @@
         <v>86</v>
       </c>
       <c r="G170" s="15" t="str">
-        <f t="shared" ref="G170:G233" ca="1" si="331">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B170,",'",E170,"',",C170,",'",D170,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A170,B170,"123456789',4,'Süd',2,3100,",B170,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A170,B170,"123456780',6,'Mitte',1,3103,",B170,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(169,'1',3010,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('169123456789',4,'Süd',2,3100,169);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('169123456780',6,'Mitte',1,3103,169);</v>
+        <f t="shared" ref="G170:G233" ca="1" si="331">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B170,",'",E170,"',",C170,",'",D170,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A170,B170,"123456789',4,'Süd',2,3100,",B170,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A170,B170,"123456780',6,'Mitte',1,3103,",B170,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(169,'1',3010,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'169123456789',4,'Süd',2,3100,169);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'169123456780',6,'Mitte',1,3103,169);</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
@@ -18836,8 +18837,8 @@
         <v>87</v>
       </c>
       <c r="G172" s="15" t="str">
-        <f t="shared" ref="G172:G235" ca="1" si="335">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B172,",'",E172,"',",C172,",'",D172,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A172,B172,"123456789',4,'Süd',2,3100,",B172,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A172,B172,"123456780',6,'Mitte',1,3103,",B172,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(171,'1',3011,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('171123456789',4,'Süd',2,3100,171);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('171123456780',6,'Mitte',1,3103,171);</v>
+        <f t="shared" ref="G172:G235" ca="1" si="335">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B172,",'",E172,"',",C172,",'",D172,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A172,B172,"123456789',4,'Süd',2,3100,",B172,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A172,B172,"123456780',6,'Mitte',1,3103,",B172,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(171,'1',3011,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'171123456789',4,'Süd',2,3100,171);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'171123456780',6,'Mitte',1,3103,171);</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
@@ -18877,8 +18878,8 @@
         <v>88</v>
       </c>
       <c r="G174" s="15" t="str">
-        <f t="shared" ref="G174:G237" ca="1" si="339">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B174,",'",E174,"',",C174,",'",D174,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A174,B174,"123456789',4,'Süd',2,3100,",B174,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A174,B174,"123456780',6,'Mitte',1,3103,",B174,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(173,'1',3012,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('173123456789',4,'Süd',2,3100,173);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('173123456780',6,'Mitte',1,3103,173);</v>
+        <f t="shared" ref="G174:G237" ca="1" si="339">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B174,",'",E174,"',",C174,",'",D174,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A174,B174,"123456789',4,'Süd',2,3100,",B174,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A174,B174,"123456780',6,'Mitte',1,3103,",B174,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(173,'1',3012,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'173123456789',4,'Süd',2,3100,173);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'173123456780',6,'Mitte',1,3103,173);</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
@@ -18918,8 +18919,8 @@
         <v>89</v>
       </c>
       <c r="G176" s="15" t="str">
-        <f t="shared" ref="G176:G239" ca="1" si="343">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B176,",'",E176,"',",C176,",'",D176,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A176,B176,"123456789',4,'Süd',2,3100,",B176,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A176,B176,"123456780',6,'Mitte',1,3103,",B176,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(175,'1',3013,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('175123456789',4,'Süd',2,3100,175);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('175123456780',6,'Mitte',1,3103,175);</v>
+        <f t="shared" ref="G176:G239" ca="1" si="343">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B176,",'",E176,"',",C176,",'",D176,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A176,B176,"123456789',4,'Süd',2,3100,",B176,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A176,B176,"123456780',6,'Mitte',1,3103,",B176,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(175,'1',3013,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'175123456789',4,'Süd',2,3100,175);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'175123456780',6,'Mitte',1,3103,175);</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
@@ -18959,8 +18960,8 @@
         <v>90</v>
       </c>
       <c r="G178" s="15" t="str">
-        <f t="shared" ref="G178:G241" ca="1" si="347">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B178,",'",E178,"',",C178,",'",D178,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A178,B178,"123456789',4,'Süd',2,3100,",B178,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A178,B178,"123456780',6,'Mitte',1,3103,",B178,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(177,'1',3014,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('177123456789',4,'Süd',2,3100,177);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('177123456780',6,'Mitte',1,3103,177);</v>
+        <f t="shared" ref="G178:G241" ca="1" si="347">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B178,",'",E178,"',",C178,",'",D178,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A178,B178,"123456789',4,'Süd',2,3100,",B178,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A178,B178,"123456780',6,'Mitte',1,3103,",B178,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(177,'1',3014,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'177123456789',4,'Süd',2,3100,177);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'177123456780',6,'Mitte',1,3103,177);</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
@@ -19000,8 +19001,8 @@
         <v>91</v>
       </c>
       <c r="G180" s="15" t="str">
-        <f t="shared" ref="G180:G243" ca="1" si="351">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B180,",'",E180,"',",C180,",'",D180,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A180,B180,"123456789',4,'Süd',2,3100,",B180,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A180,B180,"123456780',6,'Mitte',1,3103,",B180,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(179,'1',3015,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('179123456789',4,'Süd',2,3100,179);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('179123456780',6,'Mitte',1,3103,179);</v>
+        <f t="shared" ref="G180:G243" ca="1" si="351">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B180,",'",E180,"',",C180,",'",D180,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A180,B180,"123456789',4,'Süd',2,3100,",B180,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A180,B180,"123456780',6,'Mitte',1,3103,",B180,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(179,'1',3015,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'179123456789',4,'Süd',2,3100,179);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'179123456780',6,'Mitte',1,3103,179);</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
@@ -19041,8 +19042,8 @@
         <v>92</v>
       </c>
       <c r="G182" s="15" t="str">
-        <f t="shared" ref="G182:G245" ca="1" si="355">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B182,",'",E182,"',",C182,",'",D182,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A182,B182,"123456789',4,'Süd',2,3100,",B182,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A182,B182,"123456780',6,'Mitte',1,3103,",B182,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(181,'1',3018,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('181123456789',4,'Süd',2,3100,181);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('181123456780',6,'Mitte',1,3103,181);</v>
+        <f t="shared" ref="G182:G245" ca="1" si="355">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B182,",'",E182,"',",C182,",'",D182,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A182,B182,"123456789',4,'Süd',2,3100,",B182,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A182,B182,"123456780',6,'Mitte',1,3103,",B182,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(181,'1',3018,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'181123456789',4,'Süd',2,3100,181);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'181123456780',6,'Mitte',1,3103,181);</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
@@ -19082,8 +19083,8 @@
         <v>93</v>
       </c>
       <c r="G184" s="15" t="str">
-        <f t="shared" ref="G184:G247" ca="1" si="359">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B184,",'",E184,"',",C184,",'",D184,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A184,B184,"123456789',4,'Süd',2,3100,",B184,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A184,B184,"123456780',6,'Mitte',1,3103,",B184,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(183,'1',3019,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('183123456789',4,'Süd',2,3100,183);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('183123456780',6,'Mitte',1,3103,183);</v>
+        <f t="shared" ref="G184:G247" ca="1" si="359">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B184,",'",E184,"',",C184,",'",D184,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A184,B184,"123456789',4,'Süd',2,3100,",B184,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A184,B184,"123456780',6,'Mitte',1,3103,",B184,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(183,'1',3019,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'183123456789',4,'Süd',2,3100,183);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'183123456780',6,'Mitte',1,3103,183);</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
@@ -19123,8 +19124,8 @@
         <v>94</v>
       </c>
       <c r="G186" s="15" t="str">
-        <f t="shared" ref="G186:G249" ca="1" si="363">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B186,",'",E186,"',",C186,",'",D186,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A186,B186,"123456789',4,'Süd',2,3100,",B186,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A186,B186,"123456780',6,'Mitte',1,3103,",B186,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(185,'1',3020,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('185123456789',4,'Süd',2,3100,185);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('185123456780',6,'Mitte',1,3103,185);</v>
+        <f t="shared" ref="G186:G249" ca="1" si="363">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B186,",'",E186,"',",C186,",'",D186,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A186,B186,"123456789',4,'Süd',2,3100,",B186,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A186,B186,"123456780',6,'Mitte',1,3103,",B186,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(185,'1',3020,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'185123456789',4,'Süd',2,3100,185);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'185123456780',6,'Mitte',1,3103,185);</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
@@ -19164,8 +19165,8 @@
         <v>95</v>
       </c>
       <c r="G188" s="15" t="str">
-        <f t="shared" ref="G188:G251" ca="1" si="367">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B188,",'",E188,"',",C188,",'",D188,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A188,B188,"123456789',4,'Süd',2,3100,",B188,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A188,B188,"123456780',6,'Mitte',1,3103,",B188,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(187,'1',3027,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('187123456789',4,'Süd',2,3100,187);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('187123456780',6,'Mitte',1,3103,187);</v>
+        <f t="shared" ref="G188:G251" ca="1" si="367">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B188,",'",E188,"',",C188,",'",D188,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A188,B188,"123456789',4,'Süd',2,3100,",B188,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A188,B188,"123456780',6,'Mitte',1,3103,",B188,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(187,'1',3027,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'187123456789',4,'Süd',2,3100,187);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'187123456780',6,'Mitte',1,3103,187);</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
@@ -19205,8 +19206,8 @@
         <v>96</v>
       </c>
       <c r="G190" s="15" t="str">
-        <f t="shared" ref="G190:G253" ca="1" si="371">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B190,",'",E190,"',",C190,",'",D190,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A190,B190,"123456789',4,'Süd',2,3100,",B190,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A190,B190,"123456780',6,'Mitte',1,3103,",B190,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(189,'1',3032,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('189123456789',4,'Süd',2,3100,189);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('189123456780',6,'Mitte',1,3103,189);</v>
+        <f t="shared" ref="G190:G253" ca="1" si="371">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B190,",'",E190,"',",C190,",'",D190,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A190,B190,"123456789',4,'Süd',2,3100,",B190,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A190,B190,"123456780',6,'Mitte',1,3103,",B190,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(189,'1',3032,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'189123456789',4,'Süd',2,3100,189);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'189123456780',6,'Mitte',1,3103,189);</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
@@ -19246,8 +19247,8 @@
         <v>97</v>
       </c>
       <c r="G192" s="15" t="str">
-        <f t="shared" ref="G192:G255" ca="1" si="375">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B192,",'",E192,"',",C192,",'",D192,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A192,B192,"123456789',4,'Süd',2,3100,",B192,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A192,B192,"123456780',6,'Mitte',1,3103,",B192,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(191,'1',3033,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('191123456789',4,'Süd',2,3100,191);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('191123456780',6,'Mitte',1,3103,191);</v>
+        <f t="shared" ref="G192:G255" ca="1" si="375">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B192,",'",E192,"',",C192,",'",D192,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A192,B192,"123456789',4,'Süd',2,3100,",B192,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A192,B192,"123456780',6,'Mitte',1,3103,",B192,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(191,'1',3033,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'191123456789',4,'Süd',2,3100,191);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'191123456780',6,'Mitte',1,3103,191);</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
@@ -19287,8 +19288,8 @@
         <v>98</v>
       </c>
       <c r="G194" s="15" t="str">
-        <f t="shared" ref="G194:G257" ca="1" si="379">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B194,",'",E194,"',",C194,",'",D194,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A194,B194,"123456789',4,'Süd',2,3100,",B194,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A194,B194,"123456780',6,'Mitte',1,3103,",B194,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(193,'1',3034,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('193123456789',4,'Süd',2,3100,193);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('193123456780',6,'Mitte',1,3103,193);</v>
+        <f t="shared" ref="G194:G257" ca="1" si="379">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B194,",'",E194,"',",C194,",'",D194,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A194,B194,"123456789',4,'Süd',2,3100,",B194,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A194,B194,"123456780',6,'Mitte',1,3103,",B194,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(193,'1',3034,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'193123456789',4,'Süd',2,3100,193);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'193123456780',6,'Mitte',1,3103,193);</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
@@ -19328,8 +19329,8 @@
         <v>99</v>
       </c>
       <c r="G196" s="15" t="str">
-        <f t="shared" ref="G196:G259" ca="1" si="383">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B196,",'",E196,"',",C196,",'",D196,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A196,B196,"123456789',4,'Süd',2,3100,",B196,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A196,B196,"123456780',6,'Mitte',1,3103,",B196,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(195,'1',3035,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('195123456789',4,'Süd',2,3100,195);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('195123456780',6,'Mitte',1,3103,195);</v>
+        <f t="shared" ref="G196:G259" ca="1" si="383">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B196,",'",E196,"',",C196,",'",D196,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A196,B196,"123456789',4,'Süd',2,3100,",B196,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A196,B196,"123456780',6,'Mitte',1,3103,",B196,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(195,'1',3035,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'195123456789',4,'Süd',2,3100,195);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'195123456780',6,'Mitte',1,3103,195);</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
@@ -19369,8 +19370,8 @@
         <v>100</v>
       </c>
       <c r="G198" s="15" t="str">
-        <f t="shared" ref="G198:G261" ca="1" si="387">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B198,",'",E198,"',",C198,",'",D198,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A198,B198,"123456789',4,'Süd',2,3100,",B198,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A198,B198,"123456780',6,'Mitte',1,3103,",B198,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(197,'1',3036,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('197123456789',4,'Süd',2,3100,197);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('197123456780',6,'Mitte',1,3103,197);</v>
+        <f t="shared" ref="G198:G261" ca="1" si="387">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B198,",'",E198,"',",C198,",'",D198,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A198,B198,"123456789',4,'Süd',2,3100,",B198,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A198,B198,"123456780',6,'Mitte',1,3103,",B198,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(197,'1',3036,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'197123456789',4,'Süd',2,3100,197);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'197123456780',6,'Mitte',1,3103,197);</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
@@ -19410,8 +19411,8 @@
         <v>101</v>
       </c>
       <c r="G200" s="15" t="str">
-        <f t="shared" ref="G200:G263" ca="1" si="391">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B200,",'",E200,"',",C200,",'",D200,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A200,B200,"123456789',4,'Süd',2,3100,",B200,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A200,B200,"123456780',6,'Mitte',1,3103,",B200,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(199,'1',3037,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('199123456789',4,'Süd',2,3100,199);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('199123456780',6,'Mitte',1,3103,199);</v>
+        <f t="shared" ref="G200:G263" ca="1" si="391">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B200,",'",E200,"',",C200,",'",D200,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A200,B200,"123456789',4,'Süd',2,3100,",B200,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A200,B200,"123456780',6,'Mitte',1,3103,",B200,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(199,'1',3037,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'199123456789',4,'Süd',2,3100,199);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'199123456780',6,'Mitte',1,3103,199);</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
@@ -19451,8 +19452,8 @@
         <v>102</v>
       </c>
       <c r="G202" s="15" t="str">
-        <f t="shared" ref="G202:G265" ca="1" si="395">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B202,",'",E202,"',",C202,",'",D202,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A202,B202,"123456789',4,'Süd',2,3100,",B202,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A202,B202,"123456780',6,'Mitte',1,3103,",B202,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(201,'1',3038,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('201123456789',4,'Süd',2,3100,201);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('201123456780',6,'Mitte',1,3103,201);</v>
+        <f t="shared" ref="G202:G265" ca="1" si="395">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B202,",'",E202,"',",C202,",'",D202,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A202,B202,"123456789',4,'Süd',2,3100,",B202,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A202,B202,"123456780',6,'Mitte',1,3103,",B202,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(201,'1',3038,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'201123456789',4,'Süd',2,3100,201);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'201123456780',6,'Mitte',1,3103,201);</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
@@ -19492,8 +19493,8 @@
         <v>103</v>
       </c>
       <c r="G204" s="15" t="str">
-        <f t="shared" ref="G204:G267" ca="1" si="399">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B204,",'",E204,"',",C204,",'",D204,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A204,B204,"123456789',4,'Süd',2,3100,",B204,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A204,B204,"123456780',6,'Mitte',1,3103,",B204,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(203,'1',3042,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('203123456789',4,'Süd',2,3100,203);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('203123456780',6,'Mitte',1,3103,203);</v>
+        <f t="shared" ref="G204:G267" ca="1" si="399">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B204,",'",E204,"',",C204,",'",D204,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A204,B204,"123456789',4,'Süd',2,3100,",B204,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A204,B204,"123456780',6,'Mitte',1,3103,",B204,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(203,'1',3042,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'203123456789',4,'Süd',2,3100,203);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'203123456780',6,'Mitte',1,3103,203);</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
@@ -19533,8 +19534,8 @@
         <v>104</v>
       </c>
       <c r="G206" s="15" t="str">
-        <f t="shared" ref="G206:G269" ca="1" si="403">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B206,",'",E206,"',",C206,",'",D206,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A206,B206,"123456789',4,'Süd',2,3100,",B206,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A206,B206,"123456780',6,'Mitte',1,3103,",B206,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(205,'1',3043,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('205123456789',4,'Süd',2,3100,205);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('205123456780',6,'Mitte',1,3103,205);</v>
+        <f t="shared" ref="G206:G269" ca="1" si="403">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B206,",'",E206,"',",C206,",'",D206,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A206,B206,"123456789',4,'Süd',2,3100,",B206,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A206,B206,"123456780',6,'Mitte',1,3103,",B206,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(205,'1',3043,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'205123456789',4,'Süd',2,3100,205);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'205123456780',6,'Mitte',1,3103,205);</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
@@ -19574,8 +19575,8 @@
         <v>105</v>
       </c>
       <c r="G208" s="15" t="str">
-        <f t="shared" ref="G208:G271" ca="1" si="407">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B208,",'",E208,"',",C208,",'",D208,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A208,B208,"123456789',4,'Süd',2,3100,",B208,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A208,B208,"123456780',6,'Mitte',1,3103,",B208,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(207,'1',3044,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('207123456789',4,'Süd',2,3100,207);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('207123456780',6,'Mitte',1,3103,207);</v>
+        <f t="shared" ref="G208:G271" ca="1" si="407">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B208,",'",E208,"',",C208,",'",D208,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A208,B208,"123456789',4,'Süd',2,3100,",B208,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A208,B208,"123456780',6,'Mitte',1,3103,",B208,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(207,'1',3044,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'207123456789',4,'Süd',2,3100,207);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'207123456780',6,'Mitte',1,3103,207);</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
@@ -19615,8 +19616,8 @@
         <v>106</v>
       </c>
       <c r="G210" s="15" t="str">
-        <f t="shared" ref="G210:G273" ca="1" si="411">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B210,",'",E210,"',",C210,",'",D210,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A210,B210,"123456789',4,'Süd',2,3100,",B210,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A210,B210,"123456780',6,'Mitte',1,3103,",B210,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(209,'1',3045,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('209123456789',4,'Süd',2,3100,209);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('209123456780',6,'Mitte',1,3103,209);</v>
+        <f t="shared" ref="G210:G273" ca="1" si="411">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B210,",'",E210,"',",C210,",'",D210,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A210,B210,"123456789',4,'Süd',2,3100,",B210,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A210,B210,"123456780',6,'Mitte',1,3103,",B210,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(209,'1',3045,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'209123456789',4,'Süd',2,3100,209);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'209123456780',6,'Mitte',1,3103,209);</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
@@ -19656,8 +19657,8 @@
         <v>107</v>
       </c>
       <c r="G212" s="15" t="str">
-        <f t="shared" ref="G212:G275" ca="1" si="415">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B212,",'",E212,"',",C212,",'",D212,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A212,B212,"123456789',4,'Süd',2,3100,",B212,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A212,B212,"123456780',6,'Mitte',1,3103,",B212,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(211,'1',3046,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('211123456789',4,'Süd',2,3100,211);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('211123456780',6,'Mitte',1,3103,211);</v>
+        <f t="shared" ref="G212:G275" ca="1" si="415">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B212,",'",E212,"',",C212,",'",D212,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A212,B212,"123456789',4,'Süd',2,3100,",B212,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A212,B212,"123456780',6,'Mitte',1,3103,",B212,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(211,'1',3046,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'211123456789',4,'Süd',2,3100,211);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'211123456780',6,'Mitte',1,3103,211);</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
@@ -19697,8 +19698,8 @@
         <v>108</v>
       </c>
       <c r="G214" s="15" t="str">
-        <f t="shared" ref="G214:G277" ca="1" si="419">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B214,",'",E214,"',",C214,",'",D214,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A214,B214,"123456789',4,'Süd',2,3100,",B214,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A214,B214,"123456780',6,'Mitte',1,3103,",B214,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(213,'1',3047,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('213123456789',4,'Süd',2,3100,213);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('213123456780',6,'Mitte',1,3103,213);</v>
+        <f t="shared" ref="G214:G277" ca="1" si="419">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B214,",'",E214,"',",C214,",'",D214,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A214,B214,"123456789',4,'Süd',2,3100,",B214,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A214,B214,"123456780',6,'Mitte',1,3103,",B214,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(213,'1',3047,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'213123456789',4,'Süd',2,3100,213);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'213123456780',6,'Mitte',1,3103,213);</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
@@ -19738,8 +19739,8 @@
         <v>109</v>
       </c>
       <c r="G216" s="15" t="str">
-        <f t="shared" ref="G216:G279" ca="1" si="423">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B216,",'",E216,"',",C216,",'",D216,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A216,B216,"123456789',4,'Süd',2,3100,",B216,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A216,B216,"123456780',6,'Mitte',1,3103,",B216,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(215,'1',3048,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('215123456789',4,'Süd',2,3100,215);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('215123456780',6,'Mitte',1,3103,215);</v>
+        <f t="shared" ref="G216:G279" ca="1" si="423">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B216,",'",E216,"',",C216,",'",D216,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A216,B216,"123456789',4,'Süd',2,3100,",B216,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A216,B216,"123456780',6,'Mitte',1,3103,",B216,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(215,'1',3048,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'215123456789',4,'Süd',2,3100,215);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'215123456780',6,'Mitte',1,3103,215);</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
@@ -19779,8 +19780,8 @@
         <v>110</v>
       </c>
       <c r="G218" s="15" t="str">
-        <f t="shared" ref="G218:G281" ca="1" si="427">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B218,",'",E218,"',",C218,",'",D218,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A218,B218,"123456789',4,'Süd',2,3100,",B218,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A218,B218,"123456780',6,'Mitte',1,3103,",B218,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(217,'1',3049,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('217123456789',4,'Süd',2,3100,217);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('217123456780',6,'Mitte',1,3103,217);</v>
+        <f t="shared" ref="G218:G281" ca="1" si="427">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B218,",'",E218,"',",C218,",'",D218,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A218,B218,"123456789',4,'Süd',2,3100,",B218,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A218,B218,"123456780',6,'Mitte',1,3103,",B218,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(217,'1',3049,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'217123456789',4,'Süd',2,3100,217);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'217123456780',6,'Mitte',1,3103,217);</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
@@ -19820,8 +19821,8 @@
         <v>111</v>
       </c>
       <c r="G220" s="15" t="str">
-        <f t="shared" ref="G220:G283" ca="1" si="431">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B220,",'",E220,"',",C220,",'",D220,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A220,B220,"123456789',4,'Süd',2,3100,",B220,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A220,B220,"123456780',6,'Mitte',1,3103,",B220,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(219,'1',3052,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('219123456789',4,'Süd',2,3100,219);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('219123456780',6,'Mitte',1,3103,219);</v>
+        <f t="shared" ref="G220:G283" ca="1" si="431">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B220,",'",E220,"',",C220,",'",D220,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A220,B220,"123456789',4,'Süd',2,3100,",B220,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A220,B220,"123456780',6,'Mitte',1,3103,",B220,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(219,'1',3052,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'219123456789',4,'Süd',2,3100,219);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'219123456780',6,'Mitte',1,3103,219);</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
@@ -19861,8 +19862,8 @@
         <v>112</v>
       </c>
       <c r="G222" s="15" t="str">
-        <f t="shared" ref="G222:G285" ca="1" si="435">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B222,",'",E222,"',",C222,",'",D222,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A222,B222,"123456789',4,'Süd',2,3100,",B222,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A222,B222,"123456780',6,'Mitte',1,3103,",B222,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(221,'1',3053,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('221123456789',4,'Süd',2,3100,221);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('221123456780',6,'Mitte',1,3103,221);</v>
+        <f t="shared" ref="G222:G285" ca="1" si="435">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B222,",'",E222,"',",C222,",'",D222,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A222,B222,"123456789',4,'Süd',2,3100,",B222,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A222,B222,"123456780',6,'Mitte',1,3103,",B222,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(221,'1',3053,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'221123456789',4,'Süd',2,3100,221);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'221123456780',6,'Mitte',1,3103,221);</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
@@ -19902,8 +19903,8 @@
         <v>113</v>
       </c>
       <c r="G224" s="15" t="str">
-        <f t="shared" ref="G224:G287" ca="1" si="439">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B224,",'",E224,"',",C224,",'",D224,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A224,B224,"123456789',4,'Süd',2,3100,",B224,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A224,B224,"123456780',6,'Mitte',1,3103,",B224,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(223,'1',3054,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('223123456789',4,'Süd',2,3100,223);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('223123456780',6,'Mitte',1,3103,223);</v>
+        <f t="shared" ref="G224:G287" ca="1" si="439">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B224,",'",E224,"',",C224,",'",D224,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A224,B224,"123456789',4,'Süd',2,3100,",B224,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A224,B224,"123456780',6,'Mitte',1,3103,",B224,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(223,'1',3054,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'223123456789',4,'Süd',2,3100,223);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'223123456780',6,'Mitte',1,3103,223);</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -19943,8 +19944,8 @@
         <v>114</v>
       </c>
       <c r="G226" s="15" t="str">
-        <f t="shared" ref="G226:G289" ca="1" si="443">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B226,",'",E226,"',",C226,",'",D226,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A226,B226,"123456789',4,'Süd',2,3100,",B226,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A226,B226,"123456780',6,'Mitte',1,3103,",B226,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(225,'1',3063,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('225123456789',4,'Süd',2,3100,225);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('225123456780',6,'Mitte',1,3103,225);</v>
+        <f t="shared" ref="G226:G289" ca="1" si="443">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B226,",'",E226,"',",C226,",'",D226,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A226,B226,"123456789',4,'Süd',2,3100,",B226,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A226,B226,"123456780',6,'Mitte',1,3103,",B226,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(225,'1',3063,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'225123456789',4,'Süd',2,3100,225);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'225123456780',6,'Mitte',1,3103,225);</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -19984,8 +19985,8 @@
         <v>115</v>
       </c>
       <c r="G228" s="15" t="str">
-        <f t="shared" ref="G228:G291" ca="1" si="447">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B228,",'",E228,"',",C228,",'",D228,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A228,B228,"123456789',4,'Süd',2,3100,",B228,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A228,B228,"123456780',6,'Mitte',1,3103,",B228,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(227,'1',3065,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('227123456789',4,'Süd',2,3100,227);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('227123456780',6,'Mitte',1,3103,227);</v>
+        <f t="shared" ref="G228:G291" ca="1" si="447">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B228,",'",E228,"',",C228,",'",D228,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A228,B228,"123456789',4,'Süd',2,3100,",B228,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A228,B228,"123456780',6,'Mitte',1,3103,",B228,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(227,'1',3065,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'227123456789',4,'Süd',2,3100,227);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'227123456780',6,'Mitte',1,3103,227);</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -20025,8 +20026,8 @@
         <v>116</v>
       </c>
       <c r="G230" s="15" t="str">
-        <f t="shared" ref="G230:G293" ca="1" si="451">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B230,",'",E230,"',",C230,",'",D230,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A230,B230,"123456789',4,'Süd',2,3100,",B230,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A230,B230,"123456780',6,'Mitte',1,3103,",B230,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(229,'1',3066,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('229123456789',4,'Süd',2,3100,229);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('229123456780',6,'Mitte',1,3103,229);</v>
+        <f t="shared" ref="G230:G293" ca="1" si="451">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B230,",'",E230,"',",C230,",'",D230,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A230,B230,"123456789',4,'Süd',2,3100,",B230,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A230,B230,"123456780',6,'Mitte',1,3103,",B230,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(229,'1',3066,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'229123456789',4,'Süd',2,3100,229);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'229123456780',6,'Mitte',1,3103,229);</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -20066,8 +20067,8 @@
         <v>117</v>
       </c>
       <c r="G232" s="15" t="str">
-        <f t="shared" ref="G232:G295" ca="1" si="455">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B232,",'",E232,"',",C232,",'",D232,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A232,B232,"123456789',4,'Süd',2,3100,",B232,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A232,B232,"123456780',6,'Mitte',1,3103,",B232,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(231,'1',3067,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('231123456789',4,'Süd',2,3100,231);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('231123456780',6,'Mitte',1,3103,231);</v>
+        <f t="shared" ref="G232:G295" ca="1" si="455">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B232,",'",E232,"',",C232,",'",D232,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A232,B232,"123456789',4,'Süd',2,3100,",B232,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A232,B232,"123456780',6,'Mitte',1,3103,",B232,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(231,'1',3067,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'231123456789',4,'Süd',2,3100,231);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'231123456780',6,'Mitte',1,3103,231);</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -20107,8 +20108,8 @@
         <v>118</v>
       </c>
       <c r="G234" s="15" t="str">
-        <f t="shared" ref="G234:G297" ca="1" si="459">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B234,",'",E234,"',",C234,",'",D234,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A234,B234,"123456789',4,'Süd',2,3100,",B234,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A234,B234,"123456780',6,'Mitte',1,3103,",B234,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(233,'1',3068,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('233123456789',4,'Süd',2,3100,233);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('233123456780',6,'Mitte',1,3103,233);</v>
+        <f t="shared" ref="G234:G297" ca="1" si="459">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B234,",'",E234,"',",C234,",'",D234,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A234,B234,"123456789',4,'Süd',2,3100,",B234,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A234,B234,"123456780',6,'Mitte',1,3103,",B234,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(233,'1',3068,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'233123456789',4,'Süd',2,3100,233);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'233123456780',6,'Mitte',1,3103,233);</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
@@ -20148,8 +20149,8 @@
         <v>119</v>
       </c>
       <c r="G236" s="15" t="str">
-        <f t="shared" ref="G236:G299" ca="1" si="463">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B236,",'",E236,"',",C236,",'",D236,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A236,B236,"123456789',4,'Süd',2,3100,",B236,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A236,B236,"123456780',6,'Mitte',1,3103,",B236,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(235,'1',3072,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('235123456789',4,'Süd',2,3100,235);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('235123456780',6,'Mitte',1,3103,235);</v>
+        <f t="shared" ref="G236:G299" ca="1" si="463">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B236,",'",E236,"',",C236,",'",D236,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A236,B236,"123456789',4,'Süd',2,3100,",B236,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A236,B236,"123456780',6,'Mitte',1,3103,",B236,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(235,'1',3072,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'235123456789',4,'Süd',2,3100,235);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'235123456780',6,'Mitte',1,3103,235);</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -20189,8 +20190,8 @@
         <v>120</v>
       </c>
       <c r="G238" s="15" t="str">
-        <f t="shared" ref="G238:G301" ca="1" si="467">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B238,",'",E238,"',",C238,",'",D238,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A238,B238,"123456789',4,'Süd',2,3100,",B238,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A238,B238,"123456780',6,'Mitte',1,3103,",B238,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(237,'1',3073,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('237123456789',4,'Süd',2,3100,237);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('237123456780',6,'Mitte',1,3103,237);</v>
+        <f t="shared" ref="G238:G301" ca="1" si="467">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B238,",'",E238,"',",C238,",'",D238,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A238,B238,"123456789',4,'Süd',2,3100,",B238,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A238,B238,"123456780',6,'Mitte',1,3103,",B238,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(237,'1',3073,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'237123456789',4,'Süd',2,3100,237);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'237123456780',6,'Mitte',1,3103,237);</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
@@ -20230,8 +20231,8 @@
         <v>121</v>
       </c>
       <c r="G240" s="15" t="str">
-        <f t="shared" ref="G240:G303" ca="1" si="471">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B240,",'",E240,"',",C240,",'",D240,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A240,B240,"123456789',4,'Süd',2,3100,",B240,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A240,B240,"123456780',6,'Mitte',1,3103,",B240,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(239,'1',3074,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('239123456789',4,'Süd',2,3100,239);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('239123456780',6,'Mitte',1,3103,239);</v>
+        <f t="shared" ref="G240:G303" ca="1" si="471">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B240,",'",E240,"',",C240,",'",D240,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A240,B240,"123456789',4,'Süd',2,3100,",B240,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A240,B240,"123456780',6,'Mitte',1,3103,",B240,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(239,'1',3074,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'239123456789',4,'Süd',2,3100,239);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'239123456780',6,'Mitte',1,3103,239);</v>
       </c>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
@@ -20271,8 +20272,8 @@
         <v>122</v>
       </c>
       <c r="G242" s="15" t="str">
-        <f t="shared" ref="G242:G305" ca="1" si="475">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B242,",'",E242,"',",C242,",'",D242,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A242,B242,"123456789',4,'Süd',2,3100,",B242,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A242,B242,"123456780',6,'Mitte',1,3103,",B242,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(241,'1',3075,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('241123456789',4,'Süd',2,3100,241);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('241123456780',6,'Mitte',1,3103,241);</v>
+        <f t="shared" ref="G242:G305" ca="1" si="475">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B242,",'",E242,"',",C242,",'",D242,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A242,B242,"123456789',4,'Süd',2,3100,",B242,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A242,B242,"123456780',6,'Mitte',1,3103,",B242,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(241,'1',3075,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'241123456789',4,'Süd',2,3100,241);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'241123456780',6,'Mitte',1,3103,241);</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
@@ -20312,8 +20313,8 @@
         <v>123</v>
       </c>
       <c r="G244" s="15" t="str">
-        <f t="shared" ref="G244:G307" ca="1" si="479">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B244,",'",E244,"',",C244,",'",D244,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A244,B244,"123456789',4,'Süd',2,3100,",B244,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A244,B244,"123456780',6,'Mitte',1,3103,",B244,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(243,'1',3076,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('243123456789',4,'Süd',2,3100,243);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('243123456780',6,'Mitte',1,3103,243);</v>
+        <f t="shared" ref="G244:G307" ca="1" si="479">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B244,",'",E244,"',",C244,",'",D244,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A244,B244,"123456789',4,'Süd',2,3100,",B244,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A244,B244,"123456780',6,'Mitte',1,3103,",B244,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(243,'1',3076,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'243123456789',4,'Süd',2,3100,243);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'243123456780',6,'Mitte',1,3103,243);</v>
       </c>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
@@ -20353,8 +20354,8 @@
         <v>124</v>
       </c>
       <c r="G246" s="15" t="str">
-        <f t="shared" ref="G246:G309" ca="1" si="483">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B246,",'",E246,"',",C246,",'",D246,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A246,B246,"123456789',4,'Süd',2,3100,",B246,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A246,B246,"123456780',6,'Mitte',1,3103,",B246,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(245,'1',3077,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('245123456789',4,'Süd',2,3100,245);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('245123456780',6,'Mitte',1,3103,245);</v>
+        <f t="shared" ref="G246:G309" ca="1" si="483">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B246,",'",E246,"',",C246,",'",D246,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A246,B246,"123456789',4,'Süd',2,3100,",B246,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A246,B246,"123456780',6,'Mitte',1,3103,",B246,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(245,'1',3077,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'245123456789',4,'Süd',2,3100,245);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'245123456780',6,'Mitte',1,3103,245);</v>
       </c>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
@@ -20394,8 +20395,8 @@
         <v>125</v>
       </c>
       <c r="G248" s="15" t="str">
-        <f t="shared" ref="G248:G311" ca="1" si="487">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B248,",'",E248,"',",C248,",'",D248,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A248,B248,"123456789',4,'Süd',2,3100,",B248,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A248,B248,"123456780',6,'Mitte',1,3103,",B248,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(247,'1',3078,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('247123456789',4,'Süd',2,3100,247);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('247123456780',6,'Mitte',1,3103,247);</v>
+        <f t="shared" ref="G248:G311" ca="1" si="487">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B248,",'",E248,"',",C248,",'",D248,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A248,B248,"123456789',4,'Süd',2,3100,",B248,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A248,B248,"123456780',6,'Mitte',1,3103,",B248,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(247,'1',3078,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'247123456789',4,'Süd',2,3100,247);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'247123456780',6,'Mitte',1,3103,247);</v>
       </c>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
@@ -20435,8 +20436,8 @@
         <v>126</v>
       </c>
       <c r="G250" s="15" t="str">
-        <f t="shared" ref="G250:G313" ca="1" si="491">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B250,",'",E250,"',",C250,",'",D250,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A250,B250,"123456789',4,'Süd',2,3100,",B250,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A250,B250,"123456780',6,'Mitte',1,3103,",B250,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(249,'1',3082,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('249123456789',4,'Süd',2,3100,249);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('249123456780',6,'Mitte',1,3103,249);</v>
+        <f t="shared" ref="G250:G313" ca="1" si="491">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B250,",'",E250,"',",C250,",'",D250,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A250,B250,"123456789',4,'Süd',2,3100,",B250,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A250,B250,"123456780',6,'Mitte',1,3103,",B250,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(249,'1',3082,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'249123456789',4,'Süd',2,3100,249);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'249123456780',6,'Mitte',1,3103,249);</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
@@ -20476,8 +20477,8 @@
         <v>127</v>
       </c>
       <c r="G252" s="15" t="str">
-        <f t="shared" ref="G252:G315" ca="1" si="495">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B252,",'",E252,"',",C252,",'",D252,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A252,B252,"123456789',4,'Süd',2,3100,",B252,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A252,B252,"123456780',6,'Mitte',1,3103,",B252,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(251,'1',3083,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('251123456789',4,'Süd',2,3100,251);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('251123456780',6,'Mitte',1,3103,251);</v>
+        <f t="shared" ref="G252:G315" ca="1" si="495">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B252,",'",E252,"',",C252,",'",D252,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A252,B252,"123456789',4,'Süd',2,3100,",B252,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A252,B252,"123456780',6,'Mitte',1,3103,",B252,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(251,'1',3083,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'251123456789',4,'Süd',2,3100,251);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'251123456780',6,'Mitte',1,3103,251);</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
@@ -20517,8 +20518,8 @@
         <v>128</v>
       </c>
       <c r="G254" s="15" t="str">
-        <f t="shared" ref="G254:G317" ca="1" si="499">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B254,",'",E254,"',",C254,",'",D254,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A254,B254,"123456789',4,'Süd',2,3100,",B254,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A254,B254,"123456780',6,'Mitte',1,3103,",B254,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(253,'1',3084,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('253123456789',4,'Süd',2,3100,253);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('253123456780',6,'Mitte',1,3103,253);</v>
+        <f t="shared" ref="G254:G317" ca="1" si="499">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B254,",'",E254,"',",C254,",'",D254,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A254,B254,"123456789',4,'Süd',2,3100,",B254,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A254,B254,"123456780',6,'Mitte',1,3103,",B254,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(253,'1',3084,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'253123456789',4,'Süd',2,3100,253);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'253123456780',6,'Mitte',1,3103,253);</v>
       </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
@@ -20558,8 +20559,8 @@
         <v>129</v>
       </c>
       <c r="G256" s="15" t="str">
-        <f t="shared" ref="G256:G319" ca="1" si="503">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B256,",'",E256,"',",C256,",'",D256,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A256,B256,"123456789',4,'Süd',2,3100,",B256,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A256,B256,"123456780',6,'Mitte',1,3103,",B256,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(255,'1',3086,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('255123456789',4,'Süd',2,3100,255);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('255123456780',6,'Mitte',1,3103,255);</v>
+        <f t="shared" ref="G256:G319" ca="1" si="503">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B256,",'",E256,"',",C256,",'",D256,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A256,B256,"123456789',4,'Süd',2,3100,",B256,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A256,B256,"123456780',6,'Mitte',1,3103,",B256,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(255,'1',3086,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'255123456789',4,'Süd',2,3100,255);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'255123456780',6,'Mitte',1,3103,255);</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
@@ -20599,8 +20600,8 @@
         <v>130</v>
       </c>
       <c r="G258" s="15" t="str">
-        <f t="shared" ref="G258:G321" ca="1" si="507">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B258,",'",E258,"',",C258,",'",D258,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A258,B258,"123456789',4,'Süd',2,3100,",B258,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A258,B258,"123456780',6,'Mitte',1,3103,",B258,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(257,'1',3087,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('257123456789',4,'Süd',2,3100,257);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('257123456780',6,'Mitte',1,3103,257);</v>
+        <f t="shared" ref="G258:G321" ca="1" si="507">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B258,",'",E258,"',",C258,",'",D258,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A258,B258,"123456789',4,'Süd',2,3100,",B258,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A258,B258,"123456780',6,'Mitte',1,3103,",B258,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(257,'1',3087,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'257123456789',4,'Süd',2,3100,257);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'257123456780',6,'Mitte',1,3103,257);</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
@@ -20640,8 +20641,8 @@
         <v>131</v>
       </c>
       <c r="G260" s="15" t="str">
-        <f t="shared" ref="G260:G323" ca="1" si="511">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B260,",'",E260,"',",C260,",'",D260,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A260,B260,"123456789',4,'Süd',2,3100,",B260,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A260,B260,"123456780',6,'Mitte',1,3103,",B260,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(259,'1',3088,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('259123456789',4,'Süd',2,3100,259);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('259123456780',6,'Mitte',1,3103,259);</v>
+        <f t="shared" ref="G260:G323" ca="1" si="511">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B260,",'",E260,"',",C260,",'",D260,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A260,B260,"123456789',4,'Süd',2,3100,",B260,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A260,B260,"123456780',6,'Mitte',1,3103,",B260,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(259,'1',3088,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'259123456789',4,'Süd',2,3100,259);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'259123456780',6,'Mitte',1,3103,259);</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
@@ -20681,8 +20682,8 @@
         <v>132</v>
       </c>
       <c r="G262" s="15" t="str">
-        <f t="shared" ref="G262:G325" ca="1" si="515">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B262,",'",E262,"',",C262,",'",D262,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A262,B262,"123456789',4,'Süd',2,3100,",B262,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A262,B262,"123456780',6,'Mitte',1,3103,",B262,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(261,'1',3089,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('261123456789',4,'Süd',2,3100,261);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('261123456780',6,'Mitte',1,3103,261);</v>
+        <f t="shared" ref="G262:G325" ca="1" si="515">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B262,",'",E262,"',",C262,",'",D262,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A262,B262,"123456789',4,'Süd',2,3100,",B262,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A262,B262,"123456780',6,'Mitte',1,3103,",B262,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(261,'1',3089,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'261123456789',4,'Süd',2,3100,261);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'261123456780',6,'Mitte',1,3103,261);</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
@@ -20722,8 +20723,8 @@
         <v>133</v>
       </c>
       <c r="G264" s="15" t="str">
-        <f t="shared" ref="G264:G327" ca="1" si="519">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B264,",'",E264,"',",C264,",'",D264,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A264,B264,"123456789',4,'Süd',2,3100,",B264,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A264,B264,"123456780',6,'Mitte',1,3103,",B264,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(263,'1',3095,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('263123456789',4,'Süd',2,3100,263);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('263123456780',6,'Mitte',1,3103,263);</v>
+        <f t="shared" ref="G264:G327" ca="1" si="519">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B264,",'",E264,"',",C264,",'",D264,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A264,B264,"123456789',4,'Süd',2,3100,",B264,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A264,B264,"123456780',6,'Mitte',1,3103,",B264,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(263,'1',3095,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'263123456789',4,'Süd',2,3100,263);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'263123456780',6,'Mitte',1,3103,263);</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
@@ -20763,8 +20764,8 @@
         <v>134</v>
       </c>
       <c r="G266" s="15" t="str">
-        <f t="shared" ref="G266:G329" ca="1" si="523">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B266,",'",E266,"',",C266,",'",D266,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A266,B266,"123456789',4,'Süd',2,3100,",B266,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A266,B266,"123456780',6,'Mitte',1,3103,",B266,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(265,'1',3096,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('265123456789',4,'Süd',2,3100,265);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('265123456780',6,'Mitte',1,3103,265);</v>
+        <f t="shared" ref="G266:G329" ca="1" si="523">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B266,",'",E266,"',",C266,",'",D266,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A266,B266,"123456789',4,'Süd',2,3100,",B266,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A266,B266,"123456780',6,'Mitte',1,3103,",B266,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(265,'1',3096,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'265123456789',4,'Süd',2,3100,265);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'265123456780',6,'Mitte',1,3103,265);</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
@@ -20804,8 +20805,8 @@
         <v>135</v>
       </c>
       <c r="G268" s="15" t="str">
-        <f t="shared" ref="G268:G331" ca="1" si="527">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B268,",'",E268,"',",C268,",'",D268,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A268,B268,"123456789',4,'Süd',2,3100,",B268,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A268,B268,"123456780',6,'Mitte',1,3103,",B268,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(267,'1',3097,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('267123456789',4,'Süd',2,3100,267);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('267123456780',6,'Mitte',1,3103,267);</v>
+        <f t="shared" ref="G268:G331" ca="1" si="527">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B268,",'",E268,"',",C268,",'",D268,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A268,B268,"123456789',4,'Süd',2,3100,",B268,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A268,B268,"123456780',6,'Mitte',1,3103,",B268,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(267,'1',3097,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'267123456789',4,'Süd',2,3100,267);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'267123456780',6,'Mitte',1,3103,267);</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
@@ -20845,8 +20846,8 @@
         <v>136</v>
       </c>
       <c r="G270" s="15" t="str">
-        <f t="shared" ref="G270:G333" ca="1" si="531">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B270,",'",E270,"',",C270,",'",D270,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A270,B270,"123456789',4,'Süd',2,3100,",B270,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A270,B270,"123456780',6,'Mitte',1,3103,",B270,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(269,'1',3098,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('269123456789',4,'Süd',2,3100,269);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('269123456780',6,'Mitte',1,3103,269);</v>
+        <f t="shared" ref="G270:G333" ca="1" si="531">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B270,",'",E270,"',",C270,",'",D270,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A270,B270,"123456789',4,'Süd',2,3100,",B270,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A270,B270,"123456780',6,'Mitte',1,3103,",B270,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(269,'1',3098,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'269123456789',4,'Süd',2,3100,269);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'269123456780',6,'Mitte',1,3103,269);</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
@@ -20886,8 +20887,8 @@
         <v>137</v>
       </c>
       <c r="G272" s="15" t="str">
-        <f t="shared" ref="G272:G335" ca="1" si="535">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B272,",'",E272,"',",C272,",'",D272,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A272,B272,"123456789',4,'Süd',2,3100,",B272,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A272,B272,"123456780',6,'Mitte',1,3103,",B272,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(271,'1',3099,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('271123456789',4,'Süd',2,3100,271);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('271123456780',6,'Mitte',1,3103,271);</v>
+        <f t="shared" ref="G272:G335" ca="1" si="535">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B272,",'",E272,"',",C272,",'",D272,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A272,B272,"123456789',4,'Süd',2,3100,",B272,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A272,B272,"123456780',6,'Mitte',1,3103,",B272,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(271,'1',3099,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'271123456789',4,'Süd',2,3100,271);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'271123456780',6,'Mitte',1,3103,271);</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
@@ -20927,8 +20928,8 @@
         <v>138</v>
       </c>
       <c r="G274" s="15" t="str">
-        <f t="shared" ref="G274:G337" ca="1" si="539">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B274,",'",E274,"',",C274,",'",D274,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A274,B274,"123456789',4,'Süd',2,3100,",B274,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A274,B274,"123456780',6,'Mitte',1,3103,",B274,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(273,'1',3110,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('273123456789',4,'Süd',2,3100,273);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('273123456780',6,'Mitte',1,3103,273);</v>
+        <f t="shared" ref="G274:G337" ca="1" si="539">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B274,",'",E274,"',",C274,",'",D274,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A274,B274,"123456789',4,'Süd',2,3100,",B274,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A274,B274,"123456780',6,'Mitte',1,3103,",B274,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(273,'1',3110,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'273123456789',4,'Süd',2,3100,273);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'273123456780',6,'Mitte',1,3103,273);</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
@@ -20968,8 +20969,8 @@
         <v>139</v>
       </c>
       <c r="G276" s="15" t="str">
-        <f t="shared" ref="G276:G339" ca="1" si="543">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B276,",'",E276,"',",C276,",'",D276,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A276,B276,"123456789',4,'Süd',2,3100,",B276,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A276,B276,"123456780',6,'Mitte',1,3103,",B276,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(275,'1',3111,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('275123456789',4,'Süd',2,3100,275);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('275123456780',6,'Mitte',1,3103,275);</v>
+        <f t="shared" ref="G276:G339" ca="1" si="543">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B276,",'",E276,"',",C276,",'",D276,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A276,B276,"123456789',4,'Süd',2,3100,",B276,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A276,B276,"123456780',6,'Mitte',1,3103,",B276,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(275,'1',3111,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'275123456789',4,'Süd',2,3100,275);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'275123456780',6,'Mitte',1,3103,275);</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
@@ -21009,8 +21010,8 @@
         <v>140</v>
       </c>
       <c r="G278" s="15" t="str">
-        <f t="shared" ref="G278:G341" ca="1" si="547">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B278,",'",E278,"',",C278,",'",D278,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A278,B278,"123456789',4,'Süd',2,3100,",B278,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A278,B278,"123456780',6,'Mitte',1,3103,",B278,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(277,'1',3112,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('277123456789',4,'Süd',2,3100,277);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('277123456780',6,'Mitte',1,3103,277);</v>
+        <f t="shared" ref="G278:G341" ca="1" si="547">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B278,",'",E278,"',",C278,",'",D278,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A278,B278,"123456789',4,'Süd',2,3100,",B278,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A278,B278,"123456780',6,'Mitte',1,3103,",B278,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(277,'1',3112,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'277123456789',4,'Süd',2,3100,277);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'277123456780',6,'Mitte',1,3103,277);</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
@@ -21050,8 +21051,8 @@
         <v>141</v>
       </c>
       <c r="G280" s="15" t="str">
-        <f t="shared" ref="G280:G343" ca="1" si="551">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B280,",'",E280,"',",C280,",'",D280,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A280,B280,"123456789',4,'Süd',2,3100,",B280,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A280,B280,"123456780',6,'Mitte',1,3103,",B280,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(279,'1',3113,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('279123456789',4,'Süd',2,3100,279);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('279123456780',6,'Mitte',1,3103,279);</v>
+        <f t="shared" ref="G280:G343" ca="1" si="551">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B280,",'",E280,"',",C280,",'",D280,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A280,B280,"123456789',4,'Süd',2,3100,",B280,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A280,B280,"123456780',6,'Mitte',1,3103,",B280,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(279,'1',3113,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'279123456789',4,'Süd',2,3100,279);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'279123456780',6,'Mitte',1,3103,279);</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
@@ -21091,8 +21092,8 @@
         <v>142</v>
       </c>
       <c r="G282" s="15" t="str">
-        <f t="shared" ref="G282:G345" ca="1" si="555">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B282,",'",E282,"',",C282,",'",D282,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A282,B282,"123456789',4,'Süd',2,3100,",B282,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A282,B282,"123456780',6,'Mitte',1,3103,",B282,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(281,'1',3114,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('281123456789',4,'Süd',2,3100,281);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('281123456780',6,'Mitte',1,3103,281);</v>
+        <f t="shared" ref="G282:G345" ca="1" si="555">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B282,",'",E282,"',",C282,",'",D282,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A282,B282,"123456789',4,'Süd',2,3100,",B282,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A282,B282,"123456780',6,'Mitte',1,3103,",B282,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(281,'1',3114,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'281123456789',4,'Süd',2,3100,281);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'281123456780',6,'Mitte',1,3103,281);</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
@@ -21132,8 +21133,8 @@
         <v>143</v>
       </c>
       <c r="G284" s="15" t="str">
-        <f t="shared" ref="G284:G347" ca="1" si="559">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B284,",'",E284,"',",C284,",'",D284,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A284,B284,"123456789',4,'Süd',2,3100,",B284,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A284,B284,"123456780',6,'Mitte',1,3103,",B284,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(283,'1',3115,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('283123456789',4,'Süd',2,3100,283);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('283123456780',6,'Mitte',1,3103,283);</v>
+        <f t="shared" ref="G284:G347" ca="1" si="559">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B284,",'",E284,"',",C284,",'",D284,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A284,B284,"123456789',4,'Süd',2,3100,",B284,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A284,B284,"123456780',6,'Mitte',1,3103,",B284,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(283,'1',3115,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'283123456789',4,'Süd',2,3100,283);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'283123456780',6,'Mitte',1,3103,283);</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
@@ -21173,8 +21174,8 @@
         <v>144</v>
       </c>
       <c r="G286" s="15" t="str">
-        <f t="shared" ref="G286:G349" ca="1" si="563">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B286,",'",E286,"',",C286,",'",D286,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A286,B286,"123456789',4,'Süd',2,3100,",B286,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A286,B286,"123456780',6,'Mitte',1,3103,",B286,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(285,'1',3116,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('285123456789',4,'Süd',2,3100,285);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('285123456780',6,'Mitte',1,3103,285);</v>
+        <f t="shared" ref="G286:G349" ca="1" si="563">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B286,",'",E286,"',",C286,",'",D286,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A286,B286,"123456789',4,'Süd',2,3100,",B286,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A286,B286,"123456780',6,'Mitte',1,3103,",B286,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(285,'1',3116,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'285123456789',4,'Süd',2,3100,285);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'285123456780',6,'Mitte',1,3103,285);</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
@@ -21214,8 +21215,8 @@
         <v>145</v>
       </c>
       <c r="G288" s="15" t="str">
-        <f t="shared" ref="G288:G351" ca="1" si="567">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B288,",'",E288,"',",C288,",'",D288,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A288,B288,"123456789',4,'Süd',2,3100,",B288,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A288,B288,"123456780',6,'Mitte',1,3103,",B288,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(287,'1',3122,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('287123456789',4,'Süd',2,3100,287);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('287123456780',6,'Mitte',1,3103,287);</v>
+        <f t="shared" ref="G288:G351" ca="1" si="567">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B288,",'",E288,"',",C288,",'",D288,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A288,B288,"123456789',4,'Süd',2,3100,",B288,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A288,B288,"123456780',6,'Mitte',1,3103,",B288,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(287,'1',3122,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'287123456789',4,'Süd',2,3100,287);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'287123456780',6,'Mitte',1,3103,287);</v>
       </c>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
@@ -21255,8 +21256,8 @@
         <v>146</v>
       </c>
       <c r="G290" s="15" t="str">
-        <f t="shared" ref="G290:G353" ca="1" si="571">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B290,",'",E290,"',",C290,",'",D290,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A290,B290,"123456789',4,'Süd',2,3100,",B290,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A290,B290,"123456780',6,'Mitte',1,3103,",B290,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(289,'1',3123,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('289123456789',4,'Süd',2,3100,289);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('289123456780',6,'Mitte',1,3103,289);</v>
+        <f t="shared" ref="G290:G353" ca="1" si="571">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B290,",'",E290,"',",C290,",'",D290,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A290,B290,"123456789',4,'Süd',2,3100,",B290,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A290,B290,"123456780',6,'Mitte',1,3103,",B290,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(289,'1',3123,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'289123456789',4,'Süd',2,3100,289);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'289123456780',6,'Mitte',1,3103,289);</v>
       </c>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
@@ -21296,8 +21297,8 @@
         <v>147</v>
       </c>
       <c r="G292" s="15" t="str">
-        <f t="shared" ref="G292:G355" ca="1" si="575">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B292,",'",E292,"',",C292,",'",D292,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A292,B292,"123456789',4,'Süd',2,3100,",B292,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A292,B292,"123456780',6,'Mitte',1,3103,",B292,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(291,'1',3124,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('291123456789',4,'Süd',2,3100,291);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('291123456780',6,'Mitte',1,3103,291);</v>
+        <f t="shared" ref="G292:G355" ca="1" si="575">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B292,",'",E292,"',",C292,",'",D292,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A292,B292,"123456789',4,'Süd',2,3100,",B292,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A292,B292,"123456780',6,'Mitte',1,3103,",B292,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(291,'1',3124,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'291123456789',4,'Süd',2,3100,291);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'291123456780',6,'Mitte',1,3103,291);</v>
       </c>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.25">
@@ -21337,8 +21338,8 @@
         <v>148</v>
       </c>
       <c r="G294" s="15" t="str">
-        <f t="shared" ref="G294:G357" ca="1" si="579">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B294,",'",E294,"',",C294,",'",D294,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A294,B294,"123456789',4,'Süd',2,3100,",B294,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A294,B294,"123456780',6,'Mitte',1,3103,",B294,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(293,'1',3125,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('293123456789',4,'Süd',2,3100,293);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('293123456780',6,'Mitte',1,3103,293);</v>
+        <f t="shared" ref="G294:G357" ca="1" si="579">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B294,",'",E294,"',",C294,",'",D294,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A294,B294,"123456789',4,'Süd',2,3100,",B294,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A294,B294,"123456780',6,'Mitte',1,3103,",B294,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(293,'1',3125,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'293123456789',4,'Süd',2,3100,293);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'293123456780',6,'Mitte',1,3103,293);</v>
       </c>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.25">
@@ -21378,8 +21379,8 @@
         <v>149</v>
       </c>
       <c r="G296" s="15" t="str">
-        <f t="shared" ref="G296:G359" ca="1" si="583">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B296,",'",E296,"',",C296,",'",D296,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A296,B296,"123456789',4,'Süd',2,3100,",B296,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A296,B296,"123456780',6,'Mitte',1,3103,",B296,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(295,'1',3126,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('295123456789',4,'Süd',2,3100,295);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('295123456780',6,'Mitte',1,3103,295);</v>
+        <f t="shared" ref="G296:G359" ca="1" si="583">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B296,",'",E296,"',",C296,",'",D296,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A296,B296,"123456789',4,'Süd',2,3100,",B296,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A296,B296,"123456780',6,'Mitte',1,3103,",B296,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(295,'1',3126,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'295123456789',4,'Süd',2,3100,295);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'295123456780',6,'Mitte',1,3103,295);</v>
       </c>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.25">
@@ -21419,8 +21420,8 @@
         <v>150</v>
       </c>
       <c r="G298" s="15" t="str">
-        <f t="shared" ref="G298:G361" ca="1" si="587">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B298,",'",E298,"',",C298,",'",D298,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A298,B298,"123456789',4,'Süd',2,3100,",B298,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A298,B298,"123456780',6,'Mitte',1,3103,",B298,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(297,'1',3127,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('297123456789',4,'Süd',2,3100,297);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('297123456780',6,'Mitte',1,3103,297);</v>
+        <f t="shared" ref="G298:G361" ca="1" si="587">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B298,",'",E298,"',",C298,",'",D298,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A298,B298,"123456789',4,'Süd',2,3100,",B298,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A298,B298,"123456780',6,'Mitte',1,3103,",B298,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(297,'1',3127,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'297123456789',4,'Süd',2,3100,297);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'297123456780',6,'Mitte',1,3103,297);</v>
       </c>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
@@ -21460,8 +21461,8 @@
         <v>151</v>
       </c>
       <c r="G300" s="15" t="str">
-        <f t="shared" ref="G300:G363" ca="1" si="591">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B300,",'",E300,"',",C300,",'",D300,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A300,B300,"123456789',4,'Süd',2,3100,",B300,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A300,B300,"123456780',6,'Mitte',1,3103,",B300,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(299,'1',3128,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('299123456789',4,'Süd',2,3100,299);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('299123456780',6,'Mitte',1,3103,299);</v>
+        <f t="shared" ref="G300:G363" ca="1" si="591">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B300,",'",E300,"',",C300,",'",D300,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A300,B300,"123456789',4,'Süd',2,3100,",B300,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A300,B300,"123456780',6,'Mitte',1,3103,",B300,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(299,'1',3128,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'299123456789',4,'Süd',2,3100,299);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'299123456780',6,'Mitte',1,3103,299);</v>
       </c>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.25">
@@ -21501,8 +21502,8 @@
         <v>152</v>
       </c>
       <c r="G302" s="15" t="str">
-        <f t="shared" ref="G302:G365" ca="1" si="595">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B302,",'",E302,"',",C302,",'",D302,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A302,B302,"123456789',4,'Süd',2,3100,",B302,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A302,B302,"123456780',6,'Mitte',1,3103,",B302,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(301,'1',3132,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('301123456789',4,'Süd',2,3100,301);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('301123456780',6,'Mitte',1,3103,301);</v>
+        <f t="shared" ref="G302:G365" ca="1" si="595">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B302,",'",E302,"',",C302,",'",D302,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A302,B302,"123456789',4,'Süd',2,3100,",B302,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A302,B302,"123456780',6,'Mitte',1,3103,",B302,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(301,'1',3132,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'301123456789',4,'Süd',2,3100,301);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'301123456780',6,'Mitte',1,3103,301);</v>
       </c>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.25">
@@ -21542,8 +21543,8 @@
         <v>153</v>
       </c>
       <c r="G304" s="15" t="str">
-        <f t="shared" ref="G304:G367" ca="1" si="599">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B304,",'",E304,"',",C304,",'",D304,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A304,B304,"123456789',4,'Süd',2,3100,",B304,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A304,B304,"123456780',6,'Mitte',1,3103,",B304,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(303,'1',3144,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('303123456789',4,'Süd',2,3100,303);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('303123456780',6,'Mitte',1,3103,303);</v>
+        <f t="shared" ref="G304:G367" ca="1" si="599">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B304,",'",E304,"',",C304,",'",D304,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A304,B304,"123456789',4,'Süd',2,3100,",B304,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A304,B304,"123456780',6,'Mitte',1,3103,",B304,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(303,'1',3144,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'303123456789',4,'Süd',2,3100,303);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'303123456780',6,'Mitte',1,3103,303);</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
@@ -21583,8 +21584,8 @@
         <v>154</v>
       </c>
       <c r="G306" s="15" t="str">
-        <f t="shared" ref="G306:G369" ca="1" si="603">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B306,",'",E306,"',",C306,",'",D306,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A306,B306,"123456789',4,'Süd',2,3100,",B306,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A306,B306,"123456780',6,'Mitte',1,3103,",B306,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(305,'1',3145,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('305123456789',4,'Süd',2,3100,305);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('305123456780',6,'Mitte',1,3103,305);</v>
+        <f t="shared" ref="G306:G369" ca="1" si="603">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B306,",'",E306,"',",C306,",'",D306,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A306,B306,"123456789',4,'Süd',2,3100,",B306,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A306,B306,"123456780',6,'Mitte',1,3103,",B306,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(305,'1',3145,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'305123456789',4,'Süd',2,3100,305);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'305123456780',6,'Mitte',1,3103,305);</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
@@ -21624,8 +21625,8 @@
         <v>155</v>
       </c>
       <c r="G308" s="15" t="str">
-        <f t="shared" ref="G308:G371" ca="1" si="607">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B308,",'",E308,"',",C308,",'",D308,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A308,B308,"123456789',4,'Süd',2,3100,",B308,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A308,B308,"123456780',6,'Mitte',1,3103,",B308,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(307,'1',3147,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('307123456789',4,'Süd',2,3100,307);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('307123456780',6,'Mitte',1,3103,307);</v>
+        <f t="shared" ref="G308:G371" ca="1" si="607">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B308,",'",E308,"',",C308,",'",D308,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A308,B308,"123456789',4,'Süd',2,3100,",B308,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A308,B308,"123456780',6,'Mitte',1,3103,",B308,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(307,'1',3147,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'307123456789',4,'Süd',2,3100,307);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'307123456780',6,'Mitte',1,3103,307);</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
@@ -21665,8 +21666,8 @@
         <v>156</v>
       </c>
       <c r="G310" s="15" t="str">
-        <f t="shared" ref="G310:G373" ca="1" si="611">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B310,",'",E310,"',",C310,",'",D310,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A310,B310,"123456789',4,'Süd',2,3100,",B310,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A310,B310,"123456780',6,'Mitte',1,3103,",B310,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(309,'1',3148,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('309123456789',4,'Süd',2,3100,309);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('309123456780',6,'Mitte',1,3103,309);</v>
+        <f t="shared" ref="G310:G373" ca="1" si="611">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B310,",'",E310,"',",C310,",'",D310,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A310,B310,"123456789',4,'Süd',2,3100,",B310,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A310,B310,"123456780',6,'Mitte',1,3103,",B310,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(309,'1',3148,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'309123456789',4,'Süd',2,3100,309);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'309123456780',6,'Mitte',1,3103,309);</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
@@ -21706,8 +21707,8 @@
         <v>157</v>
       </c>
       <c r="G312" s="15" t="str">
-        <f t="shared" ref="G312:G375" ca="1" si="615">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B312,",'",E312,"',",C312,",'",D312,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A312,B312,"123456789',4,'Süd',2,3100,",B312,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A312,B312,"123456780',6,'Mitte',1,3103,",B312,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(311,'1',3150,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('311123456789',4,'Süd',2,3100,311);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('311123456780',6,'Mitte',1,3103,311);</v>
+        <f t="shared" ref="G312:G375" ca="1" si="615">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B312,",'",E312,"',",C312,",'",D312,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A312,B312,"123456789',4,'Süd',2,3100,",B312,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A312,B312,"123456780',6,'Mitte',1,3103,",B312,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(311,'1',3150,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'311123456789',4,'Süd',2,3100,311);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'311123456780',6,'Mitte',1,3103,311);</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
@@ -21747,8 +21748,8 @@
         <v>158</v>
       </c>
       <c r="G314" s="15" t="str">
-        <f t="shared" ref="G314:G377" ca="1" si="619">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B314,",'",E314,"',",C314,",'",D314,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A314,B314,"123456789',4,'Süd',2,3100,",B314,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A314,B314,"123456780',6,'Mitte',1,3103,",B314,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(313,'1',3152,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('313123456789',4,'Süd',2,3100,313);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('313123456780',6,'Mitte',1,3103,313);</v>
+        <f t="shared" ref="G314:G377" ca="1" si="619">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B314,",'",E314,"',",C314,",'",D314,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A314,B314,"123456789',4,'Süd',2,3100,",B314,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A314,B314,"123456780',6,'Mitte',1,3103,",B314,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(313,'1',3152,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'313123456789',4,'Süd',2,3100,313);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'313123456780',6,'Mitte',1,3103,313);</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
@@ -21788,8 +21789,8 @@
         <v>159</v>
       </c>
       <c r="G316" s="15" t="str">
-        <f t="shared" ref="G316:G379" ca="1" si="623">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B316,",'",E316,"',",C316,",'",D316,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A316,B316,"123456789',4,'Süd',2,3100,",B316,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A316,B316,"123456780',6,'Mitte',1,3103,",B316,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(315,'1',3153,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('315123456789',4,'Süd',2,3100,315);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('315123456780',6,'Mitte',1,3103,315);</v>
+        <f t="shared" ref="G316:G379" ca="1" si="623">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B316,",'",E316,"',",C316,",'",D316,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A316,B316,"123456789',4,'Süd',2,3100,",B316,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A316,B316,"123456780',6,'Mitte',1,3103,",B316,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(315,'1',3153,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'315123456789',4,'Süd',2,3100,315);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'315123456780',6,'Mitte',1,3103,315);</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
@@ -21829,8 +21830,8 @@
         <v>160</v>
       </c>
       <c r="G318" s="15" t="str">
-        <f t="shared" ref="G318:G381" ca="1" si="627">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B318,",'",E318,"',",C318,",'",D318,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A318,B318,"123456789',4,'Süd',2,3100,",B318,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A318,B318,"123456780',6,'Mitte',1,3103,",B318,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(317,'1',3154,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('317123456789',4,'Süd',2,3100,317);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('317123456780',6,'Mitte',1,3103,317);</v>
+        <f t="shared" ref="G318:G381" ca="1" si="627">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B318,",'",E318,"',",C318,",'",D318,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A318,B318,"123456789',4,'Süd',2,3100,",B318,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A318,B318,"123456780',6,'Mitte',1,3103,",B318,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(317,'1',3154,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'317123456789',4,'Süd',2,3100,317);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'317123456780',6,'Mitte',1,3103,317);</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
@@ -21870,8 +21871,8 @@
         <v>161</v>
       </c>
       <c r="G320" s="15" t="str">
-        <f t="shared" ref="G320:G383" ca="1" si="631">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B320,",'",E320,"',",C320,",'",D320,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A320,B320,"123456789',4,'Süd',2,3100,",B320,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A320,B320,"123456780',6,'Mitte',1,3103,",B320,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(319,'1',3155,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('319123456789',4,'Süd',2,3100,319);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('319123456780',6,'Mitte',1,3103,319);</v>
+        <f t="shared" ref="G320:G383" ca="1" si="631">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B320,",'",E320,"',",C320,",'",D320,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A320,B320,"123456789',4,'Süd',2,3100,",B320,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A320,B320,"123456780',6,'Mitte',1,3103,",B320,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(319,'1',3155,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'319123456789',4,'Süd',2,3100,319);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'319123456780',6,'Mitte',1,3103,319);</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
@@ -21911,8 +21912,8 @@
         <v>162</v>
       </c>
       <c r="G322" s="15" t="str">
-        <f t="shared" ref="G322:G385" ca="1" si="635">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B322,",'",E322,"',",C322,",'",D322,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A322,B322,"123456789',4,'Süd',2,3100,",B322,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A322,B322,"123456780',6,'Mitte',1,3103,",B322,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(321,'1',3156,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('321123456789',4,'Süd',2,3100,321);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('321123456780',6,'Mitte',1,3103,321);</v>
+        <f t="shared" ref="G322:G385" ca="1" si="635">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B322,",'",E322,"',",C322,",'",D322,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A322,B322,"123456789',4,'Süd',2,3100,",B322,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A322,B322,"123456780',6,'Mitte',1,3103,",B322,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(321,'1',3156,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'321123456789',4,'Süd',2,3100,321);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'321123456780',6,'Mitte',1,3103,321);</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
@@ -21952,8 +21953,8 @@
         <v>163</v>
       </c>
       <c r="G324" s="15" t="str">
-        <f t="shared" ref="G324:G387" ca="1" si="639">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B324,",'",E324,"',",C324,",'",D324,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A324,B324,"123456789',4,'Süd',2,3100,",B324,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A324,B324,"123456780',6,'Mitte',1,3103,",B324,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(323,'1',3157,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('323123456789',4,'Süd',2,3100,323);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('323123456780',6,'Mitte',1,3103,323);</v>
+        <f t="shared" ref="G324:G387" ca="1" si="639">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B324,",'",E324,"',",C324,",'",D324,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A324,B324,"123456789',4,'Süd',2,3100,",B324,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A324,B324,"123456780',6,'Mitte',1,3103,",B324,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(323,'1',3157,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'323123456789',4,'Süd',2,3100,323);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'323123456780',6,'Mitte',1,3103,323);</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
@@ -21993,8 +21994,8 @@
         <v>164</v>
       </c>
       <c r="G326" s="15" t="str">
-        <f t="shared" ref="G326:G389" ca="1" si="643">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B326,",'",E326,"',",C326,",'",D326,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A326,B326,"123456789',4,'Süd',2,3100,",B326,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A326,B326,"123456780',6,'Mitte',1,3103,",B326,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(325,'1',3158,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('325123456789',4,'Süd',2,3100,325);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('325123456780',6,'Mitte',1,3103,325);</v>
+        <f t="shared" ref="G326:G389" ca="1" si="643">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B326,",'",E326,"',",C326,",'",D326,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A326,B326,"123456789',4,'Süd',2,3100,",B326,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A326,B326,"123456780',6,'Mitte',1,3103,",B326,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(325,'1',3158,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'325123456789',4,'Süd',2,3100,325);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'325123456780',6,'Mitte',1,3103,325);</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
@@ -22034,8 +22035,8 @@
         <v>165</v>
       </c>
       <c r="G328" s="15" t="str">
-        <f t="shared" ref="G328:G391" ca="1" si="647">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B328,",'",E328,"',",C328,",'",D328,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A328,B328,"123456789',4,'Süd',2,3100,",B328,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A328,B328,"123456780',6,'Mitte',1,3103,",B328,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(327,'1',3159,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('327123456789',4,'Süd',2,3100,327);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('327123456780',6,'Mitte',1,3103,327);</v>
+        <f t="shared" ref="G328:G391" ca="1" si="647">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B328,",'",E328,"',",C328,",'",D328,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A328,B328,"123456789',4,'Süd',2,3100,",B328,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A328,B328,"123456780',6,'Mitte',1,3103,",B328,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(327,'1',3159,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'327123456789',4,'Süd',2,3100,327);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'327123456780',6,'Mitte',1,3103,327);</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
@@ -22075,8 +22076,8 @@
         <v>166</v>
       </c>
       <c r="G330" s="15" t="str">
-        <f t="shared" ref="G330:G393" ca="1" si="651">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B330,",'",E330,"',",C330,",'",D330,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A330,B330,"123456789',4,'Süd',2,3100,",B330,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A330,B330,"123456780',6,'Mitte',1,3103,",B330,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(329,'1',3172,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('329123456789',4,'Süd',2,3100,329);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('329123456780',6,'Mitte',1,3103,329);</v>
+        <f t="shared" ref="G330:G393" ca="1" si="651">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B330,",'",E330,"',",C330,",'",D330,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A330,B330,"123456789',4,'Süd',2,3100,",B330,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A330,B330,"123456780',6,'Mitte',1,3103,",B330,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(329,'1',3172,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'329123456789',4,'Süd',2,3100,329);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'329123456780',6,'Mitte',1,3103,329);</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
@@ -22116,8 +22117,8 @@
         <v>167</v>
       </c>
       <c r="G332" s="15" t="str">
-        <f t="shared" ref="G332:G395" ca="1" si="655">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B332,",'",E332,"',",C332,",'",D332,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A332,B332,"123456789',4,'Süd',2,3100,",B332,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A332,B332,"123456780',6,'Mitte',1,3103,",B332,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(331,'1',3173,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('331123456789',4,'Süd',2,3100,331);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('331123456780',6,'Mitte',1,3103,331);</v>
+        <f t="shared" ref="G332:G395" ca="1" si="655">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B332,",'",E332,"',",C332,",'",D332,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A332,B332,"123456789',4,'Süd',2,3100,",B332,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A332,B332,"123456780',6,'Mitte',1,3103,",B332,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(331,'1',3173,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'331123456789',4,'Süd',2,3100,331);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'331123456780',6,'Mitte',1,3103,331);</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
@@ -22157,8 +22158,8 @@
         <v>168</v>
       </c>
       <c r="G334" s="15" t="str">
-        <f t="shared" ref="G334:G397" ca="1" si="659">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B334,",'",E334,"',",C334,",'",D334,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A334,B334,"123456789',4,'Süd',2,3100,",B334,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A334,B334,"123456780',6,'Mitte',1,3103,",B334,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(333,'1',3174,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('333123456789',4,'Süd',2,3100,333);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('333123456780',6,'Mitte',1,3103,333);</v>
+        <f t="shared" ref="G334:G397" ca="1" si="659">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B334,",'",E334,"',",C334,",'",D334,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A334,B334,"123456789',4,'Süd',2,3100,",B334,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A334,B334,"123456780',6,'Mitte',1,3103,",B334,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(333,'1',3174,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'333123456789',4,'Süd',2,3100,333);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'333123456780',6,'Mitte',1,3103,333);</v>
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
@@ -22198,8 +22199,8 @@
         <v>169</v>
       </c>
       <c r="G336" s="15" t="str">
-        <f t="shared" ref="G336:G399" ca="1" si="663">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B336,",'",E336,"',",C336,",'",D336,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A336,B336,"123456789',4,'Süd',2,3100,",B336,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A336,B336,"123456780',6,'Mitte',1,3103,",B336,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(335,'1',3176,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('335123456789',4,'Süd',2,3100,335);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('335123456780',6,'Mitte',1,3103,335);</v>
+        <f t="shared" ref="G336:G399" ca="1" si="663">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B336,",'",E336,"',",C336,",'",D336,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A336,B336,"123456789',4,'Süd',2,3100,",B336,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A336,B336,"123456780',6,'Mitte',1,3103,",B336,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(335,'1',3176,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'335123456789',4,'Süd',2,3100,335);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'335123456780',6,'Mitte',1,3103,335);</v>
       </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
@@ -22239,8 +22240,8 @@
         <v>170</v>
       </c>
       <c r="G338" s="15" t="str">
-        <f t="shared" ref="G338:G401" ca="1" si="667">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B338,",'",E338,"',",C338,",'",D338,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A338,B338,"123456789',4,'Süd',2,3100,",B338,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A338,B338,"123456780',6,'Mitte',1,3103,",B338,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(337,'1',3177,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('337123456789',4,'Süd',2,3100,337);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('337123456780',6,'Mitte',1,3103,337);</v>
+        <f t="shared" ref="G338:G401" ca="1" si="667">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B338,",'",E338,"',",C338,",'",D338,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A338,B338,"123456789',4,'Süd',2,3100,",B338,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A338,B338,"123456780',6,'Mitte',1,3103,",B338,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(337,'1',3177,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'337123456789',4,'Süd',2,3100,337);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'337123456780',6,'Mitte',1,3103,337);</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
@@ -22280,8 +22281,8 @@
         <v>171</v>
       </c>
       <c r="G340" s="15" t="str">
-        <f t="shared" ref="G340:G403" ca="1" si="671">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B340,",'",E340,"',",C340,",'",D340,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A340,B340,"123456789',4,'Süd',2,3100,",B340,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A340,B340,"123456780',6,'Mitte',1,3103,",B340,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(339,'1',3179,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('339123456789',4,'Süd',2,3100,339);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('339123456780',6,'Mitte',1,3103,339);</v>
+        <f t="shared" ref="G340:G403" ca="1" si="671">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B340,",'",E340,"',",C340,",'",D340,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A340,B340,"123456789',4,'Süd',2,3100,",B340,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A340,B340,"123456780',6,'Mitte',1,3103,",B340,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(339,'1',3179,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'339123456789',4,'Süd',2,3100,339);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'339123456780',6,'Mitte',1,3103,339);</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.25">
@@ -22321,8 +22322,8 @@
         <v>172</v>
       </c>
       <c r="G342" s="15" t="str">
-        <f t="shared" ref="G342:G405" ca="1" si="675">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B342,",'",E342,"',",C342,",'",D342,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A342,B342,"123456789',4,'Süd',2,3100,",B342,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A342,B342,"123456780',6,'Mitte',1,3103,",B342,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(341,'1',3183,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('341123456789',4,'Süd',2,3100,341);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('341123456780',6,'Mitte',1,3103,341);</v>
+        <f t="shared" ref="G342:G405" ca="1" si="675">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B342,",'",E342,"',",C342,",'",D342,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A342,B342,"123456789',4,'Süd',2,3100,",B342,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A342,B342,"123456780',6,'Mitte',1,3103,",B342,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(341,'1',3183,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'341123456789',4,'Süd',2,3100,341);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'341123456780',6,'Mitte',1,3103,341);</v>
       </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.25">
@@ -22362,8 +22363,8 @@
         <v>173</v>
       </c>
       <c r="G344" s="15" t="str">
-        <f t="shared" ref="G344:G407" ca="1" si="679">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B344,",'",E344,"',",C344,",'",D344,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A344,B344,"123456789',4,'Süd',2,3100,",B344,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A344,B344,"123456780',6,'Mitte',1,3103,",B344,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(343,'1',3202,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('343123456789',4,'Süd',2,3100,343);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('343123456780',6,'Mitte',1,3103,343);</v>
+        <f t="shared" ref="G344:G407" ca="1" si="679">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B344,",'",E344,"',",C344,",'",D344,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A344,B344,"123456789',4,'Süd',2,3100,",B344,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A344,B344,"123456780',6,'Mitte',1,3103,",B344,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(343,'1',3202,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'343123456789',4,'Süd',2,3100,343);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'343123456780',6,'Mitte',1,3103,343);</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
@@ -22403,8 +22404,8 @@
         <v>174</v>
       </c>
       <c r="G346" s="15" t="str">
-        <f t="shared" ref="G346:G409" ca="1" si="683">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B346,",'",E346,"',",C346,",'",D346,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A346,B346,"123456789',4,'Süd',2,3100,",B346,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A346,B346,"123456780',6,'Mitte',1,3103,",B346,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(345,'1',3203,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('345123456789',4,'Süd',2,3100,345);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('345123456780',6,'Mitte',1,3103,345);</v>
+        <f t="shared" ref="G346:G409" ca="1" si="683">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B346,",'",E346,"',",C346,",'",D346,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A346,B346,"123456789',4,'Süd',2,3100,",B346,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A346,B346,"123456780',6,'Mitte',1,3103,",B346,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(345,'1',3203,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'345123456789',4,'Süd',2,3100,345);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'345123456780',6,'Mitte',1,3103,345);</v>
       </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.25">
@@ -22444,8 +22445,8 @@
         <v>175</v>
       </c>
       <c r="G348" s="15" t="str">
-        <f t="shared" ref="G348:G411" ca="1" si="687">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B348,",'",E348,"',",C348,",'",D348,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A348,B348,"123456789',4,'Süd',2,3100,",B348,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A348,B348,"123456780',6,'Mitte',1,3103,",B348,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(347,'1',3204,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('347123456789',4,'Süd',2,3100,347);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('347123456780',6,'Mitte',1,3103,347);</v>
+        <f t="shared" ref="G348:G411" ca="1" si="687">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B348,",'",E348,"',",C348,",'",D348,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A348,B348,"123456789',4,'Süd',2,3100,",B348,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A348,B348,"123456780',6,'Mitte',1,3103,",B348,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(347,'1',3204,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'347123456789',4,'Süd',2,3100,347);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'347123456780',6,'Mitte',1,3103,347);</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.25">
@@ -22485,8 +22486,8 @@
         <v>176</v>
       </c>
       <c r="G350" s="15" t="str">
-        <f t="shared" ref="G350:G413" ca="1" si="691">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B350,",'",E350,"',",C350,",'",D350,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A350,B350,"123456789',4,'Süd',2,3100,",B350,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A350,B350,"123456780',6,'Mitte',1,3103,",B350,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(349,'1',3205,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('349123456789',4,'Süd',2,3100,349);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('349123456780',6,'Mitte',1,3103,349);</v>
+        <f t="shared" ref="G350:G413" ca="1" si="691">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B350,",'",E350,"',",C350,",'",D350,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A350,B350,"123456789',4,'Süd',2,3100,",B350,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A350,B350,"123456780',6,'Mitte',1,3103,",B350,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(349,'1',3205,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'349123456789',4,'Süd',2,3100,349);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'349123456780',6,'Mitte',1,3103,349);</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.25">
@@ -22526,8 +22527,8 @@
         <v>177</v>
       </c>
       <c r="G352" s="15" t="str">
-        <f t="shared" ref="G352:G415" ca="1" si="695">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B352,",'",E352,"',",C352,",'",D352,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A352,B352,"123456789',4,'Süd',2,3100,",B352,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A352,B352,"123456780',6,'Mitte',1,3103,",B352,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(351,'1',3206,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('351123456789',4,'Süd',2,3100,351);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('351123456780',6,'Mitte',1,3103,351);</v>
+        <f t="shared" ref="G352:G415" ca="1" si="695">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B352,",'",E352,"',",C352,",'",D352,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A352,B352,"123456789',4,'Süd',2,3100,",B352,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A352,B352,"123456780',6,'Mitte',1,3103,",B352,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(351,'1',3206,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'351123456789',4,'Süd',2,3100,351);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'351123456780',6,'Mitte',1,3103,351);</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
@@ -22567,8 +22568,8 @@
         <v>178</v>
       </c>
       <c r="G354" s="15" t="str">
-        <f t="shared" ref="G354:G417" ca="1" si="699">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B354,",'",E354,"',",C354,",'",D354,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A354,B354,"123456789',4,'Süd',2,3100,",B354,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A354,B354,"123456780',6,'Mitte',1,3103,",B354,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(353,'1',3207,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('353123456789',4,'Süd',2,3100,353);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('353123456780',6,'Mitte',1,3103,353);</v>
+        <f t="shared" ref="G354:G417" ca="1" si="699">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B354,",'",E354,"',",C354,",'",D354,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A354,B354,"123456789',4,'Süd',2,3100,",B354,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A354,B354,"123456780',6,'Mitte',1,3103,",B354,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(353,'1',3207,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'353123456789',4,'Süd',2,3100,353);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'353123456780',6,'Mitte',1,3103,353);</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.25">
@@ -22608,8 +22609,8 @@
         <v>179</v>
       </c>
       <c r="G356" s="15" t="str">
-        <f t="shared" ref="G356:G419" ca="1" si="703">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B356,",'",E356,"',",C356,",'",D356,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A356,B356,"123456789',4,'Süd',2,3100,",B356,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A356,B356,"123456780',6,'Mitte',1,3103,",B356,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(355,'1',3208,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('355123456789',4,'Süd',2,3100,355);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('355123456780',6,'Mitte',1,3103,355);</v>
+        <f t="shared" ref="G356:G419" ca="1" si="703">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B356,",'",E356,"',",C356,",'",D356,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A356,B356,"123456789',4,'Süd',2,3100,",B356,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A356,B356,"123456780',6,'Mitte',1,3103,",B356,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(355,'1',3208,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'355123456789',4,'Süd',2,3100,355);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'355123456780',6,'Mitte',1,3103,355);</v>
       </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.25">
@@ -22649,8 +22650,8 @@
         <v>180</v>
       </c>
       <c r="G358" s="15" t="str">
-        <f t="shared" ref="G358:G421" ca="1" si="707">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B358,",'",E358,"',",C358,",'",D358,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A358,B358,"123456789',4,'Süd',2,3100,",B358,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A358,B358,"123456780',6,'Mitte',1,3103,",B358,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(357,'1',3225,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('357123456789',4,'Süd',2,3100,357);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('357123456780',6,'Mitte',1,3103,357);</v>
+        <f t="shared" ref="G358:G421" ca="1" si="707">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B358,",'",E358,"',",C358,",'",D358,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A358,B358,"123456789',4,'Süd',2,3100,",B358,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A358,B358,"123456780',6,'Mitte',1,3103,",B358,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(357,'1',3225,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'357123456789',4,'Süd',2,3100,357);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'357123456780',6,'Mitte',1,3103,357);</v>
       </c>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.25">
@@ -22690,8 +22691,8 @@
         <v>181</v>
       </c>
       <c r="G360" s="15" t="str">
-        <f t="shared" ref="G360:G423" ca="1" si="711">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B360,",'",E360,"',",C360,",'",D360,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A360,B360,"123456789',4,'Süd',2,3100,",B360,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A360,B360,"123456780',6,'Mitte',1,3103,",B360,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(359,'1',3226,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('359123456789',4,'Süd',2,3100,359);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('359123456780',6,'Mitte',1,3103,359);</v>
+        <f t="shared" ref="G360:G423" ca="1" si="711">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B360,",'",E360,"',",C360,",'",D360,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A360,B360,"123456789',4,'Süd',2,3100,",B360,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A360,B360,"123456780',6,'Mitte',1,3103,",B360,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(359,'1',3226,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'359123456789',4,'Süd',2,3100,359);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'359123456780',6,'Mitte',1,3103,359);</v>
       </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.25">
@@ -22731,8 +22732,8 @@
         <v>182</v>
       </c>
       <c r="G362" s="15" t="str">
-        <f t="shared" ref="G362:G425" ca="1" si="715">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B362,",'",E362,"',",C362,",'",D362,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A362,B362,"123456789',4,'Süd',2,3100,",B362,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A362,B362,"123456780',6,'Mitte',1,3103,",B362,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(361,'1',3232,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('361123456789',4,'Süd',2,3100,361);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('361123456780',6,'Mitte',1,3103,361);</v>
+        <f t="shared" ref="G362:G425" ca="1" si="715">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B362,",'",E362,"',",C362,",'",D362,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A362,B362,"123456789',4,'Süd',2,3100,",B362,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A362,B362,"123456780',6,'Mitte',1,3103,",B362,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(361,'1',3232,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'361123456789',4,'Süd',2,3100,361);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'361123456780',6,'Mitte',1,3103,361);</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
@@ -22772,8 +22773,8 @@
         <v>183</v>
       </c>
       <c r="G364" s="15" t="str">
-        <f t="shared" ref="G364:G427" ca="1" si="719">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B364,",'",E364,"',",C364,",'",D364,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A364,B364,"123456789',4,'Süd',2,3100,",B364,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A364,B364,"123456780',6,'Mitte',1,3103,",B364,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(363,'1',3233,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('363123456789',4,'Süd',2,3100,363);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('363123456780',6,'Mitte',1,3103,363);</v>
+        <f t="shared" ref="G364:G427" ca="1" si="719">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B364,",'",E364,"',",C364,",'",D364,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A364,B364,"123456789',4,'Süd',2,3100,",B364,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A364,B364,"123456780',6,'Mitte',1,3103,",B364,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(363,'1',3233,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'363123456789',4,'Süd',2,3100,363);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'363123456780',6,'Mitte',1,3103,363);</v>
       </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.25">
@@ -22813,8 +22814,8 @@
         <v>184</v>
       </c>
       <c r="G366" s="15" t="str">
-        <f t="shared" ref="G366:G429" ca="1" si="723">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B366,",'",E366,"',",C366,",'",D366,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A366,B366,"123456789',4,'Süd',2,3100,",B366,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A366,B366,"123456780',6,'Mitte',1,3103,",B366,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(365,'1',3234,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('365123456789',4,'Süd',2,3100,365);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('365123456780',6,'Mitte',1,3103,365);</v>
+        <f t="shared" ref="G366:G429" ca="1" si="723">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B366,",'",E366,"',",C366,",'",D366,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A366,B366,"123456789',4,'Süd',2,3100,",B366,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A366,B366,"123456780',6,'Mitte',1,3103,",B366,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(365,'1',3234,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'365123456789',4,'Süd',2,3100,365);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'365123456780',6,'Mitte',1,3103,365);</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
@@ -22854,8 +22855,8 @@
         <v>185</v>
       </c>
       <c r="G368" s="15" t="str">
-        <f t="shared" ref="G368:G431" ca="1" si="727">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B368,",'",E368,"',",C368,",'",D368,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A368,B368,"123456789',4,'Süd',2,3100,",B368,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A368,B368,"123456780',6,'Mitte',1,3103,",B368,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(367,'1',3235,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('367123456789',4,'Süd',2,3100,367);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('367123456780',6,'Mitte',1,3103,367);</v>
+        <f t="shared" ref="G368:G431" ca="1" si="727">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B368,",'",E368,"',",C368,",'",D368,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A368,B368,"123456789',4,'Süd',2,3100,",B368,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A368,B368,"123456780',6,'Mitte',1,3103,",B368,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(367,'1',3235,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'367123456789',4,'Süd',2,3100,367);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'367123456780',6,'Mitte',1,3103,367);</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
@@ -22895,8 +22896,8 @@
         <v>186</v>
       </c>
       <c r="G370" s="15" t="str">
-        <f t="shared" ref="G370:G433" ca="1" si="731">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B370,",'",E370,"',",C370,",'",D370,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A370,B370,"123456789',4,'Süd',2,3100,",B370,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A370,B370,"123456780',6,'Mitte',1,3103,",B370,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(369,'1',3236,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('369123456789',4,'Süd',2,3100,369);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('369123456780',6,'Mitte',1,3103,369);</v>
+        <f t="shared" ref="G370:G433" ca="1" si="731">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B370,",'",E370,"',",C370,",'",D370,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A370,B370,"123456789',4,'Süd',2,3100,",B370,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A370,B370,"123456780',6,'Mitte',1,3103,",B370,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(369,'1',3236,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'369123456789',4,'Süd',2,3100,369);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'369123456780',6,'Mitte',1,3103,369);</v>
       </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
@@ -22936,8 +22937,8 @@
         <v>187</v>
       </c>
       <c r="G372" s="15" t="str">
-        <f t="shared" ref="G372:G435" ca="1" si="735">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B372,",'",E372,"',",C372,",'",D372,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A372,B372,"123456789',4,'Süd',2,3100,",B372,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A372,B372,"123456780',6,'Mitte',1,3103,",B372,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(371,'1',3237,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('371123456789',4,'Süd',2,3100,371);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('371123456780',6,'Mitte',1,3103,371);</v>
+        <f t="shared" ref="G372:G435" ca="1" si="735">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B372,",'",E372,"',",C372,",'",D372,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A372,B372,"123456789',4,'Süd',2,3100,",B372,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A372,B372,"123456780',6,'Mitte',1,3103,",B372,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(371,'1',3237,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'371123456789',4,'Süd',2,3100,371);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'371123456780',6,'Mitte',1,3103,371);</v>
       </c>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
@@ -22977,8 +22978,8 @@
         <v>188</v>
       </c>
       <c r="G374" s="15" t="str">
-        <f t="shared" ref="G374:G437" ca="1" si="739">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B374,",'",E374,"',",C374,",'",D374,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A374,B374,"123456789',4,'Süd',2,3100,",B374,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A374,B374,"123456780',6,'Mitte',1,3103,",B374,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(373,'1',3238,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('373123456789',4,'Süd',2,3100,373);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('373123456780',6,'Mitte',1,3103,373);</v>
+        <f t="shared" ref="G374:G437" ca="1" si="739">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B374,",'",E374,"',",C374,",'",D374,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A374,B374,"123456789',4,'Süd',2,3100,",B374,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A374,B374,"123456780',6,'Mitte',1,3103,",B374,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(373,'1',3238,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'373123456789',4,'Süd',2,3100,373);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'373123456780',6,'Mitte',1,3103,373);</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
@@ -23018,8 +23019,8 @@
         <v>189</v>
       </c>
       <c r="G376" s="15" t="str">
-        <f t="shared" ref="G376:G439" ca="1" si="743">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B376,",'",E376,"',",C376,",'",D376,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A376,B376,"123456789',4,'Süd',2,3100,",B376,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A376,B376,"123456780',6,'Mitte',1,3103,",B376,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(375,'1',3250,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('375123456789',4,'Süd',2,3100,375);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('375123456780',6,'Mitte',1,3103,375);</v>
+        <f t="shared" ref="G376:G439" ca="1" si="743">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B376,",'",E376,"',",C376,",'",D376,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A376,B376,"123456789',4,'Süd',2,3100,",B376,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A376,B376,"123456780',6,'Mitte',1,3103,",B376,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(375,'1',3250,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'375123456789',4,'Süd',2,3100,375);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'375123456780',6,'Mitte',1,3103,375);</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
@@ -23059,8 +23060,8 @@
         <v>190</v>
       </c>
       <c r="G378" s="15" t="str">
-        <f t="shared" ref="G378:G441" ca="1" si="747">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B378,",'",E378,"',",C378,",'",D378,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A378,B378,"123456789',4,'Süd',2,3100,",B378,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A378,B378,"123456780',6,'Mitte',1,3103,",B378,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(377,'1',3251,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('377123456789',4,'Süd',2,3100,377);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('377123456780',6,'Mitte',1,3103,377);</v>
+        <f t="shared" ref="G378:G441" ca="1" si="747">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B378,",'",E378,"',",C378,",'",D378,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A378,B378,"123456789',4,'Süd',2,3100,",B378,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A378,B378,"123456780',6,'Mitte',1,3103,",B378,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(377,'1',3251,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'377123456789',4,'Süd',2,3100,377);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'377123456780',6,'Mitte',1,3103,377);</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
@@ -23100,8 +23101,8 @@
         <v>191</v>
       </c>
       <c r="G380" s="15" t="str">
-        <f t="shared" ref="G380:G443" ca="1" si="751">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B380,",'",E380,"',",C380,",'",D380,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A380,B380,"123456789',4,'Süd',2,3100,",B380,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A380,B380,"123456780',6,'Mitte',1,3103,",B380,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(379,'1',3252,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('379123456789',4,'Süd',2,3100,379);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('379123456780',6,'Mitte',1,3103,379);</v>
+        <f t="shared" ref="G380:G443" ca="1" si="751">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B380,",'",E380,"',",C380,",'",D380,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A380,B380,"123456789',4,'Süd',2,3100,",B380,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A380,B380,"123456780',6,'Mitte',1,3103,",B380,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(379,'1',3252,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'379123456789',4,'Süd',2,3100,379);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'379123456780',6,'Mitte',1,3103,379);</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
@@ -23141,8 +23142,8 @@
         <v>192</v>
       </c>
       <c r="G382" s="15" t="str">
-        <f t="shared" ref="G382:G445" ca="1" si="755">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B382,",'",E382,"',",C382,",'",D382,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A382,B382,"123456789',4,'Süd',2,3100,",B382,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A382,B382,"123456780',6,'Mitte',1,3103,",B382,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(381,'1',3255,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('381123456789',4,'Süd',2,3100,381);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('381123456780',6,'Mitte',1,3103,381);</v>
+        <f t="shared" ref="G382:G445" ca="1" si="755">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B382,",'",E382,"',",C382,",'",D382,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A382,B382,"123456789',4,'Süd',2,3100,",B382,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A382,B382,"123456780',6,'Mitte',1,3103,",B382,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(381,'1',3255,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'381123456789',4,'Süd',2,3100,381);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'381123456780',6,'Mitte',1,3103,381);</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
@@ -23182,8 +23183,8 @@
         <v>193</v>
       </c>
       <c r="G384" s="15" t="str">
-        <f t="shared" ref="G384:G447" ca="1" si="759">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B384,",'",E384,"',",C384,",'",D384,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A384,B384,"123456789',4,'Süd',2,3100,",B384,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A384,B384,"123456780',6,'Mitte',1,3103,",B384,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(383,'1',3256,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('383123456789',4,'Süd',2,3100,383);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('383123456780',6,'Mitte',1,3103,383);</v>
+        <f t="shared" ref="G384:G447" ca="1" si="759">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B384,",'",E384,"',",C384,",'",D384,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A384,B384,"123456789',4,'Süd',2,3100,",B384,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A384,B384,"123456780',6,'Mitte',1,3103,",B384,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(383,'1',3256,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'383123456789',4,'Süd',2,3100,383);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'383123456780',6,'Mitte',1,3103,383);</v>
       </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
@@ -23223,8 +23224,8 @@
         <v>194</v>
       </c>
       <c r="G386" s="15" t="str">
-        <f t="shared" ref="G386:G449" ca="1" si="763">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B386,",'",E386,"',",C386,",'",D386,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A386,B386,"123456789',4,'Süd',2,3100,",B386,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A386,B386,"123456780',6,'Mitte',1,3103,",B386,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(385,'1',3257,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('385123456789',4,'Süd',2,3100,385);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('385123456780',6,'Mitte',1,3103,385);</v>
+        <f t="shared" ref="G386:G449" ca="1" si="763">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B386,",'",E386,"',",C386,",'",D386,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A386,B386,"123456789',4,'Süd',2,3100,",B386,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A386,B386,"123456780',6,'Mitte',1,3103,",B386,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(385,'1',3257,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'385123456789',4,'Süd',2,3100,385);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'385123456780',6,'Mitte',1,3103,385);</v>
       </c>
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.25">
@@ -23264,8 +23265,8 @@
         <v>195</v>
       </c>
       <c r="G388" s="15" t="str">
-        <f t="shared" ref="G388:G451" ca="1" si="767">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B388,",'",E388,"',",C388,",'",D388,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A388,B388,"123456789',4,'Süd',2,3100,",B388,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A388,B388,"123456780',6,'Mitte',1,3103,",B388,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(387,'1',3262,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('387123456789',4,'Süd',2,3100,387);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('387123456780',6,'Mitte',1,3103,387);</v>
+        <f t="shared" ref="G388:G451" ca="1" si="767">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B388,",'",E388,"',",C388,",'",D388,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A388,B388,"123456789',4,'Süd',2,3100,",B388,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A388,B388,"123456780',6,'Mitte',1,3103,",B388,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(387,'1',3262,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'387123456789',4,'Süd',2,3100,387);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'387123456780',6,'Mitte',1,3103,387);</v>
       </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.25">
@@ -23305,8 +23306,8 @@
         <v>196</v>
       </c>
       <c r="G390" s="15" t="str">
-        <f t="shared" ref="G390:G453" ca="1" si="771">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B390,",'",E390,"',",C390,",'",D390,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A390,B390,"123456789',4,'Süd',2,3100,",B390,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A390,B390,"123456780',6,'Mitte',1,3103,",B390,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(389,'1',3263,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('389123456789',4,'Süd',2,3100,389);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('389123456780',6,'Mitte',1,3103,389);</v>
+        <f t="shared" ref="G390:G453" ca="1" si="771">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B390,",'",E390,"',",C390,",'",D390,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A390,B390,"123456789',4,'Süd',2,3100,",B390,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A390,B390,"123456780',6,'Mitte',1,3103,",B390,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(389,'1',3263,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'389123456789',4,'Süd',2,3100,389);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'389123456780',6,'Mitte',1,3103,389);</v>
       </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.25">
@@ -23346,8 +23347,8 @@
         <v>197</v>
       </c>
       <c r="G392" s="15" t="str">
-        <f t="shared" ref="G392:G455" ca="1" si="775">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B392,",'",E392,"',",C392,",'",D392,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A392,B392,"123456789',4,'Süd',2,3100,",B392,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A392,B392,"123456780',6,'Mitte',1,3103,",B392,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(391,'1',3264,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('391123456789',4,'Süd',2,3100,391);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('391123456780',6,'Mitte',1,3103,391);</v>
+        <f t="shared" ref="G392:G455" ca="1" si="775">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B392,",'",E392,"',",C392,",'",D392,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A392,B392,"123456789',4,'Süd',2,3100,",B392,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A392,B392,"123456780',6,'Mitte',1,3103,",B392,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(391,'1',3264,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'391123456789',4,'Süd',2,3100,391);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'391123456780',6,'Mitte',1,3103,391);</v>
       </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
@@ -23387,8 +23388,8 @@
         <v>198</v>
       </c>
       <c r="G394" s="15" t="str">
-        <f t="shared" ref="G394:G457" ca="1" si="779">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B394,",'",E394,"',",C394,",'",D394,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A394,B394,"123456789',4,'Süd',2,3100,",B394,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A394,B394,"123456780',6,'Mitte',1,3103,",B394,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(393,'1',3266,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('393123456789',4,'Süd',2,3100,393);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('393123456780',6,'Mitte',1,3103,393);</v>
+        <f t="shared" ref="G394:G457" ca="1" si="779">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B394,",'",E394,"',",C394,",'",D394,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A394,B394,"123456789',4,'Süd',2,3100,",B394,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A394,B394,"123456780',6,'Mitte',1,3103,",B394,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(393,'1',3266,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'393123456789',4,'Süd',2,3100,393);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'393123456780',6,'Mitte',1,3103,393);</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
@@ -23428,8 +23429,8 @@
         <v>199</v>
       </c>
       <c r="G396" s="15" t="str">
-        <f t="shared" ref="G396:G459" ca="1" si="783">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B396,",'",E396,"',",C396,",'",D396,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A396,B396,"123456789',4,'Süd',2,3100,",B396,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A396,B396,"123456780',6,'Mitte',1,3103,",B396,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(395,'1',3267,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('395123456789',4,'Süd',2,3100,395);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('395123456780',6,'Mitte',1,3103,395);</v>
+        <f t="shared" ref="G396:G459" ca="1" si="783">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B396,",'",E396,"',",C396,",'",D396,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A396,B396,"123456789',4,'Süd',2,3100,",B396,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A396,B396,"123456780',6,'Mitte',1,3103,",B396,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(395,'1',3267,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'395123456789',4,'Süd',2,3100,395);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'395123456780',6,'Mitte',1,3103,395);</v>
       </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.25">
@@ -23469,8 +23470,8 @@
         <v>200</v>
       </c>
       <c r="G398" s="15" t="str">
-        <f t="shared" ref="G398:G461" ca="1" si="787">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B398,",'",E398,"',",C398,",'",D398,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A398,B398,"123456789',4,'Süd',2,3100,",B398,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A398,B398,"123456780',6,'Mitte',1,3103,",B398,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(397,'1',3268,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('397123456789',4,'Süd',2,3100,397);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('397123456780',6,'Mitte',1,3103,397);</v>
+        <f t="shared" ref="G398:G461" ca="1" si="787">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B398,",'",E398,"',",C398,",'",D398,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A398,B398,"123456789',4,'Süd',2,3100,",B398,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A398,B398,"123456780',6,'Mitte',1,3103,",B398,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(397,'1',3268,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'397123456789',4,'Süd',2,3100,397);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'397123456780',6,'Mitte',1,3103,397);</v>
       </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
@@ -23510,8 +23511,8 @@
         <v>201</v>
       </c>
       <c r="G400" s="15" t="str">
-        <f t="shared" ref="G400:G463" ca="1" si="791">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B400,",'",E400,"',",C400,",'",D400,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A400,B400,"123456789',4,'Süd',2,3100,",B400,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A400,B400,"123456780',6,'Mitte',1,3103,",B400,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(399,'1',3270,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('399123456789',4,'Süd',2,3100,399);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('399123456780',6,'Mitte',1,3103,399);</v>
+        <f t="shared" ref="G400:G463" ca="1" si="791">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B400,",'",E400,"',",C400,",'",D400,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A400,B400,"123456789',4,'Süd',2,3100,",B400,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A400,B400,"123456780',6,'Mitte',1,3103,",B400,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(399,'1',3270,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'399123456789',4,'Süd',2,3100,399);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'399123456780',6,'Mitte',1,3103,399);</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.25">
@@ -23551,8 +23552,8 @@
         <v>202</v>
       </c>
       <c r="G402" s="15" t="str">
-        <f t="shared" ref="G402:G465" ca="1" si="795">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B402,",'",E402,"',",C402,",'",D402,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A402,B402,"123456789',4,'Süd',2,3100,",B402,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A402,B402,"123456780',6,'Mitte',1,3103,",B402,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(401,'1',3271,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('401123456789',4,'Süd',2,3100,401);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('401123456780',6,'Mitte',1,3103,401);</v>
+        <f t="shared" ref="G402:G465" ca="1" si="795">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B402,",'",E402,"',",C402,",'",D402,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A402,B402,"123456789',4,'Süd',2,3100,",B402,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A402,B402,"123456780',6,'Mitte',1,3103,",B402,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(401,'1',3271,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'401123456789',4,'Süd',2,3100,401);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'401123456780',6,'Mitte',1,3103,401);</v>
       </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
@@ -23592,8 +23593,8 @@
         <v>203</v>
       </c>
       <c r="G404" s="15" t="str">
-        <f t="shared" ref="G404:G467" ca="1" si="799">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B404,",'",E404,"',",C404,",'",D404,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A404,B404,"123456789',4,'Süd',2,3100,",B404,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A404,B404,"123456780',6,'Mitte',1,3103,",B404,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(403,'1',3272,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('403123456789',4,'Süd',2,3100,403);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('403123456780',6,'Mitte',1,3103,403);</v>
+        <f t="shared" ref="G404:G467" ca="1" si="799">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B404,",'",E404,"',",C404,",'",D404,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A404,B404,"123456789',4,'Süd',2,3100,",B404,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A404,B404,"123456780',6,'Mitte',1,3103,",B404,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(403,'1',3272,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'403123456789',4,'Süd',2,3100,403);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'403123456780',6,'Mitte',1,3103,403);</v>
       </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.25">
@@ -23633,8 +23634,8 @@
         <v>204</v>
       </c>
       <c r="G406" s="15" t="str">
-        <f t="shared" ref="G406:G469" ca="1" si="803">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B406,",'",E406,"',",C406,",'",D406,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A406,B406,"123456789',4,'Süd',2,3100,",B406,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A406,B406,"123456780',6,'Mitte',1,3103,",B406,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(405,'1',3273,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('405123456789',4,'Süd',2,3100,405);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('405123456780',6,'Mitte',1,3103,405);</v>
+        <f t="shared" ref="G406:G469" ca="1" si="803">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B406,",'",E406,"',",C406,",'",D406,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A406,B406,"123456789',4,'Süd',2,3100,",B406,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A406,B406,"123456780',6,'Mitte',1,3103,",B406,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(405,'1',3273,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'405123456789',4,'Süd',2,3100,405);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'405123456780',6,'Mitte',1,3103,405);</v>
       </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.25">
@@ -23674,8 +23675,8 @@
         <v>205</v>
       </c>
       <c r="G408" s="15" t="str">
-        <f t="shared" ref="G408:G471" ca="1" si="807">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B408,",'",E408,"',",C408,",'",D408,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A408,B408,"123456789',4,'Süd',2,3100,",B408,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A408,B408,"123456780',6,'Mitte',1,3103,",B408,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(407,'1',3274,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('407123456789',4,'Süd',2,3100,407);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('407123456780',6,'Mitte',1,3103,407);</v>
+        <f t="shared" ref="G408:G471" ca="1" si="807">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B408,",'",E408,"',",C408,",'",D408,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A408,B408,"123456789',4,'Süd',2,3100,",B408,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A408,B408,"123456780',6,'Mitte',1,3103,",B408,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(407,'1',3274,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'407123456789',4,'Süd',2,3100,407);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'407123456780',6,'Mitte',1,3103,407);</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
@@ -23715,8 +23716,8 @@
         <v>206</v>
       </c>
       <c r="G410" s="15" t="str">
-        <f t="shared" ref="G410:G473" ca="1" si="811">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B410,",'",E410,"',",C410,",'",D410,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A410,B410,"123456789',4,'Süd',2,3100,",B410,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A410,B410,"123456780',6,'Mitte',1,3103,",B410,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(409,'1',3282,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('409123456789',4,'Süd',2,3100,409);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('409123456780',6,'Mitte',1,3103,409);</v>
+        <f t="shared" ref="G410:G473" ca="1" si="811">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B410,",'",E410,"',",C410,",'",D410,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A410,B410,"123456789',4,'Süd',2,3100,",B410,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A410,B410,"123456780',6,'Mitte',1,3103,",B410,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(409,'1',3282,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'409123456789',4,'Süd',2,3100,409);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'409123456780',6,'Mitte',1,3103,409);</v>
       </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.25">
@@ -23756,8 +23757,8 @@
         <v>207</v>
       </c>
       <c r="G412" s="15" t="str">
-        <f t="shared" ref="G412:G475" ca="1" si="815">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B412,",'",E412,"',",C412,",'",D412,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A412,B412,"123456789',4,'Süd',2,3100,",B412,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A412,B412,"123456780',6,'Mitte',1,3103,",B412,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(411,'1',3283,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('411123456789',4,'Süd',2,3100,411);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('411123456780',6,'Mitte',1,3103,411);</v>
+        <f t="shared" ref="G412:G475" ca="1" si="815">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B412,",'",E412,"',",C412,",'",D412,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A412,B412,"123456789',4,'Süd',2,3100,",B412,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A412,B412,"123456780',6,'Mitte',1,3103,",B412,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(411,'1',3283,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'411123456789',4,'Süd',2,3100,411);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'411123456780',6,'Mitte',1,3103,411);</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
@@ -23797,8 +23798,8 @@
         <v>208</v>
       </c>
       <c r="G414" s="15" t="str">
-        <f t="shared" ref="G414:G477" ca="1" si="819">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B414,",'",E414,"',",C414,",'",D414,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A414,B414,"123456789',4,'Süd',2,3100,",B414,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A414,B414,"123456780',6,'Mitte',1,3103,",B414,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(413,'1',3292,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('413123456789',4,'Süd',2,3100,413);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('413123456780',6,'Mitte',1,3103,413);</v>
+        <f t="shared" ref="G414:G477" ca="1" si="819">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B414,",'",E414,"',",C414,",'",D414,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A414,B414,"123456789',4,'Süd',2,3100,",B414,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A414,B414,"123456780',6,'Mitte',1,3103,",B414,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(413,'1',3292,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'413123456789',4,'Süd',2,3100,413);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'413123456780',6,'Mitte',1,3103,413);</v>
       </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.25">
@@ -23838,8 +23839,8 @@
         <v>209</v>
       </c>
       <c r="G416" s="15" t="str">
-        <f t="shared" ref="G416:G479" ca="1" si="823">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B416,",'",E416,"',",C416,",'",D416,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A416,B416,"123456789',4,'Süd',2,3100,",B416,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A416,B416,"123456780',6,'Mitte',1,3103,",B416,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(415,'1',3293,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('415123456789',4,'Süd',2,3100,415);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('415123456780',6,'Mitte',1,3103,415);</v>
+        <f t="shared" ref="G416:G479" ca="1" si="823">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B416,",'",E416,"',",C416,",'",D416,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A416,B416,"123456789',4,'Süd',2,3100,",B416,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A416,B416,"123456780',6,'Mitte',1,3103,",B416,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(415,'1',3293,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'415123456789',4,'Süd',2,3100,415);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'415123456780',6,'Mitte',1,3103,415);</v>
       </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
@@ -23879,8 +23880,8 @@
         <v>210</v>
       </c>
       <c r="G418" s="15" t="str">
-        <f t="shared" ref="G418:G481" ca="1" si="827">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B418,",'",E418,"',",C418,",'",D418,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A418,B418,"123456789',4,'Süd',2,3100,",B418,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A418,B418,"123456780',6,'Mitte',1,3103,",B418,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(417,'1',3294,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('417123456789',4,'Süd',2,3100,417);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('417123456780',6,'Mitte',1,3103,417);</v>
+        <f t="shared" ref="G418:G481" ca="1" si="827">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B418,",'",E418,"',",C418,",'",D418,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A418,B418,"123456789',4,'Süd',2,3100,",B418,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A418,B418,"123456780',6,'Mitte',1,3103,",B418,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(417,'1',3294,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'417123456789',4,'Süd',2,3100,417);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'417123456780',6,'Mitte',1,3103,417);</v>
       </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
@@ -23920,8 +23921,8 @@
         <v>211</v>
       </c>
       <c r="G420" s="15" t="str">
-        <f t="shared" ref="G420:G483" ca="1" si="831">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B420,",'",E420,"',",C420,",'",D420,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A420,B420,"123456789',4,'Süd',2,3100,",B420,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A420,B420,"123456780',6,'Mitte',1,3103,",B420,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(419,'1',3295,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('419123456789',4,'Süd',2,3100,419);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('419123456780',6,'Mitte',1,3103,419);</v>
+        <f t="shared" ref="G420:G483" ca="1" si="831">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B420,",'",E420,"',",C420,",'",D420,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A420,B420,"123456789',4,'Süd',2,3100,",B420,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A420,B420,"123456780',6,'Mitte',1,3103,",B420,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(419,'1',3295,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'419123456789',4,'Süd',2,3100,419);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'419123456780',6,'Mitte',1,3103,419);</v>
       </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
@@ -23961,8 +23962,8 @@
         <v>212</v>
       </c>
       <c r="G422" s="15" t="str">
-        <f t="shared" ref="G422:G485" ca="1" si="835">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B422,",'",E422,"',",C422,",'",D422,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A422,B422,"123456789',4,'Süd',2,3100,",B422,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A422,B422,"123456780',6,'Mitte',1,3103,",B422,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(421,'1',3296,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('421123456789',4,'Süd',2,3100,421);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('421123456780',6,'Mitte',1,3103,421);</v>
+        <f t="shared" ref="G422:G485" ca="1" si="835">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B422,",'",E422,"',",C422,",'",D422,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A422,B422,"123456789',4,'Süd',2,3100,",B422,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A422,B422,"123456780',6,'Mitte',1,3103,",B422,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(421,'1',3296,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'421123456789',4,'Süd',2,3100,421);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'421123456780',6,'Mitte',1,3103,421);</v>
       </c>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
@@ -24002,8 +24003,8 @@
         <v>213</v>
       </c>
       <c r="G424" s="15" t="str">
-        <f t="shared" ref="G424:G487" ca="1" si="839">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B424,",'",E424,"',",C424,",'",D424,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A424,B424,"123456789',4,'Süd',2,3100,",B424,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A424,B424,"123456780',6,'Mitte',1,3103,",B424,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(423,'1',3297,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('423123456789',4,'Süd',2,3100,423);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('423123456780',6,'Mitte',1,3103,423);</v>
+        <f t="shared" ref="G424:G487" ca="1" si="839">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B424,",'",E424,"',",C424,",'",D424,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A424,B424,"123456789',4,'Süd',2,3100,",B424,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A424,B424,"123456780',6,'Mitte',1,3103,",B424,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(423,'1',3297,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'423123456789',4,'Süd',2,3100,423);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'423123456780',6,'Mitte',1,3103,423);</v>
       </c>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
@@ -24043,8 +24044,8 @@
         <v>214</v>
       </c>
       <c r="G426" s="15" t="str">
-        <f t="shared" ref="G426:G489" ca="1" si="843">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B426,",'",E426,"',",C426,",'",D426,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A426,B426,"123456789',4,'Süd',2,3100,",B426,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A426,B426,"123456780',6,'Mitte',1,3103,",B426,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(425,'1',3298,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('425123456789',4,'Süd',2,3100,425);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('425123456780',6,'Mitte',1,3103,425);</v>
+        <f t="shared" ref="G426:G489" ca="1" si="843">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B426,",'",E426,"',",C426,",'",D426,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A426,B426,"123456789',4,'Süd',2,3100,",B426,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A426,B426,"123456780',6,'Mitte',1,3103,",B426,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(425,'1',3298,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'425123456789',4,'Süd',2,3100,425);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'425123456780',6,'Mitte',1,3103,425);</v>
       </c>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.25">
@@ -24084,8 +24085,8 @@
         <v>215</v>
       </c>
       <c r="G428" s="15" t="str">
-        <f t="shared" ref="G428:G491" ca="1" si="847">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B428,",'",E428,"',",C428,",'",D428,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A428,B428,"123456789',4,'Süd',2,3100,",B428,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A428,B428,"123456780',6,'Mitte',1,3103,",B428,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(427,'1',3302,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('427123456789',4,'Süd',2,3100,427);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('427123456780',6,'Mitte',1,3103,427);</v>
+        <f t="shared" ref="G428:G491" ca="1" si="847">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B428,",'",E428,"',",C428,",'",D428,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A428,B428,"123456789',4,'Süd',2,3100,",B428,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A428,B428,"123456780',6,'Mitte',1,3103,",B428,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(427,'1',3302,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'427123456789',4,'Süd',2,3100,427);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'427123456780',6,'Mitte',1,3103,427);</v>
       </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
@@ -24125,8 +24126,8 @@
         <v>216</v>
       </c>
       <c r="G430" s="15" t="str">
-        <f t="shared" ref="G430:G493" ca="1" si="851">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B430,",'",E430,"',",C430,",'",D430,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A430,B430,"123456789',4,'Süd',2,3100,",B430,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A430,B430,"123456780',6,'Mitte',1,3103,",B430,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(429,'1',3303,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('429123456789',4,'Süd',2,3100,429);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('429123456780',6,'Mitte',1,3103,429);</v>
+        <f t="shared" ref="G430:G493" ca="1" si="851">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B430,",'",E430,"',",C430,",'",D430,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A430,B430,"123456789',4,'Süd',2,3100,",B430,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A430,B430,"123456780',6,'Mitte',1,3103,",B430,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(429,'1',3303,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'429123456789',4,'Süd',2,3100,429);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'429123456780',6,'Mitte',1,3103,429);</v>
       </c>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
@@ -24166,8 +24167,8 @@
         <v>217</v>
       </c>
       <c r="G432" s="15" t="str">
-        <f t="shared" ref="G432:G495" ca="1" si="855">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B432,",'",E432,"',",C432,",'",D432,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A432,B432,"123456789',4,'Süd',2,3100,",B432,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A432,B432,"123456780',6,'Mitte',1,3103,",B432,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(431,'1',3305,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('431123456789',4,'Süd',2,3100,431);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('431123456780',6,'Mitte',1,3103,431);</v>
+        <f t="shared" ref="G432:G495" ca="1" si="855">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B432,",'",E432,"',",C432,",'",D432,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A432,B432,"123456789',4,'Süd',2,3100,",B432,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A432,B432,"123456780',6,'Mitte',1,3103,",B432,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(431,'1',3305,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'431123456789',4,'Süd',2,3100,431);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'431123456780',6,'Mitte',1,3103,431);</v>
       </c>
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.25">
@@ -24207,8 +24208,8 @@
         <v>218</v>
       </c>
       <c r="G434" s="15" t="str">
-        <f t="shared" ref="G434:G497" ca="1" si="859">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B434,",'",E434,"',",C434,",'",D434,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A434,B434,"123456789',4,'Süd',2,3100,",B434,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A434,B434,"123456780',6,'Mitte',1,3103,",B434,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(433,'1',3306,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('433123456789',4,'Süd',2,3100,433);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('433123456780',6,'Mitte',1,3103,433);</v>
+        <f t="shared" ref="G434:G497" ca="1" si="859">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B434,",'",E434,"',",C434,",'",D434,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A434,B434,"123456789',4,'Süd',2,3100,",B434,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A434,B434,"123456780',6,'Mitte',1,3103,",B434,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(433,'1',3306,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'433123456789',4,'Süd',2,3100,433);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'433123456780',6,'Mitte',1,3103,433);</v>
       </c>
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.25">
@@ -24248,8 +24249,8 @@
         <v>219</v>
       </c>
       <c r="G436" s="15" t="str">
-        <f t="shared" ref="G436:G499" ca="1" si="863">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B436,",'",E436,"',",C436,",'",D436,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A436,B436,"123456789',4,'Süd',2,3100,",B436,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A436,B436,"123456780',6,'Mitte',1,3103,",B436,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(435,'1',3308,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('435123456789',4,'Süd',2,3100,435);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('435123456780',6,'Mitte',1,3103,435);</v>
+        <f t="shared" ref="G436:G499" ca="1" si="863">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B436,",'",E436,"',",C436,",'",D436,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A436,B436,"123456789',4,'Süd',2,3100,",B436,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A436,B436,"123456780',6,'Mitte',1,3103,",B436,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(435,'1',3308,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'435123456789',4,'Süd',2,3100,435);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'435123456780',6,'Mitte',1,3103,435);</v>
       </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.25">
@@ -24289,8 +24290,8 @@
         <v>220</v>
       </c>
       <c r="G438" s="15" t="str">
-        <f t="shared" ref="G438:G501" ca="1" si="867">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B438,",'",E438,"',",C438,",'",D438,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A438,B438,"123456789',4,'Süd',2,3100,",B438,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A438,B438,"123456780',6,'Mitte',1,3103,",B438,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(437,'1',3309,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('437123456789',4,'Süd',2,3100,437);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('437123456780',6,'Mitte',1,3103,437);</v>
+        <f t="shared" ref="G438:G501" ca="1" si="867">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B438,",'",E438,"',",C438,",'",D438,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A438,B438,"123456789',4,'Süd',2,3100,",B438,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A438,B438,"123456780',6,'Mitte',1,3103,",B438,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(437,'1',3309,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'437123456789',4,'Süd',2,3100,437);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'437123456780',6,'Mitte',1,3103,437);</v>
       </c>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.25">
@@ -24330,8 +24331,8 @@
         <v>221</v>
       </c>
       <c r="G440" s="15" t="str">
-        <f t="shared" ref="G440:G503" ca="1" si="871">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B440,",'",E440,"',",C440,",'",D440,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A440,B440,"123456789',4,'Süd',2,3100,",B440,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A440,B440,"123456780',6,'Mitte',1,3103,",B440,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(439,'1',3312,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('439123456789',4,'Süd',2,3100,439);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('439123456780',6,'Mitte',1,3103,439);</v>
+        <f t="shared" ref="G440:G503" ca="1" si="871">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B440,",'",E440,"',",C440,",'",D440,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A440,B440,"123456789',4,'Süd',2,3100,",B440,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A440,B440,"123456780',6,'Mitte',1,3103,",B440,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(439,'1',3312,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'439123456789',4,'Süd',2,3100,439);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'439123456780',6,'Mitte',1,3103,439);</v>
       </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.25">
@@ -24371,8 +24372,8 @@
         <v>222</v>
       </c>
       <c r="G442" s="15" t="str">
-        <f t="shared" ref="G442:G505" ca="1" si="875">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B442,",'",E442,"',",C442,",'",D442,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A442,B442,"123456789',4,'Süd',2,3100,",B442,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A442,B442,"123456780',6,'Mitte',1,3103,",B442,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(441,'1',3313,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('441123456789',4,'Süd',2,3100,441);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('441123456780',6,'Mitte',1,3103,441);</v>
+        <f t="shared" ref="G442:G505" ca="1" si="875">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B442,",'",E442,"',",C442,",'",D442,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A442,B442,"123456789',4,'Süd',2,3100,",B442,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A442,B442,"123456780',6,'Mitte',1,3103,",B442,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(441,'1',3313,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'441123456789',4,'Süd',2,3100,441);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'441123456780',6,'Mitte',1,3103,441);</v>
       </c>
     </row>
     <row r="443" spans="2:7" x14ac:dyDescent="0.25">
@@ -24412,8 +24413,8 @@
         <v>223</v>
       </c>
       <c r="G444" s="15" t="str">
-        <f t="shared" ref="G444:G507" ca="1" si="879">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B444,",'",E444,"',",C444,",'",D444,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A444,B444,"123456789',4,'Süd',2,3100,",B444,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A444,B444,"123456780',6,'Mitte',1,3103,",B444,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(443,'1',3314,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('443123456789',4,'Süd',2,3100,443);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('443123456780',6,'Mitte',1,3103,443);</v>
+        <f t="shared" ref="G444:G507" ca="1" si="879">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B444,",'",E444,"',",C444,",'",D444,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A444,B444,"123456789',4,'Süd',2,3100,",B444,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A444,B444,"123456780',6,'Mitte',1,3103,",B444,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(443,'1',3314,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'443123456789',4,'Süd',2,3100,443);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'443123456780',6,'Mitte',1,3103,443);</v>
       </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.25">
@@ -24453,8 +24454,8 @@
         <v>224</v>
       </c>
       <c r="G446" s="15" t="str">
-        <f t="shared" ref="G446:G509" ca="1" si="883">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B446,",'",E446,"',",C446,",'",D446,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A446,B446,"123456789',4,'Süd',2,3100,",B446,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A446,B446,"123456780',6,'Mitte',1,3103,",B446,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(445,'1',3315,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('445123456789',4,'Süd',2,3100,445);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('445123456780',6,'Mitte',1,3103,445);</v>
+        <f t="shared" ref="G446:G509" ca="1" si="883">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B446,",'",E446,"',",C446,",'",D446,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A446,B446,"123456789',4,'Süd',2,3100,",B446,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A446,B446,"123456780',6,'Mitte',1,3103,",B446,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(445,'1',3315,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'445123456789',4,'Süd',2,3100,445);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'445123456780',6,'Mitte',1,3103,445);</v>
       </c>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.25">
@@ -24494,8 +24495,8 @@
         <v>225</v>
       </c>
       <c r="G448" s="15" t="str">
-        <f t="shared" ref="G448:G511" ca="1" si="887">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B448,",'",E448,"',",C448,",'",D448,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A448,B448,"123456789',4,'Süd',2,3100,",B448,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A448,B448,"123456780',6,'Mitte',1,3103,",B448,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(447,'1',3317,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('447123456789',4,'Süd',2,3100,447);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('447123456780',6,'Mitte',1,3103,447);</v>
+        <f t="shared" ref="G448:G511" ca="1" si="887">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B448,",'",E448,"',",C448,",'",D448,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A448,B448,"123456789',4,'Süd',2,3100,",B448,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A448,B448,"123456780',6,'Mitte',1,3103,",B448,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(447,'1',3317,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'447123456789',4,'Süd',2,3100,447);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'447123456780',6,'Mitte',1,3103,447);</v>
       </c>
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.25">
@@ -24535,8 +24536,8 @@
         <v>226</v>
       </c>
       <c r="G450" s="15" t="str">
-        <f t="shared" ref="G450:G513" ca="1" si="891">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B450,",'",E450,"',",C450,",'",D450,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A450,B450,"123456789',4,'Süd',2,3100,",B450,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A450,B450,"123456780',6,'Mitte',1,3103,",B450,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(449,'1',3322,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('449123456789',4,'Süd',2,3100,449);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('449123456780',6,'Mitte',1,3103,449);</v>
+        <f t="shared" ref="G450:G513" ca="1" si="891">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B450,",'",E450,"',",C450,",'",D450,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A450,B450,"123456789',4,'Süd',2,3100,",B450,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A450,B450,"123456780',6,'Mitte',1,3103,",B450,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(449,'1',3322,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'449123456789',4,'Süd',2,3100,449);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'449123456780',6,'Mitte',1,3103,449);</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.25">
@@ -24576,8 +24577,8 @@
         <v>227</v>
       </c>
       <c r="G452" s="15" t="str">
-        <f t="shared" ref="G452:G515" ca="1" si="895">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B452,",'",E452,"',",C452,",'",D452,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A452,B452,"123456789',4,'Süd',2,3100,",B452,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A452,B452,"123456780',6,'Mitte',1,3103,",B452,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(451,'1',3323,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('451123456789',4,'Süd',2,3100,451);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('451123456780',6,'Mitte',1,3103,451);</v>
+        <f t="shared" ref="G452:G515" ca="1" si="895">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B452,",'",E452,"',",C452,",'",D452,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A452,B452,"123456789',4,'Süd',2,3100,",B452,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A452,B452,"123456780',6,'Mitte',1,3103,",B452,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(451,'1',3323,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'451123456789',4,'Süd',2,3100,451);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'451123456780',6,'Mitte',1,3103,451);</v>
       </c>
     </row>
     <row r="453" spans="2:7" x14ac:dyDescent="0.25">
@@ -24617,8 +24618,8 @@
         <v>228</v>
       </c>
       <c r="G454" s="15" t="str">
-        <f t="shared" ref="G454:G517" ca="1" si="899">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B454,",'",E454,"',",C454,",'",D454,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A454,B454,"123456789',4,'Süd',2,3100,",B454,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A454,B454,"123456780',6,'Mitte',1,3103,",B454,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(453,'1',3324,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('453123456789',4,'Süd',2,3100,453);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('453123456780',6,'Mitte',1,3103,453);</v>
+        <f t="shared" ref="G454:G517" ca="1" si="899">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B454,",'",E454,"',",C454,",'",D454,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A454,B454,"123456789',4,'Süd',2,3100,",B454,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A454,B454,"123456780',6,'Mitte',1,3103,",B454,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(453,'1',3324,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'453123456789',4,'Süd',2,3100,453);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'453123456780',6,'Mitte',1,3103,453);</v>
       </c>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.25">
@@ -24658,8 +24659,8 @@
         <v>229</v>
       </c>
       <c r="G456" s="15" t="str">
-        <f t="shared" ref="G456:G519" ca="1" si="903">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B456,",'",E456,"',",C456,",'",D456,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A456,B456,"123456789',4,'Süd',2,3100,",B456,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A456,B456,"123456780',6,'Mitte',1,3103,",B456,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(455,'1',3325,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('455123456789',4,'Süd',2,3100,455);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('455123456780',6,'Mitte',1,3103,455);</v>
+        <f t="shared" ref="G456:G519" ca="1" si="903">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B456,",'",E456,"',",C456,",'",D456,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A456,B456,"123456789',4,'Süd',2,3100,",B456,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A456,B456,"123456780',6,'Mitte',1,3103,",B456,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(455,'1',3325,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'455123456789',4,'Süd',2,3100,455);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'455123456780',6,'Mitte',1,3103,455);</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.25">
@@ -24699,8 +24700,8 @@
         <v>230</v>
       </c>
       <c r="G458" s="15" t="str">
-        <f t="shared" ref="G458:G521" ca="1" si="907">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B458,",'",E458,"',",C458,",'",D458,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A458,B458,"123456789',4,'Süd',2,3100,",B458,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A458,B458,"123456780',6,'Mitte',1,3103,",B458,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(457,'1',3326,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('457123456789',4,'Süd',2,3100,457);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('457123456780',6,'Mitte',1,3103,457);</v>
+        <f t="shared" ref="G458:G521" ca="1" si="907">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B458,",'",E458,"',",C458,",'",D458,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A458,B458,"123456789',4,'Süd',2,3100,",B458,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A458,B458,"123456780',6,'Mitte',1,3103,",B458,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(457,'1',3326,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'457123456789',4,'Süd',2,3100,457);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'457123456780',6,'Mitte',1,3103,457);</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.25">
@@ -24740,8 +24741,8 @@
         <v>231</v>
       </c>
       <c r="G460" s="15" t="str">
-        <f t="shared" ref="G460:G523" ca="1" si="911">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B460,",'",E460,"',",C460,",'",D460,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A460,B460,"123456789',4,'Süd',2,3100,",B460,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A460,B460,"123456780',6,'Mitte',1,3103,",B460,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(459,'1',3360,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('459123456789',4,'Süd',2,3100,459);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('459123456780',6,'Mitte',1,3103,459);</v>
+        <f t="shared" ref="G460:G523" ca="1" si="911">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B460,",'",E460,"',",C460,",'",D460,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A460,B460,"123456789',4,'Süd',2,3100,",B460,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A460,B460,"123456780',6,'Mitte',1,3103,",B460,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(459,'1',3360,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'459123456789',4,'Süd',2,3100,459);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'459123456780',6,'Mitte',1,3103,459);</v>
       </c>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.25">
@@ -24781,8 +24782,8 @@
         <v>232</v>
       </c>
       <c r="G462" s="15" t="str">
-        <f t="shared" ref="G462:G525" ca="1" si="915">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B462,",'",E462,"',",C462,",'",D462,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A462,B462,"123456789',4,'Süd',2,3100,",B462,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A462,B462,"123456780',6,'Mitte',1,3103,",B462,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(461,'1',3362,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('461123456789',4,'Süd',2,3100,461);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('461123456780',6,'Mitte',1,3103,461);</v>
+        <f t="shared" ref="G462:G525" ca="1" si="915">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B462,",'",E462,"',",C462,",'",D462,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A462,B462,"123456789',4,'Süd',2,3100,",B462,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A462,B462,"123456780',6,'Mitte',1,3103,",B462,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(461,'1',3362,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'461123456789',4,'Süd',2,3100,461);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'461123456780',6,'Mitte',1,3103,461);</v>
       </c>
     </row>
     <row r="463" spans="2:7" x14ac:dyDescent="0.25">
@@ -24822,8 +24823,8 @@
         <v>233</v>
       </c>
       <c r="G464" s="15" t="str">
-        <f t="shared" ref="G464:G527" ca="1" si="919">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B464,",'",E464,"',",C464,",'",D464,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A464,B464,"123456789',4,'Süd',2,3100,",B464,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A464,B464,"123456780',6,'Mitte',1,3103,",B464,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(463,'1',3363,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('463123456789',4,'Süd',2,3100,463);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('463123456780',6,'Mitte',1,3103,463);</v>
+        <f t="shared" ref="G464:G527" ca="1" si="919">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B464,",'",E464,"',",C464,",'",D464,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A464,B464,"123456789',4,'Süd',2,3100,",B464,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A464,B464,"123456780',6,'Mitte',1,3103,",B464,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(463,'1',3363,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'463123456789',4,'Süd',2,3100,463);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'463123456780',6,'Mitte',1,3103,463);</v>
       </c>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.25">
@@ -24863,8 +24864,8 @@
         <v>234</v>
       </c>
       <c r="G466" s="15" t="str">
-        <f t="shared" ref="G466:G529" ca="1" si="923">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B466,",'",E466,"',",C466,",'",D466,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A466,B466,"123456789',4,'Süd',2,3100,",B466,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A466,B466,"123456780',6,'Mitte',1,3103,",B466,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(465,'1',3365,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('465123456789',4,'Süd',2,3100,465);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('465123456780',6,'Mitte',1,3103,465);</v>
+        <f t="shared" ref="G466:G529" ca="1" si="923">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B466,",'",E466,"',",C466,",'",D466,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A466,B466,"123456789',4,'Süd',2,3100,",B466,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A466,B466,"123456780',6,'Mitte',1,3103,",B466,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(465,'1',3365,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'465123456789',4,'Süd',2,3100,465);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'465123456780',6,'Mitte',1,3103,465);</v>
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
@@ -24904,8 +24905,8 @@
         <v>235</v>
       </c>
       <c r="G468" s="15" t="str">
-        <f t="shared" ref="G468:G531" ca="1" si="927">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B468,",'",E468,"',",C468,",'",D468,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A468,B468,"123456789',4,'Süd',2,3100,",B468,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A468,B468,"123456780',6,'Mitte',1,3103,",B468,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(467,'1',3366,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('467123456789',4,'Süd',2,3100,467);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('467123456780',6,'Mitte',1,3103,467);</v>
+        <f t="shared" ref="G468:G531" ca="1" si="927">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B468,",'",E468,"',",C468,",'",D468,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A468,B468,"123456789',4,'Süd',2,3100,",B468,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A468,B468,"123456780',6,'Mitte',1,3103,",B468,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(467,'1',3366,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'467123456789',4,'Süd',2,3100,467);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'467123456780',6,'Mitte',1,3103,467);</v>
       </c>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.25">
@@ -24945,8 +24946,8 @@
         <v>236</v>
       </c>
       <c r="G470" s="15" t="str">
-        <f t="shared" ref="G470:G533" ca="1" si="931">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B470,",'",E470,"',",C470,",'",D470,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A470,B470,"123456789',4,'Süd',2,3100,",B470,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A470,B470,"123456780',6,'Mitte',1,3103,",B470,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(469,'1',3367,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('469123456789',4,'Süd',2,3100,469);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('469123456780',6,'Mitte',1,3103,469);</v>
+        <f t="shared" ref="G470:G533" ca="1" si="931">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B470,",'",E470,"',",C470,",'",D470,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A470,B470,"123456789',4,'Süd',2,3100,",B470,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A470,B470,"123456780',6,'Mitte',1,3103,",B470,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(469,'1',3367,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'469123456789',4,'Süd',2,3100,469);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'469123456780',6,'Mitte',1,3103,469);</v>
       </c>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.25">
@@ -24986,8 +24987,8 @@
         <v>237</v>
       </c>
       <c r="G472" s="15" t="str">
-        <f t="shared" ref="G472:G535" ca="1" si="935">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B472,",'",E472,"',",C472,",'",D472,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A472,B472,"123456789',4,'Süd',2,3100,",B472,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A472,B472,"123456780',6,'Mitte',1,3103,",B472,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(471,'1',3368,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('471123456789',4,'Süd',2,3100,471);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('471123456780',6,'Mitte',1,3103,471);</v>
+        <f t="shared" ref="G472:G535" ca="1" si="935">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B472,",'",E472,"',",C472,",'",D472,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A472,B472,"123456789',4,'Süd',2,3100,",B472,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A472,B472,"123456780',6,'Mitte',1,3103,",B472,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(471,'1',3368,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'471123456789',4,'Süd',2,3100,471);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'471123456780',6,'Mitte',1,3103,471);</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.25">
@@ -25027,8 +25028,8 @@
         <v>238</v>
       </c>
       <c r="G474" s="15" t="str">
-        <f t="shared" ref="G474:G537" ca="1" si="939">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B474,",'",E474,"',",C474,",'",D474,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A474,B474,"123456789',4,'Süd',2,3100,",B474,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A474,B474,"123456780',6,'Mitte',1,3103,",B474,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(473,'1',3372,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('473123456789',4,'Süd',2,3100,473);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('473123456780',6,'Mitte',1,3103,473);</v>
+        <f t="shared" ref="G474:G537" ca="1" si="939">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B474,",'",E474,"',",C474,",'",D474,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A474,B474,"123456789',4,'Süd',2,3100,",B474,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A474,B474,"123456780',6,'Mitte',1,3103,",B474,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(473,'1',3372,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'473123456789',4,'Süd',2,3100,473);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'473123456780',6,'Mitte',1,3103,473);</v>
       </c>
     </row>
     <row r="475" spans="2:7" x14ac:dyDescent="0.25">
@@ -25068,8 +25069,8 @@
         <v>239</v>
       </c>
       <c r="G476" s="15" t="str">
-        <f t="shared" ref="G476:G539" ca="1" si="943">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B476,",'",E476,"',",C476,",'",D476,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A476,B476,"123456789',4,'Süd',2,3100,",B476,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A476,B476,"123456780',6,'Mitte',1,3103,",B476,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(475,'1',3373,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('475123456789',4,'Süd',2,3100,475);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('475123456780',6,'Mitte',1,3103,475);</v>
+        <f t="shared" ref="G476:G539" ca="1" si="943">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B476,",'",E476,"',",C476,",'",D476,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A476,B476,"123456789',4,'Süd',2,3100,",B476,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A476,B476,"123456780',6,'Mitte',1,3103,",B476,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(475,'1',3373,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'475123456789',4,'Süd',2,3100,475);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'475123456780',6,'Mitte',1,3103,475);</v>
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.25">
@@ -25109,8 +25110,8 @@
         <v>240</v>
       </c>
       <c r="G478" s="15" t="str">
-        <f t="shared" ref="G478:G541" ca="1" si="947">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B478,",'",E478,"',",C478,",'",D478,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A478,B478,"123456789',4,'Süd',2,3100,",B478,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A478,B478,"123456780',6,'Mitte',1,3103,",B478,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(477,'1',3374,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('477123456789',4,'Süd',2,3100,477);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('477123456780',6,'Mitte',1,3103,477);</v>
+        <f t="shared" ref="G478:G541" ca="1" si="947">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B478,",'",E478,"',",C478,",'",D478,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A478,B478,"123456789',4,'Süd',2,3100,",B478,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A478,B478,"123456780',6,'Mitte',1,3103,",B478,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(477,'1',3374,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'477123456789',4,'Süd',2,3100,477);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'477123456780',6,'Mitte',1,3103,477);</v>
       </c>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.25">
@@ -25150,8 +25151,8 @@
         <v>241</v>
       </c>
       <c r="G480" s="15" t="str">
-        <f t="shared" ref="G480:G543" ca="1" si="951">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B480,",'",E480,"',",C480,",'",D480,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A480,B480,"123456789',4,'Süd',2,3100,",B480,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A480,B480,"123456780',6,'Mitte',1,3103,",B480,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(479,'1',3375,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('479123456789',4,'Süd',2,3100,479);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('479123456780',6,'Mitte',1,3103,479);</v>
+        <f t="shared" ref="G480:G543" ca="1" si="951">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B480,",'",E480,"',",C480,",'",D480,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A480,B480,"123456789',4,'Süd',2,3100,",B480,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A480,B480,"123456780',6,'Mitte',1,3103,",B480,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(479,'1',3375,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'479123456789',4,'Süd',2,3100,479);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'479123456780',6,'Mitte',1,3103,479);</v>
       </c>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.25">
@@ -25191,8 +25192,8 @@
         <v>242</v>
       </c>
       <c r="G482" s="15" t="str">
-        <f t="shared" ref="G482:G545" ca="1" si="955">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B482,",'",E482,"',",C482,",'",D482,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A482,B482,"123456789',4,'Süd',2,3100,",B482,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A482,B482,"123456780',6,'Mitte',1,3103,",B482,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(481,'1',3376,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('481123456789',4,'Süd',2,3100,481);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('481123456780',6,'Mitte',1,3103,481);</v>
+        <f t="shared" ref="G482:G545" ca="1" si="955">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B482,",'",E482,"',",C482,",'",D482,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A482,B482,"123456789',4,'Süd',2,3100,",B482,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A482,B482,"123456780',6,'Mitte',1,3103,",B482,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(481,'1',3376,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'481123456789',4,'Süd',2,3100,481);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'481123456780',6,'Mitte',1,3103,481);</v>
       </c>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.25">
@@ -25232,8 +25233,8 @@
         <v>243</v>
       </c>
       <c r="G484" s="15" t="str">
-        <f t="shared" ref="G484:G547" ca="1" si="959">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B484,",'",E484,"',",C484,",'",D484,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A484,B484,"123456789',4,'Süd',2,3100,",B484,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A484,B484,"123456780',6,'Mitte',1,3103,",B484,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(483,'1',3377,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('483123456789',4,'Süd',2,3100,483);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('483123456780',6,'Mitte',1,3103,483);</v>
+        <f t="shared" ref="G484:G547" ca="1" si="959">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B484,",'",E484,"',",C484,",'",D484,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A484,B484,"123456789',4,'Süd',2,3100,",B484,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A484,B484,"123456780',6,'Mitte',1,3103,",B484,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(483,'1',3377,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'483123456789',4,'Süd',2,3100,483);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'483123456780',6,'Mitte',1,3103,483);</v>
       </c>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.25">
@@ -25273,8 +25274,8 @@
         <v>244</v>
       </c>
       <c r="G486" s="15" t="str">
-        <f t="shared" ref="G486:G549" ca="1" si="963">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B486,",'",E486,"',",C486,",'",D486,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A486,B486,"123456789',4,'Süd',2,3100,",B486,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A486,B486,"123456780',6,'Mitte',1,3103,",B486,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(485,'1',3380,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('485123456789',4,'Süd',2,3100,485);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('485123456780',6,'Mitte',1,3103,485);</v>
+        <f t="shared" ref="G486:G549" ca="1" si="963">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B486,",'",E486,"',",C486,",'",D486,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A486,B486,"123456789',4,'Süd',2,3100,",B486,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A486,B486,"123456780',6,'Mitte',1,3103,",B486,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(485,'1',3380,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'485123456789',4,'Süd',2,3100,485);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'485123456780',6,'Mitte',1,3103,485);</v>
       </c>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.25">
@@ -25314,8 +25315,8 @@
         <v>245</v>
       </c>
       <c r="G488" s="15" t="str">
-        <f t="shared" ref="G488:G551" ca="1" si="967">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B488,",'",E488,"',",C488,",'",D488,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A488,B488,"123456789',4,'Süd',2,3100,",B488,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A488,B488,"123456780',6,'Mitte',1,3103,",B488,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(487,'1',3400,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('487123456789',4,'Süd',2,3100,487);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('487123456780',6,'Mitte',1,3103,487);</v>
+        <f t="shared" ref="G488:G551" ca="1" si="967">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B488,",'",E488,"',",C488,",'",D488,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A488,B488,"123456789',4,'Süd',2,3100,",B488,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A488,B488,"123456780',6,'Mitte',1,3103,",B488,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(487,'1',3400,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'487123456789',4,'Süd',2,3100,487);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'487123456780',6,'Mitte',1,3103,487);</v>
       </c>
     </row>
     <row r="489" spans="2:7" x14ac:dyDescent="0.25">
@@ -25355,8 +25356,8 @@
         <v>246</v>
       </c>
       <c r="G490" s="15" t="str">
-        <f t="shared" ref="G490:G553" ca="1" si="971">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B490,",'",E490,"',",C490,",'",D490,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A490,B490,"123456789',4,'Süd',2,3100,",B490,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A490,B490,"123456780',6,'Mitte',1,3103,",B490,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(489,'1',3412,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('489123456789',4,'Süd',2,3100,489);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('489123456780',6,'Mitte',1,3103,489);</v>
+        <f t="shared" ref="G490:G553" ca="1" si="971">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B490,",'",E490,"',",C490,",'",D490,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A490,B490,"123456789',4,'Süd',2,3100,",B490,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A490,B490,"123456780',6,'Mitte',1,3103,",B490,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(489,'1',3412,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'489123456789',4,'Süd',2,3100,489);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'489123456780',6,'Mitte',1,3103,489);</v>
       </c>
     </row>
     <row r="491" spans="2:7" x14ac:dyDescent="0.25">
@@ -25396,8 +25397,8 @@
         <v>247</v>
       </c>
       <c r="G492" s="15" t="str">
-        <f t="shared" ref="G492:G555" ca="1" si="975">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B492,",'",E492,"',",C492,",'",D492,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A492,B492,"123456789',4,'Süd',2,3100,",B492,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A492,B492,"123456780',6,'Mitte',1,3103,",B492,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(491,'1',3413,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('491123456789',4,'Süd',2,3100,491);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('491123456780',6,'Mitte',1,3103,491);</v>
+        <f t="shared" ref="G492:G555" ca="1" si="975">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B492,",'",E492,"',",C492,",'",D492,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A492,B492,"123456789',4,'Süd',2,3100,",B492,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A492,B492,"123456780',6,'Mitte',1,3103,",B492,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(491,'1',3413,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'491123456789',4,'Süd',2,3100,491);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'491123456780',6,'Mitte',1,3103,491);</v>
       </c>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.25">
@@ -25437,8 +25438,8 @@
         <v>248</v>
       </c>
       <c r="G494" s="15" t="str">
-        <f t="shared" ref="G494:G557" ca="1" si="979">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B494,",'",E494,"',",C494,",'",D494,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A494,B494,"123456789',4,'Süd',2,3100,",B494,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A494,B494,"123456780',6,'Mitte',1,3103,",B494,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(493,'1',3414,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('493123456789',4,'Süd',2,3100,493);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('493123456780',6,'Mitte',1,3103,493);</v>
+        <f t="shared" ref="G494:G557" ca="1" si="979">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B494,",'",E494,"',",C494,",'",D494,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A494,B494,"123456789',4,'Süd',2,3100,",B494,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A494,B494,"123456780',6,'Mitte',1,3103,",B494,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(493,'1',3414,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'493123456789',4,'Süd',2,3100,493);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'493123456780',6,'Mitte',1,3103,493);</v>
       </c>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.25">
@@ -25478,8 +25479,8 @@
         <v>249</v>
       </c>
       <c r="G496" s="15" t="str">
-        <f t="shared" ref="G496:G559" ca="1" si="983">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B496,",'",E496,"',",C496,",'",D496,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A496,B496,"123456789',4,'Süd',2,3100,",B496,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A496,B496,"123456780',6,'Mitte',1,3103,",B496,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(495,'1',3415,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('495123456789',4,'Süd',2,3100,495);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('495123456780',6,'Mitte',1,3103,495);</v>
+        <f t="shared" ref="G496:G559" ca="1" si="983">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B496,",'",E496,"',",C496,",'",D496,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A496,B496,"123456789',4,'Süd',2,3100,",B496,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A496,B496,"123456780',6,'Mitte',1,3103,",B496,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(495,'1',3415,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'495123456789',4,'Süd',2,3100,495);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'495123456780',6,'Mitte',1,3103,495);</v>
       </c>
     </row>
     <row r="497" spans="2:7" x14ac:dyDescent="0.25">
@@ -25519,8 +25520,8 @@
         <v>250</v>
       </c>
       <c r="G498" s="15" t="str">
-        <f t="shared" ref="G498:G561" ca="1" si="987">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B498,",'",E498,"',",C498,",'",D498,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A498,B498,"123456789',4,'Süd',2,3100,",B498,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A498,B498,"123456780',6,'Mitte',1,3103,",B498,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(497,'1',3416,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('497123456789',4,'Süd',2,3100,497);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('497123456780',6,'Mitte',1,3103,497);</v>
+        <f t="shared" ref="G498:G561" ca="1" si="987">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B498,",'",E498,"',",C498,",'",D498,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A498,B498,"123456789',4,'Süd',2,3100,",B498,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A498,B498,"123456780',6,'Mitte',1,3103,",B498,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(497,'1',3416,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'497123456789',4,'Süd',2,3100,497);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'497123456780',6,'Mitte',1,3103,497);</v>
       </c>
     </row>
     <row r="499" spans="2:7" x14ac:dyDescent="0.25">
@@ -25560,8 +25561,8 @@
         <v>251</v>
       </c>
       <c r="G500" s="15" t="str">
-        <f t="shared" ref="G500:G563" ca="1" si="991">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B500,",'",E500,"',",C500,",'",D500,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A500,B500,"123456789',4,'Süd',2,3100,",B500,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A500,B500,"123456780',6,'Mitte',1,3103,",B500,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(499,'1',3417,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('499123456789',4,'Süd',2,3100,499);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('499123456780',6,'Mitte',1,3103,499);</v>
+        <f t="shared" ref="G500:G563" ca="1" si="991">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B500,",'",E500,"',",C500,",'",D500,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A500,B500,"123456789',4,'Süd',2,3100,",B500,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A500,B500,"123456780',6,'Mitte',1,3103,",B500,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(499,'1',3417,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'499123456789',4,'Süd',2,3100,499);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'499123456780',6,'Mitte',1,3103,499);</v>
       </c>
     </row>
     <row r="501" spans="2:7" x14ac:dyDescent="0.25">
@@ -25601,8 +25602,8 @@
         <v>252</v>
       </c>
       <c r="G502" s="15" t="str">
-        <f t="shared" ref="G502:G565" ca="1" si="995">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B502,",'",E502,"',",C502,",'",D502,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A502,B502,"123456789',4,'Süd',2,3100,",B502,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A502,B502,"123456780',6,'Mitte',1,3103,",B502,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(501,'1',3418,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('501123456789',4,'Süd',2,3100,501);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('501123456780',6,'Mitte',1,3103,501);</v>
+        <f t="shared" ref="G502:G565" ca="1" si="995">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B502,",'",E502,"',",C502,",'",D502,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A502,B502,"123456789',4,'Süd',2,3100,",B502,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A502,B502,"123456780',6,'Mitte',1,3103,",B502,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(501,'1',3418,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'501123456789',4,'Süd',2,3100,501);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'501123456780',6,'Mitte',1,3103,501);</v>
       </c>
     </row>
     <row r="503" spans="2:7" x14ac:dyDescent="0.25">
@@ -25642,8 +25643,8 @@
         <v>253</v>
       </c>
       <c r="G504" s="15" t="str">
-        <f t="shared" ref="G504:G567" ca="1" si="999">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B504,",'",E504,"',",C504,",'",D504,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A504,B504,"123456789',4,'Süd',2,3100,",B504,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A504,B504,"123456780',6,'Mitte',1,3103,",B504,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(503,'1',3419,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('503123456789',4,'Süd',2,3100,503);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('503123456780',6,'Mitte',1,3103,503);</v>
+        <f t="shared" ref="G504:G567" ca="1" si="999">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B504,",'",E504,"',",C504,",'",D504,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A504,B504,"123456789',4,'Süd',2,3100,",B504,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A504,B504,"123456780',6,'Mitte',1,3103,",B504,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(503,'1',3419,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'503123456789',4,'Süd',2,3100,503);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'503123456780',6,'Mitte',1,3103,503);</v>
       </c>
     </row>
     <row r="505" spans="2:7" x14ac:dyDescent="0.25">
@@ -25683,8 +25684,8 @@
         <v>254</v>
       </c>
       <c r="G506" s="15" t="str">
-        <f t="shared" ref="G506:G569" ca="1" si="1003">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B506,",'",E506,"',",C506,",'",D506,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A506,B506,"123456789',4,'Süd',2,3100,",B506,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A506,B506,"123456780',6,'Mitte',1,3103,",B506,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(505,'1',3421,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('505123456789',4,'Süd',2,3100,505);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('505123456780',6,'Mitte',1,3103,505);</v>
+        <f t="shared" ref="G506:G569" ca="1" si="1003">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B506,",'",E506,"',",C506,",'",D506,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A506,B506,"123456789',4,'Süd',2,3100,",B506,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A506,B506,"123456780',6,'Mitte',1,3103,",B506,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(505,'1',3421,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'505123456789',4,'Süd',2,3100,505);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'505123456780',6,'Mitte',1,3103,505);</v>
       </c>
     </row>
     <row r="507" spans="2:7" x14ac:dyDescent="0.25">
@@ -25724,8 +25725,8 @@
         <v>255</v>
       </c>
       <c r="G508" s="15" t="str">
-        <f t="shared" ref="G508:G571" ca="1" si="1007">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B508,",'",E508,"',",C508,",'",D508,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A508,B508,"123456789',4,'Süd',2,3100,",B508,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A508,B508,"123456780',6,'Mitte',1,3103,",B508,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(507,'1',3422,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('507123456789',4,'Süd',2,3100,507);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('507123456780',6,'Mitte',1,3103,507);</v>
+        <f t="shared" ref="G508:G571" ca="1" si="1007">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B508,",'",E508,"',",C508,",'",D508,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A508,B508,"123456789',4,'Süd',2,3100,",B508,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A508,B508,"123456780',6,'Mitte',1,3103,",B508,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(507,'1',3422,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'507123456789',4,'Süd',2,3100,507);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'507123456780',6,'Mitte',1,3103,507);</v>
       </c>
     </row>
     <row r="509" spans="2:7" x14ac:dyDescent="0.25">
@@ -25765,8 +25766,8 @@
         <v>256</v>
       </c>
       <c r="G510" s="15" t="str">
-        <f t="shared" ref="G510:G573" ca="1" si="1011">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B510,",'",E510,"',",C510,",'",D510,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A510,B510,"123456789',4,'Süd',2,3100,",B510,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A510,B510,"123456780',6,'Mitte',1,3103,",B510,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(509,'1',3423,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('509123456789',4,'Süd',2,3100,509);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('509123456780',6,'Mitte',1,3103,509);</v>
+        <f t="shared" ref="G510:G573" ca="1" si="1011">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B510,",'",E510,"',",C510,",'",D510,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A510,B510,"123456789',4,'Süd',2,3100,",B510,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A510,B510,"123456780',6,'Mitte',1,3103,",B510,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(509,'1',3423,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'509123456789',4,'Süd',2,3100,509);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'509123456780',6,'Mitte',1,3103,509);</v>
       </c>
     </row>
     <row r="511" spans="2:7" x14ac:dyDescent="0.25">
@@ -25806,8 +25807,8 @@
         <v>257</v>
       </c>
       <c r="G512" s="15" t="str">
-        <f t="shared" ref="G512:G575" ca="1" si="1015">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B512,",'",E512,"',",C512,",'",D512,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A512,B512,"123456789',4,'Süd',2,3100,",B512,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A512,B512,"123456780',6,'Mitte',1,3103,",B512,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(511,'1',3424,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('511123456789',4,'Süd',2,3100,511);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('511123456780',6,'Mitte',1,3103,511);</v>
+        <f t="shared" ref="G512:G575" ca="1" si="1015">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B512,",'",E512,"',",C512,",'",D512,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A512,B512,"123456789',4,'Süd',2,3100,",B512,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A512,B512,"123456780',6,'Mitte',1,3103,",B512,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(511,'1',3424,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'511123456789',4,'Süd',2,3100,511);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'511123456780',6,'Mitte',1,3103,511);</v>
       </c>
     </row>
     <row r="513" spans="2:7" x14ac:dyDescent="0.25">
@@ -25847,8 +25848,8 @@
         <v>258</v>
       </c>
       <c r="G514" s="15" t="str">
-        <f t="shared" ref="G514:G577" ca="1" si="1019">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B514,",'",E514,"',",C514,",'",D514,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A514,B514,"123456789',4,'Süd',2,3100,",B514,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A514,B514,"123456780',6,'Mitte',1,3103,",B514,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(513,'1',3425,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('513123456789',4,'Süd',2,3100,513);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('513123456780',6,'Mitte',1,3103,513);</v>
+        <f t="shared" ref="G514:G577" ca="1" si="1019">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B514,",'",E514,"',",C514,",'",D514,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A514,B514,"123456789',4,'Süd',2,3100,",B514,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A514,B514,"123456780',6,'Mitte',1,3103,",B514,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(513,'1',3425,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'513123456789',4,'Süd',2,3100,513);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'513123456780',6,'Mitte',1,3103,513);</v>
       </c>
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.25">
@@ -25888,8 +25889,8 @@
         <v>259</v>
       </c>
       <c r="G516" s="15" t="str">
-        <f t="shared" ref="G516:G579" ca="1" si="1023">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B516,",'",E516,"',",C516,",'",D516,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A516,B516,"123456789',4,'Süd',2,3100,",B516,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A516,B516,"123456780',6,'Mitte',1,3103,",B516,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(515,'1',3426,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('515123456789',4,'Süd',2,3100,515);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('515123456780',6,'Mitte',1,3103,515);</v>
+        <f t="shared" ref="G516:G579" ca="1" si="1023">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B516,",'",E516,"',",C516,",'",D516,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A516,B516,"123456789',4,'Süd',2,3100,",B516,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A516,B516,"123456780',6,'Mitte',1,3103,",B516,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(515,'1',3426,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'515123456789',4,'Süd',2,3100,515);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'515123456780',6,'Mitte',1,3103,515);</v>
       </c>
     </row>
     <row r="517" spans="2:7" x14ac:dyDescent="0.25">
@@ -25929,8 +25930,8 @@
         <v>260</v>
       </c>
       <c r="G518" s="15" t="str">
-        <f t="shared" ref="G518:G581" ca="1" si="1027">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B518,",'",E518,"',",C518,",'",D518,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A518,B518,"123456789',4,'Süd',2,3100,",B518,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A518,B518,"123456780',6,'Mitte',1,3103,",B518,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(517,'1',3427,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('517123456789',4,'Süd',2,3100,517);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('517123456780',6,'Mitte',1,3103,517);</v>
+        <f t="shared" ref="G518:G581" ca="1" si="1027">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B518,",'",E518,"',",C518,",'",D518,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A518,B518,"123456789',4,'Süd',2,3100,",B518,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A518,B518,"123456780',6,'Mitte',1,3103,",B518,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(517,'1',3427,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'517123456789',4,'Süd',2,3100,517);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'517123456780',6,'Mitte',1,3103,517);</v>
       </c>
     </row>
     <row r="519" spans="2:7" x14ac:dyDescent="0.25">
@@ -25970,8 +25971,8 @@
         <v>261</v>
       </c>
       <c r="G520" s="15" t="str">
-        <f t="shared" ref="G520:G583" ca="1" si="1031">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B520,",'",E520,"',",C520,",'",D520,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A520,B520,"123456789',4,'Süd',2,3100,",B520,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A520,B520,"123456780',6,'Mitte',1,3103,",B520,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(519,'1',3428,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('519123456789',4,'Süd',2,3100,519);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('519123456780',6,'Mitte',1,3103,519);</v>
+        <f t="shared" ref="G520:G583" ca="1" si="1031">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B520,",'",E520,"',",C520,",'",D520,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A520,B520,"123456789',4,'Süd',2,3100,",B520,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A520,B520,"123456780',6,'Mitte',1,3103,",B520,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(519,'1',3428,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'519123456789',4,'Süd',2,3100,519);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'519123456780',6,'Mitte',1,3103,519);</v>
       </c>
     </row>
     <row r="521" spans="2:7" x14ac:dyDescent="0.25">
@@ -26011,8 +26012,8 @@
         <v>262</v>
       </c>
       <c r="G522" s="15" t="str">
-        <f t="shared" ref="G522:G585" ca="1" si="1035">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B522,",'",E522,"',",C522,",'",D522,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A522,B522,"123456789',4,'Süd',2,3100,",B522,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A522,B522,"123456780',6,'Mitte',1,3103,",B522,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(521,'1',3429,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('521123456789',4,'Süd',2,3100,521);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('521123456780',6,'Mitte',1,3103,521);</v>
+        <f t="shared" ref="G522:G585" ca="1" si="1035">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B522,",'",E522,"',",C522,",'",D522,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A522,B522,"123456789',4,'Süd',2,3100,",B522,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A522,B522,"123456780',6,'Mitte',1,3103,",B522,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(521,'1',3429,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'521123456789',4,'Süd',2,3100,521);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'521123456780',6,'Mitte',1,3103,521);</v>
       </c>
     </row>
     <row r="523" spans="2:7" x14ac:dyDescent="0.25">
@@ -26052,8 +26053,8 @@
         <v>263</v>
       </c>
       <c r="G524" s="15" t="str">
-        <f t="shared" ref="G524:G587" ca="1" si="1039">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B524,",'",E524,"',",C524,",'",D524,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A524,B524,"123456789',4,'Süd',2,3100,",B524,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A524,B524,"123456780',6,'Mitte',1,3103,",B524,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(523,'1',3432,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('523123456789',4,'Süd',2,3100,523);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('523123456780',6,'Mitte',1,3103,523);</v>
+        <f t="shared" ref="G524:G587" ca="1" si="1039">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B524,",'",E524,"',",C524,",'",D524,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A524,B524,"123456789',4,'Süd',2,3100,",B524,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A524,B524,"123456780',6,'Mitte',1,3103,",B524,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(523,'1',3432,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'523123456789',4,'Süd',2,3100,523);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'523123456780',6,'Mitte',1,3103,523);</v>
       </c>
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.25">
@@ -26093,8 +26094,8 @@
         <v>264</v>
       </c>
       <c r="G526" s="15" t="str">
-        <f t="shared" ref="G526:G589" ca="1" si="1043">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B526,",'",E526,"',",C526,",'",D526,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A526,B526,"123456789',4,'Süd',2,3100,",B526,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A526,B526,"123456780',6,'Mitte',1,3103,",B526,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(525,'1',3433,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('525123456789',4,'Süd',2,3100,525);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('525123456780',6,'Mitte',1,3103,525);</v>
+        <f t="shared" ref="G526:G589" ca="1" si="1043">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B526,",'",E526,"',",C526,",'",D526,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A526,B526,"123456789',4,'Süd',2,3100,",B526,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A526,B526,"123456780',6,'Mitte',1,3103,",B526,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(525,'1',3433,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'525123456789',4,'Süd',2,3100,525);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'525123456780',6,'Mitte',1,3103,525);</v>
       </c>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.25">
@@ -26134,8 +26135,8 @@
         <v>265</v>
       </c>
       <c r="G528" s="15" t="str">
-        <f t="shared" ref="G528:G591" ca="1" si="1047">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B528,",'",E528,"',",C528,",'",D528,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A528,B528,"123456789',4,'Süd',2,3100,",B528,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A528,B528,"123456780',6,'Mitte',1,3103,",B528,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(527,'1',3434,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('527123456789',4,'Süd',2,3100,527);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('527123456780',6,'Mitte',1,3103,527);</v>
+        <f t="shared" ref="G528:G591" ca="1" si="1047">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B528,",'",E528,"',",C528,",'",D528,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A528,B528,"123456789',4,'Süd',2,3100,",B528,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A528,B528,"123456780',6,'Mitte',1,3103,",B528,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(527,'1',3434,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'527123456789',4,'Süd',2,3100,527);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'527123456780',6,'Mitte',1,3103,527);</v>
       </c>
     </row>
     <row r="529" spans="2:7" x14ac:dyDescent="0.25">
@@ -26175,8 +26176,8 @@
         <v>266</v>
       </c>
       <c r="G530" s="15" t="str">
-        <f t="shared" ref="G530:G593" ca="1" si="1051">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B530,",'",E530,"',",C530,",'",D530,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A530,B530,"123456789',4,'Süd',2,3100,",B530,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A530,B530,"123456780',6,'Mitte',1,3103,",B530,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(529,'1',3435,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('529123456789',4,'Süd',2,3100,529);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('529123456780',6,'Mitte',1,3103,529);</v>
+        <f t="shared" ref="G530:G593" ca="1" si="1051">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B530,",'",E530,"',",C530,",'",D530,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A530,B530,"123456789',4,'Süd',2,3100,",B530,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A530,B530,"123456780',6,'Mitte',1,3103,",B530,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(529,'1',3435,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'529123456789',4,'Süd',2,3100,529);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'529123456780',6,'Mitte',1,3103,529);</v>
       </c>
     </row>
     <row r="531" spans="2:7" x14ac:dyDescent="0.25">
@@ -26216,8 +26217,8 @@
         <v>267</v>
       </c>
       <c r="G532" s="15" t="str">
-        <f t="shared" ref="G532:G595" ca="1" si="1055">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B532,",'",E532,"',",C532,",'",D532,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A532,B532,"123456789',4,'Süd',2,3100,",B532,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A532,B532,"123456780',6,'Mitte',1,3103,",B532,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(531,'1',3436,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('531123456789',4,'Süd',2,3100,531);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('531123456780',6,'Mitte',1,3103,531);</v>
+        <f t="shared" ref="G532:G595" ca="1" si="1055">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B532,",'",E532,"',",C532,",'",D532,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A532,B532,"123456789',4,'Süd',2,3100,",B532,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A532,B532,"123456780',6,'Mitte',1,3103,",B532,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(531,'1',3436,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'531123456789',4,'Süd',2,3100,531);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'531123456780',6,'Mitte',1,3103,531);</v>
       </c>
     </row>
     <row r="533" spans="2:7" x14ac:dyDescent="0.25">
@@ -26257,8 +26258,8 @@
         <v>268</v>
       </c>
       <c r="G534" s="15" t="str">
-        <f t="shared" ref="G534:G597" ca="1" si="1059">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B534,",'",E534,"',",C534,",'",D534,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A534,B534,"123456789',4,'Süd',2,3100,",B534,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A534,B534,"123456780',6,'Mitte',1,3103,",B534,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(533,'1',3437,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('533123456789',4,'Süd',2,3100,533);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('533123456780',6,'Mitte',1,3103,533);</v>
+        <f t="shared" ref="G534:G597" ca="1" si="1059">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B534,",'",E534,"',",C534,",'",D534,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A534,B534,"123456789',4,'Süd',2,3100,",B534,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A534,B534,"123456780',6,'Mitte',1,3103,",B534,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(533,'1',3437,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'533123456789',4,'Süd',2,3100,533);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'533123456780',6,'Mitte',1,3103,533);</v>
       </c>
     </row>
     <row r="535" spans="2:7" x14ac:dyDescent="0.25">
@@ -26298,8 +26299,8 @@
         <v>269</v>
       </c>
       <c r="G536" s="15" t="str">
-        <f t="shared" ref="G536:G599" ca="1" si="1063">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B536,",'",E536,"',",C536,",'",D536,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A536,B536,"123456789',4,'Süd',2,3100,",B536,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A536,B536,"123456780',6,'Mitte',1,3103,",B536,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(535,'1',3438,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('535123456789',4,'Süd',2,3100,535);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('535123456780',6,'Mitte',1,3103,535);</v>
+        <f t="shared" ref="G536:G599" ca="1" si="1063">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B536,",'",E536,"',",C536,",'",D536,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A536,B536,"123456789',4,'Süd',2,3100,",B536,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A536,B536,"123456780',6,'Mitte',1,3103,",B536,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(535,'1',3438,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'535123456789',4,'Süd',2,3100,535);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'535123456780',6,'Mitte',1,3103,535);</v>
       </c>
     </row>
     <row r="537" spans="2:7" x14ac:dyDescent="0.25">
@@ -26339,8 +26340,8 @@
         <v>270</v>
       </c>
       <c r="G538" s="15" t="str">
-        <f t="shared" ref="G538:G601" ca="1" si="1067">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B538,",'",E538,"',",C538,",'",D538,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A538,B538,"123456789',4,'Süd',2,3100,",B538,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A538,B538,"123456780',6,'Mitte',1,3103,",B538,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(537,'1',3439,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('537123456789',4,'Süd',2,3100,537);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('537123456780',6,'Mitte',1,3103,537);</v>
+        <f t="shared" ref="G538:G601" ca="1" si="1067">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B538,",'",E538,"',",C538,",'",D538,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A538,B538,"123456789',4,'Süd',2,3100,",B538,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A538,B538,"123456780',6,'Mitte',1,3103,",B538,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(537,'1',3439,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'537123456789',4,'Süd',2,3100,537);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'537123456780',6,'Mitte',1,3103,537);</v>
       </c>
     </row>
     <row r="539" spans="2:7" x14ac:dyDescent="0.25">
@@ -26380,8 +26381,8 @@
         <v>271</v>
       </c>
       <c r="G540" s="15" t="str">
-        <f t="shared" ref="G540:G603" ca="1" si="1071">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B540,",'",E540,"',",C540,",'",D540,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A540,B540,"123456789',4,'Süd',2,3100,",B540,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A540,B540,"123456780',6,'Mitte',1,3103,",B540,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(539,'1',3452,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('539123456789',4,'Süd',2,3100,539);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('539123456780',6,'Mitte',1,3103,539);</v>
+        <f t="shared" ref="G540:G603" ca="1" si="1071">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B540,",'",E540,"',",C540,",'",D540,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A540,B540,"123456789',4,'Süd',2,3100,",B540,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A540,B540,"123456780',6,'Mitte',1,3103,",B540,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(539,'1',3452,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'539123456789',4,'Süd',2,3100,539);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'539123456780',6,'Mitte',1,3103,539);</v>
       </c>
     </row>
     <row r="541" spans="2:7" x14ac:dyDescent="0.25">
@@ -26421,8 +26422,8 @@
         <v>272</v>
       </c>
       <c r="G542" s="15" t="str">
-        <f t="shared" ref="G542:G605" ca="1" si="1075">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B542,",'",E542,"',",C542,",'",D542,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A542,B542,"123456789',4,'Süd',2,3100,",B542,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A542,B542,"123456780',6,'Mitte',1,3103,",B542,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(541,'1',3453,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('541123456789',4,'Süd',2,3100,541);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('541123456780',6,'Mitte',1,3103,541);</v>
+        <f t="shared" ref="G542:G605" ca="1" si="1075">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B542,",'",E542,"',",C542,",'",D542,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A542,B542,"123456789',4,'Süd',2,3100,",B542,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A542,B542,"123456780',6,'Mitte',1,3103,",B542,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(541,'1',3453,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'541123456789',4,'Süd',2,3100,541);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'541123456780',6,'Mitte',1,3103,541);</v>
       </c>
     </row>
     <row r="543" spans="2:7" x14ac:dyDescent="0.25">
@@ -26462,8 +26463,8 @@
         <v>273</v>
       </c>
       <c r="G544" s="15" t="str">
-        <f t="shared" ref="G544:G607" ca="1" si="1079">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B544,",'",E544,"',",C544,",'",D544,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A544,B544,"123456789',4,'Süd',2,3100,",B544,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A544,B544,"123456780',6,'Mitte',1,3103,",B544,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(543,'1',3454,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('543123456789',4,'Süd',2,3100,543);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('543123456780',6,'Mitte',1,3103,543);</v>
+        <f t="shared" ref="G544:G607" ca="1" si="1079">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B544,",'",E544,"',",C544,",'",D544,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A544,B544,"123456789',4,'Süd',2,3100,",B544,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A544,B544,"123456780',6,'Mitte',1,3103,",B544,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(543,'1',3454,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'543123456789',4,'Süd',2,3100,543);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'543123456780',6,'Mitte',1,3103,543);</v>
       </c>
     </row>
     <row r="545" spans="2:7" x14ac:dyDescent="0.25">
@@ -26503,8 +26504,8 @@
         <v>274</v>
       </c>
       <c r="G546" s="15" t="str">
-        <f t="shared" ref="G546:G609" ca="1" si="1083">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B546,",'",E546,"',",C546,",'",D546,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A546,B546,"123456789',4,'Süd',2,3100,",B546,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A546,B546,"123456780',6,'Mitte',1,3103,",B546,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(545,'1',3455,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('545123456789',4,'Süd',2,3100,545);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('545123456780',6,'Mitte',1,3103,545);</v>
+        <f t="shared" ref="G546:G609" ca="1" si="1083">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B546,",'",E546,"',",C546,",'",D546,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A546,B546,"123456789',4,'Süd',2,3100,",B546,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A546,B546,"123456780',6,'Mitte',1,3103,",B546,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(545,'1',3455,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'545123456789',4,'Süd',2,3100,545);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'545123456780',6,'Mitte',1,3103,545);</v>
       </c>
     </row>
     <row r="547" spans="2:7" x14ac:dyDescent="0.25">
@@ -26544,8 +26545,8 @@
         <v>275</v>
       </c>
       <c r="G548" s="15" t="str">
-        <f t="shared" ref="G548:G611" ca="1" si="1087">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B548,",'",E548,"',",C548,",'",D548,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A548,B548,"123456789',4,'Süd',2,3100,",B548,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A548,B548,"123456780',6,'Mitte',1,3103,",B548,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(547,'1',3456,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('547123456789',4,'Süd',2,3100,547);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('547123456780',6,'Mitte',1,3103,547);</v>
+        <f t="shared" ref="G548:G611" ca="1" si="1087">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B548,",'",E548,"',",C548,",'",D548,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A548,B548,"123456789',4,'Süd',2,3100,",B548,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A548,B548,"123456780',6,'Mitte',1,3103,",B548,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(547,'1',3456,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'547123456789',4,'Süd',2,3100,547);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'547123456780',6,'Mitte',1,3103,547);</v>
       </c>
     </row>
     <row r="549" spans="2:7" x14ac:dyDescent="0.25">
@@ -26585,8 +26586,8 @@
         <v>276</v>
       </c>
       <c r="G550" s="15" t="str">
-        <f t="shared" ref="G550:G613" ca="1" si="1091">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B550,",'",E550,"',",C550,",'",D550,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A550,B550,"123456789',4,'Süd',2,3100,",B550,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A550,B550,"123456780',6,'Mitte',1,3103,",B550,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(549,'1',3457,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('549123456789',4,'Süd',2,3100,549);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('549123456780',6,'Mitte',1,3103,549);</v>
+        <f t="shared" ref="G550:G613" ca="1" si="1091">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B550,",'",E550,"',",C550,",'",D550,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A550,B550,"123456789',4,'Süd',2,3100,",B550,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A550,B550,"123456780',6,'Mitte',1,3103,",B550,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(549,'1',3457,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'549123456789',4,'Süd',2,3100,549);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'549123456780',6,'Mitte',1,3103,549);</v>
       </c>
     </row>
     <row r="551" spans="2:7" x14ac:dyDescent="0.25">
@@ -26626,8 +26627,8 @@
         <v>277</v>
       </c>
       <c r="G552" s="15" t="str">
-        <f t="shared" ref="G552:G615" ca="1" si="1095">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B552,",'",E552,"',",C552,",'",D552,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A552,B552,"123456789',4,'Süd',2,3100,",B552,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A552,B552,"123456780',6,'Mitte',1,3103,",B552,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(551,'1',3462,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('551123456789',4,'Süd',2,3100,551);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('551123456780',6,'Mitte',1,3103,551);</v>
+        <f t="shared" ref="G552:G615" ca="1" si="1095">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B552,",'",E552,"',",C552,",'",D552,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A552,B552,"123456789',4,'Süd',2,3100,",B552,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A552,B552,"123456780',6,'Mitte',1,3103,",B552,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(551,'1',3462,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'551123456789',4,'Süd',2,3100,551);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'551123456780',6,'Mitte',1,3103,551);</v>
       </c>
     </row>
     <row r="553" spans="2:7" x14ac:dyDescent="0.25">
@@ -26667,8 +26668,8 @@
         <v>278</v>
       </c>
       <c r="G554" s="15" t="str">
-        <f t="shared" ref="G554:G617" ca="1" si="1099">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B554,",'",E554,"',",C554,",'",D554,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A554,B554,"123456789',4,'Süd',2,3100,",B554,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A554,B554,"123456780',6,'Mitte',1,3103,",B554,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(553,'1',3463,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('553123456789',4,'Süd',2,3100,553);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('553123456780',6,'Mitte',1,3103,553);</v>
+        <f t="shared" ref="G554:G617" ca="1" si="1099">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B554,",'",E554,"',",C554,",'",D554,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A554,B554,"123456789',4,'Süd',2,3100,",B554,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A554,B554,"123456780',6,'Mitte',1,3103,",B554,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(553,'1',3463,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'553123456789',4,'Süd',2,3100,553);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'553123456780',6,'Mitte',1,3103,553);</v>
       </c>
     </row>
     <row r="555" spans="2:7" x14ac:dyDescent="0.25">
@@ -26708,8 +26709,8 @@
         <v>279</v>
       </c>
       <c r="G556" s="15" t="str">
-        <f t="shared" ref="G556:G619" ca="1" si="1103">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B556,",'",E556,"',",C556,",'",D556,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A556,B556,"123456789',4,'Süd',2,3100,",B556,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A556,B556,"123456780',6,'Mitte',1,3103,",B556,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(555,'1',3464,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('555123456789',4,'Süd',2,3100,555);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('555123456780',6,'Mitte',1,3103,555);</v>
+        <f t="shared" ref="G556:G619" ca="1" si="1103">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B556,",'",E556,"',",C556,",'",D556,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A556,B556,"123456789',4,'Süd',2,3100,",B556,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A556,B556,"123456780',6,'Mitte',1,3103,",B556,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(555,'1',3464,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'555123456789',4,'Süd',2,3100,555);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'555123456780',6,'Mitte',1,3103,555);</v>
       </c>
     </row>
     <row r="557" spans="2:7" x14ac:dyDescent="0.25">
@@ -26749,8 +26750,8 @@
         <v>280</v>
       </c>
       <c r="G558" s="15" t="str">
-        <f t="shared" ref="G558:G621" ca="1" si="1107">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B558,",'",E558,"',",C558,",'",D558,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A558,B558,"123456789',4,'Süd',2,3100,",B558,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A558,B558,"123456780',6,'Mitte',1,3103,",B558,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(557,'1',3465,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('557123456789',4,'Süd',2,3100,557);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('557123456780',6,'Mitte',1,3103,557);</v>
+        <f t="shared" ref="G558:G621" ca="1" si="1107">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B558,",'",E558,"',",C558,",'",D558,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A558,B558,"123456789',4,'Süd',2,3100,",B558,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A558,B558,"123456780',6,'Mitte',1,3103,",B558,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(557,'1',3465,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'557123456789',4,'Süd',2,3100,557);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'557123456780',6,'Mitte',1,3103,557);</v>
       </c>
     </row>
     <row r="559" spans="2:7" x14ac:dyDescent="0.25">
@@ -26790,8 +26791,8 @@
         <v>281</v>
       </c>
       <c r="G560" s="15" t="str">
-        <f t="shared" ref="G560:G623" ca="1" si="1111">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B560,",'",E560,"',",C560,",'",D560,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A560,B560,"123456789',4,'Süd',2,3100,",B560,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A560,B560,"123456780',6,'Mitte',1,3103,",B560,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(559,'1',3472,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('559123456789',4,'Süd',2,3100,559);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('559123456780',6,'Mitte',1,3103,559);</v>
+        <f t="shared" ref="G560:G623" ca="1" si="1111">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B560,",'",E560,"',",C560,",'",D560,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A560,B560,"123456789',4,'Süd',2,3100,",B560,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A560,B560,"123456780',6,'Mitte',1,3103,",B560,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(559,'1',3472,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'559123456789',4,'Süd',2,3100,559);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'559123456780',6,'Mitte',1,3103,559);</v>
       </c>
     </row>
     <row r="561" spans="2:7" x14ac:dyDescent="0.25">
@@ -26831,8 +26832,8 @@
         <v>282</v>
       </c>
       <c r="G562" s="15" t="str">
-        <f t="shared" ref="G562:G625" ca="1" si="1115">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B562,",'",E562,"',",C562,",'",D562,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A562,B562,"123456789',4,'Süd',2,3100,",B562,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A562,B562,"123456780',6,'Mitte',1,3103,",B562,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(561,'1',3473,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('561123456789',4,'Süd',2,3100,561);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('561123456780',6,'Mitte',1,3103,561);</v>
+        <f t="shared" ref="G562:G625" ca="1" si="1115">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B562,",'",E562,"',",C562,",'",D562,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A562,B562,"123456789',4,'Süd',2,3100,",B562,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A562,B562,"123456780',6,'Mitte',1,3103,",B562,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(561,'1',3473,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'561123456789',4,'Süd',2,3100,561);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'561123456780',6,'Mitte',1,3103,561);</v>
       </c>
     </row>
     <row r="563" spans="2:7" x14ac:dyDescent="0.25">
@@ -26872,8 +26873,8 @@
         <v>283</v>
       </c>
       <c r="G564" s="15" t="str">
-        <f t="shared" ref="G564:G627" ca="1" si="1119">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B564,",'",E564,"',",C564,",'",D564,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A564,B564,"123456789',4,'Süd',2,3100,",B564,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A564,B564,"123456780',6,'Mitte',1,3103,",B564,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(563,'1',3474,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('563123456789',4,'Süd',2,3100,563);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('563123456780',6,'Mitte',1,3103,563);</v>
+        <f t="shared" ref="G564:G627" ca="1" si="1119">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B564,",'",E564,"',",C564,",'",D564,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A564,B564,"123456789',4,'Süd',2,3100,",B564,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A564,B564,"123456780',6,'Mitte',1,3103,",B564,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(563,'1',3474,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'563123456789',4,'Süd',2,3100,563);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'563123456780',6,'Mitte',1,3103,563);</v>
       </c>
     </row>
     <row r="565" spans="2:7" x14ac:dyDescent="0.25">
@@ -26913,8 +26914,8 @@
         <v>284</v>
       </c>
       <c r="G566" s="15" t="str">
-        <f t="shared" ref="G566:G629" ca="1" si="1123">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B566,",'",E566,"',",C566,",'",D566,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A566,B566,"123456789',4,'Süd',2,3100,",B566,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A566,B566,"123456780',6,'Mitte',1,3103,",B566,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(565,'1',3475,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('565123456789',4,'Süd',2,3100,565);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('565123456780',6,'Mitte',1,3103,565);</v>
+        <f t="shared" ref="G566:G629" ca="1" si="1123">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B566,",'",E566,"',",C566,",'",D566,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A566,B566,"123456789',4,'Süd',2,3100,",B566,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A566,B566,"123456780',6,'Mitte',1,3103,",B566,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(565,'1',3475,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'565123456789',4,'Süd',2,3100,565);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'565123456780',6,'Mitte',1,3103,565);</v>
       </c>
     </row>
     <row r="567" spans="2:7" x14ac:dyDescent="0.25">
@@ -26954,8 +26955,8 @@
         <v>285</v>
       </c>
       <c r="G568" s="15" t="str">
-        <f t="shared" ref="G568:G631" ca="1" si="1127">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B568,",'",E568,"',",C568,",'",D568,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A568,B568,"123456789',4,'Süd',2,3100,",B568,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A568,B568,"123456780',6,'Mitte',1,3103,",B568,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(567,'1',3476,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('567123456789',4,'Süd',2,3100,567);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('567123456780',6,'Mitte',1,3103,567);</v>
+        <f t="shared" ref="G568:G631" ca="1" si="1127">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B568,",'",E568,"',",C568,",'",D568,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A568,B568,"123456789',4,'Süd',2,3100,",B568,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A568,B568,"123456780',6,'Mitte',1,3103,",B568,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(567,'1',3476,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'567123456789',4,'Süd',2,3100,567);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'567123456780',6,'Mitte',1,3103,567);</v>
       </c>
     </row>
     <row r="569" spans="2:7" x14ac:dyDescent="0.25">
@@ -26995,8 +26996,8 @@
         <v>286</v>
       </c>
       <c r="G570" s="15" t="str">
-        <f t="shared" ref="G570:G633" ca="1" si="1131">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B570,",'",E570,"',",C570,",'",D570,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A570,B570,"123456789',4,'Süd',2,3100,",B570,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A570,B570,"123456780',6,'Mitte',1,3103,",B570,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(569,'1',3503,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('569123456789',4,'Süd',2,3100,569);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('569123456780',6,'Mitte',1,3103,569);</v>
+        <f t="shared" ref="G570:G633" ca="1" si="1131">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B570,",'",E570,"',",C570,",'",D570,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A570,B570,"123456789',4,'Süd',2,3100,",B570,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A570,B570,"123456780',6,'Mitte',1,3103,",B570,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(569,'1',3503,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'569123456789',4,'Süd',2,3100,569);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'569123456780',6,'Mitte',1,3103,569);</v>
       </c>
     </row>
     <row r="571" spans="2:7" x14ac:dyDescent="0.25">
@@ -27036,8 +27037,8 @@
         <v>287</v>
       </c>
       <c r="G572" s="15" t="str">
-        <f t="shared" ref="G572:G635" ca="1" si="1135">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B572,",'",E572,"',",C572,",'",D572,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A572,B572,"123456789',4,'Süd',2,3100,",B572,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A572,B572,"123456780',6,'Mitte',1,3103,",B572,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(571,'1',3504,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('571123456789',4,'Süd',2,3100,571);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('571123456780',6,'Mitte',1,3103,571);</v>
+        <f t="shared" ref="G572:G635" ca="1" si="1135">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B572,",'",E572,"',",C572,",'",D572,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A572,B572,"123456789',4,'Süd',2,3100,",B572,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A572,B572,"123456780',6,'Mitte',1,3103,",B572,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(571,'1',3504,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'571123456789',4,'Süd',2,3100,571);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'571123456780',6,'Mitte',1,3103,571);</v>
       </c>
     </row>
     <row r="573" spans="2:7" x14ac:dyDescent="0.25">
@@ -27077,8 +27078,8 @@
         <v>288</v>
       </c>
       <c r="G574" s="15" t="str">
-        <f t="shared" ref="G574:G637" ca="1" si="1139">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B574,",'",E574,"',",C574,",'",D574,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A574,B574,"123456789',4,'Süd',2,3100,",B574,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A574,B574,"123456780',6,'Mitte',1,3103,",B574,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(573,'1',3506,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('573123456789',4,'Süd',2,3100,573);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('573123456780',6,'Mitte',1,3103,573);</v>
+        <f t="shared" ref="G574:G637" ca="1" si="1139">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B574,",'",E574,"',",C574,",'",D574,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A574,B574,"123456789',4,'Süd',2,3100,",B574,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A574,B574,"123456780',6,'Mitte',1,3103,",B574,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(573,'1',3506,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'573123456789',4,'Süd',2,3100,573);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'573123456780',6,'Mitte',1,3103,573);</v>
       </c>
     </row>
     <row r="575" spans="2:7" x14ac:dyDescent="0.25">
@@ -27118,8 +27119,8 @@
         <v>289</v>
       </c>
       <c r="G576" s="15" t="str">
-        <f t="shared" ref="G576:G639" ca="1" si="1143">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B576,",'",E576,"',",C576,",'",D576,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A576,B576,"123456789',4,'Süd',2,3100,",B576,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A576,B576,"123456780',6,'Mitte',1,3103,",B576,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(575,'1',3507,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('575123456789',4,'Süd',2,3100,575);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('575123456780',6,'Mitte',1,3103,575);</v>
+        <f t="shared" ref="G576:G639" ca="1" si="1143">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B576,",'",E576,"',",C576,",'",D576,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A576,B576,"123456789',4,'Süd',2,3100,",B576,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A576,B576,"123456780',6,'Mitte',1,3103,",B576,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(575,'1',3507,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'575123456789',4,'Süd',2,3100,575);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'575123456780',6,'Mitte',1,3103,575);</v>
       </c>
     </row>
     <row r="577" spans="2:7" x14ac:dyDescent="0.25">
@@ -27159,8 +27160,8 @@
         <v>290</v>
       </c>
       <c r="G578" s="15" t="str">
-        <f t="shared" ref="G578:G641" ca="1" si="1147">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B578,",'",E578,"',",C578,",'",D578,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A578,B578,"123456789',4,'Süd',2,3100,",B578,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A578,B578,"123456780',6,'Mitte',1,3103,",B578,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(577,'1',3508,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('577123456789',4,'Süd',2,3100,577);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('577123456780',6,'Mitte',1,3103,577);</v>
+        <f t="shared" ref="G578:G641" ca="1" si="1147">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B578,",'",E578,"',",C578,",'",D578,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A578,B578,"123456789',4,'Süd',2,3100,",B578,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A578,B578,"123456780',6,'Mitte',1,3103,",B578,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(577,'1',3508,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'577123456789',4,'Süd',2,3100,577);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'577123456780',6,'Mitte',1,3103,577);</v>
       </c>
     </row>
     <row r="579" spans="2:7" x14ac:dyDescent="0.25">
@@ -27200,8 +27201,8 @@
         <v>291</v>
       </c>
       <c r="G580" s="15" t="str">
-        <f t="shared" ref="G580:G643" ca="1" si="1151">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B580,",'",E580,"',",C580,",'",D580,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A580,B580,"123456789',4,'Süd',2,3100,",B580,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A580,B580,"123456780',6,'Mitte',1,3103,",B580,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(579,'1',3510,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('579123456789',4,'Süd',2,3100,579);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('579123456780',6,'Mitte',1,3103,579);</v>
+        <f t="shared" ref="G580:G643" ca="1" si="1151">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B580,",'",E580,"',",C580,",'",D580,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A580,B580,"123456789',4,'Süd',2,3100,",B580,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A580,B580,"123456780',6,'Mitte',1,3103,",B580,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(579,'1',3510,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'579123456789',4,'Süd',2,3100,579);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'579123456780',6,'Mitte',1,3103,579);</v>
       </c>
     </row>
     <row r="581" spans="2:7" x14ac:dyDescent="0.25">
@@ -27241,8 +27242,8 @@
         <v>292</v>
       </c>
       <c r="G582" s="15" t="str">
-        <f t="shared" ref="G582:G645" ca="1" si="1155">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B582,",'",E582,"',",C582,",'",D582,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A582,B582,"123456789',4,'Süd',2,3100,",B582,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A582,B582,"123456780',6,'Mitte',1,3103,",B582,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(581,'1',3512,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('581123456789',4,'Süd',2,3100,581);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('581123456780',6,'Mitte',1,3103,581);</v>
+        <f t="shared" ref="G582:G645" ca="1" si="1155">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B582,",'",E582,"',",C582,",'",D582,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A582,B582,"123456789',4,'Süd',2,3100,",B582,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A582,B582,"123456780',6,'Mitte',1,3103,",B582,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(581,'1',3512,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'581123456789',4,'Süd',2,3100,581);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'581123456780',6,'Mitte',1,3103,581);</v>
       </c>
     </row>
     <row r="583" spans="2:7" x14ac:dyDescent="0.25">
@@ -27282,8 +27283,8 @@
         <v>293</v>
       </c>
       <c r="G584" s="15" t="str">
-        <f t="shared" ref="G584:G647" ca="1" si="1159">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B584,",'",E584,"',",C584,",'",D584,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A584,B584,"123456789',4,'Süd',2,3100,",B584,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A584,B584,"123456780',6,'Mitte',1,3103,",B584,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(583,'1',3513,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('583123456789',4,'Süd',2,3100,583);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('583123456780',6,'Mitte',1,3103,583);</v>
+        <f t="shared" ref="G584:G647" ca="1" si="1159">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B584,",'",E584,"',",C584,",'",D584,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A584,B584,"123456789',4,'Süd',2,3100,",B584,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A584,B584,"123456780',6,'Mitte',1,3103,",B584,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(583,'1',3513,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'583123456789',4,'Süd',2,3100,583);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'583123456780',6,'Mitte',1,3103,583);</v>
       </c>
     </row>
     <row r="585" spans="2:7" x14ac:dyDescent="0.25">
@@ -27323,8 +27324,8 @@
         <v>294</v>
       </c>
       <c r="G586" s="15" t="str">
-        <f t="shared" ref="G586:G649" ca="1" si="1163">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B586,",'",E586,"',",C586,",'",D586,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A586,B586,"123456789',4,'Süd',2,3100,",B586,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A586,B586,"123456780',6,'Mitte',1,3103,",B586,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(585,'1',3531,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('585123456789',4,'Süd',2,3100,585);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('585123456780',6,'Mitte',1,3103,585);</v>
+        <f t="shared" ref="G586:G649" ca="1" si="1163">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B586,",'",E586,"',",C586,",'",D586,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A586,B586,"123456789',4,'Süd',2,3100,",B586,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A586,B586,"123456780',6,'Mitte',1,3103,",B586,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(585,'1',3531,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'585123456789',4,'Süd',2,3100,585);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'585123456780',6,'Mitte',1,3103,585);</v>
       </c>
     </row>
     <row r="587" spans="2:7" x14ac:dyDescent="0.25">
@@ -27364,8 +27365,8 @@
         <v>295</v>
       </c>
       <c r="G588" s="15" t="str">
-        <f t="shared" ref="G588:G651" ca="1" si="1167">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B588,",'",E588,"',",C588,",'",D588,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A588,B588,"123456789',4,'Süd',2,3100,",B588,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A588,B588,"123456780',6,'Mitte',1,3103,",B588,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(587,'1',3532,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('587123456789',4,'Süd',2,3100,587);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('587123456780',6,'Mitte',1,3103,587);</v>
+        <f t="shared" ref="G588:G651" ca="1" si="1167">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B588,",'",E588,"',",C588,",'",D588,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A588,B588,"123456789',4,'Süd',2,3100,",B588,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A588,B588,"123456780',6,'Mitte',1,3103,",B588,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(587,'1',3532,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'587123456789',4,'Süd',2,3100,587);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'587123456780',6,'Mitte',1,3103,587);</v>
       </c>
     </row>
     <row r="589" spans="2:7" x14ac:dyDescent="0.25">
@@ -27405,8 +27406,8 @@
         <v>296</v>
       </c>
       <c r="G590" s="15" t="str">
-        <f t="shared" ref="G590:G653" ca="1" si="1171">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B590,",'",E590,"',",C590,",'",D590,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A590,B590,"123456789',4,'Süd',2,3100,",B590,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A590,B590,"123456780',6,'Mitte',1,3103,",B590,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(589,'1',3533,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('589123456789',4,'Süd',2,3100,589);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('589123456780',6,'Mitte',1,3103,589);</v>
+        <f t="shared" ref="G590:G653" ca="1" si="1171">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B590,",'",E590,"',",C590,",'",D590,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A590,B590,"123456789',4,'Süd',2,3100,",B590,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A590,B590,"123456780',6,'Mitte',1,3103,",B590,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(589,'1',3533,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'589123456789',4,'Süd',2,3100,589);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'589123456780',6,'Mitte',1,3103,589);</v>
       </c>
     </row>
     <row r="591" spans="2:7" x14ac:dyDescent="0.25">
@@ -27446,8 +27447,8 @@
         <v>297</v>
       </c>
       <c r="G592" s="15" t="str">
-        <f t="shared" ref="G592:G655" ca="1" si="1175">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B592,",'",E592,"',",C592,",'",D592,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A592,B592,"123456789',4,'Süd',2,3100,",B592,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A592,B592,"123456780',6,'Mitte',1,3103,",B592,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(591,'1',3534,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('591123456789',4,'Süd',2,3100,591);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('591123456780',6,'Mitte',1,3103,591);</v>
+        <f t="shared" ref="G592:G655" ca="1" si="1175">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B592,",'",E592,"',",C592,",'",D592,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A592,B592,"123456789',4,'Süd',2,3100,",B592,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A592,B592,"123456780',6,'Mitte',1,3103,",B592,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(591,'1',3534,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'591123456789',4,'Süd',2,3100,591);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'591123456780',6,'Mitte',1,3103,591);</v>
       </c>
     </row>
     <row r="593" spans="2:7" x14ac:dyDescent="0.25">
@@ -27487,8 +27488,8 @@
         <v>298</v>
       </c>
       <c r="G594" s="15" t="str">
-        <f t="shared" ref="G594:G657" ca="1" si="1179">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B594,",'",E594,"',",C594,",'",D594,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A594,B594,"123456789',4,'Süd',2,3100,",B594,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A594,B594,"123456780',6,'Mitte',1,3103,",B594,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(593,'1',3535,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('593123456789',4,'Süd',2,3100,593);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('593123456780',6,'Mitte',1,3103,593);</v>
+        <f t="shared" ref="G594:G657" ca="1" si="1179">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B594,",'",E594,"',",C594,",'",D594,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A594,B594,"123456789',4,'Süd',2,3100,",B594,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A594,B594,"123456780',6,'Mitte',1,3103,",B594,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(593,'1',3535,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'593123456789',4,'Süd',2,3100,593);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'593123456780',6,'Mitte',1,3103,593);</v>
       </c>
     </row>
     <row r="595" spans="2:7" x14ac:dyDescent="0.25">
@@ -27528,8 +27529,8 @@
         <v>299</v>
       </c>
       <c r="G596" s="15" t="str">
-        <f t="shared" ref="G596:G659" ca="1" si="1183">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B596,",'",E596,"',",C596,",'",D596,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A596,B596,"123456789',4,'Süd',2,3100,",B596,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A596,B596,"123456780',6,'Mitte',1,3103,",B596,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(595,'1',3536,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('595123456789',4,'Süd',2,3100,595);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('595123456780',6,'Mitte',1,3103,595);</v>
+        <f t="shared" ref="G596:G659" ca="1" si="1183">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B596,",'",E596,"',",C596,",'",D596,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A596,B596,"123456789',4,'Süd',2,3100,",B596,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A596,B596,"123456780',6,'Mitte',1,3103,",B596,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(595,'1',3536,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'595123456789',4,'Süd',2,3100,595);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'595123456780',6,'Mitte',1,3103,595);</v>
       </c>
     </row>
     <row r="597" spans="2:7" x14ac:dyDescent="0.25">
@@ -27569,8 +27570,8 @@
         <v>300</v>
       </c>
       <c r="G598" s="15" t="str">
-        <f t="shared" ref="G598:G661" ca="1" si="1187">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B598,",'",E598,"',",C598,",'",D598,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A598,B598,"123456789',4,'Süd',2,3100,",B598,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A598,B598,"123456780',6,'Mitte',1,3103,",B598,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(597,'1',3537,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('597123456789',4,'Süd',2,3100,597);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('597123456780',6,'Mitte',1,3103,597);</v>
+        <f t="shared" ref="G598:G661" ca="1" si="1187">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B598,",'",E598,"',",C598,",'",D598,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A598,B598,"123456789',4,'Süd',2,3100,",B598,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A598,B598,"123456780',6,'Mitte',1,3103,",B598,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(597,'1',3537,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'597123456789',4,'Süd',2,3100,597);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'597123456780',6,'Mitte',1,3103,597);</v>
       </c>
     </row>
     <row r="599" spans="2:7" x14ac:dyDescent="0.25">
@@ -27610,8 +27611,8 @@
         <v>301</v>
       </c>
       <c r="G600" s="15" t="str">
-        <f t="shared" ref="G600:G663" ca="1" si="1191">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B600,",'",E600,"',",C600,",'",D600,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A600,B600,"123456789',4,'Süd',2,3100,",B600,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A600,B600,"123456780',6,'Mitte',1,3103,",B600,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(599,'1',3538,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('599123456789',4,'Süd',2,3100,599);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('599123456780',6,'Mitte',1,3103,599);</v>
+        <f t="shared" ref="G600:G663" ca="1" si="1191">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B600,",'",E600,"',",C600,",'",D600,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A600,B600,"123456789',4,'Süd',2,3100,",B600,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A600,B600,"123456780',6,'Mitte',1,3103,",B600,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(599,'1',3538,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'599123456789',4,'Süd',2,3100,599);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'599123456780',6,'Mitte',1,3103,599);</v>
       </c>
     </row>
     <row r="601" spans="2:7" x14ac:dyDescent="0.25">
@@ -27651,8 +27652,8 @@
         <v>302</v>
       </c>
       <c r="G602" s="15" t="str">
-        <f t="shared" ref="G602:G665" ca="1" si="1195">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B602,",'",E602,"',",C602,",'",D602,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A602,B602,"123456789',4,'Süd',2,3100,",B602,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A602,B602,"123456780',6,'Mitte',1,3103,",B602,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(601,'1',3543,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('601123456789',4,'Süd',2,3100,601);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('601123456780',6,'Mitte',1,3103,601);</v>
+        <f t="shared" ref="G602:G665" ca="1" si="1195">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B602,",'",E602,"',",C602,",'",D602,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A602,B602,"123456789',4,'Süd',2,3100,",B602,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A602,B602,"123456780',6,'Mitte',1,3103,",B602,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(601,'1',3543,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'601123456789',4,'Süd',2,3100,601);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'601123456780',6,'Mitte',1,3103,601);</v>
       </c>
     </row>
     <row r="603" spans="2:7" x14ac:dyDescent="0.25">
@@ -27692,8 +27693,8 @@
         <v>303</v>
       </c>
       <c r="G604" s="15" t="str">
-        <f t="shared" ref="G604:G667" ca="1" si="1199">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B604,",'",E604,"',",C604,",'",D604,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A604,B604,"123456789',4,'Süd',2,3100,",B604,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A604,B604,"123456780',6,'Mitte',1,3103,",B604,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(603,'1',3550,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('603123456789',4,'Süd',2,3100,603);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('603123456780',6,'Mitte',1,3103,603);</v>
+        <f t="shared" ref="G604:G667" ca="1" si="1199">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B604,",'",E604,"',",C604,",'",D604,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A604,B604,"123456789',4,'Süd',2,3100,",B604,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A604,B604,"123456780',6,'Mitte',1,3103,",B604,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(603,'1',3550,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'603123456789',4,'Süd',2,3100,603);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'603123456780',6,'Mitte',1,3103,603);</v>
       </c>
     </row>
     <row r="605" spans="2:7" x14ac:dyDescent="0.25">
@@ -27733,8 +27734,8 @@
         <v>304</v>
       </c>
       <c r="G606" s="15" t="str">
-        <f t="shared" ref="G606:G669" ca="1" si="1203">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B606,",'",E606,"',",C606,",'",D606,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A606,B606,"123456789',4,'Süd',2,3100,",B606,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A606,B606,"123456780',6,'Mitte',1,3103,",B606,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(605,'1',3551,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('605123456789',4,'Süd',2,3100,605);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('605123456780',6,'Mitte',1,3103,605);</v>
+        <f t="shared" ref="G606:G669" ca="1" si="1203">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B606,",'",E606,"',",C606,",'",D606,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A606,B606,"123456789',4,'Süd',2,3100,",B606,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A606,B606,"123456780',6,'Mitte',1,3103,",B606,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(605,'1',3551,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'605123456789',4,'Süd',2,3100,605);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'605123456780',6,'Mitte',1,3103,605);</v>
       </c>
     </row>
     <row r="607" spans="2:7" x14ac:dyDescent="0.25">
@@ -27774,8 +27775,8 @@
         <v>305</v>
       </c>
       <c r="G608" s="15" t="str">
-        <f t="shared" ref="G608:G671" ca="1" si="1207">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B608,",'",E608,"',",C608,",'",D608,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A608,B608,"123456789',4,'Süd',2,3100,",B608,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A608,B608,"123456780',6,'Mitte',1,3103,",B608,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(607,'1',3552,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('607123456789',4,'Süd',2,3100,607);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('607123456780',6,'Mitte',1,3103,607);</v>
+        <f t="shared" ref="G608:G671" ca="1" si="1207">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B608,",'",E608,"',",C608,",'",D608,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A608,B608,"123456789',4,'Süd',2,3100,",B608,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A608,B608,"123456780',6,'Mitte',1,3103,",B608,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(607,'1',3552,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'607123456789',4,'Süd',2,3100,607);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'607123456780',6,'Mitte',1,3103,607);</v>
       </c>
     </row>
     <row r="609" spans="2:7" x14ac:dyDescent="0.25">
@@ -27815,8 +27816,8 @@
         <v>306</v>
       </c>
       <c r="G610" s="15" t="str">
-        <f t="shared" ref="G610:G673" ca="1" si="1211">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B610,",'",E610,"',",C610,",'",D610,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A610,B610,"123456789',4,'Süd',2,3100,",B610,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A610,B610,"123456780',6,'Mitte',1,3103,",B610,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(609,'1',3553,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('609123456789',4,'Süd',2,3100,609);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('609123456780',6,'Mitte',1,3103,609);</v>
+        <f t="shared" ref="G610:G673" ca="1" si="1211">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B610,",'",E610,"',",C610,",'",D610,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A610,B610,"123456789',4,'Süd',2,3100,",B610,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A610,B610,"123456780',6,'Mitte',1,3103,",B610,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(609,'1',3553,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'609123456789',4,'Süd',2,3100,609);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'609123456780',6,'Mitte',1,3103,609);</v>
       </c>
     </row>
     <row r="611" spans="2:7" x14ac:dyDescent="0.25">
@@ -27856,8 +27857,8 @@
         <v>307</v>
       </c>
       <c r="G612" s="15" t="str">
-        <f t="shared" ref="G612:G675" ca="1" si="1215">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B612,",'",E612,"',",C612,",'",D612,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A612,B612,"123456789',4,'Süd',2,3100,",B612,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A612,B612,"123456780',6,'Mitte',1,3103,",B612,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(611,'1',3555,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('611123456789',4,'Süd',2,3100,611);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('611123456780',6,'Mitte',1,3103,611);</v>
+        <f t="shared" ref="G612:G675" ca="1" si="1215">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B612,",'",E612,"',",C612,",'",D612,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A612,B612,"123456789',4,'Süd',2,3100,",B612,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A612,B612,"123456780',6,'Mitte',1,3103,",B612,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(611,'1',3555,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'611123456789',4,'Süd',2,3100,611);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'611123456780',6,'Mitte',1,3103,611);</v>
       </c>
     </row>
     <row r="613" spans="2:7" x14ac:dyDescent="0.25">
@@ -27897,8 +27898,8 @@
         <v>308</v>
       </c>
       <c r="G614" s="15" t="str">
-        <f t="shared" ref="G614:G677" ca="1" si="1219">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B614,",'",E614,"',",C614,",'",D614,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A614,B614,"123456789',4,'Süd',2,3100,",B614,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A614,B614,"123456780',6,'Mitte',1,3103,",B614,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(613,'1',3556,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('613123456789',4,'Süd',2,3100,613);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('613123456780',6,'Mitte',1,3103,613);</v>
+        <f t="shared" ref="G614:G677" ca="1" si="1219">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B614,",'",E614,"',",C614,",'",D614,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A614,B614,"123456789',4,'Süd',2,3100,",B614,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A614,B614,"123456780',6,'Mitte',1,3103,",B614,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(613,'1',3556,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'613123456789',4,'Süd',2,3100,613);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'613123456780',6,'Mitte',1,3103,613);</v>
       </c>
     </row>
     <row r="615" spans="2:7" x14ac:dyDescent="0.25">
@@ -27938,8 +27939,8 @@
         <v>309</v>
       </c>
       <c r="G616" s="15" t="str">
-        <f t="shared" ref="G616:G679" ca="1" si="1223">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B616,",'",E616,"',",C616,",'",D616,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A616,B616,"123456789',4,'Süd',2,3100,",B616,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A616,B616,"123456780',6,'Mitte',1,3103,",B616,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(615,'1',3557,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('615123456789',4,'Süd',2,3100,615);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('615123456780',6,'Mitte',1,3103,615);</v>
+        <f t="shared" ref="G616:G679" ca="1" si="1223">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B616,",'",E616,"',",C616,",'",D616,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A616,B616,"123456789',4,'Süd',2,3100,",B616,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A616,B616,"123456780',6,'Mitte',1,3103,",B616,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(615,'1',3557,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'615123456789',4,'Süd',2,3100,615);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'615123456780',6,'Mitte',1,3103,615);</v>
       </c>
     </row>
     <row r="617" spans="2:7" x14ac:dyDescent="0.25">
@@ -27979,8 +27980,8 @@
         <v>310</v>
       </c>
       <c r="G618" s="15" t="str">
-        <f t="shared" ref="G618:G681" ca="1" si="1227">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B618,",'",E618,"',",C618,",'",D618,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A618,B618,"123456789',4,'Süd',2,3100,",B618,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A618,B618,"123456780',6,'Mitte',1,3103,",B618,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(617,'1',3600,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('617123456789',4,'Süd',2,3100,617);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('617123456780',6,'Mitte',1,3103,617);</v>
+        <f t="shared" ref="G618:G681" ca="1" si="1227">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B618,",'",E618,"',",C618,",'",D618,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A618,B618,"123456789',4,'Süd',2,3100,",B618,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A618,B618,"123456780',6,'Mitte',1,3103,",B618,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(617,'1',3600,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'617123456789',4,'Süd',2,3100,617);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'617123456780',6,'Mitte',1,3103,617);</v>
       </c>
     </row>
     <row r="619" spans="2:7" x14ac:dyDescent="0.25">
@@ -28020,8 +28021,8 @@
         <v>311</v>
       </c>
       <c r="G620" s="15" t="str">
-        <f t="shared" ref="G620:G683" ca="1" si="1231">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B620,",'",E620,"',",C620,",'",D620,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A620,B620,"123456789',4,'Süd',2,3100,",B620,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A620,B620,"123456780',6,'Mitte',1,3103,",B620,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(619,'1',3603,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('619123456789',4,'Süd',2,3100,619);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('619123456780',6,'Mitte',1,3103,619);</v>
+        <f t="shared" ref="G620:G683" ca="1" si="1231">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B620,",'",E620,"',",C620,",'",D620,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A620,B620,"123456789',4,'Süd',2,3100,",B620,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A620,B620,"123456780',6,'Mitte',1,3103,",B620,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(619,'1',3603,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'619123456789',4,'Süd',2,3100,619);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'619123456780',6,'Mitte',1,3103,619);</v>
       </c>
     </row>
     <row r="621" spans="2:7" x14ac:dyDescent="0.25">
@@ -28061,8 +28062,8 @@
         <v>312</v>
       </c>
       <c r="G622" s="15" t="str">
-        <f t="shared" ref="G622:G685" ca="1" si="1235">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B622,",'",E622,"',",C622,",'",D622,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A622,B622,"123456789',4,'Süd',2,3100,",B622,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A622,B622,"123456780',6,'Mitte',1,3103,",B622,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(621,'1',3604,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('621123456789',4,'Süd',2,3100,621);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('621123456780',6,'Mitte',1,3103,621);</v>
+        <f t="shared" ref="G622:G685" ca="1" si="1235">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B622,",'",E622,"',",C622,",'",D622,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A622,B622,"123456789',4,'Süd',2,3100,",B622,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A622,B622,"123456780',6,'Mitte',1,3103,",B622,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(621,'1',3604,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'621123456789',4,'Süd',2,3100,621);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'621123456780',6,'Mitte',1,3103,621);</v>
       </c>
     </row>
     <row r="623" spans="2:7" x14ac:dyDescent="0.25">
@@ -28102,8 +28103,8 @@
         <v>313</v>
       </c>
       <c r="G624" s="15" t="str">
-        <f t="shared" ref="G624:G687" ca="1" si="1239">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B624,",'",E624,"',",C624,",'",D624,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A624,B624,"123456789',4,'Süd',2,3100,",B624,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A624,B624,"123456780',6,'Mitte',1,3103,",B624,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(623,'1',3608,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('623123456789',4,'Süd',2,3100,623);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('623123456780',6,'Mitte',1,3103,623);</v>
+        <f t="shared" ref="G624:G687" ca="1" si="1239">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B624,",'",E624,"',",C624,",'",D624,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A624,B624,"123456789',4,'Süd',2,3100,",B624,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A624,B624,"123456780',6,'Mitte',1,3103,",B624,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(623,'1',3608,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'623123456789',4,'Süd',2,3100,623);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'623123456780',6,'Mitte',1,3103,623);</v>
       </c>
     </row>
     <row r="625" spans="2:7" x14ac:dyDescent="0.25">
@@ -28143,8 +28144,8 @@
         <v>314</v>
       </c>
       <c r="G626" s="15" t="str">
-        <f t="shared" ref="G626:G689" ca="1" si="1243">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B626,",'",E626,"',",C626,",'",D626,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A626,B626,"123456789',4,'Süd',2,3100,",B626,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A626,B626,"123456780',6,'Mitte',1,3103,",B626,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(625,'1',3612,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('625123456789',4,'Süd',2,3100,625);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('625123456780',6,'Mitte',1,3103,625);</v>
+        <f t="shared" ref="G626:G689" ca="1" si="1243">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B626,",'",E626,"',",C626,",'",D626,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A626,B626,"123456789',4,'Süd',2,3100,",B626,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A626,B626,"123456780',6,'Mitte',1,3103,",B626,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(625,'1',3612,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'625123456789',4,'Süd',2,3100,625);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'625123456780',6,'Mitte',1,3103,625);</v>
       </c>
     </row>
     <row r="627" spans="2:7" x14ac:dyDescent="0.25">
@@ -28184,8 +28185,8 @@
         <v>315</v>
       </c>
       <c r="G628" s="15" t="str">
-        <f t="shared" ref="G628:G691" ca="1" si="1247">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B628,",'",E628,"',",C628,",'",D628,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A628,B628,"123456789',4,'Süd',2,3100,",B628,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A628,B628,"123456780',6,'Mitte',1,3103,",B628,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(627,'1',3613,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('627123456789',4,'Süd',2,3100,627);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('627123456780',6,'Mitte',1,3103,627);</v>
+        <f t="shared" ref="G628:G691" ca="1" si="1247">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B628,",'",E628,"',",C628,",'",D628,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A628,B628,"123456789',4,'Süd',2,3100,",B628,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A628,B628,"123456780',6,'Mitte',1,3103,",B628,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(627,'1',3613,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'627123456789',4,'Süd',2,3100,627);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'627123456780',6,'Mitte',1,3103,627);</v>
       </c>
     </row>
     <row r="629" spans="2:7" x14ac:dyDescent="0.25">
@@ -28225,8 +28226,8 @@
         <v>316</v>
       </c>
       <c r="G630" s="15" t="str">
-        <f t="shared" ref="G630:G693" ca="1" si="1251">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B630,",'",E630,"',",C630,",'",D630,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A630,B630,"123456789',4,'Süd',2,3100,",B630,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A630,B630,"123456780',6,'Mitte',1,3103,",B630,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(629,'1',3614,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('629123456789',4,'Süd',2,3100,629);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('629123456780',6,'Mitte',1,3103,629);</v>
+        <f t="shared" ref="G630:G693" ca="1" si="1251">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B630,",'",E630,"',",C630,",'",D630,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A630,B630,"123456789',4,'Süd',2,3100,",B630,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A630,B630,"123456780',6,'Mitte',1,3103,",B630,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(629,'1',3614,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'629123456789',4,'Süd',2,3100,629);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'629123456780',6,'Mitte',1,3103,629);</v>
       </c>
     </row>
     <row r="631" spans="2:7" x14ac:dyDescent="0.25">
@@ -28266,8 +28267,8 @@
         <v>317</v>
       </c>
       <c r="G632" s="15" t="str">
-        <f t="shared" ref="G632:G695" ca="1" si="1255">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B632,",'",E632,"',",C632,",'",D632,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A632,B632,"123456789',4,'Süd',2,3100,",B632,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A632,B632,"123456780',6,'Mitte',1,3103,",B632,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(631,'1',3615,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('631123456789',4,'Süd',2,3100,631);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('631123456780',6,'Mitte',1,3103,631);</v>
+        <f t="shared" ref="G632:G695" ca="1" si="1255">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B632,",'",E632,"',",C632,",'",D632,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A632,B632,"123456789',4,'Süd',2,3100,",B632,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A632,B632,"123456780',6,'Mitte',1,3103,",B632,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(631,'1',3615,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'631123456789',4,'Süd',2,3100,631);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'631123456780',6,'Mitte',1,3103,631);</v>
       </c>
     </row>
     <row r="633" spans="2:7" x14ac:dyDescent="0.25">
@@ -28307,8 +28308,8 @@
         <v>318</v>
       </c>
       <c r="G634" s="15" t="str">
-        <f t="shared" ref="G634:G697" ca="1" si="1259">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B634,",'",E634,"',",C634,",'",D634,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A634,B634,"123456789',4,'Süd',2,3100,",B634,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A634,B634,"123456780',6,'Mitte',1,3103,",B634,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(633,'1',3616,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('633123456789',4,'Süd',2,3100,633);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('633123456780',6,'Mitte',1,3103,633);</v>
+        <f t="shared" ref="G634:G697" ca="1" si="1259">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B634,",'",E634,"',",C634,",'",D634,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A634,B634,"123456789',4,'Süd',2,3100,",B634,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A634,B634,"123456780',6,'Mitte',1,3103,",B634,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(633,'1',3616,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'633123456789',4,'Süd',2,3100,633);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'633123456780',6,'Mitte',1,3103,633);</v>
       </c>
     </row>
     <row r="635" spans="2:7" x14ac:dyDescent="0.25">
@@ -28348,8 +28349,8 @@
         <v>319</v>
       </c>
       <c r="G636" s="15" t="str">
-        <f t="shared" ref="G636:G699" ca="1" si="1263">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B636,",'",E636,"',",C636,",'",D636,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A636,B636,"123456789',4,'Süd',2,3100,",B636,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A636,B636,"123456780',6,'Mitte',1,3103,",B636,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(635,'1',3617,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('635123456789',4,'Süd',2,3100,635);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('635123456780',6,'Mitte',1,3103,635);</v>
+        <f t="shared" ref="G636:G699" ca="1" si="1263">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B636,",'",E636,"',",C636,",'",D636,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A636,B636,"123456789',4,'Süd',2,3100,",B636,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A636,B636,"123456780',6,'Mitte',1,3103,",B636,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(635,'1',3617,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'635123456789',4,'Süd',2,3100,635);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'635123456780',6,'Mitte',1,3103,635);</v>
       </c>
     </row>
     <row r="637" spans="2:7" x14ac:dyDescent="0.25">
@@ -28389,8 +28390,8 @@
         <v>320</v>
       </c>
       <c r="G638" s="15" t="str">
-        <f t="shared" ref="G638:G701" ca="1" si="1267">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B638,",'",E638,"',",C638,",'",D638,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A638,B638,"123456789',4,'Süd',2,3100,",B638,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A638,B638,"123456780',6,'Mitte',1,3103,",B638,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(637,'1',3618,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('637123456789',4,'Süd',2,3100,637);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('637123456780',6,'Mitte',1,3103,637);</v>
+        <f t="shared" ref="G638:G701" ca="1" si="1267">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B638,",'",E638,"',",C638,",'",D638,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A638,B638,"123456789',4,'Süd',2,3100,",B638,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A638,B638,"123456780',6,'Mitte',1,3103,",B638,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(637,'1',3618,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'637123456789',4,'Süd',2,3100,637);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'637123456780',6,'Mitte',1,3103,637);</v>
       </c>
     </row>
     <row r="639" spans="2:7" x14ac:dyDescent="0.25">
@@ -28430,8 +28431,8 @@
         <v>321</v>
       </c>
       <c r="G640" s="15" t="str">
-        <f t="shared" ref="G640:G703" ca="1" si="1271">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B640,",'",E640,"',",C640,",'",D640,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A640,B640,"123456789',4,'Süd',2,3100,",B640,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A640,B640,"123456780',6,'Mitte',1,3103,",B640,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(639,'1',3619,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('639123456789',4,'Süd',2,3100,639);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('639123456780',6,'Mitte',1,3103,639);</v>
+        <f t="shared" ref="G640:G703" ca="1" si="1271">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B640,",'",E640,"',",C640,",'",D640,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A640,B640,"123456789',4,'Süd',2,3100,",B640,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A640,B640,"123456780',6,'Mitte',1,3103,",B640,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(639,'1',3619,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'639123456789',4,'Süd',2,3100,639);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'639123456780',6,'Mitte',1,3103,639);</v>
       </c>
     </row>
     <row r="641" spans="2:7" x14ac:dyDescent="0.25">
@@ -28471,8 +28472,8 @@
         <v>322</v>
       </c>
       <c r="G642" s="15" t="str">
-        <f t="shared" ref="G642:G705" ca="1" si="1275">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B642,",'",E642,"',",C642,",'",D642,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A642,B642,"123456789',4,'Süd',2,3100,",B642,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A642,B642,"123456780',6,'Mitte',1,3103,",B642,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(641,'1',3622,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('641123456789',4,'Süd',2,3100,641);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('641123456780',6,'Mitte',1,3103,641);</v>
+        <f t="shared" ref="G642:G705" ca="1" si="1275">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B642,",'",E642,"',",C642,",'",D642,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A642,B642,"123456789',4,'Süd',2,3100,",B642,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A642,B642,"123456780',6,'Mitte',1,3103,",B642,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(641,'1',3622,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'641123456789',4,'Süd',2,3100,641);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'641123456780',6,'Mitte',1,3103,641);</v>
       </c>
     </row>
     <row r="643" spans="2:7" x14ac:dyDescent="0.25">
@@ -28512,8 +28513,8 @@
         <v>323</v>
       </c>
       <c r="G644" s="15" t="str">
-        <f t="shared" ref="G644:G707" ca="1" si="1279">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B644,",'",E644,"',",C644,",'",D644,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A644,B644,"123456789',4,'Süd',2,3100,",B644,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A644,B644,"123456780',6,'Mitte',1,3103,",B644,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(643,'1',3623,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('643123456789',4,'Süd',2,3100,643);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('643123456780',6,'Mitte',1,3103,643);</v>
+        <f t="shared" ref="G644:G707" ca="1" si="1279">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B644,",'",E644,"',",C644,",'",D644,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A644,B644,"123456789',4,'Süd',2,3100,",B644,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A644,B644,"123456780',6,'Mitte',1,3103,",B644,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(643,'1',3623,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'643123456789',4,'Süd',2,3100,643);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'643123456780',6,'Mitte',1,3103,643);</v>
       </c>
     </row>
     <row r="645" spans="2:7" x14ac:dyDescent="0.25">
@@ -28553,8 +28554,8 @@
         <v>324</v>
       </c>
       <c r="G646" s="15" t="str">
-        <f t="shared" ref="G646:G709" ca="1" si="1283">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B646,",'",E646,"',",C646,",'",D646,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A646,B646,"123456789',4,'Süd',2,3100,",B646,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A646,B646,"123456780',6,'Mitte',1,3103,",B646,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(645,'1',3624,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('645123456789',4,'Süd',2,3100,645);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('645123456780',6,'Mitte',1,3103,645);</v>
+        <f t="shared" ref="G646:G709" ca="1" si="1283">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B646,",'",E646,"',",C646,",'",D646,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A646,B646,"123456789',4,'Süd',2,3100,",B646,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A646,B646,"123456780',6,'Mitte',1,3103,",B646,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(645,'1',3624,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'645123456789',4,'Süd',2,3100,645);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'645123456780',6,'Mitte',1,3103,645);</v>
       </c>
     </row>
     <row r="647" spans="2:7" x14ac:dyDescent="0.25">
@@ -28594,8 +28595,8 @@
         <v>325</v>
       </c>
       <c r="G648" s="15" t="str">
-        <f t="shared" ref="G648:G711" ca="1" si="1287">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B648,",'",E648,"',",C648,",'",D648,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A648,B648,"123456789',4,'Süd',2,3100,",B648,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A648,B648,"123456780',6,'Mitte',1,3103,",B648,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(647,'1',3625,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('647123456789',4,'Süd',2,3100,647);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('647123456780',6,'Mitte',1,3103,647);</v>
+        <f t="shared" ref="G648:G711" ca="1" si="1287">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B648,",'",E648,"',",C648,",'",D648,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A648,B648,"123456789',4,'Süd',2,3100,",B648,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A648,B648,"123456780',6,'Mitte',1,3103,",B648,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(647,'1',3625,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'647123456789',4,'Süd',2,3100,647);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'647123456780',6,'Mitte',1,3103,647);</v>
       </c>
     </row>
     <row r="649" spans="2:7" x14ac:dyDescent="0.25">
@@ -28635,8 +28636,8 @@
         <v>326</v>
       </c>
       <c r="G650" s="15" t="str">
-        <f t="shared" ref="G650:G713" ca="1" si="1291">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B650,",'",E650,"',",C650,",'",D650,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A650,B650,"123456789',4,'Süd',2,3100,",B650,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A650,B650,"123456780',6,'Mitte',1,3103,",B650,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(649,'1',3626,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('649123456789',4,'Süd',2,3100,649);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('649123456780',6,'Mitte',1,3103,649);</v>
+        <f t="shared" ref="G650:G713" ca="1" si="1291">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B650,",'",E650,"',",C650,",'",D650,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A650,B650,"123456789',4,'Süd',2,3100,",B650,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A650,B650,"123456780',6,'Mitte',1,3103,",B650,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(649,'1',3626,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'649123456789',4,'Süd',2,3100,649);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'649123456780',6,'Mitte',1,3103,649);</v>
       </c>
     </row>
     <row r="651" spans="2:7" x14ac:dyDescent="0.25">
@@ -28676,8 +28677,8 @@
         <v>327</v>
       </c>
       <c r="G652" s="15" t="str">
-        <f t="shared" ref="G652:G715" ca="1" si="1295">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B652,",'",E652,"',",C652,",'",D652,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A652,B652,"123456789',4,'Süd',2,3100,",B652,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A652,B652,"123456780',6,'Mitte',1,3103,",B652,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(651,'1',3627,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('651123456789',4,'Süd',2,3100,651);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('651123456780',6,'Mitte',1,3103,651);</v>
+        <f t="shared" ref="G652:G715" ca="1" si="1295">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B652,",'",E652,"',",C652,",'",D652,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A652,B652,"123456789',4,'Süd',2,3100,",B652,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A652,B652,"123456780',6,'Mitte',1,3103,",B652,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(651,'1',3627,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'651123456789',4,'Süd',2,3100,651);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'651123456780',6,'Mitte',1,3103,651);</v>
       </c>
     </row>
     <row r="653" spans="2:7" x14ac:dyDescent="0.25">
@@ -28717,8 +28718,8 @@
         <v>328</v>
       </c>
       <c r="G654" s="15" t="str">
-        <f t="shared" ref="G654:G717" ca="1" si="1299">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B654,",'",E654,"',",C654,",'",D654,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A654,B654,"123456789',4,'Süd',2,3100,",B654,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A654,B654,"123456780',6,'Mitte',1,3103,",B654,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(653,'1',3628,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('653123456789',4,'Süd',2,3100,653);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('653123456780',6,'Mitte',1,3103,653);</v>
+        <f t="shared" ref="G654:G717" ca="1" si="1299">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B654,",'",E654,"',",C654,",'",D654,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A654,B654,"123456789',4,'Süd',2,3100,",B654,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A654,B654,"123456780',6,'Mitte',1,3103,",B654,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(653,'1',3628,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'653123456789',4,'Süd',2,3100,653);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'653123456780',6,'Mitte',1,3103,653);</v>
       </c>
     </row>
     <row r="655" spans="2:7" x14ac:dyDescent="0.25">
@@ -28758,8 +28759,8 @@
         <v>329</v>
       </c>
       <c r="G656" s="15" t="str">
-        <f t="shared" ref="G656:G719" ca="1" si="1303">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B656,",'",E656,"',",C656,",'",D656,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A656,B656,"123456789',4,'Süd',2,3100,",B656,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A656,B656,"123456780',6,'Mitte',1,3103,",B656,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(655,'1',3629,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('655123456789',4,'Süd',2,3100,655);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('655123456780',6,'Mitte',1,3103,655);</v>
+        <f t="shared" ref="G656:G719" ca="1" si="1303">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B656,",'",E656,"',",C656,",'",D656,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A656,B656,"123456789',4,'Süd',2,3100,",B656,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A656,B656,"123456780',6,'Mitte',1,3103,",B656,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(655,'1',3629,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'655123456789',4,'Süd',2,3100,655);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'655123456780',6,'Mitte',1,3103,655);</v>
       </c>
     </row>
     <row r="657" spans="2:7" x14ac:dyDescent="0.25">
@@ -28799,8 +28800,8 @@
         <v>330</v>
       </c>
       <c r="G658" s="15" t="str">
-        <f t="shared" ref="G658:G721" ca="1" si="1307">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B658,",'",E658,"',",C658,",'",D658,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A658,B658,"123456789',4,'Süd',2,3100,",B658,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A658,B658,"123456780',6,'Mitte',1,3103,",B658,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(657,'1',3631,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('657123456789',4,'Süd',2,3100,657);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('657123456780',6,'Mitte',1,3103,657);</v>
+        <f t="shared" ref="G658:G721" ca="1" si="1307">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B658,",'",E658,"',",C658,",'",D658,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A658,B658,"123456789',4,'Süd',2,3100,",B658,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A658,B658,"123456780',6,'Mitte',1,3103,",B658,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(657,'1',3631,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'657123456789',4,'Süd',2,3100,657);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'657123456780',6,'Mitte',1,3103,657);</v>
       </c>
     </row>
     <row r="659" spans="2:7" x14ac:dyDescent="0.25">
@@ -28840,8 +28841,8 @@
         <v>331</v>
       </c>
       <c r="G660" s="15" t="str">
-        <f t="shared" ref="G660:G723" ca="1" si="1311">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B660,",'",E660,"',",C660,",'",D660,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A660,B660,"123456789',4,'Süd',2,3100,",B660,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A660,B660,"123456780',6,'Mitte',1,3103,",B660,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(659,'1',3632,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('659123456789',4,'Süd',2,3100,659);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('659123456780',6,'Mitte',1,3103,659);</v>
+        <f t="shared" ref="G660:G723" ca="1" si="1311">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B660,",'",E660,"',",C660,",'",D660,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A660,B660,"123456789',4,'Süd',2,3100,",B660,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A660,B660,"123456780',6,'Mitte',1,3103,",B660,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(659,'1',3632,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'659123456789',4,'Süd',2,3100,659);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'659123456780',6,'Mitte',1,3103,659);</v>
       </c>
     </row>
     <row r="661" spans="2:7" x14ac:dyDescent="0.25">
@@ -28881,8 +28882,8 @@
         <v>332</v>
       </c>
       <c r="G662" s="15" t="str">
-        <f t="shared" ref="G662:G725" ca="1" si="1315">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B662,",'",E662,"',",C662,",'",D662,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A662,B662,"123456789',4,'Süd',2,3100,",B662,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A662,B662,"123456780',6,'Mitte',1,3103,",B662,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(661,'1',3633,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('661123456789',4,'Süd',2,3100,661);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('661123456780',6,'Mitte',1,3103,661);</v>
+        <f t="shared" ref="G662:G725" ca="1" si="1315">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B662,",'",E662,"',",C662,",'",D662,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A662,B662,"123456789',4,'Süd',2,3100,",B662,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A662,B662,"123456780',6,'Mitte',1,3103,",B662,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(661,'1',3633,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'661123456789',4,'Süd',2,3100,661);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'661123456780',6,'Mitte',1,3103,661);</v>
       </c>
     </row>
     <row r="663" spans="2:7" x14ac:dyDescent="0.25">
@@ -28922,8 +28923,8 @@
         <v>333</v>
       </c>
       <c r="G664" s="15" t="str">
-        <f t="shared" ref="G664:G727" ca="1" si="1319">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B664,",'",E664,"',",C664,",'",D664,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A664,B664,"123456789',4,'Süd',2,3100,",B664,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A664,B664,"123456780',6,'Mitte',1,3103,",B664,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(663,'1',3634,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('663123456789',4,'Süd',2,3100,663);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('663123456780',6,'Mitte',1,3103,663);</v>
+        <f t="shared" ref="G664:G727" ca="1" si="1319">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B664,",'",E664,"',",C664,",'",D664,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A664,B664,"123456789',4,'Süd',2,3100,",B664,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A664,B664,"123456780',6,'Mitte',1,3103,",B664,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(663,'1',3634,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'663123456789',4,'Süd',2,3100,663);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'663123456780',6,'Mitte',1,3103,663);</v>
       </c>
     </row>
     <row r="665" spans="2:7" x14ac:dyDescent="0.25">
@@ -28963,8 +28964,8 @@
         <v>334</v>
       </c>
       <c r="G666" s="15" t="str">
-        <f t="shared" ref="G666:G729" ca="1" si="1323">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B666,",'",E666,"',",C666,",'",D666,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A666,B666,"123456789',4,'Süd',2,3100,",B666,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A666,B666,"123456780',6,'Mitte',1,3103,",B666,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(665,'1',3635,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('665123456789',4,'Süd',2,3100,665);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('665123456780',6,'Mitte',1,3103,665);</v>
+        <f t="shared" ref="G666:G729" ca="1" si="1323">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B666,",'",E666,"',",C666,",'",D666,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A666,B666,"123456789',4,'Süd',2,3100,",B666,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A666,B666,"123456780',6,'Mitte',1,3103,",B666,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(665,'1',3635,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'665123456789',4,'Süd',2,3100,665);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'665123456780',6,'Mitte',1,3103,665);</v>
       </c>
     </row>
     <row r="667" spans="2:7" x14ac:dyDescent="0.25">
@@ -29004,8 +29005,8 @@
         <v>335</v>
       </c>
       <c r="G668" s="15" t="str">
-        <f t="shared" ref="G668:G731" ca="1" si="1327">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B668,",'",E668,"',",C668,",'",D668,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A668,B668,"123456789',4,'Süd',2,3100,",B668,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A668,B668,"123456780',6,'Mitte',1,3103,",B668,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(667,'1',3636,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('667123456789',4,'Süd',2,3100,667);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('667123456780',6,'Mitte',1,3103,667);</v>
+        <f t="shared" ref="G668:G731" ca="1" si="1327">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B668,",'",E668,"',",C668,",'",D668,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A668,B668,"123456789',4,'Süd',2,3100,",B668,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A668,B668,"123456780',6,'Mitte',1,3103,",B668,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(667,'1',3636,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'667123456789',4,'Süd',2,3100,667);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'667123456780',6,'Mitte',1,3103,667);</v>
       </c>
     </row>
     <row r="669" spans="2:7" x14ac:dyDescent="0.25">
@@ -29045,8 +29046,8 @@
         <v>336</v>
       </c>
       <c r="G670" s="15" t="str">
-        <f t="shared" ref="G670:G733" ca="1" si="1331">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B670,",'",E670,"',",C670,",'",D670,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A670,B670,"123456789',4,'Süd',2,3100,",B670,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A670,B670,"123456780',6,'Mitte',1,3103,",B670,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(669,'1',3638,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('669123456789',4,'Süd',2,3100,669);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('669123456780',6,'Mitte',1,3103,669);</v>
+        <f t="shared" ref="G670:G733" ca="1" si="1331">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B670,",'",E670,"',",C670,",'",D670,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A670,B670,"123456789',4,'Süd',2,3100,",B670,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A670,B670,"123456780',6,'Mitte',1,3103,",B670,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(669,'1',3638,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'669123456789',4,'Süd',2,3100,669);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'669123456780',6,'Mitte',1,3103,669);</v>
       </c>
     </row>
     <row r="671" spans="2:7" x14ac:dyDescent="0.25">
@@ -29086,8 +29087,8 @@
         <v>337</v>
       </c>
       <c r="G672" s="15" t="str">
-        <f t="shared" ref="G672:G735" ca="1" si="1335">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B672,",'",E672,"',",C672,",'",D672,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A672,B672,"123456789',4,'Süd',2,3100,",B672,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A672,B672,"123456780',6,'Mitte',1,3103,",B672,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(671,'1',3645,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('671123456789',4,'Süd',2,3100,671);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('671123456780',6,'Mitte',1,3103,671);</v>
+        <f t="shared" ref="G672:G735" ca="1" si="1335">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B672,",'",E672,"',",C672,",'",D672,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A672,B672,"123456789',4,'Süd',2,3100,",B672,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A672,B672,"123456780',6,'Mitte',1,3103,",B672,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(671,'1',3645,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'671123456789',4,'Süd',2,3100,671);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'671123456780',6,'Mitte',1,3103,671);</v>
       </c>
     </row>
     <row r="673" spans="2:7" x14ac:dyDescent="0.25">
@@ -29127,8 +29128,8 @@
         <v>338</v>
       </c>
       <c r="G674" s="15" t="str">
-        <f t="shared" ref="G674:G737" ca="1" si="1339">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B674,",'",E674,"',",C674,",'",D674,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A674,B674,"123456789',4,'Süd',2,3100,",B674,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A674,B674,"123456780',6,'Mitte',1,3103,",B674,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(673,'1',3646,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('673123456789',4,'Süd',2,3100,673);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('673123456780',6,'Mitte',1,3103,673);</v>
+        <f t="shared" ref="G674:G737" ca="1" si="1339">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B674,",'",E674,"',",C674,",'",D674,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A674,B674,"123456789',4,'Süd',2,3100,",B674,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A674,B674,"123456780',6,'Mitte',1,3103,",B674,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(673,'1',3646,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'673123456789',4,'Süd',2,3100,673);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'673123456780',6,'Mitte',1,3103,673);</v>
       </c>
     </row>
     <row r="675" spans="2:7" x14ac:dyDescent="0.25">
@@ -29168,8 +29169,8 @@
         <v>339</v>
       </c>
       <c r="G676" s="15" t="str">
-        <f t="shared" ref="G676:G739" ca="1" si="1343">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B676,",'",E676,"',",C676,",'",D676,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A676,B676,"123456789',4,'Süd',2,3100,",B676,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A676,B676,"123456780',6,'Mitte',1,3103,",B676,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(675,'1',3647,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('675123456789',4,'Süd',2,3100,675);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('675123456780',6,'Mitte',1,3103,675);</v>
+        <f t="shared" ref="G676:G739" ca="1" si="1343">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B676,",'",E676,"',",C676,",'",D676,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A676,B676,"123456789',4,'Süd',2,3100,",B676,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A676,B676,"123456780',6,'Mitte',1,3103,",B676,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(675,'1',3647,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'675123456789',4,'Süd',2,3100,675);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'675123456780',6,'Mitte',1,3103,675);</v>
       </c>
     </row>
     <row r="677" spans="2:7" x14ac:dyDescent="0.25">
@@ -29209,8 +29210,8 @@
         <v>340</v>
       </c>
       <c r="G678" s="15" t="str">
-        <f t="shared" ref="G678:G741" ca="1" si="1347">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B678,",'",E678,"',",C678,",'",D678,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A678,B678,"123456789',4,'Süd',2,3100,",B678,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A678,B678,"123456780',6,'Mitte',1,3103,",B678,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(677,'1',3652,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('677123456789',4,'Süd',2,3100,677);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('677123456780',6,'Mitte',1,3103,677);</v>
+        <f t="shared" ref="G678:G741" ca="1" si="1347">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B678,",'",E678,"',",C678,",'",D678,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A678,B678,"123456789',4,'Süd',2,3100,",B678,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A678,B678,"123456780',6,'Mitte',1,3103,",B678,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(677,'1',3652,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'677123456789',4,'Süd',2,3100,677);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'677123456780',6,'Mitte',1,3103,677);</v>
       </c>
     </row>
     <row r="679" spans="2:7" x14ac:dyDescent="0.25">
@@ -29250,8 +29251,8 @@
         <v>341</v>
       </c>
       <c r="G680" s="15" t="str">
-        <f t="shared" ref="G680:G743" ca="1" si="1351">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B680,",'",E680,"',",C680,",'",D680,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A680,B680,"123456789',4,'Süd',2,3100,",B680,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A680,B680,"123456780',6,'Mitte',1,3103,",B680,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(679,'1',3653,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('679123456789',4,'Süd',2,3100,679);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('679123456780',6,'Mitte',1,3103,679);</v>
+        <f t="shared" ref="G680:G743" ca="1" si="1351">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B680,",'",E680,"',",C680,",'",D680,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A680,B680,"123456789',4,'Süd',2,3100,",B680,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A680,B680,"123456780',6,'Mitte',1,3103,",B680,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(679,'1',3653,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'679123456789',4,'Süd',2,3100,679);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'679123456780',6,'Mitte',1,3103,679);</v>
       </c>
     </row>
     <row r="681" spans="2:7" x14ac:dyDescent="0.25">
@@ -29291,8 +29292,8 @@
         <v>342</v>
       </c>
       <c r="G682" s="15" t="str">
-        <f t="shared" ref="G682:G745" ca="1" si="1355">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B682,",'",E682,"',",C682,",'",D682,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A682,B682,"123456789',4,'Süd',2,3100,",B682,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A682,B682,"123456780',6,'Mitte',1,3103,",B682,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(681,'1',3654,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('681123456789',4,'Süd',2,3100,681);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('681123456780',6,'Mitte',1,3103,681);</v>
+        <f t="shared" ref="G682:G745" ca="1" si="1355">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B682,",'",E682,"',",C682,",'",D682,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A682,B682,"123456789',4,'Süd',2,3100,",B682,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A682,B682,"123456780',6,'Mitte',1,3103,",B682,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(681,'1',3654,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'681123456789',4,'Süd',2,3100,681);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'681123456780',6,'Mitte',1,3103,681);</v>
       </c>
     </row>
     <row r="683" spans="2:7" x14ac:dyDescent="0.25">
@@ -29332,8 +29333,8 @@
         <v>343</v>
       </c>
       <c r="G684" s="15" t="str">
-        <f t="shared" ref="G684:G747" ca="1" si="1359">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B684,",'",E684,"',",C684,",'",D684,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A684,B684,"123456789',4,'Süd',2,3100,",B684,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A684,B684,"123456780',6,'Mitte',1,3103,",B684,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(683,'1',3655,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('683123456789',4,'Süd',2,3100,683);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('683123456780',6,'Mitte',1,3103,683);</v>
+        <f t="shared" ref="G684:G747" ca="1" si="1359">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B684,",'",E684,"',",C684,",'",D684,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A684,B684,"123456789',4,'Süd',2,3100,",B684,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A684,B684,"123456780',6,'Mitte',1,3103,",B684,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(683,'1',3655,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'683123456789',4,'Süd',2,3100,683);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'683123456780',6,'Mitte',1,3103,683);</v>
       </c>
     </row>
     <row r="685" spans="2:7" x14ac:dyDescent="0.25">
@@ -29373,8 +29374,8 @@
         <v>344</v>
       </c>
       <c r="G686" s="15" t="str">
-        <f t="shared" ref="G686:G749" ca="1" si="1363">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B686,",'",E686,"',",C686,",'",D686,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A686,B686,"123456789',4,'Süd',2,3100,",B686,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A686,B686,"123456780',6,'Mitte',1,3103,",B686,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(685,'1',3656,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('685123456789',4,'Süd',2,3100,685);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('685123456780',6,'Mitte',1,3103,685);</v>
+        <f t="shared" ref="G686:G749" ca="1" si="1363">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B686,",'",E686,"',",C686,",'",D686,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A686,B686,"123456789',4,'Süd',2,3100,",B686,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A686,B686,"123456780',6,'Mitte',1,3103,",B686,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(685,'1',3656,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'685123456789',4,'Süd',2,3100,685);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'685123456780',6,'Mitte',1,3103,685);</v>
       </c>
     </row>
     <row r="687" spans="2:7" x14ac:dyDescent="0.25">
@@ -29414,8 +29415,8 @@
         <v>345</v>
       </c>
       <c r="G688" s="15" t="str">
-        <f t="shared" ref="G688:G751" ca="1" si="1367">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B688,",'",E688,"',",C688,",'",D688,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A688,B688,"123456789',4,'Süd',2,3100,",B688,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A688,B688,"123456780',6,'Mitte',1,3103,",B688,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(687,'1',3657,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('687123456789',4,'Süd',2,3100,687);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('687123456780',6,'Mitte',1,3103,687);</v>
+        <f t="shared" ref="G688:G751" ca="1" si="1367">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B688,",'",E688,"',",C688,",'",D688,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A688,B688,"123456789',4,'Süd',2,3100,",B688,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A688,B688,"123456780',6,'Mitte',1,3103,",B688,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(687,'1',3657,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'687123456789',4,'Süd',2,3100,687);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'687123456780',6,'Mitte',1,3103,687);</v>
       </c>
     </row>
     <row r="689" spans="2:7" x14ac:dyDescent="0.25">
@@ -29455,8 +29456,8 @@
         <v>346</v>
       </c>
       <c r="G690" s="15" t="str">
-        <f t="shared" ref="G690:G753" ca="1" si="1371">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B690,",'",E690,"',",C690,",'",D690,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A690,B690,"123456789',4,'Süd',2,3100,",B690,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A690,B690,"123456780',6,'Mitte',1,3103,",B690,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(689,'1',3658,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('689123456789',4,'Süd',2,3100,689);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('689123456780',6,'Mitte',1,3103,689);</v>
+        <f t="shared" ref="G690:G753" ca="1" si="1371">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B690,",'",E690,"',",C690,",'",D690,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A690,B690,"123456789',4,'Süd',2,3100,",B690,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A690,B690,"123456780',6,'Mitte',1,3103,",B690,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(689,'1',3658,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'689123456789',4,'Süd',2,3100,689);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'689123456780',6,'Mitte',1,3103,689);</v>
       </c>
     </row>
     <row r="691" spans="2:7" x14ac:dyDescent="0.25">
@@ -29496,8 +29497,8 @@
         <v>347</v>
       </c>
       <c r="G692" s="15" t="str">
-        <f t="shared" ref="G692:G755" ca="1" si="1375">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B692,",'",E692,"',",C692,",'",D692,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A692,B692,"123456789',4,'Süd',2,3100,",B692,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A692,B692,"123456780',6,'Mitte',1,3103,",B692,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(691,'1',3661,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('691123456789',4,'Süd',2,3100,691);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('691123456780',6,'Mitte',1,3103,691);</v>
+        <f t="shared" ref="G692:G755" ca="1" si="1375">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B692,",'",E692,"',",C692,",'",D692,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A692,B692,"123456789',4,'Süd',2,3100,",B692,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A692,B692,"123456780',6,'Mitte',1,3103,",B692,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(691,'1',3661,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'691123456789',4,'Süd',2,3100,691);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'691123456780',6,'Mitte',1,3103,691);</v>
       </c>
     </row>
     <row r="693" spans="2:7" x14ac:dyDescent="0.25">
@@ -29537,8 +29538,8 @@
         <v>348</v>
       </c>
       <c r="G694" s="15" t="str">
-        <f t="shared" ref="G694:G757" ca="1" si="1377">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B694,",'",E694,"',",C694,",'",D694,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A694,B694,"123456789',4,'Süd',2,3100,",B694,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A694,B694,"123456780',6,'Mitte',1,3103,",B694,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(693,'1',3662,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('693123456789',4,'Süd',2,3100,693);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('693123456780',6,'Mitte',1,3103,693);</v>
+        <f t="shared" ref="G694:G757" ca="1" si="1377">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B694,",'",E694,"',",C694,",'",D694,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A694,B694,"123456789',4,'Süd',2,3100,",B694,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A694,B694,"123456780',6,'Mitte',1,3103,",B694,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(693,'1',3662,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'693123456789',4,'Süd',2,3100,693);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'693123456780',6,'Mitte',1,3103,693);</v>
       </c>
     </row>
     <row r="695" spans="2:7" x14ac:dyDescent="0.25">
@@ -29578,8 +29579,8 @@
         <v>349</v>
       </c>
       <c r="G696" s="15" t="str">
-        <f t="shared" ref="G696:G759" ca="1" si="1380">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B696,",'",E696,"',",C696,",'",D696,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A696,B696,"123456789',4,'Süd',2,3100,",B696,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A696,B696,"123456780',6,'Mitte',1,3103,",B696,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(695,'1',3663,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('695123456789',4,'Süd',2,3100,695);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('695123456780',6,'Mitte',1,3103,695);</v>
+        <f t="shared" ref="G696:G759" ca="1" si="1380">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B696,",'",E696,"',",C696,",'",D696,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A696,B696,"123456789',4,'Süd',2,3100,",B696,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A696,B696,"123456780',6,'Mitte',1,3103,",B696,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(695,'1',3663,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'695123456789',4,'Süd',2,3100,695);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'695123456780',6,'Mitte',1,3103,695);</v>
       </c>
     </row>
     <row r="697" spans="2:7" x14ac:dyDescent="0.25">
@@ -29619,8 +29620,8 @@
         <v>350</v>
       </c>
       <c r="G698" s="15" t="str">
-        <f t="shared" ref="G698:G761" ca="1" si="1384">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B698,",'",E698,"',",C698,",'",D698,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A698,B698,"123456789',4,'Süd',2,3100,",B698,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A698,B698,"123456780',6,'Mitte',1,3103,",B698,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(697,'1',3664,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('697123456789',4,'Süd',2,3100,697);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('697123456780',6,'Mitte',1,3103,697);</v>
+        <f t="shared" ref="G698:G761" ca="1" si="1384">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B698,",'",E698,"',",C698,",'",D698,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A698,B698,"123456789',4,'Süd',2,3100,",B698,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A698,B698,"123456780',6,'Mitte',1,3103,",B698,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(697,'1',3664,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'697123456789',4,'Süd',2,3100,697);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'697123456780',6,'Mitte',1,3103,697);</v>
       </c>
     </row>
     <row r="699" spans="2:7" x14ac:dyDescent="0.25">
@@ -29660,8 +29661,8 @@
         <v>351</v>
       </c>
       <c r="G700" s="15" t="str">
-        <f t="shared" ref="G700:G763" ca="1" si="1387">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B700,",'",E700,"',",C700,",'",D700,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A700,B700,"123456789',4,'Süd',2,3100,",B700,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A700,B700,"123456780',6,'Mitte',1,3103,",B700,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(699,'1',3665,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('699123456789',4,'Süd',2,3100,699);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('699123456780',6,'Mitte',1,3103,699);</v>
+        <f t="shared" ref="G700:G763" ca="1" si="1387">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B700,",'",E700,"',",C700,",'",D700,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A700,B700,"123456789',4,'Süd',2,3100,",B700,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A700,B700,"123456780',6,'Mitte',1,3103,",B700,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(699,'1',3665,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'699123456789',4,'Süd',2,3100,699);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'699123456780',6,'Mitte',1,3103,699);</v>
       </c>
     </row>
     <row r="701" spans="2:7" x14ac:dyDescent="0.25">
@@ -29701,8 +29702,8 @@
         <v>352</v>
       </c>
       <c r="G702" s="15" t="str">
-        <f t="shared" ref="G702:G765" ca="1" si="1391">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B702,",'",E702,"',",C702,",'",D702,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A702,B702,"123456789',4,'Süd',2,3100,",B702,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A702,B702,"123456780',6,'Mitte',1,3103,",B702,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(701,'1',3671,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('701123456789',4,'Süd',2,3100,701);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('701123456780',6,'Mitte',1,3103,701);</v>
+        <f t="shared" ref="G702:G765" ca="1" si="1391">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B702,",'",E702,"',",C702,",'",D702,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A702,B702,"123456789',4,'Süd',2,3100,",B702,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A702,B702,"123456780',6,'Mitte',1,3103,",B702,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(701,'1',3671,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'701123456789',4,'Süd',2,3100,701);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'701123456780',6,'Mitte',1,3103,701);</v>
       </c>
     </row>
     <row r="703" spans="2:7" x14ac:dyDescent="0.25">
@@ -29742,8 +29743,8 @@
         <v>353</v>
       </c>
       <c r="G704" s="15" t="str">
-        <f t="shared" ref="G704:G767" ca="1" si="1394">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B704,",'",E704,"',",C704,",'",D704,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A704,B704,"123456789',4,'Süd',2,3100,",B704,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A704,B704,"123456780',6,'Mitte',1,3103,",B704,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(703,'1',3672,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('703123456789',4,'Süd',2,3100,703);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('703123456780',6,'Mitte',1,3103,703);</v>
+        <f t="shared" ref="G704:G767" ca="1" si="1394">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B704,",'",E704,"',",C704,",'",D704,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A704,B704,"123456789',4,'Süd',2,3100,",B704,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A704,B704,"123456780',6,'Mitte',1,3103,",B704,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(703,'1',3672,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'703123456789',4,'Süd',2,3100,703);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'703123456780',6,'Mitte',1,3103,703);</v>
       </c>
     </row>
     <row r="705" spans="2:7" x14ac:dyDescent="0.25">
@@ -29783,8 +29784,8 @@
         <v>354</v>
       </c>
       <c r="G706" s="15" t="str">
-        <f t="shared" ref="G706:G769" ca="1" si="1398">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B706,",'",E706,"',",C706,",'",D706,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A706,B706,"123456789',4,'Süd',2,3100,",B706,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A706,B706,"123456780',6,'Mitte',1,3103,",B706,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(705,'1',3673,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('705123456789',4,'Süd',2,3100,705);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('705123456780',6,'Mitte',1,3103,705);</v>
+        <f t="shared" ref="G706:G769" ca="1" si="1398">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B706,",'",E706,"',",C706,",'",D706,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A706,B706,"123456789',4,'Süd',2,3100,",B706,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A706,B706,"123456780',6,'Mitte',1,3103,",B706,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(705,'1',3673,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'705123456789',4,'Süd',2,3100,705);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'705123456780',6,'Mitte',1,3103,705);</v>
       </c>
     </row>
     <row r="707" spans="2:7" x14ac:dyDescent="0.25">
@@ -29824,8 +29825,8 @@
         <v>355</v>
       </c>
       <c r="G708" s="15" t="str">
-        <f t="shared" ref="G708:G771" ca="1" si="1401">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B708,",'",E708,"',",C708,",'",D708,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A708,B708,"123456789',4,'Süd',2,3100,",B708,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A708,B708,"123456780',6,'Mitte',1,3103,",B708,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(707,'1',3674,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('707123456789',4,'Süd',2,3100,707);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('707123456780',6,'Mitte',1,3103,707);</v>
+        <f t="shared" ref="G708:G771" ca="1" si="1401">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B708,",'",E708,"',",C708,",'",D708,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A708,B708,"123456789',4,'Süd',2,3100,",B708,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A708,B708,"123456780',6,'Mitte',1,3103,",B708,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(707,'1',3674,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'707123456789',4,'Süd',2,3100,707);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'707123456780',6,'Mitte',1,3103,707);</v>
       </c>
     </row>
     <row r="709" spans="2:7" x14ac:dyDescent="0.25">
@@ -29865,8 +29866,8 @@
         <v>356</v>
       </c>
       <c r="G710" s="15" t="str">
-        <f t="shared" ref="G710:G773" ca="1" si="1405">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B710,",'",E710,"',",C710,",'",D710,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A710,B710,"123456789',4,'Süd',2,3100,",B710,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A710,B710,"123456780',6,'Mitte',1,3103,",B710,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(709,'1',3700,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('709123456789',4,'Süd',2,3100,709);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('709123456780',6,'Mitte',1,3103,709);</v>
+        <f t="shared" ref="G710:G773" ca="1" si="1405">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B710,",'",E710,"',",C710,",'",D710,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A710,B710,"123456789',4,'Süd',2,3100,",B710,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A710,B710,"123456780',6,'Mitte',1,3103,",B710,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(709,'1',3700,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'709123456789',4,'Süd',2,3100,709);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'709123456780',6,'Mitte',1,3103,709);</v>
       </c>
     </row>
     <row r="711" spans="2:7" x14ac:dyDescent="0.25">
@@ -29906,8 +29907,8 @@
         <v>357</v>
       </c>
       <c r="G712" s="15" t="str">
-        <f t="shared" ref="G712:G775" ca="1" si="1408">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B712,",'",E712,"',",C712,",'",D712,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A712,B712,"123456789',4,'Süd',2,3100,",B712,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A712,B712,"123456780',6,'Mitte',1,3103,",B712,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(711,'1',3702,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('711123456789',4,'Süd',2,3100,711);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('711123456780',6,'Mitte',1,3103,711);</v>
+        <f t="shared" ref="G712:G775" ca="1" si="1408">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B712,",'",E712,"',",C712,",'",D712,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A712,B712,"123456789',4,'Süd',2,3100,",B712,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A712,B712,"123456780',6,'Mitte',1,3103,",B712,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(711,'1',3702,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'711123456789',4,'Süd',2,3100,711);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'711123456780',6,'Mitte',1,3103,711);</v>
       </c>
     </row>
     <row r="713" spans="2:7" x14ac:dyDescent="0.25">
@@ -29947,8 +29948,8 @@
         <v>358</v>
       </c>
       <c r="G714" s="15" t="str">
-        <f t="shared" ref="G714:G777" ca="1" si="1412">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B714,",'",E714,"',",C714,",'",D714,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A714,B714,"123456789',4,'Süd',2,3100,",B714,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A714,B714,"123456780',6,'Mitte',1,3103,",B714,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(713,'1',3703,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('713123456789',4,'Süd',2,3100,713);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('713123456780',6,'Mitte',1,3103,713);</v>
+        <f t="shared" ref="G714:G777" ca="1" si="1412">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B714,",'",E714,"',",C714,",'",D714,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A714,B714,"123456789',4,'Süd',2,3100,",B714,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A714,B714,"123456780',6,'Mitte',1,3103,",B714,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(713,'1',3703,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'713123456789',4,'Süd',2,3100,713);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'713123456780',6,'Mitte',1,3103,713);</v>
       </c>
     </row>
     <row r="715" spans="2:7" x14ac:dyDescent="0.25">
@@ -29988,8 +29989,8 @@
         <v>359</v>
       </c>
       <c r="G716" s="15" t="str">
-        <f t="shared" ref="G716:G779" ca="1" si="1415">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B716,",'",E716,"',",C716,",'",D716,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A716,B716,"123456789',4,'Süd',2,3100,",B716,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A716,B716,"123456780',6,'Mitte',1,3103,",B716,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(715,'1',3704,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('715123456789',4,'Süd',2,3100,715);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('715123456780',6,'Mitte',1,3103,715);</v>
+        <f t="shared" ref="G716:G779" ca="1" si="1415">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B716,",'",E716,"',",C716,",'",D716,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A716,B716,"123456789',4,'Süd',2,3100,",B716,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A716,B716,"123456780',6,'Mitte',1,3103,",B716,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(715,'1',3704,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'715123456789',4,'Süd',2,3100,715);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'715123456780',6,'Mitte',1,3103,715);</v>
       </c>
     </row>
     <row r="717" spans="2:7" x14ac:dyDescent="0.25">
@@ -30029,8 +30030,8 @@
         <v>360</v>
       </c>
       <c r="G718" s="15" t="str">
-        <f t="shared" ref="G718:G781" ca="1" si="1419">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B718,",'",E718,"',",C718,",'",D718,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A718,B718,"123456789',4,'Süd',2,3100,",B718,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A718,B718,"123456780',6,'Mitte',1,3103,",B718,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(717,'1',3705,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('717123456789',4,'Süd',2,3100,717);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('717123456780',6,'Mitte',1,3103,717);</v>
+        <f t="shared" ref="G718:G781" ca="1" si="1419">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B718,",'",E718,"',",C718,",'",D718,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A718,B718,"123456789',4,'Süd',2,3100,",B718,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A718,B718,"123456780',6,'Mitte',1,3103,",B718,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(717,'1',3705,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'717123456789',4,'Süd',2,3100,717);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'717123456780',6,'Mitte',1,3103,717);</v>
       </c>
     </row>
     <row r="719" spans="2:7" x14ac:dyDescent="0.25">
@@ -30070,8 +30071,8 @@
         <v>361</v>
       </c>
       <c r="G720" s="15" t="str">
-        <f t="shared" ref="G720:G783" ca="1" si="1422">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B720,",'",E720,"',",C720,",'",D720,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A720,B720,"123456789',4,'Süd',2,3100,",B720,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A720,B720,"123456780',6,'Mitte',1,3103,",B720,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(719,'1',3706,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('719123456789',4,'Süd',2,3100,719);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('719123456780',6,'Mitte',1,3103,719);</v>
+        <f t="shared" ref="G720:G783" ca="1" si="1422">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B720,",'",E720,"',",C720,",'",D720,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A720,B720,"123456789',4,'Süd',2,3100,",B720,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A720,B720,"123456780',6,'Mitte',1,3103,",B720,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(719,'1',3706,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'719123456789',4,'Süd',2,3100,719);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'719123456780',6,'Mitte',1,3103,719);</v>
       </c>
     </row>
     <row r="721" spans="2:7" x14ac:dyDescent="0.25">
@@ -30111,8 +30112,8 @@
         <v>362</v>
       </c>
       <c r="G722" s="15" t="str">
-        <f t="shared" ref="G722:G785" ca="1" si="1426">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B722,",'",E722,"',",C722,",'",D722,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A722,B722,"123456789',4,'Süd',2,3100,",B722,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A722,B722,"123456780',6,'Mitte',1,3103,",B722,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(721,'1',3707,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('721123456789',4,'Süd',2,3100,721);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('721123456780',6,'Mitte',1,3103,721);</v>
+        <f t="shared" ref="G722:G785" ca="1" si="1426">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B722,",'",E722,"',",C722,",'",D722,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A722,B722,"123456789',4,'Süd',2,3100,",B722,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A722,B722,"123456780',6,'Mitte',1,3103,",B722,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(721,'1',3707,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'721123456789',4,'Süd',2,3100,721);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'721123456780',6,'Mitte',1,3103,721);</v>
       </c>
     </row>
     <row r="723" spans="2:7" x14ac:dyDescent="0.25">
@@ -30152,8 +30153,8 @@
         <v>363</v>
       </c>
       <c r="G724" s="15" t="str">
-        <f t="shared" ref="G724:G787" ca="1" si="1429">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B724,",'",E724,"',",C724,",'",D724,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A724,B724,"123456789',4,'Süd',2,3100,",B724,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A724,B724,"123456780',6,'Mitte',1,3103,",B724,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(723,'1',3711,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('723123456789',4,'Süd',2,3100,723);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('723123456780',6,'Mitte',1,3103,723);</v>
+        <f t="shared" ref="G724:G787" ca="1" si="1429">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B724,",'",E724,"',",C724,",'",D724,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A724,B724,"123456789',4,'Süd',2,3100,",B724,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A724,B724,"123456780',6,'Mitte',1,3103,",B724,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(723,'1',3711,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'723123456789',4,'Süd',2,3100,723);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'723123456780',6,'Mitte',1,3103,723);</v>
       </c>
     </row>
     <row r="725" spans="2:7" x14ac:dyDescent="0.25">
@@ -30193,8 +30194,8 @@
         <v>364</v>
       </c>
       <c r="G726" s="15" t="str">
-        <f t="shared" ref="G726:G789" ca="1" si="1433">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B726,",'",E726,"',",C726,",'",D726,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A726,B726,"123456789',4,'Süd',2,3100,",B726,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A726,B726,"123456780',6,'Mitte',1,3103,",B726,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(725,'1',3713,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('725123456789',4,'Süd',2,3100,725);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('725123456780',6,'Mitte',1,3103,725);</v>
+        <f t="shared" ref="G726:G789" ca="1" si="1433">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B726,",'",E726,"',",C726,",'",D726,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A726,B726,"123456789',4,'Süd',2,3100,",B726,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A726,B726,"123456780',6,'Mitte',1,3103,",B726,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(725,'1',3713,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'725123456789',4,'Süd',2,3100,725);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'725123456780',6,'Mitte',1,3103,725);</v>
       </c>
     </row>
     <row r="727" spans="2:7" x14ac:dyDescent="0.25">
@@ -30234,8 +30235,8 @@
         <v>365</v>
       </c>
       <c r="G728" s="15" t="str">
-        <f t="shared" ref="G728:G791" ca="1" si="1436">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B728,",'",E728,"',",C728,",'",D728,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A728,B728,"123456789',4,'Süd',2,3100,",B728,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A728,B728,"123456780',6,'Mitte',1,3103,",B728,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(727,'1',3714,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('727123456789',4,'Süd',2,3100,727);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('727123456780',6,'Mitte',1,3103,727);</v>
+        <f t="shared" ref="G728:G791" ca="1" si="1436">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B728,",'",E728,"',",C728,",'",D728,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A728,B728,"123456789',4,'Süd',2,3100,",B728,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A728,B728,"123456780',6,'Mitte',1,3103,",B728,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(727,'1',3714,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'727123456789',4,'Süd',2,3100,727);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'727123456780',6,'Mitte',1,3103,727);</v>
       </c>
     </row>
     <row r="729" spans="2:7" x14ac:dyDescent="0.25">
@@ -30275,8 +30276,8 @@
         <v>366</v>
       </c>
       <c r="G730" s="15" t="str">
-        <f t="shared" ref="G730:G761" ca="1" si="1440">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B730,",'",E730,"',",C730,",'",D730,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A730,B730,"123456789',4,'Süd',2,3100,",B730,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A730,B730,"123456780',6,'Mitte',1,3103,",B730,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(729,'1',3715,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('729123456789',4,'Süd',2,3100,729);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('729123456780',6,'Mitte',1,3103,729);</v>
+        <f t="shared" ref="G730:G761" ca="1" si="1440">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B730,",'",E730,"',",C730,",'",D730,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A730,B730,"123456789',4,'Süd',2,3100,",B730,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A730,B730,"123456780',6,'Mitte',1,3103,",B730,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(729,'1',3715,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'729123456789',4,'Süd',2,3100,729);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'729123456780',6,'Mitte',1,3103,729);</v>
       </c>
     </row>
     <row r="731" spans="2:7" x14ac:dyDescent="0.25">
@@ -30316,8 +30317,8 @@
         <v>367</v>
       </c>
       <c r="G732" s="15" t="str">
-        <f t="shared" ref="G732:G763" ca="1" si="1443">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B732,",'",E732,"',",C732,",'",D732,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A732,B732,"123456789',4,'Süd',2,3100,",B732,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A732,B732,"123456780',6,'Mitte',1,3103,",B732,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(731,'1',3716,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('731123456789',4,'Süd',2,3100,731);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('731123456780',6,'Mitte',1,3103,731);</v>
+        <f t="shared" ref="G732:G763" ca="1" si="1443">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B732,",'",E732,"',",C732,",'",D732,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A732,B732,"123456789',4,'Süd',2,3100,",B732,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A732,B732,"123456780',6,'Mitte',1,3103,",B732,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(731,'1',3716,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'731123456789',4,'Süd',2,3100,731);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'731123456780',6,'Mitte',1,3103,731);</v>
       </c>
     </row>
     <row r="733" spans="2:7" x14ac:dyDescent="0.25">
@@ -30357,8 +30358,8 @@
         <v>368</v>
       </c>
       <c r="G734" s="15" t="str">
-        <f t="shared" ref="G734:G765" ca="1" si="1447">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B734,",'",E734,"',",C734,",'",D734,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A734,B734,"123456789',4,'Süd',2,3100,",B734,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A734,B734,"123456780',6,'Mitte',1,3103,",B734,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(733,'1',3717,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('733123456789',4,'Süd',2,3100,733);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('733123456780',6,'Mitte',1,3103,733);</v>
+        <f t="shared" ref="G734:G765" ca="1" si="1447">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B734,",'",E734,"',",C734,",'",D734,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A734,B734,"123456789',4,'Süd',2,3100,",B734,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A734,B734,"123456780',6,'Mitte',1,3103,",B734,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(733,'1',3717,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'733123456789',4,'Süd',2,3100,733);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'733123456780',6,'Mitte',1,3103,733);</v>
       </c>
     </row>
     <row r="735" spans="2:7" x14ac:dyDescent="0.25">
@@ -30398,8 +30399,8 @@
         <v>369</v>
       </c>
       <c r="G736" s="15" t="str">
-        <f t="shared" ref="G736:G767" ca="1" si="1450">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B736,",'",E736,"',",C736,",'",D736,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A736,B736,"123456789',4,'Süd',2,3100,",B736,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A736,B736,"123456780',6,'Mitte',1,3103,",B736,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(735,'1',3718,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('735123456789',4,'Süd',2,3100,735);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('735123456780',6,'Mitte',1,3103,735);</v>
+        <f t="shared" ref="G736:G767" ca="1" si="1450">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B736,",'",E736,"',",C736,",'",D736,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A736,B736,"123456789',4,'Süd',2,3100,",B736,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A736,B736,"123456780',6,'Mitte',1,3103,",B736,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(735,'1',3718,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'735123456789',4,'Süd',2,3100,735);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'735123456780',6,'Mitte',1,3103,735);</v>
       </c>
     </row>
     <row r="737" spans="2:7" x14ac:dyDescent="0.25">
@@ -30439,8 +30440,8 @@
         <v>370</v>
       </c>
       <c r="G738" s="15" t="str">
-        <f t="shared" ref="G738:G769" ca="1" si="1454">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B738,",'",E738,"',",C738,",'",D738,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A738,B738,"123456789',4,'Süd',2,3100,",B738,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A738,B738,"123456780',6,'Mitte',1,3103,",B738,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(737,'1',3722,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('737123456789',4,'Süd',2,3100,737);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('737123456780',6,'Mitte',1,3103,737);</v>
+        <f t="shared" ref="G738:G769" ca="1" si="1454">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B738,",'",E738,"',",C738,",'",D738,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A738,B738,"123456789',4,'Süd',2,3100,",B738,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A738,B738,"123456780',6,'Mitte',1,3103,",B738,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(737,'1',3722,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'737123456789',4,'Süd',2,3100,737);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'737123456780',6,'Mitte',1,3103,737);</v>
       </c>
     </row>
     <row r="739" spans="2:7" x14ac:dyDescent="0.25">
@@ -30480,8 +30481,8 @@
         <v>371</v>
       </c>
       <c r="G740" s="15" t="str">
-        <f t="shared" ref="G740:G771" ca="1" si="1457">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B740,",'",E740,"',",C740,",'",D740,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A740,B740,"123456789',4,'Süd',2,3100,",B740,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A740,B740,"123456780',6,'Mitte',1,3103,",B740,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(739,'1',3723,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('739123456789',4,'Süd',2,3100,739);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('739123456780',6,'Mitte',1,3103,739);</v>
+        <f t="shared" ref="G740:G771" ca="1" si="1457">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B740,",'",E740,"',",C740,",'",D740,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A740,B740,"123456789',4,'Süd',2,3100,",B740,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A740,B740,"123456780',6,'Mitte',1,3103,",B740,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(739,'1',3723,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'739123456789',4,'Süd',2,3100,739);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'739123456780',6,'Mitte',1,3103,739);</v>
       </c>
     </row>
     <row r="741" spans="2:7" x14ac:dyDescent="0.25">
@@ -30521,8 +30522,8 @@
         <v>372</v>
       </c>
       <c r="G742" s="15" t="str">
-        <f t="shared" ref="G742:G773" ca="1" si="1461">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B742,",'",E742,"',",C742,",'",D742,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A742,B742,"123456789',4,'Süd',2,3100,",B742,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A742,B742,"123456780',6,'Mitte',1,3103,",B742,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(741,'1',3724,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('741123456789',4,'Süd',2,3100,741);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('741123456780',6,'Mitte',1,3103,741);</v>
+        <f t="shared" ref="G742:G773" ca="1" si="1461">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B742,",'",E742,"',",C742,",'",D742,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A742,B742,"123456789',4,'Süd',2,3100,",B742,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A742,B742,"123456780',6,'Mitte',1,3103,",B742,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(741,'1',3724,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'741123456789',4,'Süd',2,3100,741);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'741123456780',6,'Mitte',1,3103,741);</v>
       </c>
     </row>
     <row r="743" spans="2:7" x14ac:dyDescent="0.25">
@@ -30562,8 +30563,8 @@
         <v>373</v>
       </c>
       <c r="G744" s="15" t="str">
-        <f t="shared" ref="G744:G775" ca="1" si="1464">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B744,",'",E744,"',",C744,",'",D744,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A744,B744,"123456789',4,'Süd',2,3100,",B744,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A744,B744,"123456780',6,'Mitte',1,3103,",B744,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(743,'1',3725,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('743123456789',4,'Süd',2,3100,743);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('743123456780',6,'Mitte',1,3103,743);</v>
+        <f t="shared" ref="G744:G775" ca="1" si="1464">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B744,",'",E744,"',",C744,",'",D744,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A744,B744,"123456789',4,'Süd',2,3100,",B744,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A744,B744,"123456780',6,'Mitte',1,3103,",B744,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(743,'1',3725,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'743123456789',4,'Süd',2,3100,743);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'743123456780',6,'Mitte',1,3103,743);</v>
       </c>
     </row>
     <row r="745" spans="2:7" x14ac:dyDescent="0.25">
@@ -30603,8 +30604,8 @@
         <v>374</v>
       </c>
       <c r="G746" s="15" t="str">
-        <f t="shared" ref="G746:G777" ca="1" si="1468">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B746,",'",E746,"',",C746,",'",D746,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A746,B746,"123456789',4,'Süd',2,3100,",B746,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A746,B746,"123456780',6,'Mitte',1,3103,",B746,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(745,'1',3752,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('745123456789',4,'Süd',2,3100,745);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('745123456780',6,'Mitte',1,3103,745);</v>
+        <f t="shared" ref="G746:G777" ca="1" si="1468">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B746,",'",E746,"',",C746,",'",D746,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A746,B746,"123456789',4,'Süd',2,3100,",B746,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A746,B746,"123456780',6,'Mitte',1,3103,",B746,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(745,'1',3752,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'745123456789',4,'Süd',2,3100,745);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'745123456780',6,'Mitte',1,3103,745);</v>
       </c>
     </row>
     <row r="747" spans="2:7" x14ac:dyDescent="0.25">
@@ -30644,8 +30645,8 @@
         <v>375</v>
       </c>
       <c r="G748" s="15" t="str">
-        <f t="shared" ref="G748:G779" ca="1" si="1471">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B748,",'",E748,"',",C748,",'",D748,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A748,B748,"123456789',4,'Süd',2,3100,",B748,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A748,B748,"123456780',6,'Mitte',1,3103,",B748,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(747,'1',3753,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('747123456789',4,'Süd',2,3100,747);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('747123456780',6,'Mitte',1,3103,747);</v>
+        <f t="shared" ref="G748:G779" ca="1" si="1471">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B748,",'",E748,"',",C748,",'",D748,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A748,B748,"123456789',4,'Süd',2,3100,",B748,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A748,B748,"123456780',6,'Mitte',1,3103,",B748,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(747,'1',3753,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'747123456789',4,'Süd',2,3100,747);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'747123456780',6,'Mitte',1,3103,747);</v>
       </c>
     </row>
     <row r="749" spans="2:7" x14ac:dyDescent="0.25">
@@ -30685,8 +30686,8 @@
         <v>376</v>
       </c>
       <c r="G750" s="15" t="str">
-        <f t="shared" ref="G750:G781" ca="1" si="1475">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B750,",'",E750,"',",C750,",'",D750,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A750,B750,"123456789',4,'Süd',2,3100,",B750,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A750,B750,"123456780',6,'Mitte',1,3103,",B750,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(749,'1',3754,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('749123456789',4,'Süd',2,3100,749);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('749123456780',6,'Mitte',1,3103,749);</v>
+        <f t="shared" ref="G750:G781" ca="1" si="1475">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B750,",'",E750,"',",C750,",'",D750,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A750,B750,"123456789',4,'Süd',2,3100,",B750,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A750,B750,"123456780',6,'Mitte',1,3103,",B750,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(749,'1',3754,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'749123456789',4,'Süd',2,3100,749);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'749123456780',6,'Mitte',1,3103,749);</v>
       </c>
     </row>
     <row r="751" spans="2:7" x14ac:dyDescent="0.25">
@@ -30726,8 +30727,8 @@
         <v>377</v>
       </c>
       <c r="G752" s="15" t="str">
-        <f t="shared" ref="G752:G783" ca="1" si="1478">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B752,",'",E752,"',",C752,",'",D752,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A752,B752,"123456789',4,'Süd',2,3100,",B752,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A752,B752,"123456780',6,'Mitte',1,3103,",B752,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(751,'1',3755,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('751123456789',4,'Süd',2,3100,751);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('751123456780',6,'Mitte',1,3103,751);</v>
+        <f t="shared" ref="G752:G783" ca="1" si="1478">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B752,",'",E752,"',",C752,",'",D752,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A752,B752,"123456789',4,'Süd',2,3100,",B752,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A752,B752,"123456780',6,'Mitte',1,3103,",B752,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(751,'1',3755,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'751123456789',4,'Süd',2,3100,751);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'751123456780',6,'Mitte',1,3103,751);</v>
       </c>
     </row>
     <row r="753" spans="2:7" x14ac:dyDescent="0.25">
@@ -30767,8 +30768,8 @@
         <v>378</v>
       </c>
       <c r="G754" s="15" t="str">
-        <f t="shared" ref="G754:G785" ca="1" si="1482">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B754,",'",E754,"',",C754,",'",D754,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A754,B754,"123456789',4,'Süd',2,3100,",B754,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A754,B754,"123456780',6,'Mitte',1,3103,",B754,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(753,'1',3756,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('753123456789',4,'Süd',2,3100,753);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('753123456780',6,'Mitte',1,3103,753);</v>
+        <f t="shared" ref="G754:G785" ca="1" si="1482">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B754,",'",E754,"',",C754,",'",D754,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A754,B754,"123456789',4,'Süd',2,3100,",B754,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A754,B754,"123456780',6,'Mitte',1,3103,",B754,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(753,'1',3756,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'753123456789',4,'Süd',2,3100,753);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'753123456780',6,'Mitte',1,3103,753);</v>
       </c>
     </row>
     <row r="755" spans="2:7" x14ac:dyDescent="0.25">
@@ -30808,8 +30809,8 @@
         <v>379</v>
       </c>
       <c r="G756" s="15" t="str">
-        <f t="shared" ref="G756:G787" ca="1" si="1485">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B756,",'",E756,"',",C756,",'",D756,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A756,B756,"123456789',4,'Süd',2,3100,",B756,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A756,B756,"123456780',6,'Mitte',1,3103,",B756,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(755,'1',3757,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('755123456789',4,'Süd',2,3100,755);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('755123456780',6,'Mitte',1,3103,755);</v>
+        <f t="shared" ref="G756:G787" ca="1" si="1485">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B756,",'",E756,"',",C756,",'",D756,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A756,B756,"123456789',4,'Süd',2,3100,",B756,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A756,B756,"123456780',6,'Mitte',1,3103,",B756,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(755,'1',3757,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'755123456789',4,'Süd',2,3100,755);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'755123456780',6,'Mitte',1,3103,755);</v>
       </c>
     </row>
     <row r="757" spans="2:7" x14ac:dyDescent="0.25">
@@ -30849,8 +30850,8 @@
         <v>380</v>
       </c>
       <c r="G758" s="15" t="str">
-        <f t="shared" ref="G758:G789" ca="1" si="1489">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B758,",'",E758,"',",C758,",'",D758,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A758,B758,"123456789',4,'Süd',2,3100,",B758,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A758,B758,"123456780',6,'Mitte',1,3103,",B758,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(757,'1',3758,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('757123456789',4,'Süd',2,3100,757);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('757123456780',6,'Mitte',1,3103,757);</v>
+        <f t="shared" ref="G758:G789" ca="1" si="1489">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B758,",'",E758,"',",C758,",'",D758,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A758,B758,"123456789',4,'Süd',2,3100,",B758,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A758,B758,"123456780',6,'Mitte',1,3103,",B758,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(757,'1',3758,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'757123456789',4,'Süd',2,3100,757);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'757123456780',6,'Mitte',1,3103,757);</v>
       </c>
     </row>
     <row r="759" spans="2:7" x14ac:dyDescent="0.25">
@@ -30890,8 +30891,8 @@
         <v>381</v>
       </c>
       <c r="G760" s="15" t="str">
-        <f t="shared" ref="G760:G791" ca="1" si="1493">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B760,",'",E760,"',",C760,",'",D760,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A760,B760,"123456789',4,'Süd',2,3100,",B760,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A760,B760,"123456780',6,'Mitte',1,3103,",B760,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(759,'1',3762,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('759123456789',4,'Süd',2,3100,759);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('759123456780',6,'Mitte',1,3103,759);</v>
+        <f t="shared" ref="G760:G791" ca="1" si="1493">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B760,",'",E760,"',",C760,",'",D760,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A760,B760,"123456789',4,'Süd',2,3100,",B760,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A760,B760,"123456780',6,'Mitte',1,3103,",B760,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(759,'1',3762,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'759123456789',4,'Süd',2,3100,759);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'759123456780',6,'Mitte',1,3103,759);</v>
       </c>
     </row>
     <row r="761" spans="2:7" x14ac:dyDescent="0.25">
@@ -30931,8 +30932,8 @@
         <v>382</v>
       </c>
       <c r="G762" s="15" t="str">
-        <f t="shared" ref="G762:G793" ca="1" si="1497">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B762,",'",E762,"',",C762,",'",D762,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A762,B762,"123456789',4,'Süd',2,3100,",B762,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A762,B762,"123456780',6,'Mitte',1,3103,",B762,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(761,'1',3763,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('761123456789',4,'Süd',2,3100,761);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('761123456780',6,'Mitte',1,3103,761);</v>
+        <f t="shared" ref="G762:G793" ca="1" si="1497">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B762,",'",E762,"',",C762,",'",D762,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A762,B762,"123456789',4,'Süd',2,3100,",B762,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A762,B762,"123456780',6,'Mitte',1,3103,",B762,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(761,'1',3763,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'761123456789',4,'Süd',2,3100,761);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'761123456780',6,'Mitte',1,3103,761);</v>
       </c>
     </row>
     <row r="763" spans="2:7" x14ac:dyDescent="0.25">
@@ -30972,8 +30973,8 @@
         <v>383</v>
       </c>
       <c r="G764" s="15" t="str">
-        <f t="shared" ref="G764:G795" ca="1" si="1500">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B764,",'",E764,"',",C764,",'",D764,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A764,B764,"123456789',4,'Süd',2,3100,",B764,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A764,B764,"123456780',6,'Mitte',1,3103,",B764,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(763,'1',3764,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('763123456789',4,'Süd',2,3100,763);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('763123456780',6,'Mitte',1,3103,763);</v>
+        <f t="shared" ref="G764:G795" ca="1" si="1500">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B764,",'",E764,"',",C764,",'",D764,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A764,B764,"123456789',4,'Süd',2,3100,",B764,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A764,B764,"123456780',6,'Mitte',1,3103,",B764,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(763,'1',3764,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'763123456789',4,'Süd',2,3100,763);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'763123456780',6,'Mitte',1,3103,763);</v>
       </c>
     </row>
     <row r="765" spans="2:7" x14ac:dyDescent="0.25">
@@ -31013,8 +31014,8 @@
         <v>384</v>
       </c>
       <c r="G766" s="15" t="str">
-        <f t="shared" ref="G766:G797" ca="1" si="1504">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B766,",'",E766,"',",C766,",'",D766,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A766,B766,"123456789',4,'Süd',2,3100,",B766,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A766,B766,"123456780',6,'Mitte',1,3103,",B766,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(765,'1',3765,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('765123456789',4,'Süd',2,3100,765);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('765123456780',6,'Mitte',1,3103,765);</v>
+        <f t="shared" ref="G766:G797" ca="1" si="1504">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B766,",'",E766,"',",C766,",'",D766,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A766,B766,"123456789',4,'Süd',2,3100,",B766,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A766,B766,"123456780',6,'Mitte',1,3103,",B766,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(765,'1',3765,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'765123456789',4,'Süd',2,3100,765);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'765123456780',6,'Mitte',1,3103,765);</v>
       </c>
     </row>
     <row r="767" spans="2:7" x14ac:dyDescent="0.25">
@@ -31054,8 +31055,8 @@
         <v>385</v>
       </c>
       <c r="G768" s="15" t="str">
-        <f t="shared" ref="G768:G799" ca="1" si="1507">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B768,",'",E768,"',",C768,",'",D768,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A768,B768,"123456789',4,'Süd',2,3100,",B768,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A768,B768,"123456780',6,'Mitte',1,3103,",B768,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(767,'1',3766,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('767123456789',4,'Süd',2,3100,767);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('767123456780',6,'Mitte',1,3103,767);</v>
+        <f t="shared" ref="G768:G799" ca="1" si="1507">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B768,",'",E768,"',",C768,",'",D768,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A768,B768,"123456789',4,'Süd',2,3100,",B768,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A768,B768,"123456780',6,'Mitte',1,3103,",B768,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(767,'1',3766,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'767123456789',4,'Süd',2,3100,767);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'767123456780',6,'Mitte',1,3103,767);</v>
       </c>
     </row>
     <row r="769" spans="2:7" x14ac:dyDescent="0.25">
@@ -31095,8 +31096,8 @@
         <v>386</v>
       </c>
       <c r="G770" s="15" t="str">
-        <f t="shared" ref="G770:G801" ca="1" si="1511">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B770,",'",E770,"',",C770,",'",D770,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A770,B770,"123456789',4,'Süd',2,3100,",B770,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A770,B770,"123456780',6,'Mitte',1,3103,",B770,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(769,'1',3770,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('769123456789',4,'Süd',2,3100,769);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('769123456780',6,'Mitte',1,3103,769);</v>
+        <f t="shared" ref="G770:G801" ca="1" si="1511">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B770,",'",E770,"',",C770,",'",D770,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A770,B770,"123456789',4,'Süd',2,3100,",B770,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A770,B770,"123456780',6,'Mitte',1,3103,",B770,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(769,'1',3770,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'769123456789',4,'Süd',2,3100,769);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'769123456780',6,'Mitte',1,3103,769);</v>
       </c>
     </row>
     <row r="771" spans="2:7" x14ac:dyDescent="0.25">
@@ -31136,8 +31137,8 @@
         <v>387</v>
       </c>
       <c r="G772" s="15" t="str">
-        <f t="shared" ref="G772:G803" ca="1" si="1514">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B772,",'",E772,"',",C772,",'",D772,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A772,B772,"123456789',4,'Süd',2,3100,",B772,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A772,B772,"123456780',6,'Mitte',1,3103,",B772,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(771,'1',3771,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('771123456789',4,'Süd',2,3100,771);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('771123456780',6,'Mitte',1,3103,771);</v>
+        <f t="shared" ref="G772:G803" ca="1" si="1514">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B772,",'",E772,"',",C772,",'",D772,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A772,B772,"123456789',4,'Süd',2,3100,",B772,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A772,B772,"123456780',6,'Mitte',1,3103,",B772,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(771,'1',3771,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'771123456789',4,'Süd',2,3100,771);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'771123456780',6,'Mitte',1,3103,771);</v>
       </c>
     </row>
     <row r="773" spans="2:7" x14ac:dyDescent="0.25">
@@ -31177,8 +31178,8 @@
         <v>388</v>
       </c>
       <c r="G774" s="15" t="str">
-        <f t="shared" ref="G774:G805" ca="1" si="1518">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B774,",'",E774,"',",C774,",'",D774,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A774,B774,"123456789',4,'Süd',2,3100,",B774,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A774,B774,"123456780',6,'Mitte',1,3103,",B774,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(773,'1',3772,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('773123456789',4,'Süd',2,3100,773);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('773123456780',6,'Mitte',1,3103,773);</v>
+        <f t="shared" ref="G774:G805" ca="1" si="1518">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B774,",'",E774,"',",C774,",'",D774,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A774,B774,"123456789',4,'Süd',2,3100,",B774,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A774,B774,"123456780',6,'Mitte',1,3103,",B774,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(773,'1',3772,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'773123456789',4,'Süd',2,3100,773);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'773123456780',6,'Mitte',1,3103,773);</v>
       </c>
     </row>
     <row r="775" spans="2:7" x14ac:dyDescent="0.25">
@@ -31218,8 +31219,8 @@
         <v>389</v>
       </c>
       <c r="G776" s="15" t="str">
-        <f t="shared" ref="G776:G807" ca="1" si="1521">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B776,",'",E776,"',",C776,",'",D776,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A776,B776,"123456789',4,'Süd',2,3100,",B776,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A776,B776,"123456780',6,'Mitte',1,3103,",B776,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(775,'1',3773,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('775123456789',4,'Süd',2,3100,775);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('775123456780',6,'Mitte',1,3103,775);</v>
+        <f t="shared" ref="G776:G807" ca="1" si="1521">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B776,",'",E776,"',",C776,",'",D776,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A776,B776,"123456789',4,'Süd',2,3100,",B776,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A776,B776,"123456780',6,'Mitte',1,3103,",B776,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(775,'1',3773,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'775123456789',4,'Süd',2,3100,775);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'775123456780',6,'Mitte',1,3103,775);</v>
       </c>
     </row>
     <row r="777" spans="2:7" x14ac:dyDescent="0.25">
@@ -31259,8 +31260,8 @@
         <v>390</v>
       </c>
       <c r="G778" s="15" t="str">
-        <f t="shared" ref="G778:G809" ca="1" si="1525">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B778,",'",E778,"',",C778,",'",D778,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A778,B778,"123456789',4,'Süd',2,3100,",B778,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A778,B778,"123456780',6,'Mitte',1,3103,",B778,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(777,'1',3775,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('777123456789',4,'Süd',2,3100,777);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('777123456780',6,'Mitte',1,3103,777);</v>
+        <f t="shared" ref="G778:G809" ca="1" si="1525">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B778,",'",E778,"',",C778,",'",D778,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A778,B778,"123456789',4,'Süd',2,3100,",B778,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A778,B778,"123456780',6,'Mitte',1,3103,",B778,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(777,'1',3775,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'777123456789',4,'Süd',2,3100,777);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'777123456780',6,'Mitte',1,3103,777);</v>
       </c>
     </row>
     <row r="779" spans="2:7" x14ac:dyDescent="0.25">
@@ -31300,8 +31301,8 @@
         <v>391</v>
       </c>
       <c r="G780" s="15" t="str">
-        <f t="shared" ref="G780:G811" ca="1" si="1528">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B780,",'",E780,"',",C780,",'",D780,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A780,B780,"123456789',4,'Süd',2,3100,",B780,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A780,B780,"123456780',6,'Mitte',1,3103,",B780,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(779,'1',3776,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('779123456789',4,'Süd',2,3100,779);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('779123456780',6,'Mitte',1,3103,779);</v>
+        <f t="shared" ref="G780:G811" ca="1" si="1528">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B780,",'",E780,"',",C780,",'",D780,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A780,B780,"123456789',4,'Süd',2,3100,",B780,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A780,B780,"123456780',6,'Mitte',1,3103,",B780,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(779,'1',3776,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'779123456789',4,'Süd',2,3100,779);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'779123456780',6,'Mitte',1,3103,779);</v>
       </c>
     </row>
     <row r="781" spans="2:7" x14ac:dyDescent="0.25">
@@ -31341,8 +31342,8 @@
         <v>392</v>
       </c>
       <c r="G782" s="15" t="str">
-        <f t="shared" ref="G782:G813" ca="1" si="1532">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B782,",'",E782,"',",C782,",'",D782,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A782,B782,"123456789',4,'Süd',2,3100,",B782,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A782,B782,"123456780',6,'Mitte',1,3103,",B782,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(781,'1',3777,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('781123456789',4,'Süd',2,3100,781);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('781123456780',6,'Mitte',1,3103,781);</v>
+        <f t="shared" ref="G782:G813" ca="1" si="1532">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B782,",'",E782,"',",C782,",'",D782,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A782,B782,"123456789',4,'Süd',2,3100,",B782,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A782,B782,"123456780',6,'Mitte',1,3103,",B782,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(781,'1',3777,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'781123456789',4,'Süd',2,3100,781);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'781123456780',6,'Mitte',1,3103,781);</v>
       </c>
     </row>
     <row r="783" spans="2:7" x14ac:dyDescent="0.25">
@@ -31382,8 +31383,8 @@
         <v>393</v>
       </c>
       <c r="G784" s="15" t="str">
-        <f t="shared" ref="G784:G815" ca="1" si="1535">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B784,",'",E784,"',",C784,",'",D784,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A784,B784,"123456789',4,'Süd',2,3100,",B784,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A784,B784,"123456780',6,'Mitte',1,3103,",B784,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(783,'1',3778,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('783123456789',4,'Süd',2,3100,783);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('783123456780',6,'Mitte',1,3103,783);</v>
+        <f t="shared" ref="G784:G815" ca="1" si="1535">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B784,",'",E784,"',",C784,",'",D784,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A784,B784,"123456789',4,'Süd',2,3100,",B784,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A784,B784,"123456780',6,'Mitte',1,3103,",B784,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(783,'1',3778,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'783123456789',4,'Süd',2,3100,783);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'783123456780',6,'Mitte',1,3103,783);</v>
       </c>
     </row>
     <row r="785" spans="2:7" x14ac:dyDescent="0.25">
@@ -31423,8 +31424,8 @@
         <v>394</v>
       </c>
       <c r="G786" s="15" t="str">
-        <f t="shared" ref="G786:G817" ca="1" si="1539">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B786,",'",E786,"',",C786,",'",D786,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A786,B786,"123456789',4,'Süd',2,3100,",B786,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A786,B786,"123456780',6,'Mitte',1,3103,",B786,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(785,'1',3780,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('785123456789',4,'Süd',2,3100,785);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('785123456780',6,'Mitte',1,3103,785);</v>
+        <f t="shared" ref="G786:G817" ca="1" si="1539">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B786,",'",E786,"',",C786,",'",D786,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A786,B786,"123456789',4,'Süd',2,3100,",B786,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A786,B786,"123456780',6,'Mitte',1,3103,",B786,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(785,'1',3780,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'785123456789',4,'Süd',2,3100,785);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'785123456780',6,'Mitte',1,3103,785);</v>
       </c>
     </row>
     <row r="787" spans="2:7" x14ac:dyDescent="0.25">
@@ -31464,8 +31465,8 @@
         <v>395</v>
       </c>
       <c r="G788" s="15" t="str">
-        <f t="shared" ref="G788:G819" ca="1" si="1542">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B788,",'",E788,"',",C788,",'",D788,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A788,B788,"123456789',4,'Süd',2,3100,",B788,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A788,B788,"123456780',6,'Mitte',1,3103,",B788,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(787,'1',3781,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('787123456789',4,'Süd',2,3100,787);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('787123456780',6,'Mitte',1,3103,787);</v>
+        <f t="shared" ref="G788:G819" ca="1" si="1542">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B788,",'",E788,"',",C788,",'",D788,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A788,B788,"123456789',4,'Süd',2,3100,",B788,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A788,B788,"123456780',6,'Mitte',1,3103,",B788,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(787,'1',3781,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'787123456789',4,'Süd',2,3100,787);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'787123456780',6,'Mitte',1,3103,787);</v>
       </c>
     </row>
     <row r="789" spans="2:7" x14ac:dyDescent="0.25">
@@ -31505,8 +31506,8 @@
         <v>396</v>
       </c>
       <c r="G790" s="15" t="str">
-        <f t="shared" ref="G790:G821" ca="1" si="1546">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B790,",'",E790,"',",C790,",'",D790,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A790,B790,"123456789',4,'Süd',2,3100,",B790,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A790,B790,"123456780',6,'Mitte',1,3103,",B790,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(789,'1',3782,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('789123456789',4,'Süd',2,3100,789);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('789123456780',6,'Mitte',1,3103,789);</v>
+        <f t="shared" ref="G790:G821" ca="1" si="1546">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B790,",'",E790,"',",C790,",'",D790,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A790,B790,"123456789',4,'Süd',2,3100,",B790,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A790,B790,"123456780',6,'Mitte',1,3103,",B790,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(789,'1',3782,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'789123456789',4,'Süd',2,3100,789);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'789123456780',6,'Mitte',1,3103,789);</v>
       </c>
     </row>
     <row r="791" spans="2:7" x14ac:dyDescent="0.25">
@@ -31546,8 +31547,8 @@
         <v>397</v>
       </c>
       <c r="G792" s="15" t="str">
-        <f t="shared" ref="G792:G823" ca="1" si="1549">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B792,",'",E792,"',",C792,",'",D792,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A792,B792,"123456789',4,'Süd',2,3100,",B792,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A792,B792,"123456780',6,'Mitte',1,3103,",B792,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(791,'1',3783,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('791123456789',4,'Süd',2,3100,791);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('791123456780',6,'Mitte',1,3103,791);</v>
+        <f t="shared" ref="G792:G823" ca="1" si="1549">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B792,",'",E792,"',",C792,",'",D792,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A792,B792,"123456789',4,'Süd',2,3100,",B792,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A792,B792,"123456780',6,'Mitte',1,3103,",B792,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(791,'1',3783,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'791123456789',4,'Süd',2,3100,791);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'791123456780',6,'Mitte',1,3103,791);</v>
       </c>
     </row>
     <row r="793" spans="2:7" x14ac:dyDescent="0.25">
@@ -31587,8 +31588,8 @@
         <v>398</v>
       </c>
       <c r="G794" s="15" t="str">
-        <f t="shared" ref="G794:G825" ca="1" si="1553">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B794,",'",E794,"',",C794,",'",D794,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A794,B794,"123456789',4,'Süd',2,3100,",B794,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A794,B794,"123456780',6,'Mitte',1,3103,",B794,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(793,'1',3784,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('793123456789',4,'Süd',2,3100,793);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('793123456780',6,'Mitte',1,3103,793);</v>
+        <f t="shared" ref="G794:G825" ca="1" si="1553">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B794,",'",E794,"',",C794,",'",D794,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A794,B794,"123456789',4,'Süd',2,3100,",B794,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A794,B794,"123456780',6,'Mitte',1,3103,",B794,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(793,'1',3784,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'793123456789',4,'Süd',2,3100,793);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'793123456780',6,'Mitte',1,3103,793);</v>
       </c>
     </row>
     <row r="795" spans="2:7" x14ac:dyDescent="0.25">
@@ -31628,8 +31629,8 @@
         <v>399</v>
       </c>
       <c r="G796" s="15" t="str">
-        <f t="shared" ref="G796:G827" ca="1" si="1556">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B796,",'",E796,"',",C796,",'",D796,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A796,B796,"123456789',4,'Süd',2,3100,",B796,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A796,B796,"123456780',6,'Mitte',1,3103,",B796,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(795,'1',3785,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('795123456789',4,'Süd',2,3100,795);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('795123456780',6,'Mitte',1,3103,795);</v>
+        <f t="shared" ref="G796:G827" ca="1" si="1556">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B796,",'",E796,"',",C796,",'",D796,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A796,B796,"123456789',4,'Süd',2,3100,",B796,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A796,B796,"123456780',6,'Mitte',1,3103,",B796,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(795,'1',3785,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'795123456789',4,'Süd',2,3100,795);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'795123456780',6,'Mitte',1,3103,795);</v>
       </c>
     </row>
     <row r="797" spans="2:7" x14ac:dyDescent="0.25">
@@ -31669,8 +31670,8 @@
         <v>400</v>
       </c>
       <c r="G798" s="15" t="str">
-        <f t="shared" ref="G798:G829" ca="1" si="1560">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B798,",'",E798,"',",C798,",'",D798,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A798,B798,"123456789',4,'Süd',2,3100,",B798,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A798,B798,"123456780',6,'Mitte',1,3103,",B798,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(797,'1',3792,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('797123456789',4,'Süd',2,3100,797);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('797123456780',6,'Mitte',1,3103,797);</v>
+        <f t="shared" ref="G798:G829" ca="1" si="1560">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B798,",'",E798,"',",C798,",'",D798,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A798,B798,"123456789',4,'Süd',2,3100,",B798,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A798,B798,"123456780',6,'Mitte',1,3103,",B798,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(797,'1',3792,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'797123456789',4,'Süd',2,3100,797);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'797123456780',6,'Mitte',1,3103,797);</v>
       </c>
     </row>
     <row r="799" spans="2:7" x14ac:dyDescent="0.25">
@@ -31710,8 +31711,8 @@
         <v>401</v>
       </c>
       <c r="G800" s="15" t="str">
-        <f t="shared" ref="G800:G831" ca="1" si="1563">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B800,",'",E800,"',",C800,",'",D800,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A800,B800,"123456789',4,'Süd',2,3100,",B800,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A800,B800,"123456780',6,'Mitte',1,3103,",B800,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(799,'1',3800,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('799123456789',4,'Süd',2,3100,799);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('799123456780',6,'Mitte',1,3103,799);</v>
+        <f t="shared" ref="G800:G831" ca="1" si="1563">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B800,",'",E800,"',",C800,",'",D800,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A800,B800,"123456789',4,'Süd',2,3100,",B800,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A800,B800,"123456780',6,'Mitte',1,3103,",B800,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(799,'1',3800,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'799123456789',4,'Süd',2,3100,799);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'799123456780',6,'Mitte',1,3103,799);</v>
       </c>
     </row>
     <row r="801" spans="2:7" x14ac:dyDescent="0.25">
@@ -31751,8 +31752,8 @@
         <v>402</v>
       </c>
       <c r="G802" s="15" t="str">
-        <f t="shared" ref="G802:G833" ca="1" si="1567">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B802,",'",E802,"',",C802,",'",D802,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A802,B802,"123456789',4,'Süd',2,3100,",B802,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A802,B802,"123456780',6,'Mitte',1,3103,",B802,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(801,'1',3803,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('801123456789',4,'Süd',2,3100,801);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('801123456780',6,'Mitte',1,3103,801);</v>
+        <f t="shared" ref="G802:G833" ca="1" si="1567">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B802,",'",E802,"',",C802,",'",D802,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A802,B802,"123456789',4,'Süd',2,3100,",B802,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A802,B802,"123456780',6,'Mitte',1,3103,",B802,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(801,'1',3803,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'801123456789',4,'Süd',2,3100,801);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'801123456780',6,'Mitte',1,3103,801);</v>
       </c>
     </row>
     <row r="803" spans="2:7" x14ac:dyDescent="0.25">
@@ -31792,8 +31793,8 @@
         <v>403</v>
       </c>
       <c r="G804" s="15" t="str">
-        <f t="shared" ref="G804:G835" ca="1" si="1570">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B804,",'",E804,"',",C804,",'",D804,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A804,B804,"123456789',4,'Süd',2,3100,",B804,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A804,B804,"123456780',6,'Mitte',1,3103,",B804,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(803,'1',3804,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('803123456789',4,'Süd',2,3100,803);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('803123456780',6,'Mitte',1,3103,803);</v>
+        <f t="shared" ref="G804:G835" ca="1" si="1570">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B804,",'",E804,"',",C804,",'",D804,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A804,B804,"123456789',4,'Süd',2,3100,",B804,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A804,B804,"123456780',6,'Mitte',1,3103,",B804,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(803,'1',3804,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'803123456789',4,'Süd',2,3100,803);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'803123456780',6,'Mitte',1,3103,803);</v>
       </c>
     </row>
     <row r="805" spans="2:7" x14ac:dyDescent="0.25">
@@ -31833,8 +31834,8 @@
         <v>404</v>
       </c>
       <c r="G806" s="15" t="str">
-        <f t="shared" ref="G806:G837" ca="1" si="1574">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B806,",'",E806,"',",C806,",'",D806,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A806,B806,"123456789',4,'Süd',2,3100,",B806,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A806,B806,"123456780',6,'Mitte',1,3103,",B806,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(805,'1',3805,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('805123456789',4,'Süd',2,3100,805);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('805123456780',6,'Mitte',1,3103,805);</v>
+        <f t="shared" ref="G806:G837" ca="1" si="1574">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B806,",'",E806,"',",C806,",'",D806,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A806,B806,"123456789',4,'Süd',2,3100,",B806,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A806,B806,"123456780',6,'Mitte',1,3103,",B806,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(805,'1',3805,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'805123456789',4,'Süd',2,3100,805);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'805123456780',6,'Mitte',1,3103,805);</v>
       </c>
     </row>
     <row r="807" spans="2:7" x14ac:dyDescent="0.25">
@@ -31874,8 +31875,8 @@
         <v>405</v>
       </c>
       <c r="G808" s="15" t="str">
-        <f t="shared" ref="G808:G839" ca="1" si="1577">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B808,",'",E808,"',",C808,",'",D808,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A808,B808,"123456789',4,'Süd',2,3100,",B808,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A808,B808,"123456780',6,'Mitte',1,3103,",B808,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(807,'1',3806,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('807123456789',4,'Süd',2,3100,807);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('807123456780',6,'Mitte',1,3103,807);</v>
+        <f t="shared" ref="G808:G839" ca="1" si="1577">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B808,",'",E808,"',",C808,",'",D808,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A808,B808,"123456789',4,'Süd',2,3100,",B808,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A808,B808,"123456780',6,'Mitte',1,3103,",B808,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(807,'1',3806,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'807123456789',4,'Süd',2,3100,807);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'807123456780',6,'Mitte',1,3103,807);</v>
       </c>
     </row>
     <row r="809" spans="2:7" x14ac:dyDescent="0.25">
@@ -31915,8 +31916,8 @@
         <v>406</v>
       </c>
       <c r="G810" s="15" t="str">
-        <f t="shared" ref="G810:G841" ca="1" si="1581">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B810,",'",E810,"',",C810,",'",D810,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A810,B810,"123456789',4,'Süd',2,3100,",B810,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A810,B810,"123456780',6,'Mitte',1,3103,",B810,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(809,'1',3807,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('809123456789',4,'Süd',2,3100,809);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('809123456780',6,'Mitte',1,3103,809);</v>
+        <f t="shared" ref="G810:G841" ca="1" si="1581">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B810,",'",E810,"',",C810,",'",D810,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A810,B810,"123456789',4,'Süd',2,3100,",B810,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A810,B810,"123456780',6,'Mitte',1,3103,",B810,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(809,'1',3807,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'809123456789',4,'Süd',2,3100,809);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'809123456780',6,'Mitte',1,3103,809);</v>
       </c>
     </row>
     <row r="811" spans="2:7" x14ac:dyDescent="0.25">
@@ -31956,8 +31957,8 @@
         <v>407</v>
       </c>
       <c r="G812" s="15" t="str">
-        <f t="shared" ref="G812:G843" ca="1" si="1584">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B812,",'",E812,"',",C812,",'",D812,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A812,B812,"123456789',4,'Süd',2,3100,",B812,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A812,B812,"123456780',6,'Mitte',1,3103,",B812,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(811,'1',3812,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('811123456789',4,'Süd',2,3100,811);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('811123456780',6,'Mitte',1,3103,811);</v>
+        <f t="shared" ref="G812:G843" ca="1" si="1584">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B812,",'",E812,"',",C812,",'",D812,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A812,B812,"123456789',4,'Süd',2,3100,",B812,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A812,B812,"123456780',6,'Mitte',1,3103,",B812,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(811,'1',3812,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'811123456789',4,'Süd',2,3100,811);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'811123456780',6,'Mitte',1,3103,811);</v>
       </c>
     </row>
     <row r="813" spans="2:7" x14ac:dyDescent="0.25">
@@ -31997,8 +31998,8 @@
         <v>408</v>
       </c>
       <c r="G814" s="15" t="str">
-        <f t="shared" ref="G814:G845" ca="1" si="1588">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B814,",'",E814,"',",C814,",'",D814,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A814,B814,"123456789',4,'Süd',2,3100,",B814,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A814,B814,"123456780',6,'Mitte',1,3103,",B814,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(813,'1',3813,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('813123456789',4,'Süd',2,3100,813);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('813123456780',6,'Mitte',1,3103,813);</v>
+        <f t="shared" ref="G814:G845" ca="1" si="1588">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B814,",'",E814,"',",C814,",'",D814,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A814,B814,"123456789',4,'Süd',2,3100,",B814,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A814,B814,"123456780',6,'Mitte',1,3103,",B814,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(813,'1',3813,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'813123456789',4,'Süd',2,3100,813);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'813123456780',6,'Mitte',1,3103,813);</v>
       </c>
     </row>
     <row r="815" spans="2:7" x14ac:dyDescent="0.25">
@@ -32038,8 +32039,8 @@
         <v>409</v>
       </c>
       <c r="G816" s="15" t="str">
-        <f t="shared" ref="G816:G847" ca="1" si="1591">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B816,",'",E816,"',",C816,",'",D816,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A816,B816,"123456789',4,'Süd',2,3100,",B816,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A816,B816,"123456780',6,'Mitte',1,3103,",B816,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(815,'1',3814,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('815123456789',4,'Süd',2,3100,815);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('815123456780',6,'Mitte',1,3103,815);</v>
+        <f t="shared" ref="G816:G847" ca="1" si="1591">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B816,",'",E816,"',",C816,",'",D816,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A816,B816,"123456789',4,'Süd',2,3100,",B816,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A816,B816,"123456780',6,'Mitte',1,3103,",B816,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(815,'1',3814,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'815123456789',4,'Süd',2,3100,815);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'815123456780',6,'Mitte',1,3103,815);</v>
       </c>
     </row>
     <row r="817" spans="2:7" x14ac:dyDescent="0.25">
@@ -32079,8 +32080,8 @@
         <v>410</v>
       </c>
       <c r="G818" s="15" t="str">
-        <f t="shared" ref="G818:G849" ca="1" si="1595">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B818,",'",E818,"',",C818,",'",D818,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A818,B818,"123456789',4,'Süd',2,3100,",B818,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A818,B818,"123456780',6,'Mitte',1,3103,",B818,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(817,'1',3815,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('817123456789',4,'Süd',2,3100,817);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('817123456780',6,'Mitte',1,3103,817);</v>
+        <f t="shared" ref="G818:G849" ca="1" si="1595">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B818,",'",E818,"',",C818,",'",D818,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A818,B818,"123456789',4,'Süd',2,3100,",B818,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A818,B818,"123456780',6,'Mitte',1,3103,",B818,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(817,'1',3815,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'817123456789',4,'Süd',2,3100,817);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'817123456780',6,'Mitte',1,3103,817);</v>
       </c>
     </row>
     <row r="819" spans="2:7" x14ac:dyDescent="0.25">
@@ -32120,8 +32121,8 @@
         <v>411</v>
       </c>
       <c r="G820" s="15" t="str">
-        <f t="shared" ref="G820:G851" ca="1" si="1598">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B820,",'",E820,"',",C820,",'",D820,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A820,B820,"123456789',4,'Süd',2,3100,",B820,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A820,B820,"123456780',6,'Mitte',1,3103,",B820,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(819,'1',3816,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('819123456789',4,'Süd',2,3100,819);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('819123456780',6,'Mitte',1,3103,819);</v>
+        <f t="shared" ref="G820:G851" ca="1" si="1598">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B820,",'",E820,"',",C820,",'",D820,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A820,B820,"123456789',4,'Süd',2,3100,",B820,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A820,B820,"123456780',6,'Mitte',1,3103,",B820,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(819,'1',3816,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'819123456789',4,'Süd',2,3100,819);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'819123456780',6,'Mitte',1,3103,819);</v>
       </c>
     </row>
     <row r="821" spans="2:7" x14ac:dyDescent="0.25">
@@ -32161,8 +32162,8 @@
         <v>412</v>
       </c>
       <c r="G822" s="15" t="str">
-        <f t="shared" ref="G822:G853" ca="1" si="1602">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B822,",'",E822,"',",C822,",'",D822,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A822,B822,"123456789',4,'Süd',2,3100,",B822,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A822,B822,"123456780',6,'Mitte',1,3103,",B822,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(821,'1',3818,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('821123456789',4,'Süd',2,3100,821);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('821123456780',6,'Mitte',1,3103,821);</v>
+        <f t="shared" ref="G822:G853" ca="1" si="1602">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B822,",'",E822,"',",C822,",'",D822,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A822,B822,"123456789',4,'Süd',2,3100,",B822,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A822,B822,"123456780',6,'Mitte',1,3103,",B822,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(821,'1',3818,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'821123456789',4,'Süd',2,3100,821);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'821123456780',6,'Mitte',1,3103,821);</v>
       </c>
     </row>
     <row r="823" spans="2:7" x14ac:dyDescent="0.25">
@@ -32202,8 +32203,8 @@
         <v>413</v>
       </c>
       <c r="G824" s="15" t="str">
-        <f t="shared" ref="G824:G855" ca="1" si="1606">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B824,",'",E824,"',",C824,",'",D824,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A824,B824,"123456789',4,'Süd',2,3100,",B824,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A824,B824,"123456780',6,'Mitte',1,3103,",B824,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(823,'1',3822,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('823123456789',4,'Süd',2,3100,823);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('823123456780',6,'Mitte',1,3103,823);</v>
+        <f t="shared" ref="G824:G855" ca="1" si="1606">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B824,",'",E824,"',",C824,",'",D824,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A824,B824,"123456789',4,'Süd',2,3100,",B824,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A824,B824,"123456780',6,'Mitte',1,3103,",B824,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(823,'1',3822,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'823123456789',4,'Süd',2,3100,823);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'823123456780',6,'Mitte',1,3103,823);</v>
       </c>
     </row>
     <row r="825" spans="2:7" x14ac:dyDescent="0.25">
@@ -32243,8 +32244,8 @@
         <v>414</v>
       </c>
       <c r="G826" s="15" t="str">
-        <f t="shared" ref="G826:G857" ca="1" si="1610">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B826,",'",E826,"',",C826,",'",D826,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A826,B826,"123456789',4,'Süd',2,3100,",B826,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A826,B826,"123456780',6,'Mitte',1,3103,",B826,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(825,'1',3823,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('825123456789',4,'Süd',2,3100,825);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('825123456780',6,'Mitte',1,3103,825);</v>
+        <f t="shared" ref="G826:G857" ca="1" si="1610">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B826,",'",E826,"',",C826,",'",D826,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A826,B826,"123456789',4,'Süd',2,3100,",B826,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A826,B826,"123456780',6,'Mitte',1,3103,",B826,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(825,'1',3823,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'825123456789',4,'Süd',2,3100,825);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'825123456780',6,'Mitte',1,3103,825);</v>
       </c>
     </row>
     <row r="827" spans="2:7" x14ac:dyDescent="0.25">
@@ -32284,8 +32285,8 @@
         <v>415</v>
       </c>
       <c r="G828" s="15" t="str">
-        <f t="shared" ref="G828:G859" ca="1" si="1613">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B828,",'",E828,"',",C828,",'",D828,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A828,B828,"123456789',4,'Süd',2,3100,",B828,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A828,B828,"123456780',6,'Mitte',1,3103,",B828,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(827,'1',3824,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('827123456789',4,'Süd',2,3100,827);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('827123456780',6,'Mitte',1,3103,827);</v>
+        <f t="shared" ref="G828:G859" ca="1" si="1613">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B828,",'",E828,"',",C828,",'",D828,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A828,B828,"123456789',4,'Süd',2,3100,",B828,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A828,B828,"123456780',6,'Mitte',1,3103,",B828,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(827,'1',3824,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'827123456789',4,'Süd',2,3100,827);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'827123456780',6,'Mitte',1,3103,827);</v>
       </c>
     </row>
     <row r="829" spans="2:7" x14ac:dyDescent="0.25">
@@ -32325,8 +32326,8 @@
         <v>416</v>
       </c>
       <c r="G830" s="15" t="str">
-        <f t="shared" ref="G830:G861" ca="1" si="1617">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B830,",'",E830,"',",C830,",'",D830,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A830,B830,"123456789',4,'Süd',2,3100,",B830,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A830,B830,"123456780',6,'Mitte',1,3103,",B830,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(829,'1',3825,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('829123456789',4,'Süd',2,3100,829);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('829123456780',6,'Mitte',1,3103,829);</v>
+        <f t="shared" ref="G830:G861" ca="1" si="1617">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B830,",'",E830,"',",C830,",'",D830,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A830,B830,"123456789',4,'Süd',2,3100,",B830,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A830,B830,"123456780',6,'Mitte',1,3103,",B830,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(829,'1',3825,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'829123456789',4,'Süd',2,3100,829);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'829123456780',6,'Mitte',1,3103,829);</v>
       </c>
     </row>
     <row r="831" spans="2:7" x14ac:dyDescent="0.25">
@@ -32366,8 +32367,8 @@
         <v>417</v>
       </c>
       <c r="G832" s="15" t="str">
-        <f t="shared" ref="G832:G863" ca="1" si="1620">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B832,",'",E832,"',",C832,",'",D832,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A832,B832,"123456789',4,'Süd',2,3100,",B832,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A832,B832,"123456780',6,'Mitte',1,3103,",B832,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(831,'1',3826,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('831123456789',4,'Süd',2,3100,831);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('831123456780',6,'Mitte',1,3103,831);</v>
+        <f t="shared" ref="G832:G863" ca="1" si="1620">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B832,",'",E832,"',",C832,",'",D832,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A832,B832,"123456789',4,'Süd',2,3100,",B832,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A832,B832,"123456780',6,'Mitte',1,3103,",B832,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(831,'1',3826,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'831123456789',4,'Süd',2,3100,831);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'831123456780',6,'Mitte',1,3103,831);</v>
       </c>
     </row>
     <row r="833" spans="2:7" x14ac:dyDescent="0.25">
@@ -32407,8 +32408,8 @@
         <v>418</v>
       </c>
       <c r="G834" s="15" t="str">
-        <f t="shared" ref="G834:G865" ca="1" si="1624">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B834,",'",E834,"',",C834,",'",D834,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A834,B834,"123456789',4,'Süd',2,3100,",B834,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A834,B834,"123456780',6,'Mitte',1,3103,",B834,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(833,'1',3852,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('833123456789',4,'Süd',2,3100,833);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('833123456780',6,'Mitte',1,3103,833);</v>
+        <f t="shared" ref="G834:G865" ca="1" si="1624">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B834,",'",E834,"',",C834,",'",D834,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A834,B834,"123456789',4,'Süd',2,3100,",B834,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A834,B834,"123456780',6,'Mitte',1,3103,",B834,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(833,'1',3852,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'833123456789',4,'Süd',2,3100,833);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'833123456780',6,'Mitte',1,3103,833);</v>
       </c>
     </row>
     <row r="835" spans="2:7" x14ac:dyDescent="0.25">
@@ -32448,8 +32449,8 @@
         <v>419</v>
       </c>
       <c r="G836" s="15" t="str">
-        <f t="shared" ref="G836:G867" ca="1" si="1627">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B836,",'",E836,"',",C836,",'",D836,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A836,B836,"123456789',4,'Süd',2,3100,",B836,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A836,B836,"123456780',6,'Mitte',1,3103,",B836,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(835,'1',3853,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('835123456789',4,'Süd',2,3100,835);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('835123456780',6,'Mitte',1,3103,835);</v>
+        <f t="shared" ref="G836:G867" ca="1" si="1627">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B836,",'",E836,"',",C836,",'",D836,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A836,B836,"123456789',4,'Süd',2,3100,",B836,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A836,B836,"123456780',6,'Mitte',1,3103,",B836,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(835,'1',3853,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'835123456789',4,'Süd',2,3100,835);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'835123456780',6,'Mitte',1,3103,835);</v>
       </c>
     </row>
     <row r="837" spans="2:7" x14ac:dyDescent="0.25">
@@ -32489,8 +32490,8 @@
         <v>420</v>
       </c>
       <c r="G838" s="15" t="str">
-        <f t="shared" ref="G838:G869" ca="1" si="1631">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B838,",'",E838,"',",C838,",'",D838,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A838,B838,"123456789',4,'Süd',2,3100,",B838,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A838,B838,"123456780',6,'Mitte',1,3103,",B838,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(837,'1',3854,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('837123456789',4,'Süd',2,3100,837);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('837123456780',6,'Mitte',1,3103,837);</v>
+        <f t="shared" ref="G838:G869" ca="1" si="1631">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B838,",'",E838,"',",C838,",'",D838,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A838,B838,"123456789',4,'Süd',2,3100,",B838,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A838,B838,"123456780',6,'Mitte',1,3103,",B838,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(837,'1',3854,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'837123456789',4,'Süd',2,3100,837);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'837123456780',6,'Mitte',1,3103,837);</v>
       </c>
     </row>
     <row r="839" spans="2:7" x14ac:dyDescent="0.25">
@@ -32530,8 +32531,8 @@
         <v>421</v>
       </c>
       <c r="G840" s="15" t="str">
-        <f t="shared" ref="G840:G871" ca="1" si="1634">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B840,",'",E840,"',",C840,",'",D840,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A840,B840,"123456789',4,'Süd',2,3100,",B840,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A840,B840,"123456780',6,'Mitte',1,3103,",B840,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(839,'1',3855,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('839123456789',4,'Süd',2,3100,839);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('839123456780',6,'Mitte',1,3103,839);</v>
+        <f t="shared" ref="G840:G871" ca="1" si="1634">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B840,",'",E840,"',",C840,",'",D840,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A840,B840,"123456789',4,'Süd',2,3100,",B840,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A840,B840,"123456780',6,'Mitte',1,3103,",B840,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(839,'1',3855,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'839123456789',4,'Süd',2,3100,839);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'839123456780',6,'Mitte',1,3103,839);</v>
       </c>
     </row>
     <row r="841" spans="2:7" x14ac:dyDescent="0.25">
@@ -32571,8 +32572,8 @@
         <v>422</v>
       </c>
       <c r="G842" s="15" t="str">
-        <f t="shared" ref="G842:G873" ca="1" si="1638">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B842,",'",E842,"',",C842,",'",D842,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A842,B842,"123456789',4,'Süd',2,3100,",B842,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A842,B842,"123456780',6,'Mitte',1,3103,",B842,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(841,'1',3856,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('841123456789',4,'Süd',2,3100,841);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('841123456780',6,'Mitte',1,3103,841);</v>
+        <f t="shared" ref="G842:G873" ca="1" si="1638">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B842,",'",E842,"',",C842,",'",D842,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A842,B842,"123456789',4,'Süd',2,3100,",B842,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A842,B842,"123456780',6,'Mitte',1,3103,",B842,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(841,'1',3856,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'841123456789',4,'Süd',2,3100,841);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'841123456780',6,'Mitte',1,3103,841);</v>
       </c>
     </row>
     <row r="843" spans="2:7" x14ac:dyDescent="0.25">
@@ -32612,8 +32613,8 @@
         <v>423</v>
       </c>
       <c r="G844" s="15" t="str">
-        <f t="shared" ref="G844:G875" ca="1" si="1641">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B844,",'",E844,"',",C844,",'",D844,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A844,B844,"123456789',4,'Süd',2,3100,",B844,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A844,B844,"123456780',6,'Mitte',1,3103,",B844,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(843,'1',3857,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('843123456789',4,'Süd',2,3100,843);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('843123456780',6,'Mitte',1,3103,843);</v>
+        <f t="shared" ref="G844:G875" ca="1" si="1641">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B844,",'",E844,"',",C844,",'",D844,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A844,B844,"123456789',4,'Süd',2,3100,",B844,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A844,B844,"123456780',6,'Mitte',1,3103,",B844,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(843,'1',3857,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'843123456789',4,'Süd',2,3100,843);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'843123456780',6,'Mitte',1,3103,843);</v>
       </c>
     </row>
     <row r="845" spans="2:7" x14ac:dyDescent="0.25">
@@ -32653,8 +32654,8 @@
         <v>424</v>
       </c>
       <c r="G846" s="15" t="str">
-        <f t="shared" ref="G846:G877" ca="1" si="1645">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B846,",'",E846,"',",C846,",'",D846,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A846,B846,"123456789',4,'Süd',2,3100,",B846,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A846,B846,"123456780',6,'Mitte',1,3103,",B846,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(845,'1',3858,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('845123456789',4,'Süd',2,3100,845);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('845123456780',6,'Mitte',1,3103,845);</v>
+        <f t="shared" ref="G846:G877" ca="1" si="1645">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B846,",'",E846,"',",C846,",'",D846,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A846,B846,"123456789',4,'Süd',2,3100,",B846,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A846,B846,"123456780',6,'Mitte',1,3103,",B846,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(845,'1',3858,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'845123456789',4,'Süd',2,3100,845);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'845123456780',6,'Mitte',1,3103,845);</v>
       </c>
     </row>
     <row r="847" spans="2:7" x14ac:dyDescent="0.25">
@@ -32694,8 +32695,8 @@
         <v>425</v>
       </c>
       <c r="G848" s="15" t="str">
-        <f t="shared" ref="G848:G879" ca="1" si="1648">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B848,",'",E848,"',",C848,",'",D848,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A848,B848,"123456789',4,'Süd',2,3100,",B848,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A848,B848,"123456780',6,'Mitte',1,3103,",B848,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(847,'1',3860,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('847123456789',4,'Süd',2,3100,847);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('847123456780',6,'Mitte',1,3103,847);</v>
+        <f t="shared" ref="G848:G879" ca="1" si="1648">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B848,",'",E848,"',",C848,",'",D848,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A848,B848,"123456789',4,'Süd',2,3100,",B848,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A848,B848,"123456780',6,'Mitte',1,3103,",B848,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(847,'1',3860,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'847123456789',4,'Süd',2,3100,847);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'847123456780',6,'Mitte',1,3103,847);</v>
       </c>
     </row>
     <row r="849" spans="2:7" x14ac:dyDescent="0.25">
@@ -32735,8 +32736,8 @@
         <v>426</v>
       </c>
       <c r="G850" s="15" t="str">
-        <f t="shared" ref="G850:G881" ca="1" si="1652">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B850,",'",E850,"',",C850,",'",D850,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A850,B850,"123456789',4,'Süd',2,3100,",B850,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A850,B850,"123456780',6,'Mitte',1,3103,",B850,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(849,'1',3862,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('849123456789',4,'Süd',2,3100,849);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('849123456780',6,'Mitte',1,3103,849);</v>
+        <f t="shared" ref="G850:G881" ca="1" si="1652">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B850,",'",E850,"',",C850,",'",D850,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A850,B850,"123456789',4,'Süd',2,3100,",B850,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A850,B850,"123456780',6,'Mitte',1,3103,",B850,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(849,'1',3862,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'849123456789',4,'Süd',2,3100,849);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'849123456780',6,'Mitte',1,3103,849);</v>
       </c>
     </row>
     <row r="851" spans="2:7" x14ac:dyDescent="0.25">
@@ -32776,8 +32777,8 @@
         <v>427</v>
       </c>
       <c r="G852" s="15" t="str">
-        <f t="shared" ref="G852:G883" ca="1" si="1655">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B852,",'",E852,"',",C852,",'",D852,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A852,B852,"123456789',4,'Süd',2,3100,",B852,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A852,B852,"123456780',6,'Mitte',1,3103,",B852,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(851,'1',3863,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('851123456789',4,'Süd',2,3100,851);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('851123456780',6,'Mitte',1,3103,851);</v>
+        <f t="shared" ref="G852:G883" ca="1" si="1655">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B852,",'",E852,"',",C852,",'",D852,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A852,B852,"123456789',4,'Süd',2,3100,",B852,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A852,B852,"123456780',6,'Mitte',1,3103,",B852,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(851,'1',3863,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'851123456789',4,'Süd',2,3100,851);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'851123456780',6,'Mitte',1,3103,851);</v>
       </c>
     </row>
     <row r="853" spans="2:7" x14ac:dyDescent="0.25">
@@ -32817,8 +32818,8 @@
         <v>428</v>
       </c>
       <c r="G854" s="15" t="str">
-        <f t="shared" ref="G854:G885" ca="1" si="1659">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B854,",'",E854,"',",C854,",'",D854,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A854,B854,"123456789',4,'Süd',2,3100,",B854,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A854,B854,"123456780',6,'Mitte',1,3103,",B854,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(853,'1',3864,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('853123456789',4,'Süd',2,3100,853);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('853123456780',6,'Mitte',1,3103,853);</v>
+        <f t="shared" ref="G854:G885" ca="1" si="1659">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B854,",'",E854,"',",C854,",'",D854,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A854,B854,"123456789',4,'Süd',2,3100,",B854,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A854,B854,"123456780',6,'Mitte',1,3103,",B854,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(853,'1',3864,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'853123456789',4,'Süd',2,3100,853);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'853123456780',6,'Mitte',1,3103,853);</v>
       </c>
     </row>
     <row r="855" spans="2:7" x14ac:dyDescent="0.25">
@@ -32858,8 +32859,8 @@
         <v>429</v>
       </c>
       <c r="G856" s="15" t="str">
-        <f t="shared" ref="G856:G887" ca="1" si="1662">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B856,",'",E856,"',",C856,",'",D856,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A856,B856,"123456789',4,'Süd',2,3100,",B856,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A856,B856,"123456780',6,'Mitte',1,3103,",B856,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(855,'1',4536,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('855123456789',4,'Süd',2,3100,855);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('855123456780',6,'Mitte',1,3103,855);</v>
+        <f t="shared" ref="G856:G887" ca="1" si="1662">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B856,",'",E856,"',",C856,",'",D856,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A856,B856,"123456789',4,'Süd',2,3100,",B856,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A856,B856,"123456780',6,'Mitte',1,3103,",B856,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(855,'1',4536,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'855123456789',4,'Süd',2,3100,855);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'855123456780',6,'Mitte',1,3103,855);</v>
       </c>
     </row>
     <row r="857" spans="2:7" x14ac:dyDescent="0.25">
@@ -32899,8 +32900,8 @@
         <v>430</v>
       </c>
       <c r="G858" s="15" t="str">
-        <f t="shared" ref="G858:G889" ca="1" si="1666">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B858,",'",E858,"',",C858,",'",D858,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A858,B858,"123456789',4,'Süd',2,3100,",B858,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A858,B858,"123456780',6,'Mitte',1,3103,",B858,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(857,'1',4537,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('857123456789',4,'Süd',2,3100,857);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('857123456780',6,'Mitte',1,3103,857);</v>
+        <f t="shared" ref="G858:G889" ca="1" si="1666">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B858,",'",E858,"',",C858,",'",D858,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A858,B858,"123456789',4,'Süd',2,3100,",B858,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A858,B858,"123456780',6,'Mitte',1,3103,",B858,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(857,'1',4537,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'857123456789',4,'Süd',2,3100,857);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'857123456780',6,'Mitte',1,3103,857);</v>
       </c>
     </row>
     <row r="859" spans="2:7" x14ac:dyDescent="0.25">
@@ -32940,8 +32941,8 @@
         <v>431</v>
       </c>
       <c r="G860" s="15" t="str">
-        <f t="shared" ref="G860:G891" ca="1" si="1669">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B860,",'",E860,"',",C860,",'",D860,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A860,B860,"123456789',4,'Süd',2,3100,",B860,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A860,B860,"123456780',6,'Mitte',1,3103,",B860,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(859,'1',4538,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('859123456789',4,'Süd',2,3100,859);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('859123456780',6,'Mitte',1,3103,859);</v>
+        <f t="shared" ref="G860:G891" ca="1" si="1669">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B860,",'",E860,"',",C860,",'",D860,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A860,B860,"123456789',4,'Süd',2,3100,",B860,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A860,B860,"123456780',6,'Mitte',1,3103,",B860,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(859,'1',4538,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'859123456789',4,'Süd',2,3100,859);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'859123456780',6,'Mitte',1,3103,859);</v>
       </c>
     </row>
     <row r="861" spans="2:7" x14ac:dyDescent="0.25">
@@ -32981,8 +32982,8 @@
         <v>432</v>
       </c>
       <c r="G862" s="15" t="str">
-        <f t="shared" ref="G862:G893" ca="1" si="1673">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B862,",'",E862,"',",C862,",'",D862,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A862,B862,"123456789',4,'Süd',2,3100,",B862,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A862,B862,"123456780',6,'Mitte',1,3103,",B862,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(861,'1',4539,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('861123456789',4,'Süd',2,3100,861);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('861123456780',6,'Mitte',1,3103,861);</v>
+        <f t="shared" ref="G862:G893" ca="1" si="1673">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B862,",'",E862,"',",C862,",'",D862,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A862,B862,"123456789',4,'Süd',2,3100,",B862,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A862,B862,"123456780',6,'Mitte',1,3103,",B862,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(861,'1',4539,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'861123456789',4,'Süd',2,3100,861);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'861123456780',6,'Mitte',1,3103,861);</v>
       </c>
     </row>
     <row r="863" spans="2:7" x14ac:dyDescent="0.25">
@@ -33022,8 +33023,8 @@
         <v>433</v>
       </c>
       <c r="G864" s="15" t="str">
-        <f t="shared" ref="G864:G895" ca="1" si="1676">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B864,",'",E864,"',",C864,",'",D864,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A864,B864,"123456789',4,'Süd',2,3100,",B864,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A864,B864,"123456780',6,'Mitte',1,3103,",B864,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(863,'1',4564,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('863123456789',4,'Süd',2,3100,863);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('863123456780',6,'Mitte',1,3103,863);</v>
+        <f t="shared" ref="G864:G895" ca="1" si="1676">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B864,",'",E864,"',",C864,",'",D864,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A864,B864,"123456789',4,'Süd',2,3100,",B864,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A864,B864,"123456780',6,'Mitte',1,3103,",B864,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(863,'1',4564,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'863123456789',4,'Süd',2,3100,863);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'863123456780',6,'Mitte',1,3103,863);</v>
       </c>
     </row>
     <row r="865" spans="2:7" x14ac:dyDescent="0.25">
@@ -33063,8 +33064,8 @@
         <v>434</v>
       </c>
       <c r="G866" s="15" t="str">
-        <f t="shared" ref="G866:G897" ca="1" si="1680">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B866,",'",E866,"',",C866,",'",D866,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A866,B866,"123456789',4,'Süd',2,3100,",B866,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A866,B866,"123456780',6,'Mitte',1,3103,",B866,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(865,'1',4704,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('865123456789',4,'Süd',2,3100,865);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('865123456780',6,'Mitte',1,3103,865);</v>
+        <f t="shared" ref="G866:G897" ca="1" si="1680">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B866,",'",E866,"',",C866,",'",D866,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A866,B866,"123456789',4,'Süd',2,3100,",B866,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A866,B866,"123456780',6,'Mitte',1,3103,",B866,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(865,'1',4704,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'865123456789',4,'Süd',2,3100,865);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'865123456780',6,'Mitte',1,3103,865);</v>
       </c>
     </row>
     <row r="867" spans="2:7" x14ac:dyDescent="0.25">
@@ -33104,8 +33105,8 @@
         <v>435</v>
       </c>
       <c r="G868" s="15" t="str">
-        <f t="shared" ref="G868:G899" ca="1" si="1683">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B868,",'",E868,"',",C868,",'",D868,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A868,B868,"123456789',4,'Süd',2,3100,",B868,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A868,B868,"123456780',6,'Mitte',1,3103,",B868,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(867,'1',4900,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('867123456789',4,'Süd',2,3100,867);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('867123456780',6,'Mitte',1,3103,867);</v>
+        <f t="shared" ref="G868:G899" ca="1" si="1683">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B868,",'",E868,"',",C868,",'",D868,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A868,B868,"123456789',4,'Süd',2,3100,",B868,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A868,B868,"123456780',6,'Mitte',1,3103,",B868,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(867,'1',4900,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'867123456789',4,'Süd',2,3100,867);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'867123456780',6,'Mitte',1,3103,867);</v>
       </c>
     </row>
     <row r="869" spans="2:7" x14ac:dyDescent="0.25">
@@ -33145,8 +33146,8 @@
         <v>436</v>
       </c>
       <c r="G870" s="15" t="str">
-        <f t="shared" ref="G870:G901" ca="1" si="1687">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B870,",'",E870,"',",C870,",'",D870,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A870,B870,"123456789',4,'Süd',2,3100,",B870,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A870,B870,"123456780',6,'Mitte',1,3103,",B870,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(869,'1',4911,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('869123456789',4,'Süd',2,3100,869);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('869123456780',6,'Mitte',1,3103,869);</v>
+        <f t="shared" ref="G870:G901" ca="1" si="1687">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B870,",'",E870,"',",C870,",'",D870,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A870,B870,"123456789',4,'Süd',2,3100,",B870,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A870,B870,"123456780',6,'Mitte',1,3103,",B870,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(869,'1',4911,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'869123456789',4,'Süd',2,3100,869);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'869123456780',6,'Mitte',1,3103,869);</v>
       </c>
     </row>
     <row r="871" spans="2:7" x14ac:dyDescent="0.25">
@@ -33186,8 +33187,8 @@
         <v>437</v>
       </c>
       <c r="G872" s="15" t="str">
-        <f t="shared" ref="G872:G903" ca="1" si="1690">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B872,",'",E872,"',",C872,",'",D872,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A872,B872,"123456789',4,'Süd',2,3100,",B872,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A872,B872,"123456780',6,'Mitte',1,3103,",B872,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(871,'1',4912,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('871123456789',4,'Süd',2,3100,871);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('871123456780',6,'Mitte',1,3103,871);</v>
+        <f t="shared" ref="G872:G903" ca="1" si="1690">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B872,",'",E872,"',",C872,",'",D872,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A872,B872,"123456789',4,'Süd',2,3100,",B872,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A872,B872,"123456780',6,'Mitte',1,3103,",B872,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(871,'1',4912,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'871123456789',4,'Süd',2,3100,871);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'871123456780',6,'Mitte',1,3103,871);</v>
       </c>
     </row>
     <row r="873" spans="2:7" x14ac:dyDescent="0.25">
@@ -33227,8 +33228,8 @@
         <v>438</v>
       </c>
       <c r="G874" s="15" t="str">
-        <f t="shared" ref="G874:G905" ca="1" si="1694">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B874,",'",E874,"',",C874,",'",D874,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A874,B874,"123456789',4,'Süd',2,3100,",B874,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A874,B874,"123456780',6,'Mitte',1,3103,",B874,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(873,'1',4913,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('873123456789',4,'Süd',2,3100,873);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('873123456780',6,'Mitte',1,3103,873);</v>
+        <f t="shared" ref="G874:G905" ca="1" si="1694">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B874,",'",E874,"',",C874,",'",D874,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A874,B874,"123456789',4,'Süd',2,3100,",B874,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A874,B874,"123456780',6,'Mitte',1,3103,",B874,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(873,'1',4913,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'873123456789',4,'Süd',2,3100,873);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'873123456780',6,'Mitte',1,3103,873);</v>
       </c>
     </row>
     <row r="875" spans="2:7" x14ac:dyDescent="0.25">
@@ -33268,8 +33269,8 @@
         <v>439</v>
       </c>
       <c r="G876" s="15" t="str">
-        <f t="shared" ref="G876:G907" ca="1" si="1697">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B876,",'",E876,"',",C876,",'",D876,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A876,B876,"123456789',4,'Süd',2,3100,",B876,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A876,B876,"123456780',6,'Mitte',1,3103,",B876,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(875,'1',4914,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('875123456789',4,'Süd',2,3100,875);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('875123456780',6,'Mitte',1,3103,875);</v>
+        <f t="shared" ref="G876:G907" ca="1" si="1697">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B876,",'",E876,"',",C876,",'",D876,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A876,B876,"123456789',4,'Süd',2,3100,",B876,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A876,B876,"123456780',6,'Mitte',1,3103,",B876,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(875,'1',4914,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'875123456789',4,'Süd',2,3100,875);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'875123456780',6,'Mitte',1,3103,875);</v>
       </c>
     </row>
     <row r="877" spans="2:7" x14ac:dyDescent="0.25">
@@ -33309,8 +33310,8 @@
         <v>440</v>
       </c>
       <c r="G878" s="15" t="str">
-        <f t="shared" ref="G878:G909" ca="1" si="1701">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B878,",'",E878,"',",C878,",'",D878,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A878,B878,"123456789',4,'Süd',2,3100,",B878,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A878,B878,"123456780',6,'Mitte',1,3103,",B878,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(877,'1',4916,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('877123456789',4,'Süd',2,3100,877);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('877123456780',6,'Mitte',1,3103,877);</v>
+        <f t="shared" ref="G878:G909" ca="1" si="1701">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B878,",'",E878,"',",C878,",'",D878,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A878,B878,"123456789',4,'Süd',2,3100,",B878,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A878,B878,"123456780',6,'Mitte',1,3103,",B878,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(877,'1',4916,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'877123456789',4,'Süd',2,3100,877);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'877123456780',6,'Mitte',1,3103,877);</v>
       </c>
     </row>
     <row r="879" spans="2:7" x14ac:dyDescent="0.25">
@@ -33350,8 +33351,8 @@
         <v>441</v>
       </c>
       <c r="G880" s="15" t="str">
-        <f t="shared" ref="G880:G911" ca="1" si="1704">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B880,",'",E880,"',",C880,",'",D880,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A880,B880,"123456789',4,'Süd',2,3100,",B880,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A880,B880,"123456780',6,'Mitte',1,3103,",B880,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(879,'1',4917,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('879123456789',4,'Süd',2,3100,879);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('879123456780',6,'Mitte',1,3103,879);</v>
+        <f t="shared" ref="G880:G911" ca="1" si="1704">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B880,",'",E880,"',",C880,",'",D880,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A880,B880,"123456789',4,'Süd',2,3100,",B880,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A880,B880,"123456780',6,'Mitte',1,3103,",B880,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(879,'1',4917,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'879123456789',4,'Süd',2,3100,879);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'879123456780',6,'Mitte',1,3103,879);</v>
       </c>
     </row>
     <row r="881" spans="2:7" x14ac:dyDescent="0.25">
@@ -33391,8 +33392,8 @@
         <v>442</v>
       </c>
       <c r="G882" s="15" t="str">
-        <f t="shared" ref="G882:G929" ca="1" si="1708">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B882,",'",E882,"',",C882,",'",D882,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A882,B882,"123456789',4,'Süd',2,3100,",B882,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A882,B882,"123456780',6,'Mitte',1,3103,",B882,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(881,'1',4919,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('881123456789',4,'Süd',2,3100,881);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('881123456780',6,'Mitte',1,3103,881);</v>
+        <f t="shared" ref="G882:G929" ca="1" si="1708">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B882,",'",E882,"',",C882,",'",D882,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A882,B882,"123456789',4,'Süd',2,3100,",B882,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A882,B882,"123456780',6,'Mitte',1,3103,",B882,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(881,'1',4919,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'881123456789',4,'Süd',2,3100,881);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'881123456780',6,'Mitte',1,3103,881);</v>
       </c>
     </row>
     <row r="883" spans="2:7" x14ac:dyDescent="0.25">
@@ -33432,8 +33433,8 @@
         <v>443</v>
       </c>
       <c r="G884" s="15" t="str">
-        <f t="shared" ref="G884:G929" ca="1" si="1711">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B884,",'",E884,"',",C884,",'",D884,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A884,B884,"123456789',4,'Süd',2,3100,",B884,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A884,B884,"123456780',6,'Mitte',1,3103,",B884,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(883,'1',4922,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('883123456789',4,'Süd',2,3100,883);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('883123456780',6,'Mitte',1,3103,883);</v>
+        <f t="shared" ref="G884:G929" ca="1" si="1711">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B884,",'",E884,"',",C884,",'",D884,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A884,B884,"123456789',4,'Süd',2,3100,",B884,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A884,B884,"123456780',6,'Mitte',1,3103,",B884,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(883,'1',4922,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'883123456789',4,'Süd',2,3100,883);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'883123456780',6,'Mitte',1,3103,883);</v>
       </c>
     </row>
     <row r="885" spans="2:7" x14ac:dyDescent="0.25">
@@ -33473,8 +33474,8 @@
         <v>444</v>
       </c>
       <c r="G886" s="15" t="str">
-        <f t="shared" ref="G886:G929" ca="1" si="1715">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B886,",'",E886,"',",C886,",'",D886,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A886,B886,"123456789',4,'Süd',2,3100,",B886,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A886,B886,"123456780',6,'Mitte',1,3103,",B886,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(885,'1',4923,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('885123456789',4,'Süd',2,3100,885);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('885123456780',6,'Mitte',1,3103,885);</v>
+        <f t="shared" ref="G886:G929" ca="1" si="1715">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B886,",'",E886,"',",C886,",'",D886,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A886,B886,"123456789',4,'Süd',2,3100,",B886,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A886,B886,"123456780',6,'Mitte',1,3103,",B886,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(885,'1',4923,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'885123456789',4,'Süd',2,3100,885);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'885123456780',6,'Mitte',1,3103,885);</v>
       </c>
     </row>
     <row r="887" spans="2:7" x14ac:dyDescent="0.25">
@@ -33514,8 +33515,8 @@
         <v>445</v>
       </c>
       <c r="G888" s="15" t="str">
-        <f t="shared" ref="G888:G929" ca="1" si="1719">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B888,",'",E888,"',",C888,",'",D888,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A888,B888,"123456789',4,'Süd',2,3100,",B888,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A888,B888,"123456780',6,'Mitte',1,3103,",B888,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(887,'1',4924,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('887123456789',4,'Süd',2,3100,887);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('887123456780',6,'Mitte',1,3103,887);</v>
+        <f t="shared" ref="G888:G929" ca="1" si="1719">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B888,",'",E888,"',",C888,",'",D888,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A888,B888,"123456789',4,'Süd',2,3100,",B888,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A888,B888,"123456780',6,'Mitte',1,3103,",B888,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(887,'1',4924,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'887123456789',4,'Süd',2,3100,887);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'887123456780',6,'Mitte',1,3103,887);</v>
       </c>
     </row>
     <row r="889" spans="2:7" x14ac:dyDescent="0.25">
@@ -33555,8 +33556,8 @@
         <v>446</v>
       </c>
       <c r="G890" s="15" t="str">
-        <f t="shared" ref="G890:G929" ca="1" si="1723">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B890,",'",E890,"',",C890,",'",D890,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A890,B890,"123456789',4,'Süd',2,3100,",B890,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A890,B890,"123456780',6,'Mitte',1,3103,",B890,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(889,'1',4932,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('889123456789',4,'Süd',2,3100,889);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('889123456780',6,'Mitte',1,3103,889);</v>
+        <f t="shared" ref="G890:G929" ca="1" si="1723">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B890,",'",E890,"',",C890,",'",D890,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A890,B890,"123456789',4,'Süd',2,3100,",B890,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A890,B890,"123456780',6,'Mitte',1,3103,",B890,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(889,'1',4932,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'889123456789',4,'Süd',2,3100,889);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'889123456780',6,'Mitte',1,3103,889);</v>
       </c>
     </row>
     <row r="891" spans="2:7" x14ac:dyDescent="0.25">
@@ -33596,8 +33597,8 @@
         <v>447</v>
       </c>
       <c r="G892" s="15" t="str">
-        <f t="shared" ref="G892:G929" ca="1" si="1726">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B892,",'",E892,"',",C892,",'",D892,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A892,B892,"123456789',4,'Süd',2,3100,",B892,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A892,B892,"123456780',6,'Mitte',1,3103,",B892,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(891,'1',4933,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('891123456789',4,'Süd',2,3100,891);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('891123456780',6,'Mitte',1,3103,891);</v>
+        <f t="shared" ref="G892:G929" ca="1" si="1726">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B892,",'",E892,"',",C892,",'",D892,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A892,B892,"123456789',4,'Süd',2,3100,",B892,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A892,B892,"123456780',6,'Mitte',1,3103,",B892,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(891,'1',4933,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'891123456789',4,'Süd',2,3100,891);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'891123456780',6,'Mitte',1,3103,891);</v>
       </c>
     </row>
     <row r="893" spans="2:7" x14ac:dyDescent="0.25">
@@ -33637,8 +33638,8 @@
         <v>448</v>
       </c>
       <c r="G894" s="15" t="str">
-        <f t="shared" ref="G894:G929" ca="1" si="1730">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B894,",'",E894,"',",C894,",'",D894,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A894,B894,"123456789',4,'Süd',2,3100,",B894,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A894,B894,"123456780',6,'Mitte',1,3103,",B894,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(893,'1',4934,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('893123456789',4,'Süd',2,3100,893);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('893123456780',6,'Mitte',1,3103,893);</v>
+        <f t="shared" ref="G894:G929" ca="1" si="1730">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B894,",'",E894,"',",C894,",'",D894,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A894,B894,"123456789',4,'Süd',2,3100,",B894,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A894,B894,"123456780',6,'Mitte',1,3103,",B894,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(893,'1',4934,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'893123456789',4,'Süd',2,3100,893);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'893123456780',6,'Mitte',1,3103,893);</v>
       </c>
     </row>
     <row r="895" spans="2:7" x14ac:dyDescent="0.25">
@@ -33678,8 +33679,8 @@
         <v>449</v>
       </c>
       <c r="G896" s="15" t="str">
-        <f t="shared" ref="G896:G929" ca="1" si="1733">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B896,",'",E896,"',",C896,",'",D896,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A896,B896,"123456789',4,'Süd',2,3100,",B896,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A896,B896,"123456780',6,'Mitte',1,3103,",B896,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(895,'1',4935,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('895123456789',4,'Süd',2,3100,895);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('895123456780',6,'Mitte',1,3103,895);</v>
+        <f t="shared" ref="G896:G929" ca="1" si="1733">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B896,",'",E896,"',",C896,",'",D896,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A896,B896,"123456789',4,'Süd',2,3100,",B896,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A896,B896,"123456780',6,'Mitte',1,3103,",B896,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(895,'1',4935,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'895123456789',4,'Süd',2,3100,895);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'895123456780',6,'Mitte',1,3103,895);</v>
       </c>
     </row>
     <row r="897" spans="2:7" x14ac:dyDescent="0.25">
@@ -33719,8 +33720,8 @@
         <v>450</v>
       </c>
       <c r="G898" s="15" t="str">
-        <f t="shared" ref="G898:G929" ca="1" si="1737">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B898,",'",E898,"',",C898,",'",D898,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A898,B898,"123456789',4,'Süd',2,3100,",B898,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A898,B898,"123456780',6,'Mitte',1,3103,",B898,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(897,'1',4936,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('897123456789',4,'Süd',2,3100,897);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('897123456780',6,'Mitte',1,3103,897);</v>
+        <f t="shared" ref="G898:G929" ca="1" si="1737">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B898,",'",E898,"',",C898,",'",D898,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A898,B898,"123456789',4,'Süd',2,3100,",B898,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A898,B898,"123456780',6,'Mitte',1,3103,",B898,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(897,'1',4936,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'897123456789',4,'Süd',2,3100,897);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'897123456780',6,'Mitte',1,3103,897);</v>
       </c>
     </row>
     <row r="899" spans="2:7" x14ac:dyDescent="0.25">
@@ -33760,8 +33761,8 @@
         <v>451</v>
       </c>
       <c r="G900" s="15" t="str">
-        <f t="shared" ref="G900:G929" ca="1" si="1740">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B900,",'",E900,"',",C900,",'",D900,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A900,B900,"123456789',4,'Süd',2,3100,",B900,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A900,B900,"123456780',6,'Mitte',1,3103,",B900,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(899,'1',4937,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('899123456789',4,'Süd',2,3100,899);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('899123456780',6,'Mitte',1,3103,899);</v>
+        <f t="shared" ref="G900:G929" ca="1" si="1740">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B900,",'",E900,"',",C900,",'",D900,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A900,B900,"123456789',4,'Süd',2,3100,",B900,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A900,B900,"123456780',6,'Mitte',1,3103,",B900,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(899,'1',4937,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'899123456789',4,'Süd',2,3100,899);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'899123456780',6,'Mitte',1,3103,899);</v>
       </c>
     </row>
     <row r="901" spans="2:7" x14ac:dyDescent="0.25">
@@ -33801,8 +33802,8 @@
         <v>452</v>
       </c>
       <c r="G902" s="15" t="str">
-        <f t="shared" ref="G902:G929" ca="1" si="1744">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B902,",'",E902,"',",C902,",'",D902,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A902,B902,"123456789',4,'Süd',2,3100,",B902,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A902,B902,"123456780',6,'Mitte',1,3103,",B902,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(901,'1',4938,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('901123456789',4,'Süd',2,3100,901);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('901123456780',6,'Mitte',1,3103,901);</v>
+        <f t="shared" ref="G902:G929" ca="1" si="1744">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B902,",'",E902,"',",C902,",'",D902,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A902,B902,"123456789',4,'Süd',2,3100,",B902,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A902,B902,"123456780',6,'Mitte',1,3103,",B902,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(901,'1',4938,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'901123456789',4,'Süd',2,3100,901);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'901123456780',6,'Mitte',1,3103,901);</v>
       </c>
     </row>
     <row r="903" spans="2:7" x14ac:dyDescent="0.25">
@@ -33842,8 +33843,8 @@
         <v>453</v>
       </c>
       <c r="G904" s="15" t="str">
-        <f t="shared" ref="G904:G929" ca="1" si="1747">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B904,",'",E904,"',",C904,",'",D904,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A904,B904,"123456789',4,'Süd',2,3100,",B904,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A904,B904,"123456780',6,'Mitte',1,3103,",B904,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(903,'1',4942,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('903123456789',4,'Süd',2,3100,903);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('903123456780',6,'Mitte',1,3103,903);</v>
+        <f t="shared" ref="G904:G929" ca="1" si="1747">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B904,",'",E904,"',",C904,",'",D904,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A904,B904,"123456789',4,'Süd',2,3100,",B904,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A904,B904,"123456780',6,'Mitte',1,3103,",B904,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(903,'1',4942,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'903123456789',4,'Süd',2,3100,903);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'903123456780',6,'Mitte',1,3103,903);</v>
       </c>
     </row>
     <row r="905" spans="2:7" x14ac:dyDescent="0.25">
@@ -33883,8 +33884,8 @@
         <v>454</v>
       </c>
       <c r="G906" s="15" t="str">
-        <f t="shared" ref="G906:G929" ca="1" si="1751">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B906,",'",E906,"',",C906,",'",D906,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A906,B906,"123456789',4,'Süd',2,3100,",B906,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A906,B906,"123456780',6,'Mitte',1,3103,",B906,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(905,'1',4943,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('905123456789',4,'Süd',2,3100,905);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('905123456780',6,'Mitte',1,3103,905);</v>
+        <f t="shared" ref="G906:G929" ca="1" si="1751">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B906,",'",E906,"',",C906,",'",D906,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A906,B906,"123456789',4,'Süd',2,3100,",B906,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A906,B906,"123456780',6,'Mitte',1,3103,",B906,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(905,'1',4943,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'905123456789',4,'Süd',2,3100,905);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'905123456780',6,'Mitte',1,3103,905);</v>
       </c>
     </row>
     <row r="907" spans="2:7" x14ac:dyDescent="0.25">
@@ -33924,8 +33925,8 @@
         <v>455</v>
       </c>
       <c r="G908" s="15" t="str">
-        <f t="shared" ref="G908:G929" ca="1" si="1754">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B908,",'",E908,"',",C908,",'",D908,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A908,B908,"123456789',4,'Süd',2,3100,",B908,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A908,B908,"123456780',6,'Mitte',1,3103,",B908,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(907,'1',4944,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('907123456789',4,'Süd',2,3100,907);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('907123456780',6,'Mitte',1,3103,907);</v>
+        <f t="shared" ref="G908:G929" ca="1" si="1754">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B908,",'",E908,"',",C908,",'",D908,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A908,B908,"123456789',4,'Süd',2,3100,",B908,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A908,B908,"123456780',6,'Mitte',1,3103,",B908,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(907,'1',4944,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'907123456789',4,'Süd',2,3100,907);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'907123456780',6,'Mitte',1,3103,907);</v>
       </c>
     </row>
     <row r="909" spans="2:7" x14ac:dyDescent="0.25">
@@ -33965,8 +33966,8 @@
         <v>456</v>
       </c>
       <c r="G910" s="15" t="str">
-        <f t="shared" ref="G910:G929" ca="1" si="1758">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B910,",'",E910,"',",C910,",'",D910,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A910,B910,"123456789',4,'Süd',2,3100,",B910,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A910,B910,"123456780',6,'Mitte',1,3103,",B910,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(909,'1',4950,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('909123456789',4,'Süd',2,3100,909);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('909123456780',6,'Mitte',1,3103,909);</v>
+        <f t="shared" ref="G910:G929" ca="1" si="1758">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B910,",'",E910,"',",C910,",'",D910,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A910,B910,"123456789',4,'Süd',2,3100,",B910,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A910,B910,"123456780',6,'Mitte',1,3103,",B910,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(909,'1',4950,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'909123456789',4,'Süd',2,3100,909);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'909123456780',6,'Mitte',1,3103,909);</v>
       </c>
     </row>
     <row r="911" spans="2:7" x14ac:dyDescent="0.25">
@@ -34006,8 +34007,8 @@
         <v>457</v>
       </c>
       <c r="G912" s="15" t="str">
-        <f t="shared" ref="G912:G929" ca="1" si="1761">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B912,",'",E912,"',",C912,",'",D912,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A912,B912,"123456789',4,'Süd',2,3100,",B912,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A912,B912,"123456780',6,'Mitte',1,3103,",B912,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(911,'1',4952,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('911123456789',4,'Süd',2,3100,911);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('911123456780',6,'Mitte',1,3103,911);</v>
+        <f t="shared" ref="G912:G929" ca="1" si="1761">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B912,",'",E912,"',",C912,",'",D912,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A912,B912,"123456789',4,'Süd',2,3100,",B912,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A912,B912,"123456780',6,'Mitte',1,3103,",B912,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(911,'1',4952,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'911123456789',4,'Süd',2,3100,911);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'911123456780',6,'Mitte',1,3103,911);</v>
       </c>
     </row>
     <row r="913" spans="2:7" x14ac:dyDescent="0.25">
@@ -34047,8 +34048,8 @@
         <v>458</v>
       </c>
       <c r="G914" s="15" t="str">
-        <f t="shared" ref="G914:G929" ca="1" si="1765">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B914,",'",E914,"',",C914,",'",D914,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A914,B914,"123456789',4,'Süd',2,3100,",B914,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A914,B914,"123456780',6,'Mitte',1,3103,",B914,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(913,'1',4953,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('913123456789',4,'Süd',2,3100,913);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('913123456780',6,'Mitte',1,3103,913);</v>
+        <f t="shared" ref="G914:G929" ca="1" si="1765">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B914,",'",E914,"',",C914,",'",D914,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A914,B914,"123456789',4,'Süd',2,3100,",B914,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A914,B914,"123456780',6,'Mitte',1,3103,",B914,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(913,'1',4953,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'913123456789',4,'Süd',2,3100,913);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'913123456780',6,'Mitte',1,3103,913);</v>
       </c>
     </row>
     <row r="915" spans="2:7" x14ac:dyDescent="0.25">
@@ -34088,8 +34089,8 @@
         <v>459</v>
       </c>
       <c r="G916" s="15" t="str">
-        <f t="shared" ref="G916:G929" ca="1" si="1768">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B916,",'",E916,"',",C916,",'",D916,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A916,B916,"123456789',4,'Süd',2,3100,",B916,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A916,B916,"123456780',6,'Mitte',1,3103,",B916,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(915,'1',4954,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('915123456789',4,'Süd',2,3100,915);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('915123456780',6,'Mitte',1,3103,915);</v>
+        <f t="shared" ref="G916:G929" ca="1" si="1768">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B916,",'",E916,"',",C916,",'",D916,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A916,B916,"123456789',4,'Süd',2,3100,",B916,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A916,B916,"123456780',6,'Mitte',1,3103,",B916,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(915,'1',4954,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'915123456789',4,'Süd',2,3100,915);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'915123456780',6,'Mitte',1,3103,915);</v>
       </c>
     </row>
     <row r="917" spans="2:7" x14ac:dyDescent="0.25">
@@ -34129,8 +34130,8 @@
         <v>460</v>
       </c>
       <c r="G918" s="15" t="str">
-        <f t="shared" ref="G918:G929" ca="1" si="1772">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B918,",'",E918,"',",C918,",'",D918,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A918,B918,"123456789',4,'Süd',2,3100,",B918,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A918,B918,"123456780',6,'Mitte',1,3103,",B918,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(917,'1',4955,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('917123456789',4,'Süd',2,3100,917);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('917123456780',6,'Mitte',1,3103,917);</v>
+        <f t="shared" ref="G918:G929" ca="1" si="1772">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B918,",'",E918,"',",C918,",'",D918,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A918,B918,"123456789',4,'Süd',2,3100,",B918,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A918,B918,"123456780',6,'Mitte',1,3103,",B918,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(917,'1',4955,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'917123456789',4,'Süd',2,3100,917);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'917123456780',6,'Mitte',1,3103,917);</v>
       </c>
     </row>
     <row r="919" spans="2:7" x14ac:dyDescent="0.25">
@@ -34170,8 +34171,8 @@
         <v>461</v>
       </c>
       <c r="G920" s="15" t="str">
-        <f t="shared" ref="G920:G929" ca="1" si="1775">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B920,",'",E920,"',",C920,",'",D920,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A920,B920,"123456789',4,'Süd',2,3100,",B920,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A920,B920,"123456780',6,'Mitte',1,3103,",B920,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(919,'1',6083,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('919123456789',4,'Süd',2,3100,919);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('919123456780',6,'Mitte',1,3103,919);</v>
+        <f t="shared" ref="G920:G929" ca="1" si="1775">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B920,",'",E920,"',",C920,",'",D920,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A920,B920,"123456789',4,'Süd',2,3100,",B920,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A920,B920,"123456780',6,'Mitte',1,3103,",B920,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(919,'1',6083,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'919123456789',4,'Süd',2,3100,919);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'919123456780',6,'Mitte',1,3103,919);</v>
       </c>
     </row>
     <row r="921" spans="2:7" x14ac:dyDescent="0.25">
@@ -34211,8 +34212,8 @@
         <v>462</v>
       </c>
       <c r="G922" s="15" t="str">
-        <f t="shared" ref="G922:G929" ca="1" si="1779">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B922,",'",E922,"',",C922,",'",D922,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A922,B922,"123456789',4,'Süd',2,3100,",B922,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A922,B922,"123456780',6,'Mitte',1,3103,",B922,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(921,'1',6084,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('921123456789',4,'Süd',2,3100,921);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('921123456780',6,'Mitte',1,3103,921);</v>
+        <f t="shared" ref="G922:G929" ca="1" si="1779">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B922,",'",E922,"',",C922,",'",D922,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A922,B922,"123456789',4,'Süd',2,3100,",B922,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A922,B922,"123456780',6,'Mitte',1,3103,",B922,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(921,'1',6084,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'921123456789',4,'Süd',2,3100,921);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'921123456780',6,'Mitte',1,3103,921);</v>
       </c>
     </row>
     <row r="923" spans="2:7" x14ac:dyDescent="0.25">
@@ -34252,8 +34253,8 @@
         <v>463</v>
       </c>
       <c r="G924" s="15" t="str">
-        <f t="shared" ref="G924:G929" ca="1" si="1782">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B924,",'",E924,"',",C924,",'",D924,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A924,B924,"123456789',4,'Süd',2,3100,",B924,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A924,B924,"123456780',6,'Mitte',1,3103,",B924,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(923,'1',6085,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('923123456789',4,'Süd',2,3100,923);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('923123456780',6,'Mitte',1,3103,923);</v>
+        <f t="shared" ref="G924:G929" ca="1" si="1782">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B924,",'",E924,"',",C924,",'",D924,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A924,B924,"123456789',4,'Süd',2,3100,",B924,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A924,B924,"123456780',6,'Mitte',1,3103,",B924,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(923,'1',6085,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'923123456789',4,'Süd',2,3100,923);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'923123456780',6,'Mitte',1,3103,923);</v>
       </c>
     </row>
     <row r="925" spans="2:7" x14ac:dyDescent="0.25">
@@ -34293,8 +34294,8 @@
         <v>464</v>
       </c>
       <c r="G926" s="15" t="str">
-        <f t="shared" ref="G926:G929" ca="1" si="1786">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B926,",'",E926,"',",C926,",'",D926,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A926,B926,"123456789',4,'Süd',2,3100,",B926,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A926,B926,"123456780',6,'Mitte',1,3103,",B926,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(925,'1',6086,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('925123456789',4,'Süd',2,3100,925);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('925123456780',6,'Mitte',1,3103,925);</v>
+        <f t="shared" ref="G926:G929" ca="1" si="1786">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B926,",'",E926,"',",C926,",'",D926,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A926,B926,"123456789',4,'Süd',2,3100,",B926,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A926,B926,"123456780',6,'Mitte',1,3103,",B926,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(925,'1',6086,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'925123456789',4,'Süd',2,3100,925);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'925123456780',6,'Mitte',1,3103,925);</v>
       </c>
     </row>
     <row r="927" spans="2:7" x14ac:dyDescent="0.25">
@@ -34334,8 +34335,8 @@
         <v>465</v>
       </c>
       <c r="G928" s="15" t="str">
-        <f t="shared" ref="G928:G929" ca="1" si="1789">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B928,",'",E928,"',",C928,",'",D928,"'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A928,B928,"123456789',4,'Süd',2,3100,",B928,");  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('",A928,B928,"123456780',6,'Mitte',1,3103,",B928,");")</f>
-        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(927,'1',6197,'Bahnhofstrasse'); INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('927123456789',4,'Süd',2,3100,927);  INSERT INTO WOHNUNG (WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES('927123456780',6,'Mitte',1,3103,927);</v>
+        <f t="shared" ref="G928:G929" ca="1" si="1789">CONCATENATE("INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(",B928,",'",E928,"',",C928,",'",D928,"'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'",A928,B928,"123456789',4,'Süd',2,3100,",B928,");  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'",A928,B928,"123456780',6,'Mitte',1,3103,",B928,");")</f>
+        <v>INSERT INTO GEBAEUDE (EGID,DEINR,DPLZ4,STR_NAME) VALUES(927,'1',6197,'Bahnhofstrasse'); INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(1,'927123456789',4,'Süd',2,3100,927);  INSERT INTO WOHNUNG (EWID,WHG_NR,WAZIM,W_BEZ,W_MEHRG,W_STWK,EGID) VALUES(2,'927123456780',6,'Mitte',1,3103,927);</v>
       </c>
     </row>
     <row r="929" spans="2:7" x14ac:dyDescent="0.25">
